--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,12 +505,21 @@
     <t>['32', '83']</t>
   </si>
   <si>
-    <t>['5', '28', '43', '58', '79', '86']</t>
+    <t>['5', '28', '43', '57', '79', '86']</t>
   </si>
   <si>
     <t>['26']</t>
   </si>
   <si>
+    <t>['79', '90+7']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['4', '25', '90+4']</t>
+  </si>
+  <si>
     <t>['5', '10', '29', '35', '43', '83']</t>
   </si>
   <si>
@@ -692,6 +701,12 @@
   </si>
   <si>
     <t>['20', '52']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['45+1', '61']</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1312,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1575,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT3">
         <v>0.67</v>
@@ -1679,7 +1694,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1766,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT4">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1870,7 +1885,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2061,7 +2076,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2252,7 +2267,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2342,7 +2357,7 @@
         <v>0.83</v>
       </c>
       <c r="AT7">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2634,7 +2649,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2825,7 +2840,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -2912,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT10">
         <v>0.33</v>
@@ -3016,7 +3031,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3207,7 +3222,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3297,7 +3312,7 @@
         <v>1.17</v>
       </c>
       <c r="AT12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3589,7 +3604,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3780,7 +3795,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3971,7 +3986,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4162,7 +4177,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4249,10 +4264,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT17">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4822,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT20">
         <v>0.67</v>
@@ -4926,7 +4941,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5016,7 +5031,7 @@
         <v>1.14</v>
       </c>
       <c r="AT21">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU21">
         <v>0.71</v>
@@ -5117,7 +5132,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5308,7 +5323,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5499,7 +5514,7 @@
         <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5589,7 +5604,7 @@
         <v>0.83</v>
       </c>
       <c r="AT24">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU24">
         <v>2.71</v>
@@ -5968,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT26">
         <v>0.5</v>
@@ -6072,7 +6087,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6263,7 +6278,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6645,7 +6660,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6732,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT30">
         <v>1.67</v>
@@ -7409,7 +7424,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7690,7 +7705,7 @@
         <v>2.33</v>
       </c>
       <c r="AT35">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU35">
         <v>2.88</v>
@@ -7878,10 +7893,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT36">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU36">
         <v>2.88</v>
@@ -7982,7 +7997,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8263,7 +8278,7 @@
         <v>2.17</v>
       </c>
       <c r="AT38">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU38">
         <v>1.43</v>
@@ -8364,7 +8379,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8555,7 +8570,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8746,7 +8761,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8836,7 +8851,7 @@
         <v>0.83</v>
       </c>
       <c r="AT41">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU41">
         <v>2.1</v>
@@ -8937,7 +8952,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9024,7 +9039,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT42">
         <v>1.83</v>
@@ -9128,7 +9143,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9510,7 +9525,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9788,7 +9803,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT46">
         <v>1.71</v>
@@ -9892,7 +9907,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10083,7 +10098,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10173,7 +10188,7 @@
         <v>2.33</v>
       </c>
       <c r="AT48">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU48">
         <v>3.67</v>
@@ -10656,7 +10671,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -10847,7 +10862,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11038,7 +11053,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11125,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT53">
         <v>0</v>
@@ -11316,7 +11331,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT54">
         <v>1.67</v>
@@ -11510,7 +11525,7 @@
         <v>2</v>
       </c>
       <c r="AT55">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU55">
         <v>2.37</v>
@@ -11611,7 +11626,7 @@
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11993,7 +12008,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12375,7 +12390,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>9</v>
@@ -12653,7 +12668,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT61">
         <v>0.5</v>
@@ -12844,7 +12859,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT62">
         <v>0.83</v>
@@ -12948,7 +12963,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13229,7 +13244,7 @@
         <v>1.67</v>
       </c>
       <c r="AT64">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU64">
         <v>2.33</v>
@@ -13521,7 +13536,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13611,7 +13626,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU66">
         <v>1.71</v>
@@ -13903,7 +13918,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14285,7 +14300,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14372,7 +14387,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT70">
         <v>1.5</v>
@@ -14476,7 +14491,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14566,7 +14581,7 @@
         <v>1.17</v>
       </c>
       <c r="AT71">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU71">
         <v>1.39</v>
@@ -14667,7 +14682,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -14757,7 +14772,7 @@
         <v>1.17</v>
       </c>
       <c r="AT72">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>1.51</v>
@@ -14858,7 +14873,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14945,7 +14960,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT73">
         <v>1.5</v>
@@ -15049,7 +15064,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15431,7 +15446,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -15622,7 +15637,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16004,7 +16019,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16195,7 +16210,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16282,7 +16297,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16386,7 +16401,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16476,7 +16491,7 @@
         <v>1.17</v>
       </c>
       <c r="AT81">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU81">
         <v>1.55</v>
@@ -16577,7 +16592,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16768,7 +16783,7 @@
         <v>88</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16855,10 +16870,10 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT83">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>1.86</v>
@@ -16959,7 +16974,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>7</v>
@@ -17150,7 +17165,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17240,7 +17255,7 @@
         <v>1.5</v>
       </c>
       <c r="AT85">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU85">
         <v>1.79</v>
@@ -17341,7 +17356,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17532,7 +17547,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17723,7 +17738,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17914,7 +17929,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18001,7 +18016,7 @@
         <v>2.25</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT89">
         <v>1.5</v>
@@ -18192,7 +18207,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT90">
         <v>1.5</v>
@@ -18386,7 +18401,7 @@
         <v>2.33</v>
       </c>
       <c r="AT91">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -18678,7 +18693,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19060,7 +19075,7 @@
         <v>88</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19251,7 +19266,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19532,7 +19547,7 @@
         <v>2.17</v>
       </c>
       <c r="AT97">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU97">
         <v>1.65</v>
@@ -19633,7 +19648,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19720,7 +19735,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT98">
         <v>2</v>
@@ -19824,7 +19839,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20397,7 +20412,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20970,7 +20985,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21161,7 +21176,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21303,6 +21318,770 @@
       </c>
       <c r="BK106">
         <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2710038</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44864.47916666666</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>66</v>
+      </c>
+      <c r="H107" t="s">
+        <v>67</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>165</v>
+      </c>
+      <c r="P107" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q107">
+        <v>6</v>
+      </c>
+      <c r="R107">
+        <v>5</v>
+      </c>
+      <c r="S107">
+        <v>11</v>
+      </c>
+      <c r="T107">
+        <v>2.63</v>
+      </c>
+      <c r="U107">
+        <v>2.2</v>
+      </c>
+      <c r="V107">
+        <v>4</v>
+      </c>
+      <c r="W107">
+        <v>1.36</v>
+      </c>
+      <c r="X107">
+        <v>3</v>
+      </c>
+      <c r="Y107">
+        <v>2.75</v>
+      </c>
+      <c r="Z107">
+        <v>1.4</v>
+      </c>
+      <c r="AA107">
+        <v>7</v>
+      </c>
+      <c r="AB107">
+        <v>1.1</v>
+      </c>
+      <c r="AC107">
+        <v>2.16</v>
+      </c>
+      <c r="AD107">
+        <v>3.3</v>
+      </c>
+      <c r="AE107">
+        <v>3.5</v>
+      </c>
+      <c r="AF107">
+        <v>1.05</v>
+      </c>
+      <c r="AG107">
+        <v>9.5</v>
+      </c>
+      <c r="AH107">
+        <v>1.27</v>
+      </c>
+      <c r="AI107">
+        <v>3.5</v>
+      </c>
+      <c r="AJ107">
+        <v>1.87</v>
+      </c>
+      <c r="AK107">
+        <v>1.93</v>
+      </c>
+      <c r="AL107">
+        <v>1.7</v>
+      </c>
+      <c r="AM107">
+        <v>2.05</v>
+      </c>
+      <c r="AN107">
+        <v>1.31</v>
+      </c>
+      <c r="AO107">
+        <v>1.3</v>
+      </c>
+      <c r="AP107">
+        <v>1.7</v>
+      </c>
+      <c r="AQ107">
+        <v>2.6</v>
+      </c>
+      <c r="AR107">
+        <v>0.8</v>
+      </c>
+      <c r="AS107">
+        <v>2.67</v>
+      </c>
+      <c r="AT107">
+        <v>0.67</v>
+      </c>
+      <c r="AU107">
+        <v>1.29</v>
+      </c>
+      <c r="AV107">
+        <v>1.47</v>
+      </c>
+      <c r="AW107">
+        <v>2.76</v>
+      </c>
+      <c r="AX107">
+        <v>1.71</v>
+      </c>
+      <c r="AY107">
+        <v>7.8</v>
+      </c>
+      <c r="AZ107">
+        <v>2.67</v>
+      </c>
+      <c r="BA107">
+        <v>1.27</v>
+      </c>
+      <c r="BB107">
+        <v>1.53</v>
+      </c>
+      <c r="BC107">
+        <v>1.94</v>
+      </c>
+      <c r="BD107">
+        <v>2.53</v>
+      </c>
+      <c r="BE107">
+        <v>3.42</v>
+      </c>
+      <c r="BF107">
+        <v>8</v>
+      </c>
+      <c r="BG107">
+        <v>4</v>
+      </c>
+      <c r="BH107">
+        <v>11</v>
+      </c>
+      <c r="BI107">
+        <v>3</v>
+      </c>
+      <c r="BJ107">
+        <v>19</v>
+      </c>
+      <c r="BK107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2710043</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44864.5625</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>80</v>
+      </c>
+      <c r="H108" t="s">
+        <v>74</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>88</v>
+      </c>
+      <c r="P108" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q108">
+        <v>4</v>
+      </c>
+      <c r="R108">
+        <v>8</v>
+      </c>
+      <c r="S108">
+        <v>12</v>
+      </c>
+      <c r="T108">
+        <v>4</v>
+      </c>
+      <c r="U108">
+        <v>2.3</v>
+      </c>
+      <c r="V108">
+        <v>2.5</v>
+      </c>
+      <c r="W108">
+        <v>1.33</v>
+      </c>
+      <c r="X108">
+        <v>3.25</v>
+      </c>
+      <c r="Y108">
+        <v>2.63</v>
+      </c>
+      <c r="Z108">
+        <v>1.44</v>
+      </c>
+      <c r="AA108">
+        <v>6.5</v>
+      </c>
+      <c r="AB108">
+        <v>1.11</v>
+      </c>
+      <c r="AC108">
+        <v>3.9</v>
+      </c>
+      <c r="AD108">
+        <v>3.8</v>
+      </c>
+      <c r="AE108">
+        <v>1.92</v>
+      </c>
+      <c r="AF108">
+        <v>1.04</v>
+      </c>
+      <c r="AG108">
+        <v>13</v>
+      </c>
+      <c r="AH108">
+        <v>1.25</v>
+      </c>
+      <c r="AI108">
+        <v>4</v>
+      </c>
+      <c r="AJ108">
+        <v>1.73</v>
+      </c>
+      <c r="AK108">
+        <v>2.03</v>
+      </c>
+      <c r="AL108">
+        <v>1.67</v>
+      </c>
+      <c r="AM108">
+        <v>2.1</v>
+      </c>
+      <c r="AN108">
+        <v>1.88</v>
+      </c>
+      <c r="AO108">
+        <v>1.27</v>
+      </c>
+      <c r="AP108">
+        <v>1.24</v>
+      </c>
+      <c r="AQ108">
+        <v>0.8</v>
+      </c>
+      <c r="AR108">
+        <v>1.83</v>
+      </c>
+      <c r="AS108">
+        <v>0.67</v>
+      </c>
+      <c r="AT108">
+        <v>2</v>
+      </c>
+      <c r="AU108">
+        <v>1.82</v>
+      </c>
+      <c r="AV108">
+        <v>1.39</v>
+      </c>
+      <c r="AW108">
+        <v>3.21</v>
+      </c>
+      <c r="AX108">
+        <v>2.62</v>
+      </c>
+      <c r="AY108">
+        <v>7.9</v>
+      </c>
+      <c r="AZ108">
+        <v>1.73</v>
+      </c>
+      <c r="BA108">
+        <v>1.22</v>
+      </c>
+      <c r="BB108">
+        <v>1.45</v>
+      </c>
+      <c r="BC108">
+        <v>1.82</v>
+      </c>
+      <c r="BD108">
+        <v>2.3</v>
+      </c>
+      <c r="BE108">
+        <v>3.08</v>
+      </c>
+      <c r="BF108">
+        <v>4</v>
+      </c>
+      <c r="BG108">
+        <v>9</v>
+      </c>
+      <c r="BH108">
+        <v>9</v>
+      </c>
+      <c r="BI108">
+        <v>12</v>
+      </c>
+      <c r="BJ108">
+        <v>13</v>
+      </c>
+      <c r="BK108">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2710039</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44864.64583333334</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>73</v>
+      </c>
+      <c r="H109" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>166</v>
+      </c>
+      <c r="P109" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q109">
+        <v>5</v>
+      </c>
+      <c r="R109">
+        <v>4</v>
+      </c>
+      <c r="S109">
+        <v>9</v>
+      </c>
+      <c r="T109">
+        <v>3</v>
+      </c>
+      <c r="U109">
+        <v>2.4</v>
+      </c>
+      <c r="V109">
+        <v>3</v>
+      </c>
+      <c r="W109">
+        <v>1.29</v>
+      </c>
+      <c r="X109">
+        <v>3.5</v>
+      </c>
+      <c r="Y109">
+        <v>2.25</v>
+      </c>
+      <c r="Z109">
+        <v>1.57</v>
+      </c>
+      <c r="AA109">
+        <v>5.5</v>
+      </c>
+      <c r="AB109">
+        <v>1.14</v>
+      </c>
+      <c r="AC109">
+        <v>3.2</v>
+      </c>
+      <c r="AD109">
+        <v>3.7</v>
+      </c>
+      <c r="AE109">
+        <v>2.17</v>
+      </c>
+      <c r="AF109">
+        <v>1.03</v>
+      </c>
+      <c r="AG109">
+        <v>17</v>
+      </c>
+      <c r="AH109">
+        <v>1.18</v>
+      </c>
+      <c r="AI109">
+        <v>5</v>
+      </c>
+      <c r="AJ109">
+        <v>1.57</v>
+      </c>
+      <c r="AK109">
+        <v>2.31</v>
+      </c>
+      <c r="AL109">
+        <v>1.44</v>
+      </c>
+      <c r="AM109">
+        <v>2.63</v>
+      </c>
+      <c r="AN109">
+        <v>1.49</v>
+      </c>
+      <c r="AO109">
+        <v>1.3</v>
+      </c>
+      <c r="AP109">
+        <v>1.46</v>
+      </c>
+      <c r="AQ109">
+        <v>2</v>
+      </c>
+      <c r="AR109">
+        <v>1.4</v>
+      </c>
+      <c r="AS109">
+        <v>1.83</v>
+      </c>
+      <c r="AT109">
+        <v>1.33</v>
+      </c>
+      <c r="AU109">
+        <v>1.95</v>
+      </c>
+      <c r="AV109">
+        <v>1.28</v>
+      </c>
+      <c r="AW109">
+        <v>3.23</v>
+      </c>
+      <c r="AX109">
+        <v>2.17</v>
+      </c>
+      <c r="AY109">
+        <v>7.8</v>
+      </c>
+      <c r="AZ109">
+        <v>2.01</v>
+      </c>
+      <c r="BA109">
+        <v>1.17</v>
+      </c>
+      <c r="BB109">
+        <v>1.34</v>
+      </c>
+      <c r="BC109">
+        <v>1.65</v>
+      </c>
+      <c r="BD109">
+        <v>2.09</v>
+      </c>
+      <c r="BE109">
+        <v>2.77</v>
+      </c>
+      <c r="BF109">
+        <v>5</v>
+      </c>
+      <c r="BG109">
+        <v>2</v>
+      </c>
+      <c r="BH109">
+        <v>8</v>
+      </c>
+      <c r="BI109">
+        <v>5</v>
+      </c>
+      <c r="BJ109">
+        <v>13</v>
+      </c>
+      <c r="BK109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2710050</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44869.6875</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>67</v>
+      </c>
+      <c r="H110" t="s">
+        <v>72</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110" t="s">
+        <v>167</v>
+      </c>
+      <c r="P110" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q110">
+        <v>3</v>
+      </c>
+      <c r="R110">
+        <v>5</v>
+      </c>
+      <c r="S110">
+        <v>8</v>
+      </c>
+      <c r="T110">
+        <v>2.6</v>
+      </c>
+      <c r="U110">
+        <v>2.4</v>
+      </c>
+      <c r="V110">
+        <v>3.6</v>
+      </c>
+      <c r="W110">
+        <v>1.25</v>
+      </c>
+      <c r="X110">
+        <v>3.75</v>
+      </c>
+      <c r="Y110">
+        <v>2.25</v>
+      </c>
+      <c r="Z110">
+        <v>1.57</v>
+      </c>
+      <c r="AA110">
+        <v>5.5</v>
+      </c>
+      <c r="AB110">
+        <v>1.14</v>
+      </c>
+      <c r="AC110">
+        <v>1.95</v>
+      </c>
+      <c r="AD110">
+        <v>3.9</v>
+      </c>
+      <c r="AE110">
+        <v>3.25</v>
+      </c>
+      <c r="AF110">
+        <v>1.02</v>
+      </c>
+      <c r="AG110">
+        <v>21</v>
+      </c>
+      <c r="AH110">
+        <v>1.18</v>
+      </c>
+      <c r="AI110">
+        <v>5</v>
+      </c>
+      <c r="AJ110">
+        <v>1.55</v>
+      </c>
+      <c r="AK110">
+        <v>2.4</v>
+      </c>
+      <c r="AL110">
+        <v>1.5</v>
+      </c>
+      <c r="AM110">
+        <v>2.5</v>
+      </c>
+      <c r="AN110">
+        <v>1.32</v>
+      </c>
+      <c r="AO110">
+        <v>1.25</v>
+      </c>
+      <c r="AP110">
+        <v>1.75</v>
+      </c>
+      <c r="AQ110">
+        <v>2</v>
+      </c>
+      <c r="AR110">
+        <v>0.6</v>
+      </c>
+      <c r="AS110">
+        <v>2.14</v>
+      </c>
+      <c r="AT110">
+        <v>0.5</v>
+      </c>
+      <c r="AU110">
+        <v>1.58</v>
+      </c>
+      <c r="AV110">
+        <v>1.55</v>
+      </c>
+      <c r="AW110">
+        <v>3.13</v>
+      </c>
+      <c r="AX110">
+        <v>1.67</v>
+      </c>
+      <c r="AY110">
+        <v>7.9</v>
+      </c>
+      <c r="AZ110">
+        <v>2.76</v>
+      </c>
+      <c r="BA110">
+        <v>1.24</v>
+      </c>
+      <c r="BB110">
+        <v>1.47</v>
+      </c>
+      <c r="BC110">
+        <v>1.85</v>
+      </c>
+      <c r="BD110">
+        <v>2.35</v>
+      </c>
+      <c r="BE110">
+        <v>3.18</v>
+      </c>
+      <c r="BF110">
+        <v>6</v>
+      </c>
+      <c r="BG110">
+        <v>5</v>
+      </c>
+      <c r="BH110">
+        <v>7</v>
+      </c>
+      <c r="BI110">
+        <v>11</v>
+      </c>
+      <c r="BJ110">
+        <v>13</v>
+      </c>
+      <c r="BK110">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,72 @@
     <t>['4', '25', '90+4']</t>
   </si>
   <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['40', '45']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['8', '12', '45+2']</t>
+  </si>
+  <si>
+    <t>['30', '76']</t>
+  </si>
+  <si>
+    <t>['46', '56', '58', '68', '76']</t>
+  </si>
+  <si>
+    <t>['53', '64']</t>
+  </si>
+  <si>
+    <t>['6', '90+1']</t>
+  </si>
+  <si>
+    <t>['6', '22', '26', '28', '82', '84']</t>
+  </si>
+  <si>
+    <t>['7', '12']</t>
+  </si>
+  <si>
+    <t>['3', '90+8']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['54', '56', '78']</t>
+  </si>
+  <si>
+    <t>['7', '22']</t>
+  </si>
+  <si>
+    <t>['6', '8', '29', '56']</t>
+  </si>
+  <si>
+    <t>['4', '26', '30', '46']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['30', '82']</t>
+  </si>
+  <si>
+    <t>['9', '54']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['4', '6', '20', '45+1']</t>
+  </si>
+  <si>
     <t>['5', '10', '29', '35', '43', '83']</t>
   </si>
   <si>
@@ -619,9 +685,6 @@
     <t>['51']</t>
   </si>
   <si>
-    <t>['30']</t>
-  </si>
-  <si>
     <t>['6', '55', '88']</t>
   </si>
   <si>
@@ -659,9 +722,6 @@
   </si>
   <si>
     <t>['11', '45+2', '59']</t>
-  </si>
-  <si>
-    <t>['56']</t>
   </si>
   <si>
     <t>['13', '47']</t>
@@ -707,6 +767,60 @@
   </si>
   <si>
     <t>['45+1', '61']</t>
+  </si>
+  <si>
+    <t>['13', '64']</t>
+  </si>
+  <si>
+    <t>['12', '37', '38']</t>
+  </si>
+  <si>
+    <t>['17', '57', '69']</t>
+  </si>
+  <si>
+    <t>['33', '70', '84']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['65', '71']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['8', '39']</t>
+  </si>
+  <si>
+    <t>['37', '46']</t>
+  </si>
+  <si>
+    <t>['19', '40']</t>
+  </si>
+  <si>
+    <t>['13', '70']</t>
+  </si>
+  <si>
+    <t>['45+4', '56']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['38', '52']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK110"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1426,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1399,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT2">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1590,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT3">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1694,7 +1808,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1781,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT4">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1885,7 +1999,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1972,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT5">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2076,7 +2190,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2163,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT6">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2267,7 +2381,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2354,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT7">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2545,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2649,7 +2763,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2736,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2840,7 +2954,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -2927,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT10">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3031,7 +3145,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3118,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3222,7 +3336,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3309,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT12">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3500,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT13">
         <v>2</v>
@@ -3604,7 +3718,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3691,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT14">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3795,7 +3909,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3882,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3986,7 +4100,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4073,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4177,7 +4291,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4264,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AT17">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4455,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4646,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT19">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4837,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT20">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU20">
         <v>1.02</v>
@@ -4941,7 +5055,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5028,10 +5142,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU21">
         <v>0.71</v>
@@ -5132,7 +5246,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5219,10 +5333,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT22">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU22">
         <v>1.15</v>
@@ -5323,7 +5437,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5410,10 +5524,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT23">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU23">
         <v>1.75</v>
@@ -5514,7 +5628,7 @@
         <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5601,10 +5715,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT24">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU24">
         <v>2.71</v>
@@ -5792,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT25">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU25">
         <v>1.34</v>
@@ -5983,10 +6097,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU26">
         <v>0.86</v>
@@ -6087,7 +6201,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6174,10 +6288,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU27">
         <v>1.21</v>
@@ -6278,7 +6392,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6365,10 +6479,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT28">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU28">
         <v>1.45</v>
@@ -6556,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU29">
         <v>2.15</v>
@@ -6660,7 +6774,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6747,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AT30">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU30">
         <v>1.48</v>
@@ -6938,10 +7052,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU31">
         <v>1.46</v>
@@ -7129,10 +7243,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU32">
         <v>2.63</v>
@@ -7320,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT33">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AU33">
         <v>1.76</v>
@@ -7424,7 +7538,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7511,10 +7625,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>1.43</v>
@@ -7702,10 +7816,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT35">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU35">
         <v>2.88</v>
@@ -7893,10 +8007,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT36">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU36">
         <v>2.88</v>
@@ -7997,7 +8111,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8084,7 +8198,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT37">
         <v>2</v>
@@ -8275,10 +8389,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT38">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU38">
         <v>1.43</v>
@@ -8379,7 +8493,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8466,10 +8580,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT39">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU39">
         <v>1.5</v>
@@ -8570,7 +8684,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8657,10 +8771,10 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT40">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU40">
         <v>1.59</v>
@@ -8761,7 +8875,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8848,10 +8962,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT41">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU41">
         <v>2.1</v>
@@ -8952,7 +9066,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9039,10 +9153,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT42">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU42">
         <v>0.98</v>
@@ -9143,7 +9257,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9230,10 +9344,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU43">
         <v>1.89</v>
@@ -9421,10 +9535,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT44">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU44">
         <v>1.33</v>
@@ -9525,7 +9639,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9612,10 +9726,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT45">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU45">
         <v>1.02</v>
@@ -9803,10 +9917,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT46">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU46">
         <v>1.38</v>
@@ -9907,7 +10021,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9994,10 +10108,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT47">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU47">
         <v>1.19</v>
@@ -10098,7 +10212,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10185,10 +10299,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU48">
         <v>3.67</v>
@@ -10376,10 +10490,10 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU49">
         <v>1.91</v>
@@ -10567,10 +10681,10 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT50">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU50">
         <v>2.42</v>
@@ -10671,7 +10785,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -10758,10 +10872,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT51">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AU51">
         <v>1.6</v>
@@ -10862,7 +10976,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10949,10 +11063,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT52">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>1.27</v>
@@ -11053,7 +11167,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11140,10 +11254,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AT53">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU53">
         <v>1.65</v>
@@ -11331,10 +11445,10 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT54">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU54">
         <v>1.93</v>
@@ -11522,10 +11636,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT55">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU55">
         <v>2.37</v>
@@ -11626,7 +11740,7 @@
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11713,10 +11827,10 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT56">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU56">
         <v>1.61</v>
@@ -11904,10 +12018,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT57">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU57">
         <v>1.51</v>
@@ -12008,7 +12122,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12095,7 +12209,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT58">
         <v>2</v>
@@ -12286,10 +12400,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT59">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU59">
         <v>1.1</v>
@@ -12390,7 +12504,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>9</v>
@@ -12477,10 +12591,10 @@
         <v>2.33</v>
       </c>
       <c r="AS60">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT60">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU60">
         <v>2.01</v>
@@ -12668,10 +12782,10 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT61">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -12859,10 +12973,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT62">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AU62">
         <v>1</v>
@@ -12963,7 +13077,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13050,10 +13164,10 @@
         <v>1.67</v>
       </c>
       <c r="AS63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU63">
         <v>1.94</v>
@@ -13241,10 +13355,10 @@
         <v>3</v>
       </c>
       <c r="AS64">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU64">
         <v>2.33</v>
@@ -13432,10 +13546,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT65">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>3.09</v>
@@ -13536,7 +13650,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13623,10 +13737,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT66">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU66">
         <v>1.71</v>
@@ -13814,10 +13928,10 @@
         <v>2.33</v>
       </c>
       <c r="AS67">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT67">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -13918,7 +14032,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14005,10 +14119,10 @@
         <v>2.25</v>
       </c>
       <c r="AS68">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT68">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU68">
         <v>2.23</v>
@@ -14196,10 +14310,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT69">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU69">
         <v>1.85</v>
@@ -14300,7 +14414,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14387,10 +14501,10 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT70">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU70">
         <v>1.76</v>
@@ -14491,7 +14605,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14578,10 +14692,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU71">
         <v>1.39</v>
@@ -14682,7 +14796,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -14769,10 +14883,10 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU72">
         <v>1.51</v>
@@ -14873,7 +14987,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14960,10 +15074,10 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU73">
         <v>1.78</v>
@@ -15064,7 +15178,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15151,10 +15265,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT74">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU74">
         <v>2.06</v>
@@ -15342,7 +15456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT75">
         <v>2</v>
@@ -15446,7 +15560,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -15533,10 +15647,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT76">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AU76">
         <v>1.18</v>
@@ -15637,7 +15751,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15724,10 +15838,10 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT77">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU77">
         <v>1.52</v>
@@ -15915,10 +16029,10 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT78">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU78">
         <v>2.08</v>
@@ -16019,7 +16133,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16106,10 +16220,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT79">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU79">
         <v>1.66</v>
@@ -16210,7 +16324,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16297,10 +16411,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU80">
         <v>1.65</v>
@@ -16401,7 +16515,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16488,10 +16602,10 @@
         <v>2.5</v>
       </c>
       <c r="AS81">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU81">
         <v>1.55</v>
@@ -16592,7 +16706,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16679,10 +16793,10 @@
         <v>1.75</v>
       </c>
       <c r="AS82">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT82">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -16783,7 +16897,7 @@
         <v>88</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16870,10 +16984,10 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AT83">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU83">
         <v>1.86</v>
@@ -16974,7 +17088,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="Q84">
         <v>7</v>
@@ -17061,10 +17175,10 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT84">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.47</v>
@@ -17165,7 +17279,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17252,10 +17366,10 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT85">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU85">
         <v>1.79</v>
@@ -17356,7 +17470,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17443,10 +17557,10 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT86">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU86">
         <v>1.38</v>
@@ -17547,7 +17661,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17634,10 +17748,10 @@
         <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -17738,7 +17852,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17825,10 +17939,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT88">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU88">
         <v>1.96</v>
@@ -17929,7 +18043,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18016,10 +18130,10 @@
         <v>2.25</v>
       </c>
       <c r="AS89">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT89">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU89">
         <v>1.93</v>
@@ -18207,10 +18321,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT90">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU90">
         <v>1.19</v>
@@ -18398,10 +18512,10 @@
         <v>2.2</v>
       </c>
       <c r="AS91">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -18589,10 +18703,10 @@
         <v>1.2</v>
       </c>
       <c r="AS92">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT92">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU92">
         <v>1.47</v>
@@ -18693,7 +18807,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18780,10 +18894,10 @@
         <v>0.8</v>
       </c>
       <c r="AS93">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT93">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AU93">
         <v>2.02</v>
@@ -18971,10 +19085,10 @@
         <v>2.2</v>
       </c>
       <c r="AS94">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT94">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU94">
         <v>2.12</v>
@@ -19075,7 +19189,7 @@
         <v>88</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19162,10 +19276,10 @@
         <v>1.6</v>
       </c>
       <c r="AS95">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT95">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU95">
         <v>2.05</v>
@@ -19266,7 +19380,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19353,10 +19467,10 @@
         <v>0.4</v>
       </c>
       <c r="AS96">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="AT96">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU96">
         <v>1.35</v>
@@ -19544,10 +19658,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT97">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU97">
         <v>1.65</v>
@@ -19648,7 +19762,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19735,7 +19849,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT98">
         <v>2</v>
@@ -19839,7 +19953,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -19926,10 +20040,10 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT99">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU99">
         <v>1.71</v>
@@ -20117,10 +20231,10 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT100">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU100">
         <v>1.53</v>
@@ -20308,10 +20422,10 @@
         <v>0.8</v>
       </c>
       <c r="AS101">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT101">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU101">
         <v>1.52</v>
@@ -20412,7 +20526,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20499,10 +20613,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT102">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU102">
         <v>1.49</v>
@@ -20690,10 +20804,10 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT103">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU103">
         <v>1.78</v>
@@ -20881,10 +20995,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT104">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU104">
         <v>1.95</v>
@@ -20985,7 +21099,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21072,10 +21186,10 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT105">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU105">
         <v>2.81</v>
@@ -21176,7 +21290,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21263,10 +21377,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT106">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21367,7 +21481,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21454,10 +21568,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT107">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21558,7 +21672,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21645,10 +21759,10 @@
         <v>1.83</v>
       </c>
       <c r="AS108">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AT108">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU108">
         <v>1.82</v>
@@ -21836,10 +21950,10 @@
         <v>1.4</v>
       </c>
       <c r="AS109">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT109">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU109">
         <v>1.95</v>
@@ -22027,10 +22141,10 @@
         <v>0.6</v>
       </c>
       <c r="AS110">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT110">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU110">
         <v>1.58</v>
@@ -22082,6 +22196,4972 @@
       </c>
       <c r="BK110">
         <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2710051</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44870.47916666666</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>70</v>
+      </c>
+      <c r="H111" t="s">
+        <v>65</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>168</v>
+      </c>
+      <c r="P111" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q111">
+        <v>3</v>
+      </c>
+      <c r="R111">
+        <v>6</v>
+      </c>
+      <c r="S111">
+        <v>9</v>
+      </c>
+      <c r="T111">
+        <v>4.33</v>
+      </c>
+      <c r="U111">
+        <v>2.4</v>
+      </c>
+      <c r="V111">
+        <v>2.3</v>
+      </c>
+      <c r="W111">
+        <v>1.29</v>
+      </c>
+      <c r="X111">
+        <v>3.5</v>
+      </c>
+      <c r="Y111">
+        <v>2.25</v>
+      </c>
+      <c r="Z111">
+        <v>1.57</v>
+      </c>
+      <c r="AA111">
+        <v>5.5</v>
+      </c>
+      <c r="AB111">
+        <v>1.14</v>
+      </c>
+      <c r="AC111">
+        <v>2.8</v>
+      </c>
+      <c r="AD111">
+        <v>3.65</v>
+      </c>
+      <c r="AE111">
+        <v>2.23</v>
+      </c>
+      <c r="AF111">
+        <v>1.02</v>
+      </c>
+      <c r="AG111">
+        <v>17</v>
+      </c>
+      <c r="AH111">
+        <v>1.19</v>
+      </c>
+      <c r="AI111">
+        <v>4.75</v>
+      </c>
+      <c r="AJ111">
+        <v>1.6</v>
+      </c>
+      <c r="AK111">
+        <v>2.3</v>
+      </c>
+      <c r="AL111">
+        <v>1.57</v>
+      </c>
+      <c r="AM111">
+        <v>2.25</v>
+      </c>
+      <c r="AN111">
+        <v>2.1</v>
+      </c>
+      <c r="AO111">
+        <v>1.2</v>
+      </c>
+      <c r="AP111">
+        <v>1.22</v>
+      </c>
+      <c r="AQ111">
+        <v>0.83</v>
+      </c>
+      <c r="AR111">
+        <v>2</v>
+      </c>
+      <c r="AS111">
+        <v>0.63</v>
+      </c>
+      <c r="AT111">
+        <v>2</v>
+      </c>
+      <c r="AU111">
+        <v>1.29</v>
+      </c>
+      <c r="AV111">
+        <v>1.6</v>
+      </c>
+      <c r="AW111">
+        <v>2.89</v>
+      </c>
+      <c r="AX111">
+        <v>3.45</v>
+      </c>
+      <c r="AY111">
+        <v>8.5</v>
+      </c>
+      <c r="AZ111">
+        <v>1.47</v>
+      </c>
+      <c r="BA111">
+        <v>1.2</v>
+      </c>
+      <c r="BB111">
+        <v>1.41</v>
+      </c>
+      <c r="BC111">
+        <v>1.75</v>
+      </c>
+      <c r="BD111">
+        <v>2.2</v>
+      </c>
+      <c r="BE111">
+        <v>2.91</v>
+      </c>
+      <c r="BF111">
+        <v>5</v>
+      </c>
+      <c r="BG111">
+        <v>8</v>
+      </c>
+      <c r="BH111">
+        <v>5</v>
+      </c>
+      <c r="BI111">
+        <v>5</v>
+      </c>
+      <c r="BJ111">
+        <v>10</v>
+      </c>
+      <c r="BK111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2710052</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44870.47916666666</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s">
+        <v>82</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>3</v>
+      </c>
+      <c r="K112">
+        <v>5</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112" t="s">
+        <v>169</v>
+      </c>
+      <c r="P112" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q112">
+        <v>2</v>
+      </c>
+      <c r="R112">
+        <v>7</v>
+      </c>
+      <c r="S112">
+        <v>9</v>
+      </c>
+      <c r="T112">
+        <v>7</v>
+      </c>
+      <c r="U112">
+        <v>3</v>
+      </c>
+      <c r="V112">
+        <v>1.67</v>
+      </c>
+      <c r="W112">
+        <v>1.18</v>
+      </c>
+      <c r="X112">
+        <v>4.5</v>
+      </c>
+      <c r="Y112">
+        <v>1.83</v>
+      </c>
+      <c r="Z112">
+        <v>1.83</v>
+      </c>
+      <c r="AA112">
+        <v>3.75</v>
+      </c>
+      <c r="AB112">
+        <v>1.25</v>
+      </c>
+      <c r="AC112">
+        <v>7.2</v>
+      </c>
+      <c r="AD112">
+        <v>5.8</v>
+      </c>
+      <c r="AE112">
+        <v>1.31</v>
+      </c>
+      <c r="AF112">
+        <v>1.02</v>
+      </c>
+      <c r="AG112">
+        <v>29</v>
+      </c>
+      <c r="AH112">
+        <v>1.09</v>
+      </c>
+      <c r="AI112">
+        <v>7.5</v>
+      </c>
+      <c r="AJ112">
+        <v>1.33</v>
+      </c>
+      <c r="AK112">
+        <v>3.2</v>
+      </c>
+      <c r="AL112">
+        <v>1.57</v>
+      </c>
+      <c r="AM112">
+        <v>2.25</v>
+      </c>
+      <c r="AN112">
+        <v>3.6</v>
+      </c>
+      <c r="AO112">
+        <v>1.12</v>
+      </c>
+      <c r="AP112">
+        <v>1.07</v>
+      </c>
+      <c r="AQ112">
+        <v>1.17</v>
+      </c>
+      <c r="AR112">
+        <v>1.83</v>
+      </c>
+      <c r="AS112">
+        <v>1.25</v>
+      </c>
+      <c r="AT112">
+        <v>2.13</v>
+      </c>
+      <c r="AU112">
+        <v>1.51</v>
+      </c>
+      <c r="AV112">
+        <v>2.34</v>
+      </c>
+      <c r="AW112">
+        <v>3.85</v>
+      </c>
+      <c r="AX112">
+        <v>7.8</v>
+      </c>
+      <c r="AY112">
+        <v>12.25</v>
+      </c>
+      <c r="AZ112">
+        <v>1.14</v>
+      </c>
+      <c r="BA112">
+        <v>1.24</v>
+      </c>
+      <c r="BB112">
+        <v>1.47</v>
+      </c>
+      <c r="BC112">
+        <v>1.85</v>
+      </c>
+      <c r="BD112">
+        <v>2.38</v>
+      </c>
+      <c r="BE112">
+        <v>3.2</v>
+      </c>
+      <c r="BF112">
+        <v>7</v>
+      </c>
+      <c r="BG112">
+        <v>7</v>
+      </c>
+      <c r="BH112">
+        <v>1</v>
+      </c>
+      <c r="BI112">
+        <v>8</v>
+      </c>
+      <c r="BJ112">
+        <v>8</v>
+      </c>
+      <c r="BK112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2710049</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44870.47916666666</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s">
+        <v>78</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>170</v>
+      </c>
+      <c r="P113" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q113">
+        <v>6</v>
+      </c>
+      <c r="R113">
+        <v>3</v>
+      </c>
+      <c r="S113">
+        <v>9</v>
+      </c>
+      <c r="T113">
+        <v>3.25</v>
+      </c>
+      <c r="U113">
+        <v>2.38</v>
+      </c>
+      <c r="V113">
+        <v>2.88</v>
+      </c>
+      <c r="W113">
+        <v>1.3</v>
+      </c>
+      <c r="X113">
+        <v>3.4</v>
+      </c>
+      <c r="Y113">
+        <v>2.38</v>
+      </c>
+      <c r="Z113">
+        <v>1.53</v>
+      </c>
+      <c r="AA113">
+        <v>6</v>
+      </c>
+      <c r="AB113">
+        <v>1.13</v>
+      </c>
+      <c r="AC113">
+        <v>2.65</v>
+      </c>
+      <c r="AD113">
+        <v>3.65</v>
+      </c>
+      <c r="AE113">
+        <v>2.33</v>
+      </c>
+      <c r="AF113">
+        <v>1.03</v>
+      </c>
+      <c r="AG113">
+        <v>15</v>
+      </c>
+      <c r="AH113">
+        <v>1.19</v>
+      </c>
+      <c r="AI113">
+        <v>4.75</v>
+      </c>
+      <c r="AJ113">
+        <v>1.57</v>
+      </c>
+      <c r="AK113">
+        <v>2.35</v>
+      </c>
+      <c r="AL113">
+        <v>1.53</v>
+      </c>
+      <c r="AM113">
+        <v>2.38</v>
+      </c>
+      <c r="AN113">
+        <v>1.57</v>
+      </c>
+      <c r="AO113">
+        <v>1.28</v>
+      </c>
+      <c r="AP113">
+        <v>1.42</v>
+      </c>
+      <c r="AQ113">
+        <v>1.67</v>
+      </c>
+      <c r="AR113">
+        <v>0.5</v>
+      </c>
+      <c r="AS113">
+        <v>1.25</v>
+      </c>
+      <c r="AT113">
+        <v>1.13</v>
+      </c>
+      <c r="AU113">
+        <v>1.89</v>
+      </c>
+      <c r="AV113">
+        <v>1.71</v>
+      </c>
+      <c r="AW113">
+        <v>3.6</v>
+      </c>
+      <c r="AX113">
+        <v>2.08</v>
+      </c>
+      <c r="AY113">
+        <v>7.5</v>
+      </c>
+      <c r="AZ113">
+        <v>2.11</v>
+      </c>
+      <c r="BA113">
+        <v>1.28</v>
+      </c>
+      <c r="BB113">
+        <v>1.53</v>
+      </c>
+      <c r="BC113">
+        <v>1.95</v>
+      </c>
+      <c r="BD113">
+        <v>2.53</v>
+      </c>
+      <c r="BE113">
+        <v>3.48</v>
+      </c>
+      <c r="BF113">
+        <v>4</v>
+      </c>
+      <c r="BG113">
+        <v>9</v>
+      </c>
+      <c r="BH113">
+        <v>8</v>
+      </c>
+      <c r="BI113">
+        <v>8</v>
+      </c>
+      <c r="BJ113">
+        <v>12</v>
+      </c>
+      <c r="BK113">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2710045</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44870.47916666666</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>71</v>
+      </c>
+      <c r="H114" t="s">
+        <v>69</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>171</v>
+      </c>
+      <c r="P114" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q114">
+        <v>2</v>
+      </c>
+      <c r="R114">
+        <v>5</v>
+      </c>
+      <c r="S114">
+        <v>7</v>
+      </c>
+      <c r="T114">
+        <v>1.67</v>
+      </c>
+      <c r="U114">
+        <v>2.88</v>
+      </c>
+      <c r="V114">
+        <v>8</v>
+      </c>
+      <c r="W114">
+        <v>1.22</v>
+      </c>
+      <c r="X114">
+        <v>4</v>
+      </c>
+      <c r="Y114">
+        <v>2</v>
+      </c>
+      <c r="Z114">
+        <v>1.73</v>
+      </c>
+      <c r="AA114">
+        <v>4.33</v>
+      </c>
+      <c r="AB114">
+        <v>1.2</v>
+      </c>
+      <c r="AC114">
+        <v>1.26</v>
+      </c>
+      <c r="AD114">
+        <v>5.8</v>
+      </c>
+      <c r="AE114">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF114">
+        <v>1.02</v>
+      </c>
+      <c r="AG114">
+        <v>23</v>
+      </c>
+      <c r="AH114">
+        <v>1.12</v>
+      </c>
+      <c r="AI114">
+        <v>6.5</v>
+      </c>
+      <c r="AJ114">
+        <v>1.4</v>
+      </c>
+      <c r="AK114">
+        <v>2.9</v>
+      </c>
+      <c r="AL114">
+        <v>1.8</v>
+      </c>
+      <c r="AM114">
+        <v>1.95</v>
+      </c>
+      <c r="AN114">
+        <v>1.06</v>
+      </c>
+      <c r="AO114">
+        <v>1.12</v>
+      </c>
+      <c r="AP114">
+        <v>3.8</v>
+      </c>
+      <c r="AQ114">
+        <v>2.17</v>
+      </c>
+      <c r="AR114">
+        <v>0</v>
+      </c>
+      <c r="AS114">
+        <v>2.29</v>
+      </c>
+      <c r="AT114">
+        <v>0.38</v>
+      </c>
+      <c r="AU114">
+        <v>1.75</v>
+      </c>
+      <c r="AV114">
+        <v>1.3</v>
+      </c>
+      <c r="AW114">
+        <v>3.05</v>
+      </c>
+      <c r="AX114">
+        <v>1.1</v>
+      </c>
+      <c r="AY114">
+        <v>14</v>
+      </c>
+      <c r="AZ114">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BA114">
+        <v>1.2</v>
+      </c>
+      <c r="BB114">
+        <v>1.41</v>
+      </c>
+      <c r="BC114">
+        <v>1.74</v>
+      </c>
+      <c r="BD114">
+        <v>2.2</v>
+      </c>
+      <c r="BE114">
+        <v>2.91</v>
+      </c>
+      <c r="BF114">
+        <v>4</v>
+      </c>
+      <c r="BG114">
+        <v>4</v>
+      </c>
+      <c r="BH114">
+        <v>3</v>
+      </c>
+      <c r="BI114">
+        <v>5</v>
+      </c>
+      <c r="BJ114">
+        <v>7</v>
+      </c>
+      <c r="BK114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2710048</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44870.47916666666</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>81</v>
+      </c>
+      <c r="H115" t="s">
+        <v>68</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>88</v>
+      </c>
+      <c r="P115" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q115">
+        <v>9</v>
+      </c>
+      <c r="R115">
+        <v>4</v>
+      </c>
+      <c r="S115">
+        <v>13</v>
+      </c>
+      <c r="T115">
+        <v>2.63</v>
+      </c>
+      <c r="U115">
+        <v>2.2</v>
+      </c>
+      <c r="V115">
+        <v>4</v>
+      </c>
+      <c r="W115">
+        <v>1.36</v>
+      </c>
+      <c r="X115">
+        <v>3</v>
+      </c>
+      <c r="Y115">
+        <v>2.63</v>
+      </c>
+      <c r="Z115">
+        <v>1.44</v>
+      </c>
+      <c r="AA115">
+        <v>7</v>
+      </c>
+      <c r="AB115">
+        <v>1.1</v>
+      </c>
+      <c r="AC115">
+        <v>2.01</v>
+      </c>
+      <c r="AD115">
+        <v>3.5</v>
+      </c>
+      <c r="AE115">
+        <v>3.4</v>
+      </c>
+      <c r="AF115">
+        <v>1.04</v>
+      </c>
+      <c r="AG115">
+        <v>13</v>
+      </c>
+      <c r="AH115">
+        <v>1.28</v>
+      </c>
+      <c r="AI115">
+        <v>3.75</v>
+      </c>
+      <c r="AJ115">
+        <v>1.99</v>
+      </c>
+      <c r="AK115">
+        <v>1.91</v>
+      </c>
+      <c r="AL115">
+        <v>1.7</v>
+      </c>
+      <c r="AM115">
+        <v>2.05</v>
+      </c>
+      <c r="AN115">
+        <v>1.28</v>
+      </c>
+      <c r="AO115">
+        <v>1.28</v>
+      </c>
+      <c r="AP115">
+        <v>1.78</v>
+      </c>
+      <c r="AQ115">
+        <v>1.2</v>
+      </c>
+      <c r="AR115">
+        <v>0.83</v>
+      </c>
+      <c r="AS115">
+        <v>1</v>
+      </c>
+      <c r="AT115">
+        <v>1.38</v>
+      </c>
+      <c r="AU115">
+        <v>1.61</v>
+      </c>
+      <c r="AV115">
+        <v>1.22</v>
+      </c>
+      <c r="AW115">
+        <v>2.83</v>
+      </c>
+      <c r="AX115">
+        <v>1.52</v>
+      </c>
+      <c r="AY115">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ115">
+        <v>3.24</v>
+      </c>
+      <c r="BA115">
+        <v>1.21</v>
+      </c>
+      <c r="BB115">
+        <v>1.43</v>
+      </c>
+      <c r="BC115">
+        <v>1.79</v>
+      </c>
+      <c r="BD115">
+        <v>2.26</v>
+      </c>
+      <c r="BE115">
+        <v>2.98</v>
+      </c>
+      <c r="BF115">
+        <v>3</v>
+      </c>
+      <c r="BG115">
+        <v>4</v>
+      </c>
+      <c r="BH115">
+        <v>13</v>
+      </c>
+      <c r="BI115">
+        <v>7</v>
+      </c>
+      <c r="BJ115">
+        <v>16</v>
+      </c>
+      <c r="BK115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2710053</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44870.60416666666</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>75</v>
+      </c>
+      <c r="H116" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>172</v>
+      </c>
+      <c r="P116" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q116">
+        <v>3</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
+      </c>
+      <c r="S116">
+        <v>6</v>
+      </c>
+      <c r="T116">
+        <v>2.2</v>
+      </c>
+      <c r="U116">
+        <v>2.5</v>
+      </c>
+      <c r="V116">
+        <v>4.75</v>
+      </c>
+      <c r="W116">
+        <v>1.29</v>
+      </c>
+      <c r="X116">
+        <v>3.5</v>
+      </c>
+      <c r="Y116">
+        <v>2.25</v>
+      </c>
+      <c r="Z116">
+        <v>1.57</v>
+      </c>
+      <c r="AA116">
+        <v>5.5</v>
+      </c>
+      <c r="AB116">
+        <v>1.14</v>
+      </c>
+      <c r="AC116">
+        <v>1.66</v>
+      </c>
+      <c r="AD116">
+        <v>4.22</v>
+      </c>
+      <c r="AE116">
+        <v>4.66</v>
+      </c>
+      <c r="AF116">
+        <v>1.02</v>
+      </c>
+      <c r="AG116">
+        <v>19</v>
+      </c>
+      <c r="AH116">
+        <v>1.18</v>
+      </c>
+      <c r="AI116">
+        <v>5</v>
+      </c>
+      <c r="AJ116">
+        <v>1.55</v>
+      </c>
+      <c r="AK116">
+        <v>2.43</v>
+      </c>
+      <c r="AL116">
+        <v>1.62</v>
+      </c>
+      <c r="AM116">
+        <v>2.2</v>
+      </c>
+      <c r="AN116">
+        <v>1.2</v>
+      </c>
+      <c r="AO116">
+        <v>1.22</v>
+      </c>
+      <c r="AP116">
+        <v>2.15</v>
+      </c>
+      <c r="AQ116">
+        <v>1.17</v>
+      </c>
+      <c r="AR116">
+        <v>0.33</v>
+      </c>
+      <c r="AS116">
+        <v>1.25</v>
+      </c>
+      <c r="AT116">
+        <v>0.29</v>
+      </c>
+      <c r="AU116">
+        <v>1.56</v>
+      </c>
+      <c r="AV116">
+        <v>0.98</v>
+      </c>
+      <c r="AW116">
+        <v>2.54</v>
+      </c>
+      <c r="AX116">
+        <v>1.39</v>
+      </c>
+      <c r="AY116">
+        <v>9</v>
+      </c>
+      <c r="AZ116">
+        <v>3.9</v>
+      </c>
+      <c r="BA116">
+        <v>1.22</v>
+      </c>
+      <c r="BB116">
+        <v>1.44</v>
+      </c>
+      <c r="BC116">
+        <v>1.8</v>
+      </c>
+      <c r="BD116">
+        <v>2.28</v>
+      </c>
+      <c r="BE116">
+        <v>3.04</v>
+      </c>
+      <c r="BF116">
+        <v>6</v>
+      </c>
+      <c r="BG116">
+        <v>5</v>
+      </c>
+      <c r="BH116">
+        <v>6</v>
+      </c>
+      <c r="BI116">
+        <v>17</v>
+      </c>
+      <c r="BJ116">
+        <v>12</v>
+      </c>
+      <c r="BK116">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2710046</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44871.47916666666</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>77</v>
+      </c>
+      <c r="H117" t="s">
+        <v>66</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>5</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" t="s">
+        <v>173</v>
+      </c>
+      <c r="P117" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>5</v>
+      </c>
+      <c r="S117">
+        <v>6</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
+        <v>2.25</v>
+      </c>
+      <c r="V117">
+        <v>3.75</v>
+      </c>
+      <c r="W117">
+        <v>1.36</v>
+      </c>
+      <c r="X117">
+        <v>3</v>
+      </c>
+      <c r="Y117">
+        <v>2.63</v>
+      </c>
+      <c r="Z117">
+        <v>1.44</v>
+      </c>
+      <c r="AA117">
+        <v>7</v>
+      </c>
+      <c r="AB117">
+        <v>1.1</v>
+      </c>
+      <c r="AC117">
+        <v>2.03</v>
+      </c>
+      <c r="AD117">
+        <v>3.48</v>
+      </c>
+      <c r="AE117">
+        <v>3.47</v>
+      </c>
+      <c r="AF117">
+        <v>1.05</v>
+      </c>
+      <c r="AG117">
+        <v>12</v>
+      </c>
+      <c r="AH117">
+        <v>1.3</v>
+      </c>
+      <c r="AI117">
+        <v>3.6</v>
+      </c>
+      <c r="AJ117">
+        <v>1.78</v>
+      </c>
+      <c r="AK117">
+        <v>1.97</v>
+      </c>
+      <c r="AL117">
+        <v>1.67</v>
+      </c>
+      <c r="AM117">
+        <v>2.1</v>
+      </c>
+      <c r="AN117">
+        <v>1.32</v>
+      </c>
+      <c r="AO117">
+        <v>1.28</v>
+      </c>
+      <c r="AP117">
+        <v>1.7</v>
+      </c>
+      <c r="AQ117">
+        <v>0.83</v>
+      </c>
+      <c r="AR117">
+        <v>1.67</v>
+      </c>
+      <c r="AS117">
+        <v>1.38</v>
+      </c>
+      <c r="AT117">
+        <v>1.25</v>
+      </c>
+      <c r="AU117">
+        <v>1.96</v>
+      </c>
+      <c r="AV117">
+        <v>1.45</v>
+      </c>
+      <c r="AW117">
+        <v>3.41</v>
+      </c>
+      <c r="AX117">
+        <v>1.66</v>
+      </c>
+      <c r="AY117">
+        <v>7.8</v>
+      </c>
+      <c r="AZ117">
+        <v>2.8</v>
+      </c>
+      <c r="BA117">
+        <v>1.27</v>
+      </c>
+      <c r="BB117">
+        <v>1.53</v>
+      </c>
+      <c r="BC117">
+        <v>1.94</v>
+      </c>
+      <c r="BD117">
+        <v>2.53</v>
+      </c>
+      <c r="BE117">
+        <v>3.42</v>
+      </c>
+      <c r="BF117">
+        <v>9</v>
+      </c>
+      <c r="BG117">
+        <v>2</v>
+      </c>
+      <c r="BH117">
+        <v>3</v>
+      </c>
+      <c r="BI117">
+        <v>6</v>
+      </c>
+      <c r="BJ117">
+        <v>12</v>
+      </c>
+      <c r="BK117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2710047</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44871.5625</v>
+      </c>
+      <c r="F118">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>74</v>
+      </c>
+      <c r="H118" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>174</v>
+      </c>
+      <c r="P118" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q118">
+        <v>5</v>
+      </c>
+      <c r="R118">
+        <v>3</v>
+      </c>
+      <c r="S118">
+        <v>8</v>
+      </c>
+      <c r="T118">
+        <v>2.25</v>
+      </c>
+      <c r="U118">
+        <v>2.38</v>
+      </c>
+      <c r="V118">
+        <v>4.75</v>
+      </c>
+      <c r="W118">
+        <v>1.33</v>
+      </c>
+      <c r="X118">
+        <v>3.25</v>
+      </c>
+      <c r="Y118">
+        <v>2.5</v>
+      </c>
+      <c r="Z118">
+        <v>1.5</v>
+      </c>
+      <c r="AA118">
+        <v>6.5</v>
+      </c>
+      <c r="AB118">
+        <v>1.11</v>
+      </c>
+      <c r="AC118">
+        <v>1.98</v>
+      </c>
+      <c r="AD118">
+        <v>3.65</v>
+      </c>
+      <c r="AE118">
+        <v>3.3</v>
+      </c>
+      <c r="AF118">
+        <v>1.04</v>
+      </c>
+      <c r="AG118">
+        <v>11.5</v>
+      </c>
+      <c r="AH118">
+        <v>1.22</v>
+      </c>
+      <c r="AI118">
+        <v>3.9</v>
+      </c>
+      <c r="AJ118">
+        <v>1.65</v>
+      </c>
+      <c r="AK118">
+        <v>2.25</v>
+      </c>
+      <c r="AL118">
+        <v>1.7</v>
+      </c>
+      <c r="AM118">
+        <v>2.05</v>
+      </c>
+      <c r="AN118">
+        <v>1.2</v>
+      </c>
+      <c r="AO118">
+        <v>1.24</v>
+      </c>
+      <c r="AP118">
+        <v>2.05</v>
+      </c>
+      <c r="AQ118">
+        <v>2</v>
+      </c>
+      <c r="AR118">
+        <v>1</v>
+      </c>
+      <c r="AS118">
+        <v>2.29</v>
+      </c>
+      <c r="AT118">
+        <v>0.75</v>
+      </c>
+      <c r="AU118">
+        <v>2.23</v>
+      </c>
+      <c r="AV118">
+        <v>1.48</v>
+      </c>
+      <c r="AW118">
+        <v>3.71</v>
+      </c>
+      <c r="AX118">
+        <v>1.58</v>
+      </c>
+      <c r="AY118">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ118">
+        <v>3</v>
+      </c>
+      <c r="BA118">
+        <v>1.19</v>
+      </c>
+      <c r="BB118">
+        <v>1.39</v>
+      </c>
+      <c r="BC118">
+        <v>1.72</v>
+      </c>
+      <c r="BD118">
+        <v>2.15</v>
+      </c>
+      <c r="BE118">
+        <v>2.84</v>
+      </c>
+      <c r="BF118">
+        <v>6</v>
+      </c>
+      <c r="BG118">
+        <v>3</v>
+      </c>
+      <c r="BH118">
+        <v>10</v>
+      </c>
+      <c r="BI118">
+        <v>4</v>
+      </c>
+      <c r="BJ118">
+        <v>16</v>
+      </c>
+      <c r="BK118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2710059</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44873.60416666666</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" t="s">
+        <v>71</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>175</v>
+      </c>
+      <c r="P119" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q119">
+        <v>6</v>
+      </c>
+      <c r="R119">
+        <v>9</v>
+      </c>
+      <c r="S119">
+        <v>15</v>
+      </c>
+      <c r="T119">
+        <v>3.75</v>
+      </c>
+      <c r="U119">
+        <v>2.3</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.3</v>
+      </c>
+      <c r="X119">
+        <v>3.4</v>
+      </c>
+      <c r="Y119">
+        <v>2.5</v>
+      </c>
+      <c r="Z119">
+        <v>1.5</v>
+      </c>
+      <c r="AA119">
+        <v>6</v>
+      </c>
+      <c r="AB119">
+        <v>1.13</v>
+      </c>
+      <c r="AC119">
+        <v>3.39</v>
+      </c>
+      <c r="AD119">
+        <v>3.75</v>
+      </c>
+      <c r="AE119">
+        <v>2.17</v>
+      </c>
+      <c r="AF119">
+        <v>1.03</v>
+      </c>
+      <c r="AG119">
+        <v>15</v>
+      </c>
+      <c r="AH119">
+        <v>1.22</v>
+      </c>
+      <c r="AI119">
+        <v>4.33</v>
+      </c>
+      <c r="AJ119">
+        <v>1.63</v>
+      </c>
+      <c r="AK119">
+        <v>2.15</v>
+      </c>
+      <c r="AL119">
+        <v>1.57</v>
+      </c>
+      <c r="AM119">
+        <v>2.25</v>
+      </c>
+      <c r="AN119">
+        <v>1.76</v>
+      </c>
+      <c r="AO119">
+        <v>1.3</v>
+      </c>
+      <c r="AP119">
+        <v>1.31</v>
+      </c>
+      <c r="AQ119">
+        <v>1.5</v>
+      </c>
+      <c r="AR119">
+        <v>1.5</v>
+      </c>
+      <c r="AS119">
+        <v>1.71</v>
+      </c>
+      <c r="AT119">
+        <v>1.13</v>
+      </c>
+      <c r="AU119">
+        <v>1.85</v>
+      </c>
+      <c r="AV119">
+        <v>1.65</v>
+      </c>
+      <c r="AW119">
+        <v>3.5</v>
+      </c>
+      <c r="AX119">
+        <v>2.66</v>
+      </c>
+      <c r="AY119">
+        <v>8.1</v>
+      </c>
+      <c r="AZ119">
+        <v>1.7</v>
+      </c>
+      <c r="BA119">
+        <v>1.21</v>
+      </c>
+      <c r="BB119">
+        <v>1.42</v>
+      </c>
+      <c r="BC119">
+        <v>1.74</v>
+      </c>
+      <c r="BD119">
+        <v>2.18</v>
+      </c>
+      <c r="BE119">
+        <v>2.84</v>
+      </c>
+      <c r="BF119">
+        <v>9</v>
+      </c>
+      <c r="BG119">
+        <v>9</v>
+      </c>
+      <c r="BH119">
+        <v>9</v>
+      </c>
+      <c r="BI119">
+        <v>12</v>
+      </c>
+      <c r="BJ119">
+        <v>18</v>
+      </c>
+      <c r="BK119">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2710054</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44873.6875</v>
+      </c>
+      <c r="F120">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>82</v>
+      </c>
+      <c r="H120" t="s">
+        <v>75</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>5</v>
+      </c>
+      <c r="L120">
+        <v>6</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>7</v>
+      </c>
+      <c r="O120" t="s">
+        <v>176</v>
+      </c>
+      <c r="P120" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q120">
+        <v>8</v>
+      </c>
+      <c r="R120">
+        <v>4</v>
+      </c>
+      <c r="S120">
+        <v>12</v>
+      </c>
+      <c r="T120">
+        <v>1.5</v>
+      </c>
+      <c r="U120">
+        <v>3.4</v>
+      </c>
+      <c r="V120">
+        <v>8.5</v>
+      </c>
+      <c r="W120">
+        <v>1.14</v>
+      </c>
+      <c r="X120">
+        <v>5.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.73</v>
+      </c>
+      <c r="Z120">
+        <v>2</v>
+      </c>
+      <c r="AA120">
+        <v>3.25</v>
+      </c>
+      <c r="AB120">
+        <v>1.33</v>
+      </c>
+      <c r="AC120">
+        <v>1.22</v>
+      </c>
+      <c r="AD120">
+        <v>6.49</v>
+      </c>
+      <c r="AE120">
+        <v>10.74</v>
+      </c>
+      <c r="AF120">
+        <v>1.01</v>
+      </c>
+      <c r="AG120">
+        <v>41</v>
+      </c>
+      <c r="AH120">
+        <v>1.06</v>
+      </c>
+      <c r="AI120">
+        <v>10</v>
+      </c>
+      <c r="AJ120">
+        <v>1.22</v>
+      </c>
+      <c r="AK120">
+        <v>4.2</v>
+      </c>
+      <c r="AL120">
+        <v>1.67</v>
+      </c>
+      <c r="AM120">
+        <v>2.1</v>
+      </c>
+      <c r="AN120">
+        <v>1.04</v>
+      </c>
+      <c r="AO120">
+        <v>1.08</v>
+      </c>
+      <c r="AP120">
+        <v>4.8</v>
+      </c>
+      <c r="AQ120">
+        <v>2.33</v>
+      </c>
+      <c r="AR120">
+        <v>1.83</v>
+      </c>
+      <c r="AS120">
+        <v>2.43</v>
+      </c>
+      <c r="AT120">
+        <v>1.57</v>
+      </c>
+      <c r="AU120">
+        <v>2.81</v>
+      </c>
+      <c r="AV120">
+        <v>1.58</v>
+      </c>
+      <c r="AW120">
+        <v>4.39</v>
+      </c>
+      <c r="AX120">
+        <v>1.24</v>
+      </c>
+      <c r="AY120">
+        <v>10</v>
+      </c>
+      <c r="AZ120">
+        <v>5.5</v>
+      </c>
+      <c r="BA120">
+        <v>1.26</v>
+      </c>
+      <c r="BB120">
+        <v>1.51</v>
+      </c>
+      <c r="BC120">
+        <v>1.88</v>
+      </c>
+      <c r="BD120">
+        <v>2.39</v>
+      </c>
+      <c r="BE120">
+        <v>3.18</v>
+      </c>
+      <c r="BF120">
+        <v>11</v>
+      </c>
+      <c r="BG120">
+        <v>3</v>
+      </c>
+      <c r="BH120">
+        <v>9</v>
+      </c>
+      <c r="BI120">
+        <v>4</v>
+      </c>
+      <c r="BJ120">
+        <v>20</v>
+      </c>
+      <c r="BK120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2710060</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44873.6875</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>69</v>
+      </c>
+      <c r="H121" t="s">
+        <v>67</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>177</v>
+      </c>
+      <c r="P121" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q121">
+        <v>6</v>
+      </c>
+      <c r="R121">
+        <v>3</v>
+      </c>
+      <c r="S121">
+        <v>9</v>
+      </c>
+      <c r="T121">
+        <v>3.75</v>
+      </c>
+      <c r="U121">
+        <v>2.4</v>
+      </c>
+      <c r="V121">
+        <v>2.5</v>
+      </c>
+      <c r="W121">
+        <v>1.29</v>
+      </c>
+      <c r="X121">
+        <v>3.5</v>
+      </c>
+      <c r="Y121">
+        <v>2.38</v>
+      </c>
+      <c r="Z121">
+        <v>1.53</v>
+      </c>
+      <c r="AA121">
+        <v>5.5</v>
+      </c>
+      <c r="AB121">
+        <v>1.14</v>
+      </c>
+      <c r="AC121">
+        <v>3.81</v>
+      </c>
+      <c r="AD121">
+        <v>3.84</v>
+      </c>
+      <c r="AE121">
+        <v>2</v>
+      </c>
+      <c r="AF121">
+        <v>1.03</v>
+      </c>
+      <c r="AG121">
+        <v>17</v>
+      </c>
+      <c r="AH121">
+        <v>1.19</v>
+      </c>
+      <c r="AI121">
+        <v>4.75</v>
+      </c>
+      <c r="AJ121">
+        <v>1.57</v>
+      </c>
+      <c r="AK121">
+        <v>2.4</v>
+      </c>
+      <c r="AL121">
+        <v>1.53</v>
+      </c>
+      <c r="AM121">
+        <v>2.38</v>
+      </c>
+      <c r="AN121">
+        <v>1.83</v>
+      </c>
+      <c r="AO121">
+        <v>1.28</v>
+      </c>
+      <c r="AP121">
+        <v>1.26</v>
+      </c>
+      <c r="AQ121">
+        <v>1.17</v>
+      </c>
+      <c r="AR121">
+        <v>0.67</v>
+      </c>
+      <c r="AS121">
+        <v>1.43</v>
+      </c>
+      <c r="AT121">
+        <v>0.57</v>
+      </c>
+      <c r="AU121">
+        <v>1.64</v>
+      </c>
+      <c r="AV121">
+        <v>1.36</v>
+      </c>
+      <c r="AW121">
+        <v>3</v>
+      </c>
+      <c r="AX121">
+        <v>2.39</v>
+      </c>
+      <c r="AY121">
+        <v>7.2</v>
+      </c>
+      <c r="AZ121">
+        <v>1.89</v>
+      </c>
+      <c r="BA121">
+        <v>1.25</v>
+      </c>
+      <c r="BB121">
+        <v>1.49</v>
+      </c>
+      <c r="BC121">
+        <v>1.87</v>
+      </c>
+      <c r="BD121">
+        <v>2.39</v>
+      </c>
+      <c r="BE121">
+        <v>3.2</v>
+      </c>
+      <c r="BF121">
+        <v>6</v>
+      </c>
+      <c r="BG121">
+        <v>4</v>
+      </c>
+      <c r="BH121">
+        <v>10</v>
+      </c>
+      <c r="BI121">
+        <v>6</v>
+      </c>
+      <c r="BJ121">
+        <v>16</v>
+      </c>
+      <c r="BK121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2710061</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44873.6875</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" t="s">
+        <v>76</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>178</v>
+      </c>
+      <c r="P122" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q122">
+        <v>8</v>
+      </c>
+      <c r="R122">
+        <v>5</v>
+      </c>
+      <c r="S122">
+        <v>13</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
+        <v>2.25</v>
+      </c>
+      <c r="V122">
+        <v>4</v>
+      </c>
+      <c r="W122">
+        <v>1.33</v>
+      </c>
+      <c r="X122">
+        <v>3.25</v>
+      </c>
+      <c r="Y122">
+        <v>2.63</v>
+      </c>
+      <c r="Z122">
+        <v>1.44</v>
+      </c>
+      <c r="AA122">
+        <v>6.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.11</v>
+      </c>
+      <c r="AC122">
+        <v>1.76</v>
+      </c>
+      <c r="AD122">
+        <v>3.79</v>
+      </c>
+      <c r="AE122">
+        <v>4.4</v>
+      </c>
+      <c r="AF122">
+        <v>1.04</v>
+      </c>
+      <c r="AG122">
+        <v>13</v>
+      </c>
+      <c r="AH122">
+        <v>1.26</v>
+      </c>
+      <c r="AI122">
+        <v>4</v>
+      </c>
+      <c r="AJ122">
+        <v>1.72</v>
+      </c>
+      <c r="AK122">
+        <v>2.01</v>
+      </c>
+      <c r="AL122">
+        <v>1.67</v>
+      </c>
+      <c r="AM122">
+        <v>2.1</v>
+      </c>
+      <c r="AN122">
+        <v>1.27</v>
+      </c>
+      <c r="AO122">
+        <v>1.27</v>
+      </c>
+      <c r="AP122">
+        <v>1.82</v>
+      </c>
+      <c r="AQ122">
+        <v>1.14</v>
+      </c>
+      <c r="AR122">
+        <v>0.67</v>
+      </c>
+      <c r="AS122">
+        <v>1.38</v>
+      </c>
+      <c r="AT122">
+        <v>0.57</v>
+      </c>
+      <c r="AU122">
+        <v>1.66</v>
+      </c>
+      <c r="AV122">
+        <v>1.32</v>
+      </c>
+      <c r="AW122">
+        <v>2.98</v>
+      </c>
+      <c r="AX122">
+        <v>1.59</v>
+      </c>
+      <c r="AY122">
+        <v>7.5</v>
+      </c>
+      <c r="AZ122">
+        <v>3.08</v>
+      </c>
+      <c r="BA122">
+        <v>1.27</v>
+      </c>
+      <c r="BB122">
+        <v>1.53</v>
+      </c>
+      <c r="BC122">
+        <v>1.93</v>
+      </c>
+      <c r="BD122">
+        <v>2.5</v>
+      </c>
+      <c r="BE122">
+        <v>3.34</v>
+      </c>
+      <c r="BF122">
+        <v>8</v>
+      </c>
+      <c r="BG122">
+        <v>3</v>
+      </c>
+      <c r="BH122">
+        <v>11</v>
+      </c>
+      <c r="BI122">
+        <v>8</v>
+      </c>
+      <c r="BJ122">
+        <v>19</v>
+      </c>
+      <c r="BK122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2710057</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44874.60416666666</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>73</v>
+      </c>
+      <c r="H123" t="s">
+        <v>77</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>179</v>
+      </c>
+      <c r="P123" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q123">
+        <v>6</v>
+      </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123">
+        <v>7</v>
+      </c>
+      <c r="T123">
+        <v>3.25</v>
+      </c>
+      <c r="U123">
+        <v>2.38</v>
+      </c>
+      <c r="V123">
+        <v>2.88</v>
+      </c>
+      <c r="W123">
+        <v>1.3</v>
+      </c>
+      <c r="X123">
+        <v>3.4</v>
+      </c>
+      <c r="Y123">
+        <v>2.38</v>
+      </c>
+      <c r="Z123">
+        <v>1.53</v>
+      </c>
+      <c r="AA123">
+        <v>6</v>
+      </c>
+      <c r="AB123">
+        <v>1.13</v>
+      </c>
+      <c r="AC123">
+        <v>3</v>
+      </c>
+      <c r="AD123">
+        <v>3.8</v>
+      </c>
+      <c r="AE123">
+        <v>2.23</v>
+      </c>
+      <c r="AF123">
+        <v>1.02</v>
+      </c>
+      <c r="AG123">
+        <v>12</v>
+      </c>
+      <c r="AH123">
+        <v>1.18</v>
+      </c>
+      <c r="AI123">
+        <v>4.75</v>
+      </c>
+      <c r="AJ123">
+        <v>1.58</v>
+      </c>
+      <c r="AK123">
+        <v>2.29</v>
+      </c>
+      <c r="AL123">
+        <v>1.5</v>
+      </c>
+      <c r="AM123">
+        <v>2.5</v>
+      </c>
+      <c r="AN123">
+        <v>1.58</v>
+      </c>
+      <c r="AO123">
+        <v>1.29</v>
+      </c>
+      <c r="AP123">
+        <v>1.4</v>
+      </c>
+      <c r="AQ123">
+        <v>1.83</v>
+      </c>
+      <c r="AR123">
+        <v>0.67</v>
+      </c>
+      <c r="AS123">
+        <v>1.57</v>
+      </c>
+      <c r="AT123">
+        <v>1</v>
+      </c>
+      <c r="AU123">
+        <v>1.86</v>
+      </c>
+      <c r="AV123">
+        <v>1.13</v>
+      </c>
+      <c r="AW123">
+        <v>2.99</v>
+      </c>
+      <c r="AX123">
+        <v>2.14</v>
+      </c>
+      <c r="AY123">
+        <v>7.2</v>
+      </c>
+      <c r="AZ123">
+        <v>2.08</v>
+      </c>
+      <c r="BA123">
+        <v>1.18</v>
+      </c>
+      <c r="BB123">
+        <v>1.38</v>
+      </c>
+      <c r="BC123">
+        <v>1.69</v>
+      </c>
+      <c r="BD123">
+        <v>2.11</v>
+      </c>
+      <c r="BE123">
+        <v>2.75</v>
+      </c>
+      <c r="BF123">
+        <v>7</v>
+      </c>
+      <c r="BG123">
+        <v>4</v>
+      </c>
+      <c r="BH123">
+        <v>14</v>
+      </c>
+      <c r="BI123">
+        <v>8</v>
+      </c>
+      <c r="BJ123">
+        <v>21</v>
+      </c>
+      <c r="BK123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2710055</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44874.6875</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" t="s">
+        <v>74</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>180</v>
+      </c>
+      <c r="P124" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q124">
+        <v>6</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>8</v>
+      </c>
+      <c r="T124">
+        <v>2.3</v>
+      </c>
+      <c r="U124">
+        <v>2.38</v>
+      </c>
+      <c r="V124">
+        <v>4.75</v>
+      </c>
+      <c r="W124">
+        <v>1.33</v>
+      </c>
+      <c r="X124">
+        <v>3.25</v>
+      </c>
+      <c r="Y124">
+        <v>2.5</v>
+      </c>
+      <c r="Z124">
+        <v>1.5</v>
+      </c>
+      <c r="AA124">
+        <v>6.5</v>
+      </c>
+      <c r="AB124">
+        <v>1.11</v>
+      </c>
+      <c r="AC124">
+        <v>1.73</v>
+      </c>
+      <c r="AD124">
+        <v>4.2</v>
+      </c>
+      <c r="AE124">
+        <v>4.3</v>
+      </c>
+      <c r="AF124">
+        <v>1.03</v>
+      </c>
+      <c r="AG124">
+        <v>11</v>
+      </c>
+      <c r="AH124">
+        <v>1.22</v>
+      </c>
+      <c r="AI124">
+        <v>4.2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.7</v>
+      </c>
+      <c r="AK124">
+        <v>2.14</v>
+      </c>
+      <c r="AL124">
+        <v>1.7</v>
+      </c>
+      <c r="AM124">
+        <v>2.05</v>
+      </c>
+      <c r="AN124">
+        <v>1.21</v>
+      </c>
+      <c r="AO124">
+        <v>1.24</v>
+      </c>
+      <c r="AP124">
+        <v>2.05</v>
+      </c>
+      <c r="AQ124">
+        <v>2.67</v>
+      </c>
+      <c r="AR124">
+        <v>2</v>
+      </c>
+      <c r="AS124">
+        <v>2.71</v>
+      </c>
+      <c r="AT124">
+        <v>1.75</v>
+      </c>
+      <c r="AU124">
+        <v>1.83</v>
+      </c>
+      <c r="AV124">
+        <v>1.52</v>
+      </c>
+      <c r="AW124">
+        <v>3.35</v>
+      </c>
+      <c r="AX124">
+        <v>1.55</v>
+      </c>
+      <c r="AY124">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ124">
+        <v>3.13</v>
+      </c>
+      <c r="BA124">
+        <v>1.3</v>
+      </c>
+      <c r="BB124">
+        <v>1.57</v>
+      </c>
+      <c r="BC124">
+        <v>1.98</v>
+      </c>
+      <c r="BD124">
+        <v>2.56</v>
+      </c>
+      <c r="BE124">
+        <v>3.42</v>
+      </c>
+      <c r="BF124">
+        <v>7</v>
+      </c>
+      <c r="BG124">
+        <v>3</v>
+      </c>
+      <c r="BH124">
+        <v>10</v>
+      </c>
+      <c r="BI124">
+        <v>1</v>
+      </c>
+      <c r="BJ124">
+        <v>17</v>
+      </c>
+      <c r="BK124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2710056</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44874.6875</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>66</v>
+      </c>
+      <c r="H125" t="s">
+        <v>70</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>4</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>181</v>
+      </c>
+      <c r="P125" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q125">
+        <v>6</v>
+      </c>
+      <c r="R125">
+        <v>3</v>
+      </c>
+      <c r="S125">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>2.4</v>
+      </c>
+      <c r="V125">
+        <v>6</v>
+      </c>
+      <c r="W125">
+        <v>1.33</v>
+      </c>
+      <c r="X125">
+        <v>3.25</v>
+      </c>
+      <c r="Y125">
+        <v>2.5</v>
+      </c>
+      <c r="Z125">
+        <v>1.5</v>
+      </c>
+      <c r="AA125">
+        <v>6.5</v>
+      </c>
+      <c r="AB125">
+        <v>1.11</v>
+      </c>
+      <c r="AC125">
+        <v>1.54</v>
+      </c>
+      <c r="AD125">
+        <v>4.2</v>
+      </c>
+      <c r="AE125">
+        <v>6.2</v>
+      </c>
+      <c r="AF125">
+        <v>1.03</v>
+      </c>
+      <c r="AG125">
+        <v>11</v>
+      </c>
+      <c r="AH125">
+        <v>1.22</v>
+      </c>
+      <c r="AI125">
+        <v>4.2</v>
+      </c>
+      <c r="AJ125">
+        <v>1.75</v>
+      </c>
+      <c r="AK125">
+        <v>2.01</v>
+      </c>
+      <c r="AL125">
+        <v>1.91</v>
+      </c>
+      <c r="AM125">
+        <v>1.91</v>
+      </c>
+      <c r="AN125">
+        <v>1.12</v>
+      </c>
+      <c r="AO125">
+        <v>1.2</v>
+      </c>
+      <c r="AP125">
+        <v>2.55</v>
+      </c>
+      <c r="AQ125">
+        <v>2.67</v>
+      </c>
+      <c r="AR125">
+        <v>1.5</v>
+      </c>
+      <c r="AS125">
+        <v>2.43</v>
+      </c>
+      <c r="AT125">
+        <v>1.43</v>
+      </c>
+      <c r="AU125">
+        <v>1.44</v>
+      </c>
+      <c r="AV125">
+        <v>1.4</v>
+      </c>
+      <c r="AW125">
+        <v>2.84</v>
+      </c>
+      <c r="AX125">
+        <v>1.55</v>
+      </c>
+      <c r="AY125">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ125">
+        <v>3.13</v>
+      </c>
+      <c r="BA125">
+        <v>1.3</v>
+      </c>
+      <c r="BB125">
+        <v>1.57</v>
+      </c>
+      <c r="BC125">
+        <v>1.98</v>
+      </c>
+      <c r="BD125">
+        <v>2.56</v>
+      </c>
+      <c r="BE125">
+        <v>3.42</v>
+      </c>
+      <c r="BF125">
+        <v>8</v>
+      </c>
+      <c r="BG125">
+        <v>3</v>
+      </c>
+      <c r="BH125">
+        <v>13</v>
+      </c>
+      <c r="BI125">
+        <v>4</v>
+      </c>
+      <c r="BJ125">
+        <v>21</v>
+      </c>
+      <c r="BK125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2710058</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44874.6875</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>65</v>
+      </c>
+      <c r="H126" t="s">
+        <v>79</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>4</v>
+      </c>
+      <c r="L126">
+        <v>4</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>6</v>
+      </c>
+      <c r="O126" t="s">
+        <v>182</v>
+      </c>
+      <c r="P126" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>5</v>
+      </c>
+      <c r="S126">
+        <v>9</v>
+      </c>
+      <c r="T126">
+        <v>2.6</v>
+      </c>
+      <c r="U126">
+        <v>2.38</v>
+      </c>
+      <c r="V126">
+        <v>3.75</v>
+      </c>
+      <c r="W126">
+        <v>1.29</v>
+      </c>
+      <c r="X126">
+        <v>3.5</v>
+      </c>
+      <c r="Y126">
+        <v>2.38</v>
+      </c>
+      <c r="Z126">
+        <v>1.53</v>
+      </c>
+      <c r="AA126">
+        <v>5.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.14</v>
+      </c>
+      <c r="AC126">
+        <v>1.97</v>
+      </c>
+      <c r="AD126">
+        <v>4</v>
+      </c>
+      <c r="AE126">
+        <v>3.5</v>
+      </c>
+      <c r="AF126">
+        <v>1.02</v>
+      </c>
+      <c r="AG126">
+        <v>12</v>
+      </c>
+      <c r="AH126">
+        <v>1.18</v>
+      </c>
+      <c r="AI126">
+        <v>4.75</v>
+      </c>
+      <c r="AJ126">
+        <v>1.58</v>
+      </c>
+      <c r="AK126">
+        <v>2.29</v>
+      </c>
+      <c r="AL126">
+        <v>1.53</v>
+      </c>
+      <c r="AM126">
+        <v>2.38</v>
+      </c>
+      <c r="AN126">
+        <v>1.31</v>
+      </c>
+      <c r="AO126">
+        <v>1.28</v>
+      </c>
+      <c r="AP126">
+        <v>1.73</v>
+      </c>
+      <c r="AQ126">
+        <v>1.43</v>
+      </c>
+      <c r="AR126">
+        <v>1.33</v>
+      </c>
+      <c r="AS126">
+        <v>1.63</v>
+      </c>
+      <c r="AT126">
+        <v>1.14</v>
+      </c>
+      <c r="AU126">
+        <v>1.72</v>
+      </c>
+      <c r="AV126">
+        <v>1.21</v>
+      </c>
+      <c r="AW126">
+        <v>2.93</v>
+      </c>
+      <c r="AX126">
+        <v>1.66</v>
+      </c>
+      <c r="AY126">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ126">
+        <v>2.76</v>
+      </c>
+      <c r="BA126">
+        <v>1.23</v>
+      </c>
+      <c r="BB126">
+        <v>1.45</v>
+      </c>
+      <c r="BC126">
+        <v>1.79</v>
+      </c>
+      <c r="BD126">
+        <v>2.26</v>
+      </c>
+      <c r="BE126">
+        <v>2.93</v>
+      </c>
+      <c r="BF126">
+        <v>9</v>
+      </c>
+      <c r="BG126">
+        <v>4</v>
+      </c>
+      <c r="BH126">
+        <v>7</v>
+      </c>
+      <c r="BI126">
+        <v>9</v>
+      </c>
+      <c r="BJ126">
+        <v>16</v>
+      </c>
+      <c r="BK126">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2710062</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44874.6875</v>
+      </c>
+      <c r="F127">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>80</v>
+      </c>
+      <c r="H127" t="s">
+        <v>81</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>89</v>
+      </c>
+      <c r="P127" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+      <c r="R127">
+        <v>6</v>
+      </c>
+      <c r="S127">
+        <v>7</v>
+      </c>
+      <c r="T127">
+        <v>3.75</v>
+      </c>
+      <c r="U127">
+        <v>2.38</v>
+      </c>
+      <c r="V127">
+        <v>2.6</v>
+      </c>
+      <c r="W127">
+        <v>1.29</v>
+      </c>
+      <c r="X127">
+        <v>3.5</v>
+      </c>
+      <c r="Y127">
+        <v>2.38</v>
+      </c>
+      <c r="Z127">
+        <v>1.53</v>
+      </c>
+      <c r="AA127">
+        <v>5.5</v>
+      </c>
+      <c r="AB127">
+        <v>1.14</v>
+      </c>
+      <c r="AC127">
+        <v>3.3</v>
+      </c>
+      <c r="AD127">
+        <v>3.9</v>
+      </c>
+      <c r="AE127">
+        <v>2.06</v>
+      </c>
+      <c r="AF127">
+        <v>1.02</v>
+      </c>
+      <c r="AG127">
+        <v>12</v>
+      </c>
+      <c r="AH127">
+        <v>1.18</v>
+      </c>
+      <c r="AI127">
+        <v>4.75</v>
+      </c>
+      <c r="AJ127">
+        <v>1.64</v>
+      </c>
+      <c r="AK127">
+        <v>2.18</v>
+      </c>
+      <c r="AL127">
+        <v>1.53</v>
+      </c>
+      <c r="AM127">
+        <v>2.38</v>
+      </c>
+      <c r="AN127">
+        <v>1.75</v>
+      </c>
+      <c r="AO127">
+        <v>1.26</v>
+      </c>
+      <c r="AP127">
+        <v>1.32</v>
+      </c>
+      <c r="AQ127">
+        <v>0.67</v>
+      </c>
+      <c r="AR127">
+        <v>1.71</v>
+      </c>
+      <c r="AS127">
+        <v>0.88</v>
+      </c>
+      <c r="AT127">
+        <v>1.5</v>
+      </c>
+      <c r="AU127">
+        <v>1.74</v>
+      </c>
+      <c r="AV127">
+        <v>1.48</v>
+      </c>
+      <c r="AW127">
+        <v>3.22</v>
+      </c>
+      <c r="AX127">
+        <v>2.69</v>
+      </c>
+      <c r="AY127">
+        <v>8.1</v>
+      </c>
+      <c r="AZ127">
+        <v>1.69</v>
+      </c>
+      <c r="BA127">
+        <v>1.24</v>
+      </c>
+      <c r="BB127">
+        <v>1.48</v>
+      </c>
+      <c r="BC127">
+        <v>1.83</v>
+      </c>
+      <c r="BD127">
+        <v>2.35</v>
+      </c>
+      <c r="BE127">
+        <v>3.08</v>
+      </c>
+      <c r="BF127">
+        <v>5</v>
+      </c>
+      <c r="BG127">
+        <v>2</v>
+      </c>
+      <c r="BH127">
+        <v>11</v>
+      </c>
+      <c r="BI127">
+        <v>8</v>
+      </c>
+      <c r="BJ127">
+        <v>16</v>
+      </c>
+      <c r="BK127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2710067</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44876.6875</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>67</v>
+      </c>
+      <c r="H128" t="s">
+        <v>71</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>5</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128" t="s">
+        <v>183</v>
+      </c>
+      <c r="P128" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>9</v>
+      </c>
+      <c r="S128">
+        <v>11</v>
+      </c>
+      <c r="T128">
+        <v>3.25</v>
+      </c>
+      <c r="U128">
+        <v>2.5</v>
+      </c>
+      <c r="V128">
+        <v>2.63</v>
+      </c>
+      <c r="W128">
+        <v>1.25</v>
+      </c>
+      <c r="X128">
+        <v>3.75</v>
+      </c>
+      <c r="Y128">
+        <v>2.1</v>
+      </c>
+      <c r="Z128">
+        <v>1.67</v>
+      </c>
+      <c r="AA128">
+        <v>4.5</v>
+      </c>
+      <c r="AB128">
+        <v>1.18</v>
+      </c>
+      <c r="AC128">
+        <v>3.48</v>
+      </c>
+      <c r="AD128">
+        <v>3.92</v>
+      </c>
+      <c r="AE128">
+        <v>1.97</v>
+      </c>
+      <c r="AF128">
+        <v>1.01</v>
+      </c>
+      <c r="AG128">
+        <v>23</v>
+      </c>
+      <c r="AH128">
+        <v>1.14</v>
+      </c>
+      <c r="AI128">
+        <v>6</v>
+      </c>
+      <c r="AJ128">
+        <v>1.42</v>
+      </c>
+      <c r="AK128">
+        <v>2.74</v>
+      </c>
+      <c r="AL128">
+        <v>1.4</v>
+      </c>
+      <c r="AM128">
+        <v>2.75</v>
+      </c>
+      <c r="AN128">
+        <v>1.7</v>
+      </c>
+      <c r="AO128">
+        <v>1.25</v>
+      </c>
+      <c r="AP128">
+        <v>1.36</v>
+      </c>
+      <c r="AQ128">
+        <v>2.14</v>
+      </c>
+      <c r="AR128">
+        <v>1.29</v>
+      </c>
+      <c r="AS128">
+        <v>2.25</v>
+      </c>
+      <c r="AT128">
+        <v>1.13</v>
+      </c>
+      <c r="AU128">
+        <v>1.58</v>
+      </c>
+      <c r="AV128">
+        <v>1.77</v>
+      </c>
+      <c r="AW128">
+        <v>3.35</v>
+      </c>
+      <c r="AX128">
+        <v>2.85</v>
+      </c>
+      <c r="AY128">
+        <v>7.5</v>
+      </c>
+      <c r="AZ128">
+        <v>1.66</v>
+      </c>
+      <c r="BA128">
+        <v>1.22</v>
+      </c>
+      <c r="BB128">
+        <v>1.44</v>
+      </c>
+      <c r="BC128">
+        <v>1.79</v>
+      </c>
+      <c r="BD128">
+        <v>2.23</v>
+      </c>
+      <c r="BE128">
+        <v>2.98</v>
+      </c>
+      <c r="BF128">
+        <v>9</v>
+      </c>
+      <c r="BG128">
+        <v>11</v>
+      </c>
+      <c r="BH128">
+        <v>5</v>
+      </c>
+      <c r="BI128">
+        <v>8</v>
+      </c>
+      <c r="BJ128">
+        <v>14</v>
+      </c>
+      <c r="BK128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2710071</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44877.47916666666</v>
+      </c>
+      <c r="F129">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" t="s">
+        <v>78</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>184</v>
+      </c>
+      <c r="P129" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>4</v>
+      </c>
+      <c r="S129">
+        <v>4</v>
+      </c>
+      <c r="T129">
+        <v>4</v>
+      </c>
+      <c r="U129">
+        <v>2.4</v>
+      </c>
+      <c r="V129">
+        <v>2.4</v>
+      </c>
+      <c r="W129">
+        <v>1.29</v>
+      </c>
+      <c r="X129">
+        <v>3.5</v>
+      </c>
+      <c r="Y129">
+        <v>2.25</v>
+      </c>
+      <c r="Z129">
+        <v>1.57</v>
+      </c>
+      <c r="AA129">
+        <v>5.5</v>
+      </c>
+      <c r="AB129">
+        <v>1.14</v>
+      </c>
+      <c r="AC129">
+        <v>3.76</v>
+      </c>
+      <c r="AD129">
+        <v>4.02</v>
+      </c>
+      <c r="AE129">
+        <v>1.86</v>
+      </c>
+      <c r="AF129">
+        <v>1.02</v>
+      </c>
+      <c r="AG129">
+        <v>19</v>
+      </c>
+      <c r="AH129">
+        <v>1.18</v>
+      </c>
+      <c r="AI129">
+        <v>5</v>
+      </c>
+      <c r="AJ129">
+        <v>1.53</v>
+      </c>
+      <c r="AK129">
+        <v>2.45</v>
+      </c>
+      <c r="AL129">
+        <v>1.5</v>
+      </c>
+      <c r="AM129">
+        <v>2.5</v>
+      </c>
+      <c r="AN129">
+        <v>1.9</v>
+      </c>
+      <c r="AO129">
+        <v>1.24</v>
+      </c>
+      <c r="AP129">
+        <v>1.27</v>
+      </c>
+      <c r="AQ129">
+        <v>1.43</v>
+      </c>
+      <c r="AR129">
+        <v>0.86</v>
+      </c>
+      <c r="AS129">
+        <v>1.25</v>
+      </c>
+      <c r="AT129">
+        <v>1.13</v>
+      </c>
+      <c r="AU129">
+        <v>1.55</v>
+      </c>
+      <c r="AV129">
+        <v>1.75</v>
+      </c>
+      <c r="AW129">
+        <v>3.3</v>
+      </c>
+      <c r="AX129">
+        <v>2.86</v>
+      </c>
+      <c r="AY129">
+        <v>7.3</v>
+      </c>
+      <c r="AZ129">
+        <v>1.67</v>
+      </c>
+      <c r="BA129">
+        <v>1.29</v>
+      </c>
+      <c r="BB129">
+        <v>1.66</v>
+      </c>
+      <c r="BC129">
+        <v>2.03</v>
+      </c>
+      <c r="BD129">
+        <v>2.53</v>
+      </c>
+      <c r="BE129">
+        <v>3.56</v>
+      </c>
+      <c r="BF129">
+        <v>6</v>
+      </c>
+      <c r="BG129">
+        <v>4</v>
+      </c>
+      <c r="BH129">
+        <v>1</v>
+      </c>
+      <c r="BI129">
+        <v>11</v>
+      </c>
+      <c r="BJ129">
+        <v>7</v>
+      </c>
+      <c r="BK129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2710066</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44877.47916666666</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>79</v>
+      </c>
+      <c r="H130" t="s">
+        <v>68</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>185</v>
+      </c>
+      <c r="P130" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q130">
+        <v>7</v>
+      </c>
+      <c r="R130">
+        <v>1</v>
+      </c>
+      <c r="S130">
+        <v>8</v>
+      </c>
+      <c r="T130">
+        <v>2.4</v>
+      </c>
+      <c r="U130">
+        <v>2.4</v>
+      </c>
+      <c r="V130">
+        <v>4</v>
+      </c>
+      <c r="W130">
+        <v>1.29</v>
+      </c>
+      <c r="X130">
+        <v>3.5</v>
+      </c>
+      <c r="Y130">
+        <v>2.38</v>
+      </c>
+      <c r="Z130">
+        <v>1.53</v>
+      </c>
+      <c r="AA130">
+        <v>5.5</v>
+      </c>
+      <c r="AB130">
+        <v>1.14</v>
+      </c>
+      <c r="AC130">
+        <v>1.87</v>
+      </c>
+      <c r="AD130">
+        <v>3.96</v>
+      </c>
+      <c r="AE130">
+        <v>3.76</v>
+      </c>
+      <c r="AF130">
+        <v>1.03</v>
+      </c>
+      <c r="AG130">
+        <v>17</v>
+      </c>
+      <c r="AH130">
+        <v>1.2</v>
+      </c>
+      <c r="AI130">
+        <v>4.5</v>
+      </c>
+      <c r="AJ130">
+        <v>1.6</v>
+      </c>
+      <c r="AK130">
+        <v>2.2</v>
+      </c>
+      <c r="AL130">
+        <v>1.57</v>
+      </c>
+      <c r="AM130">
+        <v>2.25</v>
+      </c>
+      <c r="AN130">
+        <v>1.25</v>
+      </c>
+      <c r="AO130">
+        <v>1.26</v>
+      </c>
+      <c r="AP130">
+        <v>1.87</v>
+      </c>
+      <c r="AQ130">
+        <v>1.43</v>
+      </c>
+      <c r="AR130">
+        <v>1.14</v>
+      </c>
+      <c r="AS130">
+        <v>1.25</v>
+      </c>
+      <c r="AT130">
+        <v>1.38</v>
+      </c>
+      <c r="AU130">
+        <v>1.81</v>
+      </c>
+      <c r="AV130">
+        <v>1.21</v>
+      </c>
+      <c r="AW130">
+        <v>3.02</v>
+      </c>
+      <c r="AX130">
+        <v>1.51</v>
+      </c>
+      <c r="AY130">
+        <v>8.6</v>
+      </c>
+      <c r="AZ130">
+        <v>3.24</v>
+      </c>
+      <c r="BA130">
+        <v>1.2</v>
+      </c>
+      <c r="BB130">
+        <v>1.41</v>
+      </c>
+      <c r="BC130">
+        <v>1.78</v>
+      </c>
+      <c r="BD130">
+        <v>2.19</v>
+      </c>
+      <c r="BE130">
+        <v>2.79</v>
+      </c>
+      <c r="BF130">
+        <v>10</v>
+      </c>
+      <c r="BG130">
+        <v>4</v>
+      </c>
+      <c r="BH130">
+        <v>14</v>
+      </c>
+      <c r="BI130">
+        <v>3</v>
+      </c>
+      <c r="BJ130">
+        <v>24</v>
+      </c>
+      <c r="BK130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2710068</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44877.47916666666</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" t="s">
+        <v>69</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>88</v>
+      </c>
+      <c r="P131" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q131">
+        <v>6</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>8</v>
+      </c>
+      <c r="T131">
+        <v>2.63</v>
+      </c>
+      <c r="U131">
+        <v>2.3</v>
+      </c>
+      <c r="V131">
+        <v>3.75</v>
+      </c>
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>3.25</v>
+      </c>
+      <c r="Y131">
+        <v>2.5</v>
+      </c>
+      <c r="Z131">
+        <v>1.5</v>
+      </c>
+      <c r="AA131">
+        <v>6.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.11</v>
+      </c>
+      <c r="AC131">
+        <v>2.01</v>
+      </c>
+      <c r="AD131">
+        <v>3.74</v>
+      </c>
+      <c r="AE131">
+        <v>3.46</v>
+      </c>
+      <c r="AF131">
+        <v>1.03</v>
+      </c>
+      <c r="AG131">
+        <v>15</v>
+      </c>
+      <c r="AH131">
+        <v>1.22</v>
+      </c>
+      <c r="AI131">
+        <v>4.33</v>
+      </c>
+      <c r="AJ131">
+        <v>1.61</v>
+      </c>
+      <c r="AK131">
+        <v>2.15</v>
+      </c>
+      <c r="AL131">
+        <v>1.57</v>
+      </c>
+      <c r="AM131">
+        <v>2.25</v>
+      </c>
+      <c r="AN131">
+        <v>1.32</v>
+      </c>
+      <c r="AO131">
+        <v>1.27</v>
+      </c>
+      <c r="AP131">
+        <v>1.72</v>
+      </c>
+      <c r="AQ131">
+        <v>0.71</v>
+      </c>
+      <c r="AR131">
+        <v>0</v>
+      </c>
+      <c r="AS131">
+        <v>0.63</v>
+      </c>
+      <c r="AT131">
+        <v>0.38</v>
+      </c>
+      <c r="AU131">
+        <v>1.31</v>
+      </c>
+      <c r="AV131">
+        <v>1.29</v>
+      </c>
+      <c r="AW131">
+        <v>2.6</v>
+      </c>
+      <c r="AX131">
+        <v>1.83</v>
+      </c>
+      <c r="AY131">
+        <v>7.1</v>
+      </c>
+      <c r="AZ131">
+        <v>2.49</v>
+      </c>
+      <c r="BA131">
+        <v>1.27</v>
+      </c>
+      <c r="BB131">
+        <v>1.6</v>
+      </c>
+      <c r="BC131">
+        <v>1.96</v>
+      </c>
+      <c r="BD131">
+        <v>2.44</v>
+      </c>
+      <c r="BE131">
+        <v>3.34</v>
+      </c>
+      <c r="BF131">
+        <v>4</v>
+      </c>
+      <c r="BG131">
+        <v>5</v>
+      </c>
+      <c r="BH131">
+        <v>15</v>
+      </c>
+      <c r="BI131">
+        <v>7</v>
+      </c>
+      <c r="BJ131">
+        <v>19</v>
+      </c>
+      <c r="BK131">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2710063</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44877.47916666666</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>77</v>
+      </c>
+      <c r="H132" t="s">
+        <v>72</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>186</v>
+      </c>
+      <c r="P132" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q132">
+        <v>4</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
+        <v>6</v>
+      </c>
+      <c r="T132">
+        <v>2.2</v>
+      </c>
+      <c r="U132">
+        <v>2.5</v>
+      </c>
+      <c r="V132">
+        <v>4.33</v>
+      </c>
+      <c r="W132">
+        <v>1.25</v>
+      </c>
+      <c r="X132">
+        <v>3.75</v>
+      </c>
+      <c r="Y132">
+        <v>2.2</v>
+      </c>
+      <c r="Z132">
+        <v>1.62</v>
+      </c>
+      <c r="AA132">
+        <v>5</v>
+      </c>
+      <c r="AB132">
+        <v>1.17</v>
+      </c>
+      <c r="AC132">
+        <v>1.74</v>
+      </c>
+      <c r="AD132">
+        <v>4.22</v>
+      </c>
+      <c r="AE132">
+        <v>4.16</v>
+      </c>
+      <c r="AF132">
+        <v>1.02</v>
+      </c>
+      <c r="AG132">
+        <v>19</v>
+      </c>
+      <c r="AH132">
+        <v>1.16</v>
+      </c>
+      <c r="AI132">
+        <v>5.5</v>
+      </c>
+      <c r="AJ132">
+        <v>1.5</v>
+      </c>
+      <c r="AK132">
+        <v>2.55</v>
+      </c>
+      <c r="AL132">
+        <v>1.53</v>
+      </c>
+      <c r="AM132">
+        <v>2.38</v>
+      </c>
+      <c r="AN132">
+        <v>1.21</v>
+      </c>
+      <c r="AO132">
+        <v>1.24</v>
+      </c>
+      <c r="AP132">
+        <v>2.15</v>
+      </c>
+      <c r="AQ132">
+        <v>1.14</v>
+      </c>
+      <c r="AR132">
+        <v>0.5</v>
+      </c>
+      <c r="AS132">
+        <v>1.38</v>
+      </c>
+      <c r="AT132">
+        <v>0.43</v>
+      </c>
+      <c r="AU132">
+        <v>1.9</v>
+      </c>
+      <c r="AV132">
+        <v>1.59</v>
+      </c>
+      <c r="AW132">
+        <v>3.49</v>
+      </c>
+      <c r="AX132">
+        <v>1.52</v>
+      </c>
+      <c r="AY132">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ132">
+        <v>3.24</v>
+      </c>
+      <c r="BA132">
+        <v>1.28</v>
+      </c>
+      <c r="BB132">
+        <v>1.59</v>
+      </c>
+      <c r="BC132">
+        <v>1.97</v>
+      </c>
+      <c r="BD132">
+        <v>2.42</v>
+      </c>
+      <c r="BE132">
+        <v>3.34</v>
+      </c>
+      <c r="BF132">
+        <v>5</v>
+      </c>
+      <c r="BG132">
+        <v>2</v>
+      </c>
+      <c r="BH132">
+        <v>8</v>
+      </c>
+      <c r="BI132">
+        <v>7</v>
+      </c>
+      <c r="BJ132">
+        <v>13</v>
+      </c>
+      <c r="BK132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2710069</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44877.47916666666</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>76</v>
+      </c>
+      <c r="H133" t="s">
+        <v>73</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>187</v>
+      </c>
+      <c r="P133" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q133">
+        <v>10</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133">
+        <v>15</v>
+      </c>
+      <c r="T133">
+        <v>2.75</v>
+      </c>
+      <c r="U133">
+        <v>2.3</v>
+      </c>
+      <c r="V133">
+        <v>3.4</v>
+      </c>
+      <c r="W133">
+        <v>1.3</v>
+      </c>
+      <c r="X133">
+        <v>3.4</v>
+      </c>
+      <c r="Y133">
+        <v>2.5</v>
+      </c>
+      <c r="Z133">
+        <v>1.5</v>
+      </c>
+      <c r="AA133">
+        <v>6</v>
+      </c>
+      <c r="AB133">
+        <v>1.13</v>
+      </c>
+      <c r="AC133">
+        <v>2.33</v>
+      </c>
+      <c r="AD133">
+        <v>3.78</v>
+      </c>
+      <c r="AE133">
+        <v>2.43</v>
+      </c>
+      <c r="AF133">
+        <v>1.03</v>
+      </c>
+      <c r="AG133">
+        <v>15</v>
+      </c>
+      <c r="AH133">
+        <v>1.22</v>
+      </c>
+      <c r="AI133">
+        <v>4.33</v>
+      </c>
+      <c r="AJ133">
+        <v>1.61</v>
+      </c>
+      <c r="AK133">
+        <v>2.15</v>
+      </c>
+      <c r="AL133">
+        <v>1.57</v>
+      </c>
+      <c r="AM133">
+        <v>2.25</v>
+      </c>
+      <c r="AN133">
+        <v>1.4</v>
+      </c>
+      <c r="AO133">
+        <v>1.27</v>
+      </c>
+      <c r="AP133">
+        <v>1.6</v>
+      </c>
+      <c r="AQ133">
+        <v>1</v>
+      </c>
+      <c r="AR133">
+        <v>0.86</v>
+      </c>
+      <c r="AS133">
+        <v>1.25</v>
+      </c>
+      <c r="AT133">
+        <v>0.75</v>
+      </c>
+      <c r="AU133">
+        <v>1.47</v>
+      </c>
+      <c r="AV133">
+        <v>1.39</v>
+      </c>
+      <c r="AW133">
+        <v>2.86</v>
+      </c>
+      <c r="AX133">
+        <v>1.95</v>
+      </c>
+      <c r="AY133">
+        <v>7.2</v>
+      </c>
+      <c r="AZ133">
+        <v>2.3</v>
+      </c>
+      <c r="BA133">
+        <v>1.2</v>
+      </c>
+      <c r="BB133">
+        <v>1.41</v>
+      </c>
+      <c r="BC133">
+        <v>1.79</v>
+      </c>
+      <c r="BD133">
+        <v>2.21</v>
+      </c>
+      <c r="BE133">
+        <v>2.88</v>
+      </c>
+      <c r="BF133">
+        <v>7</v>
+      </c>
+      <c r="BG133">
+        <v>3</v>
+      </c>
+      <c r="BH133">
+        <v>8</v>
+      </c>
+      <c r="BI133">
+        <v>7</v>
+      </c>
+      <c r="BJ133">
+        <v>15</v>
+      </c>
+      <c r="BK133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2710070</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44877.60416666666</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>80</v>
+      </c>
+      <c r="H134" t="s">
+        <v>82</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>88</v>
+      </c>
+      <c r="P134" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q134">
+        <v>4</v>
+      </c>
+      <c r="R134">
+        <v>5</v>
+      </c>
+      <c r="S134">
+        <v>9</v>
+      </c>
+      <c r="T134">
+        <v>9</v>
+      </c>
+      <c r="U134">
+        <v>3.25</v>
+      </c>
+      <c r="V134">
+        <v>1.5</v>
+      </c>
+      <c r="W134">
+        <v>1.17</v>
+      </c>
+      <c r="X134">
+        <v>5</v>
+      </c>
+      <c r="Y134">
+        <v>1.73</v>
+      </c>
+      <c r="Z134">
+        <v>2</v>
+      </c>
+      <c r="AA134">
+        <v>3.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.29</v>
+      </c>
+      <c r="AC134">
+        <v>13</v>
+      </c>
+      <c r="AD134">
+        <v>8</v>
+      </c>
+      <c r="AE134">
+        <v>1.17</v>
+      </c>
+      <c r="AF134">
+        <v>1</v>
+      </c>
+      <c r="AG134">
+        <v>41</v>
+      </c>
+      <c r="AH134">
+        <v>1.05</v>
+      </c>
+      <c r="AI134">
+        <v>9</v>
+      </c>
+      <c r="AJ134">
+        <v>1.25</v>
+      </c>
+      <c r="AK134">
+        <v>3.75</v>
+      </c>
+      <c r="AL134">
+        <v>1.7</v>
+      </c>
+      <c r="AM134">
+        <v>2.05</v>
+      </c>
+      <c r="AN134">
+        <v>5</v>
+      </c>
+      <c r="AO134">
+        <v>1.08</v>
+      </c>
+      <c r="AP134">
+        <v>1.02</v>
+      </c>
+      <c r="AQ134">
+        <v>1</v>
+      </c>
+      <c r="AR134">
+        <v>2</v>
+      </c>
+      <c r="AS134">
+        <v>0.88</v>
+      </c>
+      <c r="AT134">
+        <v>2.13</v>
+      </c>
+      <c r="AU134">
+        <v>1.73</v>
+      </c>
+      <c r="AV134">
+        <v>2.27</v>
+      </c>
+      <c r="AW134">
+        <v>4</v>
+      </c>
+      <c r="AX134">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AY134">
+        <v>13.25</v>
+      </c>
+      <c r="AZ134">
+        <v>1.11</v>
+      </c>
+      <c r="BA134">
+        <v>1.17</v>
+      </c>
+      <c r="BB134">
+        <v>1.35</v>
+      </c>
+      <c r="BC134">
+        <v>1.69</v>
+      </c>
+      <c r="BD134">
+        <v>2.09</v>
+      </c>
+      <c r="BE134">
+        <v>2.62</v>
+      </c>
+      <c r="BF134">
+        <v>0</v>
+      </c>
+      <c r="BG134">
+        <v>6</v>
+      </c>
+      <c r="BH134">
+        <v>3</v>
+      </c>
+      <c r="BI134">
+        <v>13</v>
+      </c>
+      <c r="BJ134">
+        <v>3</v>
+      </c>
+      <c r="BK134">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2710065</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44878.47916666666</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>81</v>
+      </c>
+      <c r="H135" t="s">
+        <v>65</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>188</v>
+      </c>
+      <c r="P135" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q135">
+        <v>5</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>7</v>
+      </c>
+      <c r="T135">
+        <v>3.1</v>
+      </c>
+      <c r="U135">
+        <v>2.25</v>
+      </c>
+      <c r="V135">
+        <v>3.2</v>
+      </c>
+      <c r="W135">
+        <v>1.33</v>
+      </c>
+      <c r="X135">
+        <v>3.25</v>
+      </c>
+      <c r="Y135">
+        <v>2.63</v>
+      </c>
+      <c r="Z135">
+        <v>1.44</v>
+      </c>
+      <c r="AA135">
+        <v>6.5</v>
+      </c>
+      <c r="AB135">
+        <v>1.11</v>
+      </c>
+      <c r="AC135">
+        <v>2.5</v>
+      </c>
+      <c r="AD135">
+        <v>3.5</v>
+      </c>
+      <c r="AE135">
+        <v>2.55</v>
+      </c>
+      <c r="AF135">
+        <v>1.04</v>
+      </c>
+      <c r="AG135">
+        <v>14</v>
+      </c>
+      <c r="AH135">
+        <v>1.24</v>
+      </c>
+      <c r="AI135">
+        <v>4.17</v>
+      </c>
+      <c r="AJ135">
+        <v>1.71</v>
+      </c>
+      <c r="AK135">
+        <v>1.99</v>
+      </c>
+      <c r="AL135">
+        <v>1.62</v>
+      </c>
+      <c r="AM135">
+        <v>2.2</v>
+      </c>
+      <c r="AN135">
+        <v>1.48</v>
+      </c>
+      <c r="AO135">
+        <v>1.32</v>
+      </c>
+      <c r="AP135">
+        <v>1.5</v>
+      </c>
+      <c r="AQ135">
+        <v>1</v>
+      </c>
+      <c r="AR135">
+        <v>2.17</v>
+      </c>
+      <c r="AS135">
+        <v>1</v>
+      </c>
+      <c r="AT135">
+        <v>2</v>
+      </c>
+      <c r="AU135">
+        <v>1.62</v>
+      </c>
+      <c r="AV135">
+        <v>1.63</v>
+      </c>
+      <c r="AW135">
+        <v>3.25</v>
+      </c>
+      <c r="AX135">
+        <v>1.95</v>
+      </c>
+      <c r="AY135">
+        <v>7.1</v>
+      </c>
+      <c r="AZ135">
+        <v>2.31</v>
+      </c>
+      <c r="BA135">
+        <v>1.22</v>
+      </c>
+      <c r="BB135">
+        <v>1.51</v>
+      </c>
+      <c r="BC135">
+        <v>1.83</v>
+      </c>
+      <c r="BD135">
+        <v>2.25</v>
+      </c>
+      <c r="BE135">
+        <v>3.04</v>
+      </c>
+      <c r="BF135">
+        <v>6</v>
+      </c>
+      <c r="BG135">
+        <v>5</v>
+      </c>
+      <c r="BH135">
+        <v>12</v>
+      </c>
+      <c r="BI135">
+        <v>7</v>
+      </c>
+      <c r="BJ135">
+        <v>18</v>
+      </c>
+      <c r="BK135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2710064</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44878.5625</v>
+      </c>
+      <c r="F136">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>74</v>
+      </c>
+      <c r="H136" t="s">
+        <v>66</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>4</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>5</v>
+      </c>
+      <c r="O136" t="s">
+        <v>189</v>
+      </c>
+      <c r="P136" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q136">
+        <v>2</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136">
+        <v>3</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>2.1</v>
+      </c>
+      <c r="V136">
+        <v>4.33</v>
+      </c>
+      <c r="W136">
+        <v>1.44</v>
+      </c>
+      <c r="X136">
+        <v>2.63</v>
+      </c>
+      <c r="Y136">
+        <v>3.25</v>
+      </c>
+      <c r="Z136">
+        <v>1.33</v>
+      </c>
+      <c r="AA136">
+        <v>9</v>
+      </c>
+      <c r="AB136">
+        <v>1.07</v>
+      </c>
+      <c r="AC136">
+        <v>2.12</v>
+      </c>
+      <c r="AD136">
+        <v>3.44</v>
+      </c>
+      <c r="AE136">
+        <v>3.92</v>
+      </c>
+      <c r="AF136">
+        <v>1.06</v>
+      </c>
+      <c r="AG136">
+        <v>8.5</v>
+      </c>
+      <c r="AH136">
+        <v>1.35</v>
+      </c>
+      <c r="AI136">
+        <v>3.1</v>
+      </c>
+      <c r="AJ136">
+        <v>2.01</v>
+      </c>
+      <c r="AK136">
+        <v>1.79</v>
+      </c>
+      <c r="AL136">
+        <v>1.91</v>
+      </c>
+      <c r="AM136">
+        <v>1.91</v>
+      </c>
+      <c r="AN136">
+        <v>1.3</v>
+      </c>
+      <c r="AO136">
+        <v>1.35</v>
+      </c>
+      <c r="AP136">
+        <v>1.72</v>
+      </c>
+      <c r="AQ136">
+        <v>2.17</v>
+      </c>
+      <c r="AR136">
+        <v>1.43</v>
+      </c>
+      <c r="AS136">
+        <v>2.29</v>
+      </c>
+      <c r="AT136">
+        <v>1.25</v>
+      </c>
+      <c r="AU136">
+        <v>2.16</v>
+      </c>
+      <c r="AV136">
+        <v>1.38</v>
+      </c>
+      <c r="AW136">
+        <v>3.54</v>
+      </c>
+      <c r="AX136">
+        <v>1.75</v>
+      </c>
+      <c r="AY136">
+        <v>7.2</v>
+      </c>
+      <c r="AZ136">
+        <v>2.66</v>
+      </c>
+      <c r="BA136">
+        <v>1.29</v>
+      </c>
+      <c r="BB136">
+        <v>1.66</v>
+      </c>
+      <c r="BC136">
+        <v>2.03</v>
+      </c>
+      <c r="BD136">
+        <v>2.53</v>
+      </c>
+      <c r="BE136">
+        <v>3.56</v>
+      </c>
+      <c r="BF136">
+        <v>7</v>
+      </c>
+      <c r="BG136">
+        <v>3</v>
+      </c>
+      <c r="BH136">
+        <v>2</v>
+      </c>
+      <c r="BI136">
+        <v>1</v>
+      </c>
+      <c r="BJ136">
+        <v>9</v>
+      </c>
+      <c r="BK136">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.63</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT15" t="n">
         <v>0.75</v>
@@ -6181,7 +6181,7 @@
         <v>1.43</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.45</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT33" t="n">
         <v>1.38</v>
@@ -9023,7 +9023,7 @@
         <v>2.43</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU42" t="n">
         <v>0.98</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT49" t="n">
         <v>1.13</v>
@@ -12474,7 +12474,7 @@
         <v>0.63</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.1</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT69" t="n">
         <v>0.38</v>
@@ -16534,7 +16534,7 @@
         <v>2.29</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU79" t="n">
         <v>1.66</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT88" t="n">
         <v>0.57</v>
@@ -19782,7 +19782,7 @@
         <v>1.25</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU95" t="n">
         <v>2.05</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -23233,7 +23233,7 @@
         <v>1.25</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU112" t="n">
         <v>1.51</v>
@@ -25666,7 +25666,7 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT124" t="n">
         <v>1.75</v>
@@ -27699,7 +27699,7 @@
         <v>0.88</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU134" t="n">
         <v>1.73</v>
@@ -28157,6 +28157,209 @@
       </c>
       <c r="BK136" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2710073</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44946.6875</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>3</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2</v>
+      </c>
+      <c r="S137" t="n">
+        <v>5</v>
+      </c>
+      <c r="T137" t="n">
+        <v>4</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X137" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.63</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
         <v>1.13</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.38</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU20" t="n">
         <v>1.02</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU21" t="n">
         <v>0.71</v>
@@ -4963,7 +4963,7 @@
         <v>0.63</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU23" t="n">
         <v>1.75</v>
@@ -5369,7 +5369,7 @@
         <v>1.38</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT26" t="n">
         <v>1.13</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT27" t="n">
         <v>0.75</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>1.25</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU32" t="n">
         <v>2.63</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT36" t="n">
         <v>0.43</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.43</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU39" t="n">
         <v>1.5</v>
@@ -8614,10 +8614,10 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -8820,7 +8820,7 @@
         <v>1.38</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU41" t="n">
         <v>2.1</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT42" t="n">
         <v>2</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT43" t="n">
         <v>0.75</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT44" t="n">
         <v>1.13</v>
@@ -9632,7 +9632,7 @@
         <v>0.63</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.02</v>
@@ -9835,7 +9835,7 @@
         <v>2.25</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU46" t="n">
         <v>1.38</v>
@@ -10038,7 +10038,7 @@
         <v>1.25</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU47" t="n">
         <v>1.19</v>
@@ -10647,7 +10647,7 @@
         <v>1.25</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU50" t="n">
         <v>2.42</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT51" t="n">
         <v>1.38</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT54" t="n">
         <v>1.25</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.61</v>
@@ -12065,10 +12065,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU57" t="n">
         <v>1.51</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT58" t="n">
         <v>2</v>
@@ -12677,7 +12677,7 @@
         <v>1.38</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU60" t="n">
         <v>2.01</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT62" t="n">
         <v>1.38</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT63" t="n">
         <v>0.75</v>
@@ -13489,7 +13489,7 @@
         <v>1.25</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU64" t="n">
         <v>2.33</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT66" t="n">
         <v>0.43</v>
@@ -14095,7 +14095,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT67" t="n">
         <v>1.25</v>
@@ -14301,7 +14301,7 @@
         <v>2.29</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU68" t="n">
         <v>2.23</v>
@@ -14704,7 +14704,7 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT70" t="n">
         <v>1.13</v>
@@ -15113,7 +15113,7 @@
         <v>1.25</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.51</v>
@@ -15316,7 +15316,7 @@
         <v>0.88</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU73" t="n">
         <v>1.78</v>
@@ -15519,7 +15519,7 @@
         <v>1.25</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT75" t="n">
         <v>2</v>
@@ -16331,7 +16331,7 @@
         <v>1.38</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU78" t="n">
         <v>2.08</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT79" t="n">
         <v>2</v>
@@ -16940,7 +16940,7 @@
         <v>1.25</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU81" t="n">
         <v>1.55</v>
@@ -17140,7 +17140,7 @@
         <v>1.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT82" t="n">
         <v>1.25</v>
@@ -17346,7 +17346,7 @@
         <v>0.88</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.86</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT84" t="n">
         <v>1</v>
@@ -17749,7 +17749,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT85" t="n">
         <v>0.57</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT86" t="n">
         <v>0.38</v>
@@ -18158,7 +18158,7 @@
         <v>1.25</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18361,7 +18361,7 @@
         <v>2.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.96</v>
@@ -18561,10 +18561,10 @@
         <v>2.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU89" t="n">
         <v>1.93</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT90" t="n">
         <v>1.13</v>
@@ -18970,7 +18970,7 @@
         <v>2.43</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU91" t="n">
         <v>3</v>
@@ -19579,7 +19579,7 @@
         <v>2.29</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU94" t="n">
         <v>2.12</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT97" t="n">
         <v>0.43</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT99" t="n">
         <v>1.25</v>
@@ -20797,7 +20797,7 @@
         <v>1.25</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU100" t="n">
         <v>1.53</v>
@@ -21000,7 +21000,7 @@
         <v>1.25</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU101" t="n">
         <v>1.52</v>
@@ -21200,10 +21200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU102" t="n">
         <v>1.49</v>
@@ -21403,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT103" t="n">
         <v>0.38</v>
@@ -21812,7 +21812,7 @@
         <v>2.43</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU105" t="n">
         <v>2.81</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT106" t="n">
         <v>1.13</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT107" t="n">
         <v>0.57</v>
@@ -22421,7 +22421,7 @@
         <v>0.88</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -22621,10 +22621,10 @@
         <v>1.4</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU109" t="n">
         <v>1.95</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT114" t="n">
         <v>0.38</v>
@@ -24045,7 +24045,7 @@
         <v>1.25</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU116" t="n">
         <v>1.56</v>
@@ -24651,7 +24651,7 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT119" t="n">
         <v>1.13</v>
@@ -24857,7 +24857,7 @@
         <v>2.43</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU120" t="n">
         <v>2.81</v>
@@ -25057,7 +25057,7 @@
         <v>0.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT121" t="n">
         <v>0.57</v>
@@ -25260,10 +25260,10 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU122" t="n">
         <v>1.66</v>
@@ -25463,7 +25463,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25669,7 +25669,7 @@
         <v>2.5</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU124" t="n">
         <v>1.83</v>
@@ -25869,10 +25869,10 @@
         <v>1.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU125" t="n">
         <v>1.44</v>
@@ -26072,10 +26072,10 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU126" t="n">
         <v>1.72</v>
@@ -26278,7 +26278,7 @@
         <v>0.88</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU127" t="n">
         <v>1.74</v>
@@ -28360,6 +28360,1427 @@
       </c>
       <c r="BK137" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2710074</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44947.47916666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>4</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['73', '89', '90+6']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>9</v>
+      </c>
+      <c r="R138" t="n">
+        <v>4</v>
+      </c>
+      <c r="S138" t="n">
+        <v>13</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2710077</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44947.47916666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>3</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['22', '84', '90+1']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>5</v>
+      </c>
+      <c r="R139" t="n">
+        <v>4</v>
+      </c>
+      <c r="S139" t="n">
+        <v>9</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V139" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2710078</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44947.47916666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>3</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3</v>
+      </c>
+      <c r="L140" t="n">
+        <v>6</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>6</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['1', '28', '37', '55', '80', '90+4']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>5</v>
+      </c>
+      <c r="S140" t="n">
+        <v>5</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2710079</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44947.47916666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Hertha BSC</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>3</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>4</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['22', '44', '56']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>6</v>
+      </c>
+      <c r="S141" t="n">
+        <v>7</v>
+      </c>
+      <c r="T141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2710080</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44947.47916666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>3</v>
+      </c>
+      <c r="R142" t="n">
+        <v>5</v>
+      </c>
+      <c r="S142" t="n">
+        <v>8</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2710075</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44947.60416666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>5</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>6</v>
+      </c>
+      <c r="L143" t="n">
+        <v>7</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>8</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['9', '15', '21', '30', '36', '54', '76']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2</v>
+      </c>
+      <c r="S143" t="n">
+        <v>4</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2710072</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44948.47916666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2</v>
+      </c>
+      <c r="K144" t="n">
+        <v>4</v>
+      </c>
+      <c r="L144" t="n">
+        <v>4</v>
+      </c>
+      <c r="M144" t="n">
+        <v>3</v>
+      </c>
+      <c r="N144" t="n">
+        <v>7</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['29', '42', '75', '78']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['40', '45+1', '76']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>7</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3</v>
+      </c>
+      <c r="S144" t="n">
+        <v>10</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V144" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X144" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>2.38</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.5</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU34" t="n">
         <v>1.43</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
         <v>1.44</v>
@@ -11053,7 +11053,7 @@
         <v>1.25</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -12877,7 +12877,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>1.13</v>
@@ -13692,7 +13692,7 @@
         <v>2.43</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU65" t="n">
         <v>3.09</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT80" t="n">
         <v>0.75</v>
@@ -17549,7 +17549,7 @@
         <v>1.78</v>
       </c>
       <c r="AT84" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU84" t="n">
         <v>1.47</v>
@@ -20388,7 +20388,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT98" t="n">
         <v>2</v>
@@ -21609,7 +21609,7 @@
         <v>2.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU104" t="n">
         <v>1.95</v>
@@ -22824,7 +22824,7 @@
         <v>0.6</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT110" t="n">
         <v>0.43</v>
@@ -25466,7 +25466,7 @@
         <v>1.75</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU123" t="n">
         <v>1.86</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT128" t="n">
         <v>1.13</v>
@@ -29765,22 +29765,225 @@
         <v>2.98</v>
       </c>
       <c r="BF144" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG144" t="n">
         <v>5</v>
       </c>
-      <c r="BG144" t="n">
-        <v>2</v>
-      </c>
       <c r="BH144" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BI144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2710076</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44948.5625</v>
+      </c>
+      <c r="F145" t="n">
+        <v>16</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3</v>
+      </c>
+      <c r="N145" t="n">
         <v>5</v>
       </c>
-      <c r="BJ144" t="n">
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['82', '90+3']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['21', '43', '67']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>2</v>
+      </c>
+      <c r="R145" t="n">
+        <v>3</v>
+      </c>
+      <c r="S145" t="n">
+        <v>5</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ145" t="n">
         <v>17</v>
       </c>
-      <c r="BK144" t="n">
-        <v>7</v>
+      <c r="BK145" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -3542,7 +3542,7 @@
         <v>2.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT16" t="n">
         <v>0.38</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT17" t="n">
         <v>0.57</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU26" t="n">
         <v>0.86</v>
@@ -5978,7 +5978,7 @@
         <v>1.78</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU27" t="n">
         <v>1.21</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT30" t="n">
         <v>1.25</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT31" t="n">
         <v>1.13</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT32" t="n">
         <v>1.25</v>
@@ -7196,7 +7196,7 @@
         <v>2.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU33" t="n">
         <v>1.76</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT35" t="n">
         <v>0.57</v>
@@ -7805,7 +7805,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>2.88</v>
@@ -9226,7 +9226,7 @@
         <v>1.88</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU43" t="n">
         <v>1.89</v>
@@ -9429,7 +9429,7 @@
         <v>1.78</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU44" t="n">
         <v>1.33</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>3.67</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT50" t="n">
         <v>1.44</v>
@@ -10850,7 +10850,7 @@
         <v>1.78</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU51" t="n">
         <v>1.6</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT52" t="n">
         <v>1.25</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT53" t="n">
         <v>0.38</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13083,7 +13083,7 @@
         <v>2.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU62" t="n">
         <v>1</v>
@@ -13286,7 +13286,7 @@
         <v>1.63</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU63" t="n">
         <v>1.94</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT64" t="n">
         <v>1.56</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT65" t="n">
         <v>1.25</v>
@@ -13895,7 +13895,7 @@
         <v>1.88</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.71</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT73" t="n">
         <v>1.25</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT74" t="n">
         <v>1.38</v>
@@ -15925,7 +15925,7 @@
         <v>0.63</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU76" t="n">
         <v>1.18</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -16737,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU80" t="n">
         <v>1.65</v>
@@ -16937,7 +16937,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT81" t="n">
         <v>1.56</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -18967,7 +18967,7 @@
         <v>2.2</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT91" t="n">
         <v>1.56</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU92" t="n">
         <v>1.47</v>
@@ -19376,7 +19376,7 @@
         <v>1.38</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU93" t="n">
         <v>2.02</v>
@@ -19779,7 +19779,7 @@
         <v>1.6</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT95" t="n">
         <v>2</v>
@@ -19985,7 +19985,7 @@
         <v>0.63</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU96" t="n">
         <v>1.35</v>
@@ -20188,7 +20188,7 @@
         <v>2.38</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.65</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT100" t="n">
         <v>0.25</v>
@@ -21809,7 +21809,7 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT105" t="n">
         <v>1.44</v>
@@ -22418,7 +22418,7 @@
         <v>1.83</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT108" t="n">
         <v>1.56</v>
@@ -22827,7 +22827,7 @@
         <v>2</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.58</v>
@@ -23230,7 +23230,7 @@
         <v>1.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT112" t="n">
         <v>2</v>
@@ -23433,10 +23433,10 @@
         <v>0.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU113" t="n">
         <v>1.89</v>
@@ -23842,7 +23842,7 @@
         <v>1</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU115" t="n">
         <v>1.61</v>
@@ -24451,7 +24451,7 @@
         <v>2.29</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU118" t="n">
         <v>2.23</v>
@@ -24854,7 +24854,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT120" t="n">
         <v>1.38</v>
@@ -26275,7 +26275,7 @@
         <v>1.71</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT127" t="n">
         <v>1.44</v>
@@ -26684,7 +26684,7 @@
         <v>1.25</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU129" t="n">
         <v>1.55</v>
@@ -26884,10 +26884,10 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU130" t="n">
         <v>1.81</v>
@@ -27293,7 +27293,7 @@
         <v>1.38</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU132" t="n">
         <v>1.9</v>
@@ -27493,10 +27493,10 @@
         <v>0.86</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU133" t="n">
         <v>1.47</v>
@@ -27696,7 +27696,7 @@
         <v>2</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT134" t="n">
         <v>2</v>
@@ -29984,6 +29984,818 @@
       </c>
       <c r="BK145" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2710088</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44950.60416666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>4</v>
+      </c>
+      <c r="K146" t="n">
+        <v>4</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>6</v>
+      </c>
+      <c r="N146" t="n">
+        <v>7</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['7', '15', '44', '45+2', '83', '89']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R146" t="n">
+        <v>6</v>
+      </c>
+      <c r="S146" t="n">
+        <v>7</v>
+      </c>
+      <c r="T146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2710087</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44950.6875</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Hertha BSC</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>3</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>5</v>
+      </c>
+      <c r="N147" t="n">
+        <v>5</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['4', '31', '34', '72', '86']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>6</v>
+      </c>
+      <c r="R147" t="n">
+        <v>4</v>
+      </c>
+      <c r="S147" t="n">
+        <v>10</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X147" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2710085</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44950.6875</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" t="n">
+        <v>4</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['11', '90+4']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['45+5', '77']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>6</v>
+      </c>
+      <c r="R148" t="n">
+        <v>4</v>
+      </c>
+      <c r="S148" t="n">
+        <v>10</v>
+      </c>
+      <c r="T148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V148" t="n">
+        <v>4</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2710081</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44950.6875</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>9</v>
+      </c>
+      <c r="R149" t="n">
+        <v>4</v>
+      </c>
+      <c r="S149" t="n">
+        <v>13</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V149" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X149" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK149"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT7" t="n">
         <v>1.56</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT12" t="n">
         <v>0.5</v>
@@ -3136,7 +3136,7 @@
         <v>1.11</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT14" t="n">
         <v>1.25</v>
@@ -3745,7 +3745,7 @@
         <v>1.22</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT22" t="n">
         <v>1.44</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6587,7 +6587,7 @@
         <v>0.78</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU30" t="n">
         <v>1.48</v>
@@ -6790,7 +6790,7 @@
         <v>1.11</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU31" t="n">
         <v>1.46</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT34" t="n">
         <v>1.25</v>
@@ -7602,7 +7602,7 @@
         <v>2.25</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU35" t="n">
         <v>2.88</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU37" t="n">
         <v>0.9399999999999999</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT41" t="n">
         <v>1.56</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT45" t="n">
         <v>0.5</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT47" t="n">
         <v>1.25</v>
@@ -10444,7 +10444,7 @@
         <v>2.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>1.91</v>
@@ -11256,7 +11256,7 @@
         <v>0.78</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU53" t="n">
         <v>1.65</v>
@@ -11459,7 +11459,7 @@
         <v>1.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU54" t="n">
         <v>1.93</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" t="n">
         <v>2.37</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT56" t="n">
         <v>0.5</v>
@@ -12271,7 +12271,7 @@
         <v>1.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU58" t="n">
         <v>1.43</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT59" t="n">
         <v>2</v>
@@ -12674,7 +12674,7 @@
         <v>2.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT60" t="n">
         <v>1.38</v>
@@ -14098,7 +14098,7 @@
         <v>1.78</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU67" t="n">
         <v>1.47</v>
@@ -14298,7 +14298,7 @@
         <v>2.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT68" t="n">
         <v>1.44</v>
@@ -14504,7 +14504,7 @@
         <v>2.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU69" t="n">
         <v>1.85</v>
@@ -14707,7 +14707,7 @@
         <v>1.75</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU70" t="n">
         <v>1.76</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.39</v>
@@ -15722,7 +15722,7 @@
         <v>1.63</v>
       </c>
       <c r="AT75" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU75" t="n">
         <v>1.7</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT76" t="n">
         <v>1.56</v>
@@ -16125,7 +16125,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT77" t="n">
         <v>1.33</v>
@@ -16328,7 +16328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT78" t="n">
         <v>0.25</v>
@@ -17143,7 +17143,7 @@
         <v>1.33</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU82" t="n">
         <v>1.44</v>
@@ -17752,7 +17752,7 @@
         <v>1.88</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU85" t="n">
         <v>1.79</v>
@@ -17955,7 +17955,7 @@
         <v>1.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU86" t="n">
         <v>1.38</v>
@@ -18155,7 +18155,7 @@
         <v>1.8</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT87" t="n">
         <v>1.44</v>
@@ -18767,7 +18767,7 @@
         <v>2.5</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU90" t="n">
         <v>1.19</v>
@@ -19170,7 +19170,7 @@
         <v>1.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT92" t="n">
         <v>0.78</v>
@@ -19373,7 +19373,7 @@
         <v>0.8</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT93" t="n">
         <v>1.56</v>
@@ -19576,7 +19576,7 @@
         <v>2.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT94" t="n">
         <v>1.38</v>
@@ -19982,7 +19982,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT96" t="n">
         <v>1.33</v>
@@ -20391,7 +20391,7 @@
         <v>2</v>
       </c>
       <c r="AT98" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU98" t="n">
         <v>1.69</v>
@@ -20594,7 +20594,7 @@
         <v>1.63</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU99" t="n">
         <v>1.71</v>
@@ -20997,7 +20997,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT101" t="n">
         <v>0.5</v>
@@ -21406,7 +21406,7 @@
         <v>1.88</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU103" t="n">
         <v>1.78</v>
@@ -22015,7 +22015,7 @@
         <v>1.78</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU106" t="n">
         <v>1.63</v>
@@ -22218,7 +22218,7 @@
         <v>2.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -23027,10 +23027,10 @@
         <v>2</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT111" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU111" t="n">
         <v>1.29</v>
@@ -23639,7 +23639,7 @@
         <v>2.38</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT115" t="n">
         <v>1.56</v>
@@ -24042,7 +24042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT116" t="n">
         <v>0.25</v>
@@ -24245,10 +24245,10 @@
         <v>1.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU117" t="n">
         <v>1.96</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT118" t="n">
         <v>0.78</v>
@@ -24654,7 +24654,7 @@
         <v>1.88</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU119" t="n">
         <v>1.85</v>
@@ -25060,7 +25060,7 @@
         <v>1.63</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU121" t="n">
         <v>1.64</v>
@@ -26481,7 +26481,7 @@
         <v>2</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU128" t="n">
         <v>1.58</v>
@@ -26681,7 +26681,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT129" t="n">
         <v>1.33</v>
@@ -27087,10 +27087,10 @@
         <v>0</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU131" t="n">
         <v>1.31</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT132" t="n">
         <v>0.5</v>
@@ -27899,10 +27899,10 @@
         <v>2.17</v>
       </c>
       <c r="AS135" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT135" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU135" t="n">
         <v>1.62</v>
@@ -28102,10 +28102,10 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU136" t="n">
         <v>2.16</v>
@@ -30796,6 +30796,1021 @@
       </c>
       <c r="BK149" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2710084</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>44951.60416666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>3</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['4', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>2</v>
+      </c>
+      <c r="R150" t="n">
+        <v>3</v>
+      </c>
+      <c r="S150" t="n">
+        <v>5</v>
+      </c>
+      <c r="T150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2710089</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>44951.6875</v>
+      </c>
+      <c r="F151" t="n">
+        <v>17</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>3</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['17', '46']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>5</v>
+      </c>
+      <c r="R151" t="n">
+        <v>7</v>
+      </c>
+      <c r="S151" t="n">
+        <v>12</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2710083</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44951.6875</v>
+      </c>
+      <c r="F152" t="n">
+        <v>17</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>4</v>
+      </c>
+      <c r="R152" t="n">
+        <v>3</v>
+      </c>
+      <c r="S152" t="n">
+        <v>7</v>
+      </c>
+      <c r="T152" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2710082</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44951.6875</v>
+      </c>
+      <c r="F153" t="n">
+        <v>17</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>2</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['8', '53']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>3</v>
+      </c>
+      <c r="R153" t="n">
+        <v>4</v>
+      </c>
+      <c r="S153" t="n">
+        <v>7</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V153" t="n">
+        <v>6</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2710086</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44951.6875</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>3</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2</v>
+      </c>
+      <c r="S154" t="n">
+        <v>5</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.56</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT15" t="n">
         <v>0.78</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6587,7 +6587,7 @@
         <v>0.78</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU30" t="n">
         <v>1.48</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT31" t="n">
         <v>1.33</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU32" t="n">
         <v>2.63</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU33" t="n">
         <v>1.76</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT34" t="n">
         <v>1.25</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU35" t="n">
         <v>2.88</v>
@@ -7805,7 +7805,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU36" t="n">
         <v>2.88</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU37" t="n">
         <v>0.9399999999999999</v>
@@ -10035,10 +10035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT47" t="n">
         <v>1.11</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>1.25</v>
       </c>
       <c r="AU47" t="n">
         <v>1.19</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU48" t="n">
         <v>3.67</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT49" t="n">
         <v>1.33</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT50" t="n">
         <v>1.44</v>
@@ -10850,7 +10850,7 @@
         <v>1.78</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU51" t="n">
         <v>1.6</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
         <v>1.25</v>
@@ -11256,7 +11256,7 @@
         <v>0.78</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU53" t="n">
         <v>1.65</v>
@@ -11459,7 +11459,7 @@
         <v>1.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU54" t="n">
         <v>1.93</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU55" t="n">
         <v>2.37</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT56" t="n">
         <v>0.5</v>
@@ -12271,7 +12271,7 @@
         <v>1.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU58" t="n">
         <v>1.43</v>
@@ -13083,7 +13083,7 @@
         <v>2.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU62" t="n">
         <v>1</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT64" t="n">
         <v>1.56</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT65" t="n">
         <v>1.25</v>
@@ -13895,7 +13895,7 @@
         <v>1.88</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU66" t="n">
         <v>1.71</v>
@@ -14098,7 +14098,7 @@
         <v>1.78</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU67" t="n">
         <v>1.47</v>
@@ -14298,7 +14298,7 @@
         <v>2.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT68" t="n">
         <v>1.44</v>
@@ -14501,10 +14501,10 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU69" t="n">
         <v>1.85</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU71" t="n">
         <v>1.39</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15316,7 +15316,7 @@
         <v>0.78</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU73" t="n">
         <v>1.78</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT74" t="n">
         <v>1.38</v>
@@ -15722,7 +15722,7 @@
         <v>1.63</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU75" t="n">
         <v>1.7</v>
@@ -15925,7 +15925,7 @@
         <v>0.89</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU76" t="n">
         <v>1.18</v>
@@ -16125,7 +16125,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT77" t="n">
         <v>1.33</v>
@@ -16937,7 +16937,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
         <v>1.56</v>
@@ -17143,7 +17143,7 @@
         <v>1.33</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU82" t="n">
         <v>1.44</v>
@@ -17752,7 +17752,7 @@
         <v>1.88</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU85" t="n">
         <v>1.79</v>
@@ -17955,7 +17955,7 @@
         <v>1.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU86" t="n">
         <v>1.38</v>
@@ -18155,7 +18155,7 @@
         <v>1.8</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT87" t="n">
         <v>1.44</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT88" t="n">
         <v>0.5</v>
@@ -18564,7 +18564,7 @@
         <v>1.75</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU89" t="n">
         <v>1.93</v>
@@ -18967,7 +18967,7 @@
         <v>2.2</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT91" t="n">
         <v>1.56</v>
@@ -19170,7 +19170,7 @@
         <v>1.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT92" t="n">
         <v>0.78</v>
@@ -19376,7 +19376,7 @@
         <v>1.56</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU93" t="n">
         <v>2.02</v>
@@ -19576,7 +19576,7 @@
         <v>2.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT94" t="n">
         <v>1.38</v>
@@ -19779,7 +19779,7 @@
         <v>1.6</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT95" t="n">
         <v>2</v>
@@ -20188,7 +20188,7 @@
         <v>2.38</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU97" t="n">
         <v>1.65</v>
@@ -20391,7 +20391,7 @@
         <v>2</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU98" t="n">
         <v>1.69</v>
@@ -20594,7 +20594,7 @@
         <v>1.63</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU99" t="n">
         <v>1.71</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT100" t="n">
         <v>0.25</v>
@@ -20997,7 +20997,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT101" t="n">
         <v>0.5</v>
@@ -21203,7 +21203,7 @@
         <v>1.33</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU102" t="n">
         <v>1.49</v>
@@ -21406,7 +21406,7 @@
         <v>1.88</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU103" t="n">
         <v>1.78</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT104" t="n">
         <v>1.25</v>
@@ -21809,7 +21809,7 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT105" t="n">
         <v>1.44</v>
@@ -22218,7 +22218,7 @@
         <v>2.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -22827,7 +22827,7 @@
         <v>2</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU110" t="n">
         <v>1.58</v>
@@ -23030,7 +23030,7 @@
         <v>0.89</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU111" t="n">
         <v>1.29</v>
@@ -23230,7 +23230,7 @@
         <v>1.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT112" t="n">
         <v>2</v>
@@ -23433,7 +23433,7 @@
         <v>0.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT113" t="n">
         <v>1.33</v>
@@ -23639,7 +23639,7 @@
         <v>2.38</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -23839,10 +23839,10 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU115" t="n">
         <v>1.61</v>
@@ -24042,7 +24042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT116" t="n">
         <v>0.25</v>
@@ -24248,7 +24248,7 @@
         <v>1.56</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU117" t="n">
         <v>1.96</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT118" t="n">
         <v>0.78</v>
@@ -24854,7 +24854,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT120" t="n">
         <v>1.38</v>
@@ -25060,7 +25060,7 @@
         <v>1.63</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU121" t="n">
         <v>1.64</v>
@@ -25666,7 +25666,7 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT124" t="n">
         <v>1.56</v>
@@ -25872,7 +25872,7 @@
         <v>2.5</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU125" t="n">
         <v>1.44</v>
@@ -26681,7 +26681,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT129" t="n">
         <v>1.33</v>
@@ -26884,10 +26884,10 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU130" t="n">
         <v>1.81</v>
@@ -27090,7 +27090,7 @@
         <v>0.89</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU131" t="n">
         <v>1.31</v>
@@ -27293,7 +27293,7 @@
         <v>1.56</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU132" t="n">
         <v>1.9</v>
@@ -27493,7 +27493,7 @@
         <v>0.86</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT133" t="n">
         <v>0.78</v>
@@ -27899,10 +27899,10 @@
         <v>2.17</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU135" t="n">
         <v>1.62</v>
@@ -28102,10 +28102,10 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU136" t="n">
         <v>2.16</v>
@@ -28305,7 +28305,7 @@
         <v>2.13</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT137" t="n">
         <v>2</v>
@@ -29729,7 +29729,7 @@
         <v>2.38</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU144" t="n">
         <v>1.63</v>
@@ -30335,10 +30335,10 @@
         <v>1.38</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU147" t="n">
         <v>1.5</v>
@@ -30538,10 +30538,10 @@
         <v>0.43</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU148" t="n">
         <v>1.92</v>
@@ -30741,7 +30741,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT149" t="n">
         <v>0.78</v>
@@ -30944,7 +30944,7 @@
         <v>1.13</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT150" t="n">
         <v>1.33</v>
@@ -31147,10 +31147,10 @@
         <v>1.25</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU151" t="n">
         <v>1.5</v>
@@ -31350,10 +31350,10 @@
         <v>2</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU152" t="n">
         <v>2.05</v>
@@ -31556,7 +31556,7 @@
         <v>1.56</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU153" t="n">
         <v>1.85</v>
@@ -31759,7 +31759,7 @@
         <v>0.89</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU154" t="n">
         <v>1.38</v>
@@ -31811,6 +31811,1427 @@
       </c>
       <c r="BK154" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2710092</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44953.6875</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['25', '49']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>3</v>
+      </c>
+      <c r="R155" t="n">
+        <v>6</v>
+      </c>
+      <c r="S155" t="n">
+        <v>9</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V155" t="n">
+        <v>5</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2710093</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44954.47916666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>3</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>4</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['13', '30', '85']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>3</v>
+      </c>
+      <c r="R156" t="n">
+        <v>7</v>
+      </c>
+      <c r="S156" t="n">
+        <v>10</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V156" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2710094</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44954.47916666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>3</v>
+      </c>
+      <c r="L157" t="n">
+        <v>5</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>7</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['1', '17', '28', '57', '87']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['70', '72']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>3</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2</v>
+      </c>
+      <c r="S157" t="n">
+        <v>5</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V157" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2710095</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44954.47916666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>4</v>
+      </c>
+      <c r="N158" t="n">
+        <v>5</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['12', '37', '83', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>4</v>
+      </c>
+      <c r="R158" t="n">
+        <v>3</v>
+      </c>
+      <c r="S158" t="n">
+        <v>7</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2710096</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44954.47916666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Hertha BSC</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['44', '67']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>3</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2</v>
+      </c>
+      <c r="S159" t="n">
+        <v>5</v>
+      </c>
+      <c r="T159" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2710098</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44954.47916666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['24', '77']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>2</v>
+      </c>
+      <c r="R160" t="n">
+        <v>6</v>
+      </c>
+      <c r="S160" t="n">
+        <v>8</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2710090</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44954.60416666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>18</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>7</v>
+      </c>
+      <c r="R161" t="n">
+        <v>6</v>
+      </c>
+      <c r="S161" t="n">
+        <v>13</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V161" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X161" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>2.22</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT14" t="n">
         <v>1.11</v>
@@ -3542,7 +3542,7 @@
         <v>2.56</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT17" t="n">
         <v>0.78</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>1.78</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU27" t="n">
         <v>1.21</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT30" t="n">
         <v>1.6</v>
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.46</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT41" t="n">
         <v>1.56</v>
@@ -9226,7 +9226,7 @@
         <v>1.88</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU43" t="n">
         <v>1.89</v>
@@ -10444,7 +10444,7 @@
         <v>2.56</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.91</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT53" t="n">
         <v>0.3</v>
@@ -12674,7 +12674,7 @@
         <v>2.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT60" t="n">
         <v>1.38</v>
@@ -13286,7 +13286,7 @@
         <v>1.63</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU63" t="n">
         <v>1.94</v>
@@ -14707,7 +14707,7 @@
         <v>1.75</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.76</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT73" t="n">
         <v>1.11</v>
@@ -16328,7 +16328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT78" t="n">
         <v>0.25</v>
@@ -16737,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU80" t="n">
         <v>1.65</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -18767,7 +18767,7 @@
         <v>2.5</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.19</v>
@@ -19173,7 +19173,7 @@
         <v>1.11</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU92" t="n">
         <v>1.47</v>
@@ -19373,7 +19373,7 @@
         <v>0.8</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT93" t="n">
         <v>1.4</v>
@@ -22015,7 +22015,7 @@
         <v>1.78</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU106" t="n">
         <v>1.63</v>
@@ -22418,7 +22418,7 @@
         <v>1.83</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT108" t="n">
         <v>1.56</v>
@@ -24245,7 +24245,7 @@
         <v>1.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT117" t="n">
         <v>1.6</v>
@@ -24451,7 +24451,7 @@
         <v>2.22</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU118" t="n">
         <v>2.23</v>
@@ -24654,7 +24654,7 @@
         <v>1.88</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU119" t="n">
         <v>1.85</v>
@@ -26275,7 +26275,7 @@
         <v>1.71</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT127" t="n">
         <v>1.44</v>
@@ -26481,7 +26481,7 @@
         <v>2</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU128" t="n">
         <v>1.58</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT132" t="n">
         <v>0.44</v>
@@ -27496,7 +27496,7 @@
         <v>1</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU133" t="n">
         <v>1.47</v>
@@ -27696,7 +27696,7 @@
         <v>2</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT134" t="n">
         <v>2</v>
@@ -30132,7 +30132,7 @@
         <v>1.13</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT146" t="n">
         <v>1.33</v>
@@ -30744,7 +30744,7 @@
         <v>2.11</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU149" t="n">
         <v>2.73</v>
@@ -30947,7 +30947,7 @@
         <v>1.11</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU150" t="n">
         <v>1.66</v>
@@ -31553,7 +31553,7 @@
         <v>0.38</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT153" t="n">
         <v>0.3</v>
@@ -33231,6 +33231,412 @@
         <v>15</v>
       </c>
       <c r="BK161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2710097</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44955.47916666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>7</v>
+      </c>
+      <c r="R162" t="n">
+        <v>7</v>
+      </c>
+      <c r="S162" t="n">
+        <v>14</v>
+      </c>
+      <c r="T162" t="n">
+        <v>4</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2710091</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44955.5625</v>
+      </c>
+      <c r="F163" t="n">
+        <v>18</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['33', '53']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>8</v>
+      </c>
+      <c r="R163" t="n">
+        <v>4</v>
+      </c>
+      <c r="S163" t="n">
+        <v>12</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK163" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU20" t="n">
         <v>1.02</v>
@@ -4760,7 +4760,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU21" t="n">
         <v>0.71</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT23" t="n">
         <v>1.38</v>
@@ -5369,7 +5369,7 @@
         <v>1.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -5572,7 +5572,7 @@
         <v>1.88</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU26" t="n">
         <v>0.86</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT27" t="n">
         <v>0.8</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -7399,7 +7399,7 @@
         <v>1.11</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU34" t="n">
         <v>1.43</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT36" t="n">
         <v>0.44</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU38" t="n">
         <v>1.43</v>
@@ -8414,7 +8414,7 @@
         <v>1.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU39" t="n">
         <v>1.5</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT40" t="n">
         <v>1.38</v>
@@ -8820,7 +8820,7 @@
         <v>1.4</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU41" t="n">
         <v>2.1</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT42" t="n">
         <v>2</v>
@@ -9426,10 +9426,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU44" t="n">
         <v>1.33</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU45" t="n">
         <v>1.02</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU46" t="n">
         <v>1.38</v>
@@ -10647,7 +10647,7 @@
         <v>1.1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU50" t="n">
         <v>2.42</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT51" t="n">
         <v>1.4</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT54" t="n">
         <v>1.6</v>
@@ -11865,7 +11865,7 @@
         <v>1.11</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU56" t="n">
         <v>1.61</v>
@@ -12065,10 +12065,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU57" t="n">
         <v>1.51</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT59" t="n">
         <v>2</v>
@@ -12877,10 +12877,10 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT62" t="n">
         <v>1.4</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT63" t="n">
         <v>0.8</v>
@@ -13489,7 +13489,7 @@
         <v>1.1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU64" t="n">
         <v>2.33</v>
@@ -13692,7 +13692,7 @@
         <v>2.11</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU65" t="n">
         <v>3.09</v>
@@ -14095,7 +14095,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT67" t="n">
         <v>1.6</v>
@@ -14301,7 +14301,7 @@
         <v>2.22</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU68" t="n">
         <v>2.23</v>
@@ -14704,7 +14704,7 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT70" t="n">
         <v>1.5</v>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU72" t="n">
         <v>1.51</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT75" t="n">
         <v>1.78</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT76" t="n">
         <v>1.4</v>
@@ -16128,7 +16128,7 @@
         <v>1.11</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -16331,7 +16331,7 @@
         <v>1.4</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU78" t="n">
         <v>2.08</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT79" t="n">
         <v>2</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT80" t="n">
         <v>0.8</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU81" t="n">
         <v>1.55</v>
@@ -17346,7 +17346,7 @@
         <v>0.8</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU83" t="n">
         <v>1.86</v>
@@ -17546,10 +17546,10 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU84" t="n">
         <v>1.47</v>
@@ -18158,7 +18158,7 @@
         <v>1.3</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18361,7 +18361,7 @@
         <v>2.56</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU88" t="n">
         <v>1.96</v>
@@ -18561,7 +18561,7 @@
         <v>2.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT89" t="n">
         <v>1.11</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT90" t="n">
         <v>1.5</v>
@@ -18970,7 +18970,7 @@
         <v>2.11</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU91" t="n">
         <v>3</v>
@@ -19982,10 +19982,10 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU96" t="n">
         <v>1.35</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT97" t="n">
         <v>0.44</v>
@@ -20388,7 +20388,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT98" t="n">
         <v>1.78</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT99" t="n">
         <v>1.6</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU100" t="n">
         <v>1.53</v>
@@ -21000,7 +21000,7 @@
         <v>1.3</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU101" t="n">
         <v>1.52</v>
@@ -21609,7 +21609,7 @@
         <v>2.56</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU104" t="n">
         <v>1.95</v>
@@ -21812,7 +21812,7 @@
         <v>2.11</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU105" t="n">
         <v>2.81</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT106" t="n">
         <v>1.5</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT107" t="n">
         <v>0.78</v>
@@ -22421,7 +22421,7 @@
         <v>0.8</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -22621,10 +22621,10 @@
         <v>1.4</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU109" t="n">
         <v>1.95</v>
@@ -22824,7 +22824,7 @@
         <v>0.6</v>
       </c>
       <c r="AS110" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT110" t="n">
         <v>0.44</v>
@@ -23027,7 +23027,7 @@
         <v>2</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT111" t="n">
         <v>1.78</v>
@@ -23436,7 +23436,7 @@
         <v>1.1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU113" t="n">
         <v>1.89</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT114" t="n">
         <v>0.3</v>
@@ -24045,7 +24045,7 @@
         <v>1.3</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU116" t="n">
         <v>1.56</v>
@@ -25057,7 +25057,7 @@
         <v>0.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT121" t="n">
         <v>0.78</v>
@@ -25263,7 +25263,7 @@
         <v>1.33</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU122" t="n">
         <v>1.66</v>
@@ -25463,10 +25463,10 @@
         <v>0.67</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU123" t="n">
         <v>1.86</v>
@@ -25669,7 +25669,7 @@
         <v>2.56</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU124" t="n">
         <v>1.83</v>
@@ -25869,7 +25869,7 @@
         <v>1.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT125" t="n">
         <v>1.11</v>
@@ -26072,10 +26072,10 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU126" t="n">
         <v>1.72</v>
@@ -26278,7 +26278,7 @@
         <v>0.8</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU127" t="n">
         <v>1.74</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT128" t="n">
         <v>1.5</v>
@@ -26684,7 +26684,7 @@
         <v>1.3</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU129" t="n">
         <v>1.55</v>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT131" t="n">
         <v>0.3</v>
@@ -28508,10 +28508,10 @@
         <v>1.14</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT138" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU138" t="n">
         <v>1.56</v>
@@ -28711,10 +28711,10 @@
         <v>0.29</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU139" t="n">
         <v>1.74</v>
@@ -28917,7 +28917,7 @@
         <v>1.88</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU140" t="n">
         <v>1.87</v>
@@ -29117,10 +29117,10 @@
         <v>0.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU141" t="n">
         <v>1.66</v>
@@ -29323,7 +29323,7 @@
         <v>1.33</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU142" t="n">
         <v>1.72</v>
@@ -29523,7 +29523,7 @@
         <v>1.57</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT143" t="n">
         <v>1.38</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT144" t="n">
         <v>1.11</v>
@@ -29929,10 +29929,10 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU145" t="n">
         <v>1.6</v>
@@ -30135,7 +30135,7 @@
         <v>0.8</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU146" t="n">
         <v>1.56</v>
@@ -31756,7 +31756,7 @@
         <v>0.57</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT154" t="n">
         <v>0.78</v>
@@ -33638,6 +33638,1427 @@
       </c>
       <c r="BK163" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2710106</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44960.6875</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>2</v>
+      </c>
+      <c r="R164" t="n">
+        <v>1</v>
+      </c>
+      <c r="S164" t="n">
+        <v>3</v>
+      </c>
+      <c r="T164" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2710105</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44961.47916666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>3</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3</v>
+      </c>
+      <c r="L165" t="n">
+        <v>5</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>7</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['22', '30', '40', '69', '83']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['49', '77']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>6</v>
+      </c>
+      <c r="R165" t="n">
+        <v>5</v>
+      </c>
+      <c r="S165" t="n">
+        <v>11</v>
+      </c>
+      <c r="T165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2710103</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44961.47916666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Hertha BSC</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>2</v>
+      </c>
+      <c r="L166" t="n">
+        <v>3</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['21', '28', '90+3']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>7</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1</v>
+      </c>
+      <c r="S166" t="n">
+        <v>8</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V166" t="n">
+        <v>6</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2710099</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44961.47916666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" t="n">
+        <v>5</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>6</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['26', '48', '51', '69', '82']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>14</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
+      <c r="S167" t="n">
+        <v>14</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V167" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2710101</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44961.47916666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>5</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1</v>
+      </c>
+      <c r="S168" t="n">
+        <v>6</v>
+      </c>
+      <c r="T168" t="n">
+        <v>4</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2710100</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44961.47916666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="n">
+        <v>3</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['32', '84']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>5</v>
+      </c>
+      <c r="R169" t="n">
+        <v>5</v>
+      </c>
+      <c r="S169" t="n">
+        <v>10</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V169" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2710102</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44961.60416666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>7</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2</v>
+      </c>
+      <c r="S170" t="n">
+        <v>9</v>
+      </c>
+      <c r="T170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V170" t="n">
+        <v>5</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.9</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT9" t="n">
         <v>1.3</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT21" t="n">
         <v>1.4</v>
@@ -5166,7 +5166,7 @@
         <v>2.44</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU23" t="n">
         <v>1.75</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT25" t="n">
         <v>0.33</v>
@@ -6181,7 +6181,7 @@
         <v>1.78</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.45</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT39" t="n">
         <v>0.33</v>
@@ -8617,7 +8617,7 @@
         <v>1.78</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -9023,7 +9023,7 @@
         <v>2.56</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU42" t="n">
         <v>0.98</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
         <v>0.8</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT58" t="n">
         <v>1.78</v>
@@ -12474,7 +12474,7 @@
         <v>1.1</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.1</v>
@@ -12677,7 +12677,7 @@
         <v>1.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU60" t="n">
         <v>2.01</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT66" t="n">
         <v>0.44</v>
@@ -15519,7 +15519,7 @@
         <v>1.1</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -16534,7 +16534,7 @@
         <v>2.44</v>
       </c>
       <c r="AT79" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU79" t="n">
         <v>1.66</v>
@@ -17140,7 +17140,7 @@
         <v>1.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT82" t="n">
         <v>1.6</v>
@@ -17749,7 +17749,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT85" t="n">
         <v>0.78</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT86" t="n">
         <v>0.3</v>
@@ -19579,7 +19579,7 @@
         <v>2.22</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU94" t="n">
         <v>2.12</v>
@@ -19782,7 +19782,7 @@
         <v>1.1</v>
       </c>
       <c r="AT95" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU95" t="n">
         <v>2.05</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT102" t="n">
         <v>1.11</v>
@@ -21403,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
         <v>0.3</v>
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="AT112" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU112" t="n">
         <v>1.51</v>
@@ -24651,7 +24651,7 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT119" t="n">
         <v>1.5</v>
@@ -24857,7 +24857,7 @@
         <v>2.11</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU120" t="n">
         <v>2.81</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT122" t="n">
         <v>0.44</v>
@@ -27699,7 +27699,7 @@
         <v>0.8</v>
       </c>
       <c r="AT134" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU134" t="n">
         <v>1.73</v>
@@ -28308,7 +28308,7 @@
         <v>2.56</v>
       </c>
       <c r="AT137" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.83</v>
@@ -28914,7 +28914,7 @@
         <v>1.75</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT140" t="n">
         <v>1.4</v>
@@ -29320,7 +29320,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT142" t="n">
         <v>1.3</v>
@@ -29526,7 +29526,7 @@
         <v>1.67</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU143" t="n">
         <v>1.9</v>
@@ -33908,10 +33908,10 @@
         <v>6</v>
       </c>
       <c r="R165" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S165" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T165" t="n">
         <v>3.4</v>
@@ -34920,13 +34920,13 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R170" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S170" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T170" t="n">
         <v>2.05</v>
@@ -35046,19 +35046,425 @@
         <v>4</v>
       </c>
       <c r="BG170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2710107</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44962.47916666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['59', '77']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>8</v>
+      </c>
+      <c r="R171" t="n">
+        <v>4</v>
+      </c>
+      <c r="S171" t="n">
+        <v>12</v>
+      </c>
+      <c r="T171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2710104</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44962.5625</v>
+      </c>
+      <c r="F172" t="n">
+        <v>19</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
         <v>3</v>
       </c>
-      <c r="BH170" t="n">
+      <c r="K172" t="n">
+        <v>4</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>4</v>
+      </c>
+      <c r="N172" t="n">
+        <v>6</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['44', '80']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['9', '14', '19', '73']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
         <v>7</v>
       </c>
-      <c r="BI170" t="n">
+      <c r="R172" t="n">
+        <v>4</v>
+      </c>
+      <c r="S172" t="n">
+        <v>11</v>
+      </c>
+      <c r="T172" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X172" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG172" t="n">
         <v>5</v>
       </c>
-      <c r="BJ170" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK170" t="n">
-        <v>8</v>
+      <c r="BH172" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="320">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,27 @@
     <t>['44', '80']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['21', '24', '52']</t>
+  </si>
+  <si>
+    <t>['60', '84']</t>
+  </si>
+  <si>
+    <t>['41', '64', '73']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['30', '52', '90+1', '90+7']</t>
+  </si>
+  <si>
+    <t>['49', '71', '86']</t>
+  </si>
+  <si>
     <t>['5', '10', '29', '35', '43', '83']</t>
   </si>
   <si>
@@ -938,6 +959,21 @@
   </si>
   <si>
     <t>['9', '14', '19', '73']</t>
+  </si>
+  <si>
+    <t>['6', '46', '56']</t>
+  </si>
+  <si>
+    <t>['67', '84']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['61', '72']</t>
+  </si>
+  <si>
+    <t>['17']</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1579,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1925,7 +1961,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2116,7 +2152,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2307,7 +2343,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2498,7 +2534,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2779,7 +2815,7 @@
         <v>2.44</v>
       </c>
       <c r="AT8">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2880,7 +2916,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3071,7 +3107,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3158,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT10">
         <v>0.33</v>
@@ -3262,7 +3298,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3349,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3453,7 +3489,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3540,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT12">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3731,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT13">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3835,7 +3871,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3925,7 +3961,7 @@
         <v>1.4</v>
       </c>
       <c r="AT14">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4026,7 +4062,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4113,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT15">
         <v>0.8</v>
@@ -4217,7 +4253,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4304,10 +4340,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT16">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4408,7 +4444,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4495,10 +4531,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT17">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4686,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT18">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4877,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT19">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5172,7 +5208,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5363,7 +5399,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5554,7 +5590,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5745,7 +5781,7 @@
         <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6509,7 +6545,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6787,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT29">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU29">
         <v>2.15</v>
@@ -6891,7 +6927,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6978,10 +7014,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT30">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU30">
         <v>1.48</v>
@@ -7169,10 +7205,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU31">
         <v>1.46</v>
@@ -7360,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT32">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>2.63</v>
@@ -7551,10 +7587,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT33">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU33">
         <v>1.76</v>
@@ -7655,7 +7691,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7742,10 +7778,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT34">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU34">
         <v>1.43</v>
@@ -7933,10 +7969,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT35">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU35">
         <v>2.88</v>
@@ -8124,10 +8160,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT36">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU36">
         <v>2.88</v>
@@ -8228,7 +8264,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8315,10 +8351,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT37">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU37">
         <v>0.9399999999999999</v>
@@ -8610,7 +8646,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8801,7 +8837,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8992,7 +9028,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9183,7 +9219,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9374,7 +9410,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9756,7 +9792,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10138,7 +10174,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10225,10 +10261,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT47">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.19</v>
@@ -10329,7 +10365,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10416,10 +10452,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT48">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU48">
         <v>3.67</v>
@@ -10607,10 +10643,10 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU49">
         <v>1.91</v>
@@ -10798,7 +10834,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>1.3</v>
@@ -10902,7 +10938,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -10992,7 +11028,7 @@
         <v>1.9</v>
       </c>
       <c r="AT51">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU51">
         <v>1.6</v>
@@ -11093,7 +11129,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11180,10 +11216,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT52">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU52">
         <v>1.27</v>
@@ -11284,7 +11320,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11371,10 +11407,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT53">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU53">
         <v>1.65</v>
@@ -11562,10 +11598,10 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT54">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU54">
         <v>1.93</v>
@@ -11753,10 +11789,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT55">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU55">
         <v>2.37</v>
@@ -11944,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT56">
         <v>0.44</v>
@@ -12239,7 +12275,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12329,7 +12365,7 @@
         <v>1.2</v>
       </c>
       <c r="AT58">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU58">
         <v>1.43</v>
@@ -13093,7 +13129,7 @@
         <v>2.56</v>
       </c>
       <c r="AT62">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU62">
         <v>1</v>
@@ -13194,7 +13230,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13472,7 +13508,7 @@
         <v>3</v>
       </c>
       <c r="AS64">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT64">
         <v>1.4</v>
@@ -13663,10 +13699,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT65">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU65">
         <v>3.09</v>
@@ -13767,7 +13803,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13857,7 +13893,7 @@
         <v>1.67</v>
       </c>
       <c r="AT66">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU66">
         <v>1.71</v>
@@ -14048,7 +14084,7 @@
         <v>1.9</v>
       </c>
       <c r="AT67">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -14236,7 +14272,7 @@
         <v>2.25</v>
       </c>
       <c r="AS68">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT68">
         <v>1.3</v>
@@ -14427,10 +14463,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT69">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU69">
         <v>1.85</v>
@@ -14531,7 +14567,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14618,10 +14654,10 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT70">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU70">
         <v>1.76</v>
@@ -14722,7 +14758,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14809,10 +14845,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT71">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU71">
         <v>1.39</v>
@@ -14913,7 +14949,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15000,7 +15036,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT72">
         <v>0.89</v>
@@ -15104,7 +15140,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15191,10 +15227,10 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT73">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.78</v>
@@ -15295,7 +15331,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15382,7 +15418,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT74">
         <v>1.56</v>
@@ -15576,7 +15612,7 @@
         <v>1.78</v>
       </c>
       <c r="AT75">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU75">
         <v>1.7</v>
@@ -15677,7 +15713,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -15767,7 +15803,7 @@
         <v>1.1</v>
       </c>
       <c r="AT76">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU76">
         <v>1.18</v>
@@ -15955,7 +15991,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT77">
         <v>1.3</v>
@@ -16250,7 +16286,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16441,7 +16477,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16632,7 +16668,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16719,7 +16755,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT81">
         <v>1.4</v>
@@ -16823,7 +16859,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16913,7 +16949,7 @@
         <v>1.2</v>
       </c>
       <c r="AT82">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -17014,7 +17050,7 @@
         <v>88</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17101,7 +17137,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT83">
         <v>0.89</v>
@@ -17295,7 +17331,7 @@
         <v>1.9</v>
       </c>
       <c r="AT84">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU84">
         <v>1.47</v>
@@ -17396,7 +17432,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17486,7 +17522,7 @@
         <v>1.67</v>
       </c>
       <c r="AT85">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU85">
         <v>1.79</v>
@@ -17587,7 +17623,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17677,7 +17713,7 @@
         <v>1.2</v>
       </c>
       <c r="AT86">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU86">
         <v>1.38</v>
@@ -17778,7 +17814,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17865,7 +17901,7 @@
         <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT87">
         <v>1.3</v>
@@ -17969,7 +18005,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18056,7 +18092,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT88">
         <v>0.44</v>
@@ -18160,7 +18196,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18247,10 +18283,10 @@
         <v>2.25</v>
       </c>
       <c r="AS89">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT89">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU89">
         <v>1.93</v>
@@ -18441,7 +18477,7 @@
         <v>2.56</v>
       </c>
       <c r="AT90">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU90">
         <v>1.19</v>
@@ -18629,7 +18665,7 @@
         <v>2.2</v>
       </c>
       <c r="AS91">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT91">
         <v>1.4</v>
@@ -18820,7 +18856,7 @@
         <v>1.2</v>
       </c>
       <c r="AS92">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT92">
         <v>0.8</v>
@@ -18924,7 +18960,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19014,7 +19050,7 @@
         <v>1.4</v>
       </c>
       <c r="AT93">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU93">
         <v>2.02</v>
@@ -19202,7 +19238,7 @@
         <v>2.2</v>
       </c>
       <c r="AS94">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT94">
         <v>1.56</v>
@@ -19306,7 +19342,7 @@
         <v>88</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19393,7 +19429,7 @@
         <v>1.6</v>
       </c>
       <c r="AS95">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT95">
         <v>2.1</v>
@@ -19497,7 +19533,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19778,7 +19814,7 @@
         <v>2.44</v>
       </c>
       <c r="AT97">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU97">
         <v>1.65</v>
@@ -19879,7 +19915,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19969,7 +20005,7 @@
         <v>1.9</v>
       </c>
       <c r="AT98">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU98">
         <v>1.69</v>
@@ -20070,7 +20106,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20160,7 +20196,7 @@
         <v>1.78</v>
       </c>
       <c r="AT99">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU99">
         <v>1.71</v>
@@ -20348,7 +20384,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT100">
         <v>0.33</v>
@@ -20539,7 +20575,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT101">
         <v>0.44</v>
@@ -20643,7 +20679,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20733,7 +20769,7 @@
         <v>1.2</v>
       </c>
       <c r="AT102">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>1.49</v>
@@ -20924,7 +20960,7 @@
         <v>1.67</v>
       </c>
       <c r="AT103">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU103">
         <v>1.78</v>
@@ -21112,10 +21148,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT104">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU104">
         <v>1.95</v>
@@ -21216,7 +21252,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21303,7 +21339,7 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT105">
         <v>1.3</v>
@@ -21407,7 +21443,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21497,7 +21533,7 @@
         <v>1.9</v>
       </c>
       <c r="AT106">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21598,7 +21634,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21688,7 +21724,7 @@
         <v>2.56</v>
       </c>
       <c r="AT107">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21789,7 +21825,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21876,7 +21912,7 @@
         <v>1.83</v>
       </c>
       <c r="AS108">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT108">
         <v>1.4</v>
@@ -22067,7 +22103,7 @@
         <v>1.4</v>
       </c>
       <c r="AS109">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT109">
         <v>0.89</v>
@@ -22261,7 +22297,7 @@
         <v>1.9</v>
       </c>
       <c r="AT110">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU110">
         <v>1.58</v>
@@ -22362,7 +22398,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22452,7 +22488,7 @@
         <v>1.1</v>
       </c>
       <c r="AT111">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU111">
         <v>1.29</v>
@@ -22553,7 +22589,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22640,7 +22676,7 @@
         <v>1.83</v>
       </c>
       <c r="AS112">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT112">
         <v>2.1</v>
@@ -22744,7 +22780,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22831,7 +22867,7 @@
         <v>0.5</v>
       </c>
       <c r="AS113">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT113">
         <v>1.3</v>
@@ -23025,7 +23061,7 @@
         <v>2.44</v>
       </c>
       <c r="AT114">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU114">
         <v>1.75</v>
@@ -23126,7 +23162,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23213,10 +23249,10 @@
         <v>0.83</v>
       </c>
       <c r="AS115">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT115">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU115">
         <v>1.61</v>
@@ -23317,7 +23353,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23404,7 +23440,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT116">
         <v>0.33</v>
@@ -23598,7 +23634,7 @@
         <v>1.4</v>
       </c>
       <c r="AT117">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU117">
         <v>1.96</v>
@@ -23786,7 +23822,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT118">
         <v>0.8</v>
@@ -23980,7 +24016,7 @@
         <v>1.67</v>
       </c>
       <c r="AT119">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU119">
         <v>1.85</v>
@@ -24168,7 +24204,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT120">
         <v>1.56</v>
@@ -24272,7 +24308,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24362,7 +24398,7 @@
         <v>1.78</v>
       </c>
       <c r="AT121">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU121">
         <v>1.64</v>
@@ -24463,7 +24499,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24654,7 +24690,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24741,10 +24777,10 @@
         <v>0.67</v>
       </c>
       <c r="AS123">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT123">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU123">
         <v>1.86</v>
@@ -24845,7 +24881,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24932,7 +24968,7 @@
         <v>2</v>
       </c>
       <c r="AS124">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT124">
         <v>1.4</v>
@@ -25036,7 +25072,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25126,7 +25162,7 @@
         <v>2.56</v>
       </c>
       <c r="AT125">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.44</v>
@@ -25227,7 +25263,7 @@
         <v>182</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25505,7 +25541,7 @@
         <v>1.71</v>
       </c>
       <c r="AS127">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT127">
         <v>1.3</v>
@@ -25609,7 +25645,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25699,7 +25735,7 @@
         <v>1.9</v>
       </c>
       <c r="AT128">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU128">
         <v>1.58</v>
@@ -25800,7 +25836,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>0</v>
@@ -25887,7 +25923,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT129">
         <v>1.3</v>
@@ -25991,7 +26027,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26078,10 +26114,10 @@
         <v>1.14</v>
       </c>
       <c r="AS130">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT130">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU130">
         <v>1.81</v>
@@ -26182,7 +26218,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26272,7 +26308,7 @@
         <v>1.1</v>
       </c>
       <c r="AT131">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU131">
         <v>1.31</v>
@@ -26463,7 +26499,7 @@
         <v>1.4</v>
       </c>
       <c r="AT132">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU132">
         <v>1.9</v>
@@ -26651,7 +26687,7 @@
         <v>0.86</v>
       </c>
       <c r="AS133">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT133">
         <v>0.8</v>
@@ -26755,7 +26791,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26842,7 +26878,7 @@
         <v>2</v>
       </c>
       <c r="AS134">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT134">
         <v>2.1</v>
@@ -26946,7 +26982,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27033,10 +27069,10 @@
         <v>2.17</v>
       </c>
       <c r="AS135">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT135">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU135">
         <v>1.62</v>
@@ -27137,7 +27173,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27224,10 +27260,10 @@
         <v>1.43</v>
       </c>
       <c r="AS136">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT136">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU136">
         <v>2.16</v>
@@ -27415,7 +27451,7 @@
         <v>2.13</v>
       </c>
       <c r="AS137">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT137">
         <v>2.1</v>
@@ -28092,7 +28128,7 @@
         <v>194</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28474,7 +28510,7 @@
         <v>196</v>
       </c>
       <c r="P143" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28561,7 +28597,7 @@
         <v>1.57</v>
       </c>
       <c r="AS143">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT143">
         <v>1.56</v>
@@ -28665,7 +28701,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28755,7 +28791,7 @@
         <v>2.44</v>
       </c>
       <c r="AT144">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU144">
         <v>1.63</v>
@@ -28856,7 +28892,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -28946,7 +28982,7 @@
         <v>1.9</v>
       </c>
       <c r="AT145">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU145">
         <v>1.6</v>
@@ -29047,7 +29083,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -29134,7 +29170,7 @@
         <v>1.13</v>
       </c>
       <c r="AS146">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT146">
         <v>1.3</v>
@@ -29238,7 +29274,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29325,10 +29361,10 @@
         <v>1.38</v>
       </c>
       <c r="AS147">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT147">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU147">
         <v>1.5</v>
@@ -29429,7 +29465,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29516,10 +29552,10 @@
         <v>0.43</v>
       </c>
       <c r="AS148">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT148">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU148">
         <v>1.92</v>
@@ -29620,7 +29656,7 @@
         <v>200</v>
       </c>
       <c r="P149" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29707,7 +29743,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT149">
         <v>0.8</v>
@@ -29811,7 +29847,7 @@
         <v>201</v>
       </c>
       <c r="P150" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -29898,10 +29934,10 @@
         <v>1.13</v>
       </c>
       <c r="AS150">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT150">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU150">
         <v>1.66</v>
@@ -30002,7 +30038,7 @@
         <v>166</v>
       </c>
       <c r="P151" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30089,10 +30125,10 @@
         <v>1.25</v>
       </c>
       <c r="AS151">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT151">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU151">
         <v>1.5</v>
@@ -30280,10 +30316,10 @@
         <v>2</v>
       </c>
       <c r="AS152">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT152">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU152">
         <v>2.05</v>
@@ -30474,7 +30510,7 @@
         <v>1.4</v>
       </c>
       <c r="AT153">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU153">
         <v>1.85</v>
@@ -30665,7 +30701,7 @@
         <v>1.1</v>
       </c>
       <c r="AT154">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU154">
         <v>1.38</v>
@@ -30766,7 +30802,7 @@
         <v>205</v>
       </c>
       <c r="P155" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30853,10 +30889,10 @@
         <v>0.5</v>
       </c>
       <c r="AS155">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT155">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU155">
         <v>1.75</v>
@@ -30957,7 +30993,7 @@
         <v>206</v>
       </c>
       <c r="P156" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31044,10 +31080,10 @@
         <v>1.25</v>
       </c>
       <c r="AS156">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT156">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU156">
         <v>2</v>
@@ -31148,7 +31184,7 @@
         <v>207</v>
       </c>
       <c r="P157" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31235,10 +31271,10 @@
         <v>0.33</v>
       </c>
       <c r="AS157">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT157">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU157">
         <v>1.64</v>
@@ -31339,7 +31375,7 @@
         <v>208</v>
       </c>
       <c r="P158" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31426,10 +31462,10 @@
         <v>0.5</v>
       </c>
       <c r="AS158">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT158">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU158">
         <v>1.91</v>
@@ -31530,7 +31566,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31617,10 +31653,10 @@
         <v>1.44</v>
       </c>
       <c r="AS159">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT159">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU159">
         <v>1.44</v>
@@ -31808,10 +31844,10 @@
         <v>1.56</v>
       </c>
       <c r="AS160">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT160">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU160">
         <v>1.49</v>
@@ -31912,7 +31948,7 @@
         <v>100</v>
       </c>
       <c r="P161" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -31999,10 +32035,10 @@
         <v>1.88</v>
       </c>
       <c r="AS161">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT161">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU161">
         <v>2.78</v>
@@ -32190,7 +32226,7 @@
         <v>0.78</v>
       </c>
       <c r="AS162">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT162">
         <v>0.8</v>
@@ -32294,7 +32330,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32384,7 +32420,7 @@
         <v>1.4</v>
       </c>
       <c r="AT163">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU163">
         <v>1.83</v>
@@ -32575,7 +32611,7 @@
         <v>1.1</v>
       </c>
       <c r="AT164">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU164">
         <v>1.43</v>
@@ -32676,7 +32712,7 @@
         <v>210</v>
       </c>
       <c r="P165" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33336,7 +33372,7 @@
         <v>1.33</v>
       </c>
       <c r="AS168">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT168">
         <v>1.3</v>
@@ -33822,7 +33858,7 @@
         <v>88</v>
       </c>
       <c r="P171" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34013,7 +34049,7 @@
         <v>214</v>
       </c>
       <c r="P172" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34155,6 +34191,1725 @@
       </c>
       <c r="BK172">
         <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2710115</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44967.6875</v>
+      </c>
+      <c r="F173">
+        <v>20</v>
+      </c>
+      <c r="G173" t="s">
+        <v>80</v>
+      </c>
+      <c r="H173" t="s">
+        <v>68</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173" t="s">
+        <v>88</v>
+      </c>
+      <c r="P173" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q173">
+        <v>9</v>
+      </c>
+      <c r="R173">
+        <v>3</v>
+      </c>
+      <c r="S173">
+        <v>12</v>
+      </c>
+      <c r="T173">
+        <v>4</v>
+      </c>
+      <c r="U173">
+        <v>2.3</v>
+      </c>
+      <c r="V173">
+        <v>2.5</v>
+      </c>
+      <c r="W173">
+        <v>1.33</v>
+      </c>
+      <c r="X173">
+        <v>3.25</v>
+      </c>
+      <c r="Y173">
+        <v>2.63</v>
+      </c>
+      <c r="Z173">
+        <v>1.44</v>
+      </c>
+      <c r="AA173">
+        <v>6.5</v>
+      </c>
+      <c r="AB173">
+        <v>1.11</v>
+      </c>
+      <c r="AC173">
+        <v>3.65</v>
+      </c>
+      <c r="AD173">
+        <v>3.6</v>
+      </c>
+      <c r="AE173">
+        <v>1.74</v>
+      </c>
+      <c r="AF173">
+        <v>1.03</v>
+      </c>
+      <c r="AG173">
+        <v>15</v>
+      </c>
+      <c r="AH173">
+        <v>1.24</v>
+      </c>
+      <c r="AI173">
+        <v>4.2</v>
+      </c>
+      <c r="AJ173">
+        <v>1.67</v>
+      </c>
+      <c r="AK173">
+        <v>2.1</v>
+      </c>
+      <c r="AL173">
+        <v>1.67</v>
+      </c>
+      <c r="AM173">
+        <v>2.1</v>
+      </c>
+      <c r="AN173">
+        <v>1.82</v>
+      </c>
+      <c r="AO173">
+        <v>1.28</v>
+      </c>
+      <c r="AP173">
+        <v>1.27</v>
+      </c>
+      <c r="AQ173">
+        <v>0.8</v>
+      </c>
+      <c r="AR173">
+        <v>1.4</v>
+      </c>
+      <c r="AS173">
+        <v>0.82</v>
+      </c>
+      <c r="AT173">
+        <v>1.36</v>
+      </c>
+      <c r="AU173">
+        <v>1.53</v>
+      </c>
+      <c r="AV173">
+        <v>1.28</v>
+      </c>
+      <c r="AW173">
+        <v>2.81</v>
+      </c>
+      <c r="AX173">
+        <v>2.66</v>
+      </c>
+      <c r="AY173">
+        <v>8.1</v>
+      </c>
+      <c r="AZ173">
+        <v>1.7</v>
+      </c>
+      <c r="BA173">
+        <v>1.23</v>
+      </c>
+      <c r="BB173">
+        <v>1.46</v>
+      </c>
+      <c r="BC173">
+        <v>1.8</v>
+      </c>
+      <c r="BD173">
+        <v>2.28</v>
+      </c>
+      <c r="BE173">
+        <v>2.98</v>
+      </c>
+      <c r="BF173">
+        <v>7</v>
+      </c>
+      <c r="BG173">
+        <v>3</v>
+      </c>
+      <c r="BH173">
+        <v>14</v>
+      </c>
+      <c r="BI173">
+        <v>4</v>
+      </c>
+      <c r="BJ173">
+        <v>21</v>
+      </c>
+      <c r="BK173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2710113</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44968.47916666666</v>
+      </c>
+      <c r="F174">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>79</v>
+      </c>
+      <c r="H174" t="s">
+        <v>77</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>3</v>
+      </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
+      <c r="O174" t="s">
+        <v>215</v>
+      </c>
+      <c r="P174" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q174">
+        <v>5</v>
+      </c>
+      <c r="R174">
+        <v>8</v>
+      </c>
+      <c r="S174">
+        <v>13</v>
+      </c>
+      <c r="T174">
+        <v>3.4</v>
+      </c>
+      <c r="U174">
+        <v>2.3</v>
+      </c>
+      <c r="V174">
+        <v>2.75</v>
+      </c>
+      <c r="W174">
+        <v>1.3</v>
+      </c>
+      <c r="X174">
+        <v>3.4</v>
+      </c>
+      <c r="Y174">
+        <v>2.5</v>
+      </c>
+      <c r="Z174">
+        <v>1.5</v>
+      </c>
+      <c r="AA174">
+        <v>6</v>
+      </c>
+      <c r="AB174">
+        <v>1.13</v>
+      </c>
+      <c r="AC174">
+        <v>2.68</v>
+      </c>
+      <c r="AD174">
+        <v>3.77</v>
+      </c>
+      <c r="AE174">
+        <v>2.14</v>
+      </c>
+      <c r="AF174">
+        <v>1.03</v>
+      </c>
+      <c r="AG174">
+        <v>17</v>
+      </c>
+      <c r="AH174">
+        <v>1.2</v>
+      </c>
+      <c r="AI174">
+        <v>4.5</v>
+      </c>
+      <c r="AJ174">
+        <v>1.6</v>
+      </c>
+      <c r="AK174">
+        <v>2.38</v>
+      </c>
+      <c r="AL174">
+        <v>1.53</v>
+      </c>
+      <c r="AM174">
+        <v>2.38</v>
+      </c>
+      <c r="AN174">
+        <v>1.63</v>
+      </c>
+      <c r="AO174">
+        <v>1.28</v>
+      </c>
+      <c r="AP174">
+        <v>1.38</v>
+      </c>
+      <c r="AQ174">
+        <v>1.1</v>
+      </c>
+      <c r="AR174">
+        <v>1.11</v>
+      </c>
+      <c r="AS174">
+        <v>1</v>
+      </c>
+      <c r="AT174">
+        <v>1.3</v>
+      </c>
+      <c r="AU174">
+        <v>1.9</v>
+      </c>
+      <c r="AV174">
+        <v>1.26</v>
+      </c>
+      <c r="AW174">
+        <v>3.16</v>
+      </c>
+      <c r="AX174">
+        <v>2.1</v>
+      </c>
+      <c r="AY174">
+        <v>7.4</v>
+      </c>
+      <c r="AZ174">
+        <v>2.1</v>
+      </c>
+      <c r="BA174">
+        <v>1.29</v>
+      </c>
+      <c r="BB174">
+        <v>1.56</v>
+      </c>
+      <c r="BC174">
+        <v>2.01</v>
+      </c>
+      <c r="BD174">
+        <v>2.62</v>
+      </c>
+      <c r="BE174">
+        <v>3.56</v>
+      </c>
+      <c r="BF174">
+        <v>7</v>
+      </c>
+      <c r="BG174">
+        <v>5</v>
+      </c>
+      <c r="BH174">
+        <v>5</v>
+      </c>
+      <c r="BI174">
+        <v>8</v>
+      </c>
+      <c r="BJ174">
+        <v>12</v>
+      </c>
+      <c r="BK174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2710116</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44968.47916666666</v>
+      </c>
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>75</v>
+      </c>
+      <c r="H175" t="s">
+        <v>71</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>88</v>
+      </c>
+      <c r="P175" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q175">
+        <v>3</v>
+      </c>
+      <c r="R175">
+        <v>7</v>
+      </c>
+      <c r="S175">
+        <v>10</v>
+      </c>
+      <c r="T175">
+        <v>4</v>
+      </c>
+      <c r="U175">
+        <v>2.5</v>
+      </c>
+      <c r="V175">
+        <v>2.3</v>
+      </c>
+      <c r="W175">
+        <v>1.25</v>
+      </c>
+      <c r="X175">
+        <v>3.75</v>
+      </c>
+      <c r="Y175">
+        <v>2.2</v>
+      </c>
+      <c r="Z175">
+        <v>1.62</v>
+      </c>
+      <c r="AA175">
+        <v>5</v>
+      </c>
+      <c r="AB175">
+        <v>1.17</v>
+      </c>
+      <c r="AC175">
+        <v>3.62</v>
+      </c>
+      <c r="AD175">
+        <v>4.15</v>
+      </c>
+      <c r="AE175">
+        <v>1.7</v>
+      </c>
+      <c r="AF175">
+        <v>1.01</v>
+      </c>
+      <c r="AG175">
+        <v>21</v>
+      </c>
+      <c r="AH175">
+        <v>1.15</v>
+      </c>
+      <c r="AI175">
+        <v>5.5</v>
+      </c>
+      <c r="AJ175">
+        <v>1.64</v>
+      </c>
+      <c r="AK175">
+        <v>2.28</v>
+      </c>
+      <c r="AL175">
+        <v>1.5</v>
+      </c>
+      <c r="AM175">
+        <v>2.5</v>
+      </c>
+      <c r="AN175">
+        <v>1.95</v>
+      </c>
+      <c r="AO175">
+        <v>1.24</v>
+      </c>
+      <c r="AP175">
+        <v>1.25</v>
+      </c>
+      <c r="AQ175">
+        <v>1.3</v>
+      </c>
+      <c r="AR175">
+        <v>1.5</v>
+      </c>
+      <c r="AS175">
+        <v>1.18</v>
+      </c>
+      <c r="AT175">
+        <v>1.64</v>
+      </c>
+      <c r="AU175">
+        <v>1.51</v>
+      </c>
+      <c r="AV175">
+        <v>1.76</v>
+      </c>
+      <c r="AW175">
+        <v>3.27</v>
+      </c>
+      <c r="AX175">
+        <v>3.04</v>
+      </c>
+      <c r="AY175">
+        <v>8</v>
+      </c>
+      <c r="AZ175">
+        <v>1.58</v>
+      </c>
+      <c r="BA175">
+        <v>1.27</v>
+      </c>
+      <c r="BB175">
+        <v>1.52</v>
+      </c>
+      <c r="BC175">
+        <v>1.88</v>
+      </c>
+      <c r="BD175">
+        <v>2.42</v>
+      </c>
+      <c r="BE175">
+        <v>3.18</v>
+      </c>
+      <c r="BF175">
+        <v>4</v>
+      </c>
+      <c r="BG175">
+        <v>10</v>
+      </c>
+      <c r="BH175">
+        <v>8</v>
+      </c>
+      <c r="BI175">
+        <v>9</v>
+      </c>
+      <c r="BJ175">
+        <v>12</v>
+      </c>
+      <c r="BK175">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>2710112</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44968.47916666666</v>
+      </c>
+      <c r="F176">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>81</v>
+      </c>
+      <c r="H176" t="s">
+        <v>70</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>3</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176" t="s">
+        <v>216</v>
+      </c>
+      <c r="P176" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q176">
+        <v>4</v>
+      </c>
+      <c r="R176">
+        <v>12</v>
+      </c>
+      <c r="S176">
+        <v>16</v>
+      </c>
+      <c r="T176">
+        <v>2.4</v>
+      </c>
+      <c r="U176">
+        <v>2.3</v>
+      </c>
+      <c r="V176">
+        <v>4.33</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>3.25</v>
+      </c>
+      <c r="Y176">
+        <v>2.63</v>
+      </c>
+      <c r="Z176">
+        <v>1.44</v>
+      </c>
+      <c r="AA176">
+        <v>6.5</v>
+      </c>
+      <c r="AB176">
+        <v>1.11</v>
+      </c>
+      <c r="AC176">
+        <v>1.87</v>
+      </c>
+      <c r="AD176">
+        <v>3.5</v>
+      </c>
+      <c r="AE176">
+        <v>3.5</v>
+      </c>
+      <c r="AF176">
+        <v>1.03</v>
+      </c>
+      <c r="AG176">
+        <v>13</v>
+      </c>
+      <c r="AH176">
+        <v>1.25</v>
+      </c>
+      <c r="AI176">
+        <v>4</v>
+      </c>
+      <c r="AJ176">
+        <v>1.75</v>
+      </c>
+      <c r="AK176">
+        <v>2.1</v>
+      </c>
+      <c r="AL176">
+        <v>1.7</v>
+      </c>
+      <c r="AM176">
+        <v>2.05</v>
+      </c>
+      <c r="AN176">
+        <v>1.24</v>
+      </c>
+      <c r="AO176">
+        <v>1.27</v>
+      </c>
+      <c r="AP176">
+        <v>1.9</v>
+      </c>
+      <c r="AQ176">
+        <v>1.11</v>
+      </c>
+      <c r="AR176">
+        <v>1.11</v>
+      </c>
+      <c r="AS176">
+        <v>1.3</v>
+      </c>
+      <c r="AT176">
+        <v>1</v>
+      </c>
+      <c r="AU176">
+        <v>1.65</v>
+      </c>
+      <c r="AV176">
+        <v>1.38</v>
+      </c>
+      <c r="AW176">
+        <v>3.03</v>
+      </c>
+      <c r="AX176">
+        <v>1.6</v>
+      </c>
+      <c r="AY176">
+        <v>8.4</v>
+      </c>
+      <c r="AZ176">
+        <v>2.91</v>
+      </c>
+      <c r="BA176">
+        <v>1.3</v>
+      </c>
+      <c r="BB176">
+        <v>1.57</v>
+      </c>
+      <c r="BC176">
+        <v>1.99</v>
+      </c>
+      <c r="BD176">
+        <v>2.59</v>
+      </c>
+      <c r="BE176">
+        <v>3.48</v>
+      </c>
+      <c r="BF176">
+        <v>7</v>
+      </c>
+      <c r="BG176">
+        <v>4</v>
+      </c>
+      <c r="BH176">
+        <v>9</v>
+      </c>
+      <c r="BI176">
+        <v>8</v>
+      </c>
+      <c r="BJ176">
+        <v>16</v>
+      </c>
+      <c r="BK176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2710110</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44968.47916666666</v>
+      </c>
+      <c r="F177">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>74</v>
+      </c>
+      <c r="H177" t="s">
+        <v>72</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>217</v>
+      </c>
+      <c r="P177" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q177">
+        <v>4</v>
+      </c>
+      <c r="R177">
+        <v>3</v>
+      </c>
+      <c r="S177">
+        <v>7</v>
+      </c>
+      <c r="T177">
+        <v>2.4</v>
+      </c>
+      <c r="U177">
+        <v>2.2</v>
+      </c>
+      <c r="V177">
+        <v>4.75</v>
+      </c>
+      <c r="W177">
+        <v>1.36</v>
+      </c>
+      <c r="X177">
+        <v>3</v>
+      </c>
+      <c r="Y177">
+        <v>2.75</v>
+      </c>
+      <c r="Z177">
+        <v>1.4</v>
+      </c>
+      <c r="AA177">
+        <v>8</v>
+      </c>
+      <c r="AB177">
+        <v>1.08</v>
+      </c>
+      <c r="AC177">
+        <v>1.83</v>
+      </c>
+      <c r="AD177">
+        <v>3.45</v>
+      </c>
+      <c r="AE177">
+        <v>3.65</v>
+      </c>
+      <c r="AF177">
+        <v>1.05</v>
+      </c>
+      <c r="AG177">
+        <v>12</v>
+      </c>
+      <c r="AH177">
+        <v>1.3</v>
+      </c>
+      <c r="AI177">
+        <v>3.6</v>
+      </c>
+      <c r="AJ177">
+        <v>1.92</v>
+      </c>
+      <c r="AK177">
+        <v>1.88</v>
+      </c>
+      <c r="AL177">
+        <v>1.8</v>
+      </c>
+      <c r="AM177">
+        <v>1.95</v>
+      </c>
+      <c r="AN177">
+        <v>1.23</v>
+      </c>
+      <c r="AO177">
+        <v>1.27</v>
+      </c>
+      <c r="AP177">
+        <v>1.9</v>
+      </c>
+      <c r="AQ177">
+        <v>2.22</v>
+      </c>
+      <c r="AR177">
+        <v>0.44</v>
+      </c>
+      <c r="AS177">
+        <v>2.3</v>
+      </c>
+      <c r="AT177">
+        <v>0.4</v>
+      </c>
+      <c r="AU177">
+        <v>2.01</v>
+      </c>
+      <c r="AV177">
+        <v>1.43</v>
+      </c>
+      <c r="AW177">
+        <v>3.44</v>
+      </c>
+      <c r="AX177">
+        <v>1.73</v>
+      </c>
+      <c r="AY177">
+        <v>8.1</v>
+      </c>
+      <c r="AZ177">
+        <v>2.59</v>
+      </c>
+      <c r="BA177">
+        <v>1.33</v>
+      </c>
+      <c r="BB177">
+        <v>1.63</v>
+      </c>
+      <c r="BC177">
+        <v>2.09</v>
+      </c>
+      <c r="BD177">
+        <v>2.77</v>
+      </c>
+      <c r="BE177">
+        <v>3.74</v>
+      </c>
+      <c r="BF177">
+        <v>7</v>
+      </c>
+      <c r="BG177">
+        <v>4</v>
+      </c>
+      <c r="BH177">
+        <v>5</v>
+      </c>
+      <c r="BI177">
+        <v>11</v>
+      </c>
+      <c r="BJ177">
+        <v>12</v>
+      </c>
+      <c r="BK177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2710108</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44968.47916666666</v>
+      </c>
+      <c r="F178">
+        <v>20</v>
+      </c>
+      <c r="G178" t="s">
+        <v>82</v>
+      </c>
+      <c r="H178" t="s">
+        <v>69</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>218</v>
+      </c>
+      <c r="P178" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q178">
+        <v>6</v>
+      </c>
+      <c r="R178">
+        <v>3</v>
+      </c>
+      <c r="S178">
+        <v>9</v>
+      </c>
+      <c r="T178">
+        <v>1.4</v>
+      </c>
+      <c r="U178">
+        <v>3.5</v>
+      </c>
+      <c r="V178">
+        <v>12</v>
+      </c>
+      <c r="W178">
+        <v>1.17</v>
+      </c>
+      <c r="X178">
+        <v>5</v>
+      </c>
+      <c r="Y178">
+        <v>1.8</v>
+      </c>
+      <c r="Z178">
+        <v>1.91</v>
+      </c>
+      <c r="AA178">
+        <v>3.5</v>
+      </c>
+      <c r="AB178">
+        <v>1.29</v>
+      </c>
+      <c r="AC178">
+        <v>1.05</v>
+      </c>
+      <c r="AD178">
+        <v>9.9</v>
+      </c>
+      <c r="AE178">
+        <v>19</v>
+      </c>
+      <c r="AF178">
+        <v>1</v>
+      </c>
+      <c r="AG178">
+        <v>36</v>
+      </c>
+      <c r="AH178">
+        <v>1.07</v>
+      </c>
+      <c r="AI178">
+        <v>8.5</v>
+      </c>
+      <c r="AJ178">
+        <v>1.26</v>
+      </c>
+      <c r="AK178">
+        <v>3.38</v>
+      </c>
+      <c r="AL178">
+        <v>1.95</v>
+      </c>
+      <c r="AM178">
+        <v>1.8</v>
+      </c>
+      <c r="AN178">
+        <v>1.01</v>
+      </c>
+      <c r="AO178">
+        <v>1.06</v>
+      </c>
+      <c r="AP178">
+        <v>6.25</v>
+      </c>
+      <c r="AQ178">
+        <v>2.11</v>
+      </c>
+      <c r="AR178">
+        <v>0.3</v>
+      </c>
+      <c r="AS178">
+        <v>2.2</v>
+      </c>
+      <c r="AT178">
+        <v>0.27</v>
+      </c>
+      <c r="AU178">
+        <v>2.68</v>
+      </c>
+      <c r="AV178">
+        <v>1.36</v>
+      </c>
+      <c r="AW178">
+        <v>4.04</v>
+      </c>
+      <c r="AX178">
+        <v>1.14</v>
+      </c>
+      <c r="AY178">
+        <v>13.25</v>
+      </c>
+      <c r="AZ178">
+        <v>7.6</v>
+      </c>
+      <c r="BA178">
+        <v>1.22</v>
+      </c>
+      <c r="BB178">
+        <v>1.4</v>
+      </c>
+      <c r="BC178">
+        <v>1.71</v>
+      </c>
+      <c r="BD178">
+        <v>2.16</v>
+      </c>
+      <c r="BE178">
+        <v>2.77</v>
+      </c>
+      <c r="BF178">
+        <v>13</v>
+      </c>
+      <c r="BG178">
+        <v>2</v>
+      </c>
+      <c r="BH178">
+        <v>11</v>
+      </c>
+      <c r="BI178">
+        <v>6</v>
+      </c>
+      <c r="BJ178">
+        <v>24</v>
+      </c>
+      <c r="BK178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2710109</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44968.60416666666</v>
+      </c>
+      <c r="F179">
+        <v>20</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>66</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>219</v>
+      </c>
+      <c r="P179" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q179">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>4</v>
+      </c>
+      <c r="S179">
+        <v>7</v>
+      </c>
+      <c r="T179">
+        <v>2.38</v>
+      </c>
+      <c r="U179">
+        <v>2.1</v>
+      </c>
+      <c r="V179">
+        <v>5.5</v>
+      </c>
+      <c r="W179">
+        <v>1.44</v>
+      </c>
+      <c r="X179">
+        <v>2.63</v>
+      </c>
+      <c r="Y179">
+        <v>3.25</v>
+      </c>
+      <c r="Z179">
+        <v>1.33</v>
+      </c>
+      <c r="AA179">
+        <v>9</v>
+      </c>
+      <c r="AB179">
+        <v>1.07</v>
+      </c>
+      <c r="AC179">
+        <v>1.75</v>
+      </c>
+      <c r="AD179">
+        <v>3.7</v>
+      </c>
+      <c r="AE179">
+        <v>4.8</v>
+      </c>
+      <c r="AF179">
+        <v>1.06</v>
+      </c>
+      <c r="AG179">
+        <v>10</v>
+      </c>
+      <c r="AH179">
+        <v>1.35</v>
+      </c>
+      <c r="AI179">
+        <v>3.25</v>
+      </c>
+      <c r="AJ179">
+        <v>2.02</v>
+      </c>
+      <c r="AK179">
+        <v>1.88</v>
+      </c>
+      <c r="AL179">
+        <v>2</v>
+      </c>
+      <c r="AM179">
+        <v>1.75</v>
+      </c>
+      <c r="AN179">
+        <v>1.18</v>
+      </c>
+      <c r="AO179">
+        <v>1.28</v>
+      </c>
+      <c r="AP179">
+        <v>2.05</v>
+      </c>
+      <c r="AQ179">
+        <v>2.56</v>
+      </c>
+      <c r="AR179">
+        <v>1.6</v>
+      </c>
+      <c r="AS179">
+        <v>2.3</v>
+      </c>
+      <c r="AT179">
+        <v>1.73</v>
+      </c>
+      <c r="AU179">
+        <v>1.72</v>
+      </c>
+      <c r="AV179">
+        <v>1.29</v>
+      </c>
+      <c r="AW179">
+        <v>3.01</v>
+      </c>
+      <c r="AX179">
+        <v>1.57</v>
+      </c>
+      <c r="AY179">
+        <v>8</v>
+      </c>
+      <c r="AZ179">
+        <v>3.08</v>
+      </c>
+      <c r="BA179">
+        <v>1.38</v>
+      </c>
+      <c r="BB179">
+        <v>1.72</v>
+      </c>
+      <c r="BC179">
+        <v>2.22</v>
+      </c>
+      <c r="BD179">
+        <v>2.98</v>
+      </c>
+      <c r="BE179">
+        <v>4.1</v>
+      </c>
+      <c r="BF179">
+        <v>3</v>
+      </c>
+      <c r="BG179">
+        <v>5</v>
+      </c>
+      <c r="BH179">
+        <v>8</v>
+      </c>
+      <c r="BI179">
+        <v>2</v>
+      </c>
+      <c r="BJ179">
+        <v>11</v>
+      </c>
+      <c r="BK179">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2710114</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44969.47916666666</v>
+      </c>
+      <c r="F180">
+        <v>20</v>
+      </c>
+      <c r="G180" t="s">
+        <v>76</v>
+      </c>
+      <c r="H180" t="s">
+        <v>67</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>4</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>5</v>
+      </c>
+      <c r="O180" t="s">
+        <v>220</v>
+      </c>
+      <c r="P180" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q180">
+        <v>4</v>
+      </c>
+      <c r="R180">
+        <v>6</v>
+      </c>
+      <c r="S180">
+        <v>10</v>
+      </c>
+      <c r="T180">
+        <v>3.4</v>
+      </c>
+      <c r="U180">
+        <v>2.25</v>
+      </c>
+      <c r="V180">
+        <v>3</v>
+      </c>
+      <c r="W180">
+        <v>1.33</v>
+      </c>
+      <c r="X180">
+        <v>3.25</v>
+      </c>
+      <c r="Y180">
+        <v>2.63</v>
+      </c>
+      <c r="Z180">
+        <v>1.44</v>
+      </c>
+      <c r="AA180">
+        <v>6.5</v>
+      </c>
+      <c r="AB180">
+        <v>1.11</v>
+      </c>
+      <c r="AC180">
+        <v>2.85</v>
+      </c>
+      <c r="AD180">
+        <v>3.6</v>
+      </c>
+      <c r="AE180">
+        <v>2.4</v>
+      </c>
+      <c r="AF180">
+        <v>1.03</v>
+      </c>
+      <c r="AG180">
+        <v>15</v>
+      </c>
+      <c r="AH180">
+        <v>1.25</v>
+      </c>
+      <c r="AI180">
+        <v>4</v>
+      </c>
+      <c r="AJ180">
+        <v>1.72</v>
+      </c>
+      <c r="AK180">
+        <v>2.05</v>
+      </c>
+      <c r="AL180">
+        <v>1.62</v>
+      </c>
+      <c r="AM180">
+        <v>2.2</v>
+      </c>
+      <c r="AN180">
+        <v>1.55</v>
+      </c>
+      <c r="AO180">
+        <v>1.29</v>
+      </c>
+      <c r="AP180">
+        <v>1.42</v>
+      </c>
+      <c r="AQ180">
+        <v>1</v>
+      </c>
+      <c r="AR180">
+        <v>0.78</v>
+      </c>
+      <c r="AS180">
+        <v>1.18</v>
+      </c>
+      <c r="AT180">
+        <v>0.7</v>
+      </c>
+      <c r="AU180">
+        <v>1.43</v>
+      </c>
+      <c r="AV180">
+        <v>1.28</v>
+      </c>
+      <c r="AW180">
+        <v>2.71</v>
+      </c>
+      <c r="AX180">
+        <v>2.02</v>
+      </c>
+      <c r="AY180">
+        <v>7.5</v>
+      </c>
+      <c r="AZ180">
+        <v>2.18</v>
+      </c>
+      <c r="BA180">
+        <v>1.28</v>
+      </c>
+      <c r="BB180">
+        <v>1.55</v>
+      </c>
+      <c r="BC180">
+        <v>1.98</v>
+      </c>
+      <c r="BD180">
+        <v>2.59</v>
+      </c>
+      <c r="BE180">
+        <v>3.48</v>
+      </c>
+      <c r="BF180">
+        <v>3</v>
+      </c>
+      <c r="BG180">
+        <v>2</v>
+      </c>
+      <c r="BH180">
+        <v>8</v>
+      </c>
+      <c r="BI180">
+        <v>3</v>
+      </c>
+      <c r="BJ180">
+        <v>11</v>
+      </c>
+      <c r="BK180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2710111</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44969.5625</v>
+      </c>
+      <c r="F181">
+        <v>20</v>
+      </c>
+      <c r="G181" t="s">
+        <v>73</v>
+      </c>
+      <c r="H181" t="s">
+        <v>65</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>221</v>
+      </c>
+      <c r="P181" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q181">
+        <v>1</v>
+      </c>
+      <c r="R181">
+        <v>4</v>
+      </c>
+      <c r="S181">
+        <v>5</v>
+      </c>
+      <c r="T181">
+        <v>3.2</v>
+      </c>
+      <c r="U181">
+        <v>2.25</v>
+      </c>
+      <c r="V181">
+        <v>3.1</v>
+      </c>
+      <c r="W181">
+        <v>1.33</v>
+      </c>
+      <c r="X181">
+        <v>3.25</v>
+      </c>
+      <c r="Y181">
+        <v>2.63</v>
+      </c>
+      <c r="Z181">
+        <v>1.44</v>
+      </c>
+      <c r="AA181">
+        <v>6.5</v>
+      </c>
+      <c r="AB181">
+        <v>1.11</v>
+      </c>
+      <c r="AC181">
+        <v>2.62</v>
+      </c>
+      <c r="AD181">
+        <v>3.68</v>
+      </c>
+      <c r="AE181">
+        <v>2.5</v>
+      </c>
+      <c r="AF181">
+        <v>1.03</v>
+      </c>
+      <c r="AG181">
+        <v>13</v>
+      </c>
+      <c r="AH181">
+        <v>1.24</v>
+      </c>
+      <c r="AI181">
+        <v>4.2</v>
+      </c>
+      <c r="AJ181">
+        <v>1.7</v>
+      </c>
+      <c r="AK181">
+        <v>2.15</v>
+      </c>
+      <c r="AL181">
+        <v>1.57</v>
+      </c>
+      <c r="AM181">
+        <v>2.25</v>
+      </c>
+      <c r="AN181">
+        <v>1.49</v>
+      </c>
+      <c r="AO181">
+        <v>1.3</v>
+      </c>
+      <c r="AP181">
+        <v>1.46</v>
+      </c>
+      <c r="AQ181">
+        <v>1.67</v>
+      </c>
+      <c r="AR181">
+        <v>1.78</v>
+      </c>
+      <c r="AS181">
+        <v>1.8</v>
+      </c>
+      <c r="AT181">
+        <v>1.6</v>
+      </c>
+      <c r="AU181">
+        <v>1.82</v>
+      </c>
+      <c r="AV181">
+        <v>1.46</v>
+      </c>
+      <c r="AW181">
+        <v>3.28</v>
+      </c>
+      <c r="AX181">
+        <v>2.08</v>
+      </c>
+      <c r="AY181">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ181">
+        <v>2.06</v>
+      </c>
+      <c r="BA181">
+        <v>1.22</v>
+      </c>
+      <c r="BB181">
+        <v>1.44</v>
+      </c>
+      <c r="BC181">
+        <v>1.77</v>
+      </c>
+      <c r="BD181">
+        <v>2.24</v>
+      </c>
+      <c r="BE181">
+        <v>2.93</v>
+      </c>
+      <c r="BF181">
+        <v>0</v>
+      </c>
+      <c r="BG181">
+        <v>0</v>
+      </c>
+      <c r="BH181">
+        <v>3</v>
+      </c>
+      <c r="BI181">
+        <v>3</v>
+      </c>
+      <c r="BJ181">
+        <v>3</v>
+      </c>
+      <c r="BK181">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -35703,22 +35703,22 @@
         <v>3.48</v>
       </c>
       <c r="BF180">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG180">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH180">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI180">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ180">
+        <v>17</v>
+      </c>
+      <c r="BK180">
         <v>11</v>
-      </c>
-      <c r="BK180">
-        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:63">
@@ -35771,13 +35771,13 @@
         <v>88</v>
       </c>
       <c r="Q181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R181">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S181">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T181">
         <v>3.2</v>
@@ -35894,22 +35894,22 @@
         <v>2.93</v>
       </c>
       <c r="BF181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH181">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI181">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ181">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BK181">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="320">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,9 @@
     <t>['49', '71', '86']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['5', '10', '29', '35', '43', '83']</t>
   </si>
   <si>
@@ -779,9 +782,6 @@
   </si>
   <si>
     <t>['6', '55', '88']</t>
-  </si>
-  <si>
-    <t>['88']</t>
   </si>
   <si>
     <t>['22', '45+1']</t>
@@ -1335,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1579,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1961,7 +1961,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2051,7 +2051,7 @@
         <v>1.9</v>
       </c>
       <c r="AT4">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2343,7 +2343,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2534,7 +2534,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT7">
         <v>1.4</v>
@@ -2916,7 +2916,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3107,7 +3107,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3298,7 +3298,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3489,7 +3489,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3871,7 +3871,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4062,7 +4062,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4253,7 +4253,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4444,7 +4444,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5208,7 +5208,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5399,7 +5399,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5486,7 +5486,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT22">
         <v>1.3</v>
@@ -5590,7 +5590,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5781,7 +5781,7 @@
         <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5871,7 +5871,7 @@
         <v>1.4</v>
       </c>
       <c r="AT24">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU24">
         <v>2.71</v>
@@ -6545,7 +6545,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6927,7 +6927,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7691,7 +7691,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8264,7 +8264,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8545,7 +8545,7 @@
         <v>2.44</v>
       </c>
       <c r="AT38">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU38">
         <v>1.43</v>
@@ -8646,7 +8646,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8837,7 +8837,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9028,7 +9028,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9219,7 +9219,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9410,7 +9410,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9792,7 +9792,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT45">
         <v>0.44</v>
@@ -10174,7 +10174,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10365,7 +10365,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10938,7 +10938,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -11129,7 +11129,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11320,7 +11320,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12275,7 +12275,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12553,7 +12553,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT59">
         <v>2.1</v>
@@ -13230,7 +13230,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14758,7 +14758,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14949,7 +14949,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15039,7 +15039,7 @@
         <v>1.18</v>
       </c>
       <c r="AT72">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU72">
         <v>1.51</v>
@@ -15800,7 +15800,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT76">
         <v>1.36</v>
@@ -16859,7 +16859,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17140,7 +17140,7 @@
         <v>0.82</v>
       </c>
       <c r="AT83">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU83">
         <v>1.86</v>
@@ -19620,7 +19620,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT96">
         <v>1.3</v>
@@ -22106,7 +22106,7 @@
         <v>1.8</v>
       </c>
       <c r="AT109">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU109">
         <v>1.95</v>
@@ -22485,7 +22485,7 @@
         <v>2</v>
       </c>
       <c r="AS111">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT111">
         <v>1.6</v>
@@ -25353,7 +25353,7 @@
         <v>1.9</v>
       </c>
       <c r="AT126">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU126">
         <v>1.72</v>
@@ -26305,7 +26305,7 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT131">
         <v>0.27</v>
@@ -27645,7 +27645,7 @@
         <v>2.56</v>
       </c>
       <c r="AT138">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU138">
         <v>1.56</v>
@@ -30698,7 +30698,7 @@
         <v>0.57</v>
       </c>
       <c r="AS154">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT154">
         <v>0.7</v>
@@ -32608,7 +32608,7 @@
         <v>1.25</v>
       </c>
       <c r="AS164">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT164">
         <v>1.3</v>
@@ -32802,7 +32802,7 @@
         <v>1.78</v>
       </c>
       <c r="AT165">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU165">
         <v>1.62</v>
@@ -35910,6 +35910,197 @@
       </c>
       <c r="BK181">
         <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2710124</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44974.6875</v>
+      </c>
+      <c r="F182">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>70</v>
+      </c>
+      <c r="H182" t="s">
+        <v>79</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>222</v>
+      </c>
+      <c r="P182" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q182">
+        <v>6</v>
+      </c>
+      <c r="R182">
+        <v>1</v>
+      </c>
+      <c r="S182">
+        <v>7</v>
+      </c>
+      <c r="T182">
+        <v>3.2</v>
+      </c>
+      <c r="U182">
+        <v>2.3</v>
+      </c>
+      <c r="V182">
+        <v>3</v>
+      </c>
+      <c r="W182">
+        <v>1.33</v>
+      </c>
+      <c r="X182">
+        <v>3.25</v>
+      </c>
+      <c r="Y182">
+        <v>2.5</v>
+      </c>
+      <c r="Z182">
+        <v>1.5</v>
+      </c>
+      <c r="AA182">
+        <v>6.5</v>
+      </c>
+      <c r="AB182">
+        <v>1.11</v>
+      </c>
+      <c r="AC182">
+        <v>2.81</v>
+      </c>
+      <c r="AD182">
+        <v>3.76</v>
+      </c>
+      <c r="AE182">
+        <v>2.54</v>
+      </c>
+      <c r="AF182">
+        <v>1.03</v>
+      </c>
+      <c r="AG182">
+        <v>15</v>
+      </c>
+      <c r="AH182">
+        <v>1.22</v>
+      </c>
+      <c r="AI182">
+        <v>4.33</v>
+      </c>
+      <c r="AJ182">
+        <v>1.6</v>
+      </c>
+      <c r="AK182">
+        <v>2.2</v>
+      </c>
+      <c r="AL182">
+        <v>1.53</v>
+      </c>
+      <c r="AM182">
+        <v>2.38</v>
+      </c>
+      <c r="AN182">
+        <v>1.53</v>
+      </c>
+      <c r="AO182">
+        <v>1.28</v>
+      </c>
+      <c r="AP182">
+        <v>1.44</v>
+      </c>
+      <c r="AQ182">
+        <v>1.1</v>
+      </c>
+      <c r="AR182">
+        <v>0.89</v>
+      </c>
+      <c r="AS182">
+        <v>1.27</v>
+      </c>
+      <c r="AT182">
+        <v>0.8</v>
+      </c>
+      <c r="AU182">
+        <v>1.42</v>
+      </c>
+      <c r="AV182">
+        <v>1.23</v>
+      </c>
+      <c r="AW182">
+        <v>2.65</v>
+      </c>
+      <c r="AX182">
+        <v>2.09</v>
+      </c>
+      <c r="AY182">
+        <v>8.1</v>
+      </c>
+      <c r="AZ182">
+        <v>2.06</v>
+      </c>
+      <c r="BA182">
+        <v>1.27</v>
+      </c>
+      <c r="BB182">
+        <v>1.53</v>
+      </c>
+      <c r="BC182">
+        <v>1.91</v>
+      </c>
+      <c r="BD182">
+        <v>2.47</v>
+      </c>
+      <c r="BE182">
+        <v>3.28</v>
+      </c>
+      <c r="BF182">
+        <v>4</v>
+      </c>
+      <c r="BG182">
+        <v>3</v>
+      </c>
+      <c r="BH182">
+        <v>7</v>
+      </c>
+      <c r="BI182">
+        <v>2</v>
+      </c>
+      <c r="BJ182">
+        <v>11</v>
+      </c>
+      <c r="BK182">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,21 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['13', '55', '84']</t>
+  </si>
+  <si>
+    <t>['9', '59', '74']</t>
+  </si>
+  <si>
+    <t>['7', '52']</t>
+  </si>
+  <si>
+    <t>['27', '31', '76', '90']</t>
+  </si>
+  <si>
+    <t>['32', '58']</t>
+  </si>
+  <si>
     <t>['5', '10', '29', '35', '43', '83']</t>
   </si>
   <si>
@@ -974,6 +989,21 @@
   </si>
   <si>
     <t>['17']</t>
+  </si>
+  <si>
+    <t>['39', '51']</t>
+  </si>
+  <si>
+    <t>['35', '90+3']</t>
+  </si>
+  <si>
+    <t>['14', '85', '90+2']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['26', '45+4', '82']</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK182"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1609,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1666,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1857,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT3">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1961,7 +1991,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2048,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>0.8</v>
@@ -2152,7 +2182,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2239,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2343,7 +2373,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2430,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT6">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2534,7 +2564,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2624,7 +2654,7 @@
         <v>1.27</v>
       </c>
       <c r="AT7">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2812,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT8">
         <v>1.3</v>
@@ -2916,7 +2946,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3003,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT9">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3107,7 +3137,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3197,7 +3227,7 @@
         <v>1.8</v>
       </c>
       <c r="AT10">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3298,7 +3328,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3489,7 +3519,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3871,7 +3901,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3958,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -4062,7 +4092,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4152,7 +4182,7 @@
         <v>2.3</v>
       </c>
       <c r="AT15">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4253,7 +4283,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4444,7 +4474,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5104,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT20">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU20">
         <v>1.02</v>
@@ -5208,7 +5238,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5295,10 +5325,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT21">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU21">
         <v>0.71</v>
@@ -5399,7 +5429,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5489,7 +5519,7 @@
         <v>1.27</v>
       </c>
       <c r="AT22">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU22">
         <v>1.15</v>
@@ -5590,7 +5620,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5677,10 +5707,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT23">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU23">
         <v>1.75</v>
@@ -5781,7 +5811,7 @@
         <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5868,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT24">
         <v>0.8</v>
@@ -6059,10 +6089,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT25">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU25">
         <v>1.34</v>
@@ -6250,10 +6280,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT26">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU26">
         <v>0.86</v>
@@ -6441,10 +6471,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT27">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU27">
         <v>1.21</v>
@@ -6545,7 +6575,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6632,10 +6662,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT28">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU28">
         <v>1.45</v>
@@ -6927,7 +6957,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7691,7 +7721,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8264,7 +8294,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8542,7 +8572,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT38">
         <v>0.8</v>
@@ -8646,7 +8676,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8733,10 +8763,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT39">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU39">
         <v>1.5</v>
@@ -8837,7 +8867,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8924,10 +8954,10 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT40">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU40">
         <v>1.59</v>
@@ -9028,7 +9058,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9115,10 +9145,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT41">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU41">
         <v>2.1</v>
@@ -9219,7 +9249,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9306,10 +9336,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT42">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU42">
         <v>0.98</v>
@@ -9410,7 +9440,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9497,10 +9527,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU43">
         <v>1.89</v>
@@ -9688,10 +9718,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU44">
         <v>1.33</v>
@@ -9792,7 +9822,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9882,7 +9912,7 @@
         <v>1.27</v>
       </c>
       <c r="AT45">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU45">
         <v>1.02</v>
@@ -10070,10 +10100,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT46">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU46">
         <v>1.38</v>
@@ -10174,7 +10204,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10365,7 +10395,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10837,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU50">
         <v>2.42</v>
@@ -10938,7 +10968,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -11025,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>1.36</v>
@@ -11129,7 +11159,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11320,7 +11350,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11983,7 +12013,7 @@
         <v>1.3</v>
       </c>
       <c r="AT56">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU56">
         <v>1.61</v>
@@ -12171,10 +12201,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT57">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU57">
         <v>1.51</v>
@@ -12275,7 +12305,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12362,7 +12392,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT58">
         <v>1.6</v>
@@ -12556,7 +12586,7 @@
         <v>1.27</v>
       </c>
       <c r="AT59">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU59">
         <v>1.1</v>
@@ -12744,10 +12774,10 @@
         <v>2.33</v>
       </c>
       <c r="AS60">
+        <v>1.27</v>
+      </c>
+      <c r="AT60">
         <v>1.4</v>
-      </c>
-      <c r="AT60">
-        <v>1.56</v>
       </c>
       <c r="AU60">
         <v>2.01</v>
@@ -12935,10 +12965,10 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT61">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -13126,7 +13156,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT62">
         <v>1.36</v>
@@ -13317,10 +13347,10 @@
         <v>1.67</v>
       </c>
       <c r="AS63">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT63">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU63">
         <v>1.94</v>
@@ -13511,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU64">
         <v>2.33</v>
@@ -13803,7 +13833,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13890,7 +13920,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT66">
         <v>0.4</v>
@@ -14081,7 +14111,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>1.73</v>
@@ -14275,7 +14305,7 @@
         <v>2.3</v>
       </c>
       <c r="AT68">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU68">
         <v>2.23</v>
@@ -14567,7 +14597,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14758,7 +14788,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14949,7 +14979,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15140,7 +15170,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15331,7 +15361,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15421,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="AT74">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU74">
         <v>2.06</v>
@@ -15609,7 +15639,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT75">
         <v>1.6</v>
@@ -15713,7 +15743,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -15994,7 +16024,7 @@
         <v>1.3</v>
       </c>
       <c r="AT77">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU77">
         <v>1.52</v>
@@ -16182,10 +16212,10 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU78">
         <v>2.08</v>
@@ -16286,7 +16316,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16373,10 +16403,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT79">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU79">
         <v>1.66</v>
@@ -16477,7 +16507,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16564,10 +16594,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT80">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU80">
         <v>1.65</v>
@@ -16668,7 +16698,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16758,7 +16788,7 @@
         <v>1.18</v>
       </c>
       <c r="AT81">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU81">
         <v>1.55</v>
@@ -16859,7 +16889,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16946,7 +16976,7 @@
         <v>1.75</v>
       </c>
       <c r="AS82">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT82">
         <v>1.73</v>
@@ -17050,7 +17080,7 @@
         <v>88</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17328,7 +17358,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT84">
         <v>1.3</v>
@@ -17432,7 +17462,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17519,7 +17549,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT85">
         <v>0.7</v>
@@ -17623,7 +17653,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17710,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT86">
         <v>0.27</v>
@@ -17814,7 +17844,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17904,7 +17934,7 @@
         <v>1.18</v>
       </c>
       <c r="AT87">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -18005,7 +18035,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18095,7 +18125,7 @@
         <v>2.3</v>
       </c>
       <c r="AT88">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU88">
         <v>1.96</v>
@@ -18196,7 +18226,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18474,7 +18504,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT90">
         <v>1.64</v>
@@ -18668,7 +18698,7 @@
         <v>2.2</v>
       </c>
       <c r="AT91">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -18859,7 +18889,7 @@
         <v>1.3</v>
       </c>
       <c r="AT92">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU92">
         <v>1.47</v>
@@ -18960,7 +18990,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19047,7 +19077,7 @@
         <v>0.8</v>
       </c>
       <c r="AS93">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT93">
         <v>1.36</v>
@@ -19241,7 +19271,7 @@
         <v>2.3</v>
       </c>
       <c r="AT94">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU94">
         <v>2.12</v>
@@ -19342,7 +19372,7 @@
         <v>88</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19432,7 +19462,7 @@
         <v>1</v>
       </c>
       <c r="AT95">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU95">
         <v>2.05</v>
@@ -19533,7 +19563,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19623,7 +19653,7 @@
         <v>1.27</v>
       </c>
       <c r="AT96">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU96">
         <v>1.35</v>
@@ -19811,7 +19841,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT97">
         <v>0.4</v>
@@ -19915,7 +19945,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20002,7 +20032,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT98">
         <v>1.6</v>
@@ -20106,7 +20136,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20193,7 +20223,7 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT99">
         <v>1.73</v>
@@ -20387,7 +20417,7 @@
         <v>1.18</v>
       </c>
       <c r="AT100">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU100">
         <v>1.53</v>
@@ -20578,7 +20608,7 @@
         <v>1.18</v>
       </c>
       <c r="AT101">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU101">
         <v>1.52</v>
@@ -20679,7 +20709,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20766,7 +20796,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20957,7 +20987,7 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT103">
         <v>0.27</v>
@@ -21252,7 +21282,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21342,7 +21372,7 @@
         <v>2.2</v>
       </c>
       <c r="AT105">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU105">
         <v>2.81</v>
@@ -21443,7 +21473,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21530,7 +21560,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT106">
         <v>1.64</v>
@@ -21634,7 +21664,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21721,7 +21751,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT107">
         <v>0.7</v>
@@ -21825,7 +21855,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21915,7 +21945,7 @@
         <v>0.82</v>
       </c>
       <c r="AT108">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU108">
         <v>1.82</v>
@@ -22294,7 +22324,7 @@
         <v>0.6</v>
       </c>
       <c r="AS110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT110">
         <v>0.4</v>
@@ -22398,7 +22428,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22589,7 +22619,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22679,7 +22709,7 @@
         <v>1.18</v>
       </c>
       <c r="AT112">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU112">
         <v>1.51</v>
@@ -22780,7 +22810,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22870,7 +22900,7 @@
         <v>1</v>
       </c>
       <c r="AT113">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU113">
         <v>1.89</v>
@@ -23058,7 +23088,7 @@
         <v>0</v>
       </c>
       <c r="AS114">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT114">
         <v>0.27</v>
@@ -23162,7 +23192,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23353,7 +23383,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23443,7 +23473,7 @@
         <v>1.18</v>
       </c>
       <c r="AT116">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU116">
         <v>1.56</v>
@@ -23631,7 +23661,7 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT117">
         <v>1.73</v>
@@ -23825,7 +23855,7 @@
         <v>2.3</v>
       </c>
       <c r="AT118">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU118">
         <v>2.23</v>
@@ -24013,7 +24043,7 @@
         <v>1.5</v>
       </c>
       <c r="AS119">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT119">
         <v>1.64</v>
@@ -24207,7 +24237,7 @@
         <v>2.2</v>
       </c>
       <c r="AT120">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU120">
         <v>2.81</v>
@@ -24308,7 +24338,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24395,7 +24425,7 @@
         <v>0.67</v>
       </c>
       <c r="AS121">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT121">
         <v>0.7</v>
@@ -24499,7 +24529,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24586,10 +24616,10 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT122">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU122">
         <v>1.66</v>
@@ -24690,7 +24720,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24881,7 +24911,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24971,7 +25001,7 @@
         <v>2.3</v>
       </c>
       <c r="AT124">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU124">
         <v>1.83</v>
@@ -25072,7 +25102,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25159,7 +25189,7 @@
         <v>1.5</v>
       </c>
       <c r="AS125">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25263,7 +25293,7 @@
         <v>182</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25350,7 +25380,7 @@
         <v>1.33</v>
       </c>
       <c r="AS126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT126">
         <v>0.8</v>
@@ -25544,7 +25574,7 @@
         <v>0.82</v>
       </c>
       <c r="AT127">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU127">
         <v>1.74</v>
@@ -25645,7 +25675,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25732,7 +25762,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT128">
         <v>1.64</v>
@@ -25836,7 +25866,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q129">
         <v>0</v>
@@ -25926,7 +25956,7 @@
         <v>1.18</v>
       </c>
       <c r="AT129">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU129">
         <v>1.55</v>
@@ -26027,7 +26057,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26218,7 +26248,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26496,7 +26526,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT132">
         <v>0.4</v>
@@ -26690,7 +26720,7 @@
         <v>1.18</v>
       </c>
       <c r="AT133">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU133">
         <v>1.47</v>
@@ -26791,7 +26821,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26881,7 +26911,7 @@
         <v>0.82</v>
       </c>
       <c r="AT134">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU134">
         <v>1.73</v>
@@ -26982,7 +27012,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27173,7 +27203,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27454,7 +27484,7 @@
         <v>2.3</v>
       </c>
       <c r="AT137">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU137">
         <v>1.83</v>
@@ -27642,7 +27672,7 @@
         <v>1.14</v>
       </c>
       <c r="AS138">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT138">
         <v>0.8</v>
@@ -27833,10 +27863,10 @@
         <v>0.29</v>
       </c>
       <c r="AS139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT139">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU139">
         <v>1.74</v>
@@ -28024,10 +28054,10 @@
         <v>1.75</v>
       </c>
       <c r="AS140">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT140">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU140">
         <v>1.87</v>
@@ -28128,7 +28158,7 @@
         <v>194</v>
       </c>
       <c r="P141" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28215,10 +28245,10 @@
         <v>0.57</v>
       </c>
       <c r="AS141">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT141">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU141">
         <v>1.66</v>
@@ -28406,10 +28436,10 @@
         <v>1.5</v>
       </c>
       <c r="AS142">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT142">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU142">
         <v>1.72</v>
@@ -28510,7 +28540,7 @@
         <v>196</v>
       </c>
       <c r="P143" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28600,7 +28630,7 @@
         <v>1.8</v>
       </c>
       <c r="AT143">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU143">
         <v>1.9</v>
@@ -28701,7 +28731,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28788,7 +28818,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT144">
         <v>1</v>
@@ -28892,7 +28922,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -28979,7 +29009,7 @@
         <v>1</v>
       </c>
       <c r="AS145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT145">
         <v>1.3</v>
@@ -29083,7 +29113,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -29173,7 +29203,7 @@
         <v>0.82</v>
       </c>
       <c r="AT146">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU146">
         <v>1.56</v>
@@ -29274,7 +29304,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29465,7 +29495,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29656,7 +29686,7 @@
         <v>200</v>
       </c>
       <c r="P149" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29746,7 +29776,7 @@
         <v>2.2</v>
       </c>
       <c r="AT149">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU149">
         <v>2.73</v>
@@ -29847,7 +29877,7 @@
         <v>201</v>
       </c>
       <c r="P150" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -30038,7 +30068,7 @@
         <v>166</v>
       </c>
       <c r="P151" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30507,7 +30537,7 @@
         <v>0.38</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT153">
         <v>0.27</v>
@@ -30802,7 +30832,7 @@
         <v>205</v>
       </c>
       <c r="P155" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30993,7 +31023,7 @@
         <v>206</v>
       </c>
       <c r="P156" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31184,7 +31214,7 @@
         <v>207</v>
       </c>
       <c r="P157" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31375,7 +31405,7 @@
         <v>208</v>
       </c>
       <c r="P158" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31566,7 +31596,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31948,7 +31978,7 @@
         <v>100</v>
       </c>
       <c r="P161" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32229,7 +32259,7 @@
         <v>0.82</v>
       </c>
       <c r="AT162">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU162">
         <v>1.49</v>
@@ -32330,7 +32360,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32417,7 +32447,7 @@
         <v>1.33</v>
       </c>
       <c r="AS163">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT163">
         <v>1.64</v>
@@ -32712,7 +32742,7 @@
         <v>210</v>
       </c>
       <c r="P165" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32799,7 +32829,7 @@
         <v>1</v>
       </c>
       <c r="AS165">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT165">
         <v>0.8</v>
@@ -32990,10 +33020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS166">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT166">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU166">
         <v>1.71</v>
@@ -33181,10 +33211,10 @@
         <v>1.56</v>
       </c>
       <c r="AS167">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT167">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU167">
         <v>1.8</v>
@@ -33375,7 +33405,7 @@
         <v>1.8</v>
       </c>
       <c r="AT168">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU168">
         <v>1.91</v>
@@ -33563,10 +33593,10 @@
         <v>1.44</v>
       </c>
       <c r="AS169">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT169">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU169">
         <v>1.63</v>
@@ -33754,10 +33784,10 @@
         <v>0.25</v>
       </c>
       <c r="AS170">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT170">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU170">
         <v>1.66</v>
@@ -33858,7 +33888,7 @@
         <v>88</v>
       </c>
       <c r="P171" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -33945,10 +33975,10 @@
         <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT171">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU171">
         <v>1.73</v>
@@ -34049,7 +34079,7 @@
         <v>214</v>
       </c>
       <c r="P172" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34136,10 +34166,10 @@
         <v>2</v>
       </c>
       <c r="AS172">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT172">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AU172">
         <v>1.84</v>
@@ -34431,7 +34461,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34622,7 +34652,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34813,7 +34843,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -35386,7 +35416,7 @@
         <v>219</v>
       </c>
       <c r="P179" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35577,7 +35607,7 @@
         <v>220</v>
       </c>
       <c r="P180" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -36101,6 +36131,1534 @@
       </c>
       <c r="BK182">
         <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2710123</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44975.47916666666</v>
+      </c>
+      <c r="F183">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>69</v>
+      </c>
+      <c r="H183" t="s">
+        <v>74</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>88</v>
+      </c>
+      <c r="P183" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q183">
+        <v>5</v>
+      </c>
+      <c r="R183">
+        <v>5</v>
+      </c>
+      <c r="S183">
+        <v>10</v>
+      </c>
+      <c r="T183">
+        <v>3.6</v>
+      </c>
+      <c r="U183">
+        <v>2.2</v>
+      </c>
+      <c r="V183">
+        <v>2.88</v>
+      </c>
+      <c r="W183">
+        <v>1.36</v>
+      </c>
+      <c r="X183">
+        <v>3</v>
+      </c>
+      <c r="Y183">
+        <v>2.75</v>
+      </c>
+      <c r="Z183">
+        <v>1.4</v>
+      </c>
+      <c r="AA183">
+        <v>7</v>
+      </c>
+      <c r="AB183">
+        <v>1.1</v>
+      </c>
+      <c r="AC183">
+        <v>3.1</v>
+      </c>
+      <c r="AD183">
+        <v>3.7</v>
+      </c>
+      <c r="AE183">
+        <v>2.18</v>
+      </c>
+      <c r="AF183">
+        <v>1.04</v>
+      </c>
+      <c r="AG183">
+        <v>12</v>
+      </c>
+      <c r="AH183">
+        <v>1.28</v>
+      </c>
+      <c r="AI183">
+        <v>3.75</v>
+      </c>
+      <c r="AJ183">
+        <v>1.85</v>
+      </c>
+      <c r="AK183">
+        <v>1.95</v>
+      </c>
+      <c r="AL183">
+        <v>1.67</v>
+      </c>
+      <c r="AM183">
+        <v>2.1</v>
+      </c>
+      <c r="AN183">
+        <v>1.63</v>
+      </c>
+      <c r="AO183">
+        <v>1.29</v>
+      </c>
+      <c r="AP183">
+        <v>1.35</v>
+      </c>
+      <c r="AQ183">
+        <v>1.78</v>
+      </c>
+      <c r="AR183">
+        <v>1.4</v>
+      </c>
+      <c r="AS183">
+        <v>1.6</v>
+      </c>
+      <c r="AT183">
+        <v>1.55</v>
+      </c>
+      <c r="AU183">
+        <v>1.73</v>
+      </c>
+      <c r="AV183">
+        <v>1.33</v>
+      </c>
+      <c r="AW183">
+        <v>3.06</v>
+      </c>
+      <c r="AX183">
+        <v>2.29</v>
+      </c>
+      <c r="AY183">
+        <v>7.6</v>
+      </c>
+      <c r="AZ183">
+        <v>1.93</v>
+      </c>
+      <c r="BA183">
+        <v>1.36</v>
+      </c>
+      <c r="BB183">
+        <v>1.68</v>
+      </c>
+      <c r="BC183">
+        <v>2.16</v>
+      </c>
+      <c r="BD183">
+        <v>2.85</v>
+      </c>
+      <c r="BE183">
+        <v>3.92</v>
+      </c>
+      <c r="BF183">
+        <v>7</v>
+      </c>
+      <c r="BG183">
+        <v>6</v>
+      </c>
+      <c r="BH183">
+        <v>6</v>
+      </c>
+      <c r="BI183">
+        <v>8</v>
+      </c>
+      <c r="BJ183">
+        <v>13</v>
+      </c>
+      <c r="BK183">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2710120</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44975.47916666666</v>
+      </c>
+      <c r="F184">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>67</v>
+      </c>
+      <c r="H184" t="s">
+        <v>82</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>5</v>
+      </c>
+      <c r="O184" t="s">
+        <v>223</v>
+      </c>
+      <c r="P184" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q184">
+        <v>4</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>6</v>
+      </c>
+      <c r="U184">
+        <v>2.88</v>
+      </c>
+      <c r="V184">
+        <v>1.8</v>
+      </c>
+      <c r="W184">
+        <v>1.2</v>
+      </c>
+      <c r="X184">
+        <v>4.33</v>
+      </c>
+      <c r="Y184">
+        <v>1.91</v>
+      </c>
+      <c r="Z184">
+        <v>1.8</v>
+      </c>
+      <c r="AA184">
+        <v>4</v>
+      </c>
+      <c r="AB184">
+        <v>1.22</v>
+      </c>
+      <c r="AC184">
+        <v>5.75</v>
+      </c>
+      <c r="AD184">
+        <v>5.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.43</v>
+      </c>
+      <c r="AF184">
+        <v>1.02</v>
+      </c>
+      <c r="AG184">
+        <v>29</v>
+      </c>
+      <c r="AH184">
+        <v>1.1</v>
+      </c>
+      <c r="AI184">
+        <v>7</v>
+      </c>
+      <c r="AJ184">
+        <v>1.31</v>
+      </c>
+      <c r="AK184">
+        <v>3.27</v>
+      </c>
+      <c r="AL184">
+        <v>1.53</v>
+      </c>
+      <c r="AM184">
+        <v>2.38</v>
+      </c>
+      <c r="AN184">
+        <v>2.95</v>
+      </c>
+      <c r="AO184">
+        <v>1.15</v>
+      </c>
+      <c r="AP184">
+        <v>1.11</v>
+      </c>
+      <c r="AQ184">
+        <v>1.9</v>
+      </c>
+      <c r="AR184">
+        <v>2.1</v>
+      </c>
+      <c r="AS184">
+        <v>2</v>
+      </c>
+      <c r="AT184">
+        <v>1.91</v>
+      </c>
+      <c r="AU184">
+        <v>1.66</v>
+      </c>
+      <c r="AV184">
+        <v>2.04</v>
+      </c>
+      <c r="AW184">
+        <v>3.7</v>
+      </c>
+      <c r="AX184">
+        <v>4.2</v>
+      </c>
+      <c r="AY184">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ184">
+        <v>1.35</v>
+      </c>
+      <c r="BA184">
+        <v>1.24</v>
+      </c>
+      <c r="BB184">
+        <v>1.44</v>
+      </c>
+      <c r="BC184">
+        <v>1.8</v>
+      </c>
+      <c r="BD184">
+        <v>2.32</v>
+      </c>
+      <c r="BE184">
+        <v>3.1</v>
+      </c>
+      <c r="BF184">
+        <v>8</v>
+      </c>
+      <c r="BG184">
+        <v>6</v>
+      </c>
+      <c r="BH184">
+        <v>6</v>
+      </c>
+      <c r="BI184">
+        <v>5</v>
+      </c>
+      <c r="BJ184">
+        <v>14</v>
+      </c>
+      <c r="BK184">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2710122</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44975.47916666666</v>
+      </c>
+      <c r="F185">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>68</v>
+      </c>
+      <c r="H185" t="s">
+        <v>78</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>3</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>88</v>
+      </c>
+      <c r="P185" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q185">
+        <v>2</v>
+      </c>
+      <c r="R185">
+        <v>5</v>
+      </c>
+      <c r="S185">
+        <v>7</v>
+      </c>
+      <c r="T185">
+        <v>3.75</v>
+      </c>
+      <c r="U185">
+        <v>2.25</v>
+      </c>
+      <c r="V185">
+        <v>2.75</v>
+      </c>
+      <c r="W185">
+        <v>1.33</v>
+      </c>
+      <c r="X185">
+        <v>3.25</v>
+      </c>
+      <c r="Y185">
+        <v>2.63</v>
+      </c>
+      <c r="Z185">
+        <v>1.44</v>
+      </c>
+      <c r="AA185">
+        <v>7</v>
+      </c>
+      <c r="AB185">
+        <v>1.1</v>
+      </c>
+      <c r="AC185">
+        <v>3.3</v>
+      </c>
+      <c r="AD185">
+        <v>3.8</v>
+      </c>
+      <c r="AE185">
+        <v>2.05</v>
+      </c>
+      <c r="AF185">
+        <v>1.04</v>
+      </c>
+      <c r="AG185">
+        <v>13</v>
+      </c>
+      <c r="AH185">
+        <v>1.26</v>
+      </c>
+      <c r="AI185">
+        <v>4</v>
+      </c>
+      <c r="AJ185">
+        <v>1.71</v>
+      </c>
+      <c r="AK185">
+        <v>2.14</v>
+      </c>
+      <c r="AL185">
+        <v>1.62</v>
+      </c>
+      <c r="AM185">
+        <v>2.2</v>
+      </c>
+      <c r="AN185">
+        <v>1.72</v>
+      </c>
+      <c r="AO185">
+        <v>1.28</v>
+      </c>
+      <c r="AP185">
+        <v>1.32</v>
+      </c>
+      <c r="AQ185">
+        <v>1.67</v>
+      </c>
+      <c r="AR185">
+        <v>1.3</v>
+      </c>
+      <c r="AS185">
+        <v>1.5</v>
+      </c>
+      <c r="AT185">
+        <v>1.45</v>
+      </c>
+      <c r="AU185">
+        <v>1.9</v>
+      </c>
+      <c r="AV185">
+        <v>1.77</v>
+      </c>
+      <c r="AW185">
+        <v>3.67</v>
+      </c>
+      <c r="AX185">
+        <v>2.42</v>
+      </c>
+      <c r="AY185">
+        <v>7.8</v>
+      </c>
+      <c r="AZ185">
+        <v>1.83</v>
+      </c>
+      <c r="BA185">
+        <v>1.29</v>
+      </c>
+      <c r="BB185">
+        <v>1.56</v>
+      </c>
+      <c r="BC185">
+        <v>1.97</v>
+      </c>
+      <c r="BD185">
+        <v>2.56</v>
+      </c>
+      <c r="BE185">
+        <v>3.42</v>
+      </c>
+      <c r="BF185">
+        <v>3</v>
+      </c>
+      <c r="BG185">
+        <v>6</v>
+      </c>
+      <c r="BH185">
+        <v>3</v>
+      </c>
+      <c r="BI185">
+        <v>9</v>
+      </c>
+      <c r="BJ185">
+        <v>6</v>
+      </c>
+      <c r="BK185">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2710125</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44975.47916666666</v>
+      </c>
+      <c r="F186">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>72</v>
+      </c>
+      <c r="H186" t="s">
+        <v>73</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>224</v>
+      </c>
+      <c r="P186" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q186">
+        <v>3</v>
+      </c>
+      <c r="R186">
+        <v>6</v>
+      </c>
+      <c r="S186">
+        <v>9</v>
+      </c>
+      <c r="T186">
+        <v>3</v>
+      </c>
+      <c r="U186">
+        <v>2.2</v>
+      </c>
+      <c r="V186">
+        <v>3.4</v>
+      </c>
+      <c r="W186">
+        <v>1.36</v>
+      </c>
+      <c r="X186">
+        <v>3</v>
+      </c>
+      <c r="Y186">
+        <v>2.75</v>
+      </c>
+      <c r="Z186">
+        <v>1.4</v>
+      </c>
+      <c r="AA186">
+        <v>7</v>
+      </c>
+      <c r="AB186">
+        <v>1.1</v>
+      </c>
+      <c r="AC186">
+        <v>2.1</v>
+      </c>
+      <c r="AD186">
+        <v>3.9</v>
+      </c>
+      <c r="AE186">
+        <v>3.1</v>
+      </c>
+      <c r="AF186">
+        <v>1.05</v>
+      </c>
+      <c r="AG186">
+        <v>12</v>
+      </c>
+      <c r="AH186">
+        <v>1.3</v>
+      </c>
+      <c r="AI186">
+        <v>3.6</v>
+      </c>
+      <c r="AJ186">
+        <v>1.66</v>
+      </c>
+      <c r="AK186">
+        <v>2.23</v>
+      </c>
+      <c r="AL186">
+        <v>1.67</v>
+      </c>
+      <c r="AM186">
+        <v>2.1</v>
+      </c>
+      <c r="AN186">
+        <v>1.4</v>
+      </c>
+      <c r="AO186">
+        <v>1.3</v>
+      </c>
+      <c r="AP186">
+        <v>1.55</v>
+      </c>
+      <c r="AQ186">
+        <v>1.2</v>
+      </c>
+      <c r="AR186">
+        <v>0.8</v>
+      </c>
+      <c r="AS186">
+        <v>1.36</v>
+      </c>
+      <c r="AT186">
+        <v>0.73</v>
+      </c>
+      <c r="AU186">
+        <v>1.75</v>
+      </c>
+      <c r="AV186">
+        <v>1.25</v>
+      </c>
+      <c r="AW186">
+        <v>3</v>
+      </c>
+      <c r="AX186">
+        <v>1.93</v>
+      </c>
+      <c r="AY186">
+        <v>8.1</v>
+      </c>
+      <c r="AZ186">
+        <v>2.24</v>
+      </c>
+      <c r="BA186">
+        <v>1.23</v>
+      </c>
+      <c r="BB186">
+        <v>1.46</v>
+      </c>
+      <c r="BC186">
+        <v>1.81</v>
+      </c>
+      <c r="BD186">
+        <v>2.3</v>
+      </c>
+      <c r="BE186">
+        <v>3.04</v>
+      </c>
+      <c r="BF186">
+        <v>8</v>
+      </c>
+      <c r="BG186">
+        <v>5</v>
+      </c>
+      <c r="BH186">
+        <v>6</v>
+      </c>
+      <c r="BI186">
+        <v>3</v>
+      </c>
+      <c r="BJ186">
+        <v>14</v>
+      </c>
+      <c r="BK186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2710121</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44975.60416666666</v>
+      </c>
+      <c r="F187">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>65</v>
+      </c>
+      <c r="H187" t="s">
+        <v>75</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>225</v>
+      </c>
+      <c r="P187" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q187">
+        <v>5</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>7</v>
+      </c>
+      <c r="T187">
+        <v>2.1</v>
+      </c>
+      <c r="U187">
+        <v>2.5</v>
+      </c>
+      <c r="V187">
+        <v>4.75</v>
+      </c>
+      <c r="W187">
+        <v>1.29</v>
+      </c>
+      <c r="X187">
+        <v>3.5</v>
+      </c>
+      <c r="Y187">
+        <v>2.25</v>
+      </c>
+      <c r="Z187">
+        <v>1.57</v>
+      </c>
+      <c r="AA187">
+        <v>5.5</v>
+      </c>
+      <c r="AB187">
+        <v>1.14</v>
+      </c>
+      <c r="AC187">
+        <v>1.66</v>
+      </c>
+      <c r="AD187">
+        <v>4.22</v>
+      </c>
+      <c r="AE187">
+        <v>4.68</v>
+      </c>
+      <c r="AF187">
+        <v>1.01</v>
+      </c>
+      <c r="AG187">
+        <v>13</v>
+      </c>
+      <c r="AH187">
+        <v>1.15</v>
+      </c>
+      <c r="AI187">
+        <v>5</v>
+      </c>
+      <c r="AJ187">
+        <v>1.61</v>
+      </c>
+      <c r="AK187">
+        <v>2.33</v>
+      </c>
+      <c r="AL187">
+        <v>1.62</v>
+      </c>
+      <c r="AM187">
+        <v>2.2</v>
+      </c>
+      <c r="AN187">
+        <v>1.15</v>
+      </c>
+      <c r="AO187">
+        <v>1.22</v>
+      </c>
+      <c r="AP187">
+        <v>2.4</v>
+      </c>
+      <c r="AQ187">
+        <v>1.9</v>
+      </c>
+      <c r="AR187">
+        <v>1.56</v>
+      </c>
+      <c r="AS187">
+        <v>2</v>
+      </c>
+      <c r="AT187">
+        <v>1.4</v>
+      </c>
+      <c r="AU187">
+        <v>1.7</v>
+      </c>
+      <c r="AV187">
+        <v>1.39</v>
+      </c>
+      <c r="AW187">
+        <v>3.09</v>
+      </c>
+      <c r="AX187">
+        <v>1.4</v>
+      </c>
+      <c r="AY187">
+        <v>9.1</v>
+      </c>
+      <c r="AZ187">
+        <v>3.8</v>
+      </c>
+      <c r="BA187">
+        <v>1.25</v>
+      </c>
+      <c r="BB187">
+        <v>1.5</v>
+      </c>
+      <c r="BC187">
+        <v>1.85</v>
+      </c>
+      <c r="BD187">
+        <v>2.3</v>
+      </c>
+      <c r="BE187">
+        <v>3.14</v>
+      </c>
+      <c r="BF187">
+        <v>7</v>
+      </c>
+      <c r="BG187">
+        <v>0</v>
+      </c>
+      <c r="BH187">
+        <v>3</v>
+      </c>
+      <c r="BI187">
+        <v>4</v>
+      </c>
+      <c r="BJ187">
+        <v>10</v>
+      </c>
+      <c r="BK187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>2710119</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44976.47916666666</v>
+      </c>
+      <c r="F188">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>66</v>
+      </c>
+      <c r="H188" t="s">
+        <v>80</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188" t="s">
+        <v>88</v>
+      </c>
+      <c r="P188" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q188">
+        <v>6</v>
+      </c>
+      <c r="R188">
+        <v>4</v>
+      </c>
+      <c r="S188">
+        <v>10</v>
+      </c>
+      <c r="T188">
+        <v>2.2</v>
+      </c>
+      <c r="U188">
+        <v>2.2</v>
+      </c>
+      <c r="V188">
+        <v>6</v>
+      </c>
+      <c r="W188">
+        <v>1.4</v>
+      </c>
+      <c r="X188">
+        <v>2.75</v>
+      </c>
+      <c r="Y188">
+        <v>3</v>
+      </c>
+      <c r="Z188">
+        <v>1.36</v>
+      </c>
+      <c r="AA188">
+        <v>8</v>
+      </c>
+      <c r="AB188">
+        <v>1.08</v>
+      </c>
+      <c r="AC188">
+        <v>1.58</v>
+      </c>
+      <c r="AD188">
+        <v>4</v>
+      </c>
+      <c r="AE188">
+        <v>6.2</v>
+      </c>
+      <c r="AF188">
+        <v>1.06</v>
+      </c>
+      <c r="AG188">
+        <v>10</v>
+      </c>
+      <c r="AH188">
+        <v>1.33</v>
+      </c>
+      <c r="AI188">
+        <v>3.4</v>
+      </c>
+      <c r="AJ188">
+        <v>1.83</v>
+      </c>
+      <c r="AK188">
+        <v>1.8</v>
+      </c>
+      <c r="AL188">
+        <v>2</v>
+      </c>
+      <c r="AM188">
+        <v>1.75</v>
+      </c>
+      <c r="AN188">
+        <v>1.13</v>
+      </c>
+      <c r="AO188">
+        <v>1.25</v>
+      </c>
+      <c r="AP188">
+        <v>2.3</v>
+      </c>
+      <c r="AQ188">
+        <v>2.56</v>
+      </c>
+      <c r="AR188">
+        <v>0.33</v>
+      </c>
+      <c r="AS188">
+        <v>2.4</v>
+      </c>
+      <c r="AT188">
+        <v>0.4</v>
+      </c>
+      <c r="AU188">
+        <v>1.61</v>
+      </c>
+      <c r="AV188">
+        <v>1.32</v>
+      </c>
+      <c r="AW188">
+        <v>2.93</v>
+      </c>
+      <c r="AX188">
+        <v>1.4</v>
+      </c>
+      <c r="AY188">
+        <v>8.5</v>
+      </c>
+      <c r="AZ188">
+        <v>3.7</v>
+      </c>
+      <c r="BA188">
+        <v>1.4</v>
+      </c>
+      <c r="BB188">
+        <v>1.67</v>
+      </c>
+      <c r="BC188">
+        <v>2.06</v>
+      </c>
+      <c r="BD188">
+        <v>2.65</v>
+      </c>
+      <c r="BE188">
+        <v>3.6</v>
+      </c>
+      <c r="BF188">
+        <v>5</v>
+      </c>
+      <c r="BG188">
+        <v>3</v>
+      </c>
+      <c r="BH188">
+        <v>3</v>
+      </c>
+      <c r="BI188">
+        <v>5</v>
+      </c>
+      <c r="BJ188">
+        <v>8</v>
+      </c>
+      <c r="BK188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>2710117</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44976.5625</v>
+      </c>
+      <c r="F189">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>71</v>
+      </c>
+      <c r="H189" t="s">
+        <v>76</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>5</v>
+      </c>
+      <c r="O189" t="s">
+        <v>226</v>
+      </c>
+      <c r="P189" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q189">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <v>4</v>
+      </c>
+      <c r="S189">
+        <v>7</v>
+      </c>
+      <c r="T189">
+        <v>1.8</v>
+      </c>
+      <c r="U189">
+        <v>2.75</v>
+      </c>
+      <c r="V189">
+        <v>7</v>
+      </c>
+      <c r="W189">
+        <v>1.25</v>
+      </c>
+      <c r="X189">
+        <v>3.75</v>
+      </c>
+      <c r="Y189">
+        <v>2.1</v>
+      </c>
+      <c r="Z189">
+        <v>1.67</v>
+      </c>
+      <c r="AA189">
+        <v>4.5</v>
+      </c>
+      <c r="AB189">
+        <v>1.18</v>
+      </c>
+      <c r="AC189">
+        <v>1.36</v>
+      </c>
+      <c r="AD189">
+        <v>6</v>
+      </c>
+      <c r="AE189">
+        <v>6.5</v>
+      </c>
+      <c r="AF189">
+        <v>1.01</v>
+      </c>
+      <c r="AG189">
+        <v>21</v>
+      </c>
+      <c r="AH189">
+        <v>1.15</v>
+      </c>
+      <c r="AI189">
+        <v>5.5</v>
+      </c>
+      <c r="AJ189">
+        <v>1.46</v>
+      </c>
+      <c r="AK189">
+        <v>2.47</v>
+      </c>
+      <c r="AL189">
+        <v>1.75</v>
+      </c>
+      <c r="AM189">
+        <v>2</v>
+      </c>
+      <c r="AN189">
+        <v>1.08</v>
+      </c>
+      <c r="AO189">
+        <v>1.15</v>
+      </c>
+      <c r="AP189">
+        <v>3.2</v>
+      </c>
+      <c r="AQ189">
+        <v>2.44</v>
+      </c>
+      <c r="AR189">
+        <v>0.44</v>
+      </c>
+      <c r="AS189">
+        <v>2.5</v>
+      </c>
+      <c r="AT189">
+        <v>0.4</v>
+      </c>
+      <c r="AU189">
+        <v>1.91</v>
+      </c>
+      <c r="AV189">
+        <v>1.35</v>
+      </c>
+      <c r="AW189">
+        <v>3.26</v>
+      </c>
+      <c r="AX189">
+        <v>1.32</v>
+      </c>
+      <c r="AY189">
+        <v>9.5</v>
+      </c>
+      <c r="AZ189">
+        <v>4.35</v>
+      </c>
+      <c r="BA189">
+        <v>1.29</v>
+      </c>
+      <c r="BB189">
+        <v>1.48</v>
+      </c>
+      <c r="BC189">
+        <v>1.77</v>
+      </c>
+      <c r="BD189">
+        <v>2.2</v>
+      </c>
+      <c r="BE189">
+        <v>2.8</v>
+      </c>
+      <c r="BF189">
+        <v>6</v>
+      </c>
+      <c r="BG189">
+        <v>10</v>
+      </c>
+      <c r="BH189">
+        <v>4</v>
+      </c>
+      <c r="BI189">
+        <v>7</v>
+      </c>
+      <c r="BJ189">
+        <v>10</v>
+      </c>
+      <c r="BK189">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2710118</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44976.64583333334</v>
+      </c>
+      <c r="F190">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>77</v>
+      </c>
+      <c r="H190" t="s">
+        <v>81</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>2</v>
+      </c>
+      <c r="K190">
+        <v>3</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>3</v>
+      </c>
+      <c r="N190">
+        <v>5</v>
+      </c>
+      <c r="O190" t="s">
+        <v>227</v>
+      </c>
+      <c r="P190" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q190">
+        <v>4</v>
+      </c>
+      <c r="R190">
+        <v>5</v>
+      </c>
+      <c r="S190">
+        <v>9</v>
+      </c>
+      <c r="T190">
+        <v>2.38</v>
+      </c>
+      <c r="U190">
+        <v>2.3</v>
+      </c>
+      <c r="V190">
+        <v>4.5</v>
+      </c>
+      <c r="W190">
+        <v>1.33</v>
+      </c>
+      <c r="X190">
+        <v>3.25</v>
+      </c>
+      <c r="Y190">
+        <v>2.63</v>
+      </c>
+      <c r="Z190">
+        <v>1.44</v>
+      </c>
+      <c r="AA190">
+        <v>6.5</v>
+      </c>
+      <c r="AB190">
+        <v>1.11</v>
+      </c>
+      <c r="AC190">
+        <v>1.8</v>
+      </c>
+      <c r="AD190">
+        <v>3.75</v>
+      </c>
+      <c r="AE190">
+        <v>4.33</v>
+      </c>
+      <c r="AF190">
+        <v>1.03</v>
+      </c>
+      <c r="AG190">
+        <v>15</v>
+      </c>
+      <c r="AH190">
+        <v>1.25</v>
+      </c>
+      <c r="AI190">
+        <v>4</v>
+      </c>
+      <c r="AJ190">
+        <v>1.74</v>
+      </c>
+      <c r="AK190">
+        <v>2.1</v>
+      </c>
+      <c r="AL190">
+        <v>1.7</v>
+      </c>
+      <c r="AM190">
+        <v>2.05</v>
+      </c>
+      <c r="AN190">
+        <v>1.22</v>
+      </c>
+      <c r="AO190">
+        <v>1.25</v>
+      </c>
+      <c r="AP190">
+        <v>1.98</v>
+      </c>
+      <c r="AQ190">
+        <v>1.4</v>
+      </c>
+      <c r="AR190">
+        <v>1.3</v>
+      </c>
+      <c r="AS190">
+        <v>1.27</v>
+      </c>
+      <c r="AT190">
+        <v>1.45</v>
+      </c>
+      <c r="AU190">
+        <v>1.87</v>
+      </c>
+      <c r="AV190">
+        <v>1.45</v>
+      </c>
+      <c r="AW190">
+        <v>3.32</v>
+      </c>
+      <c r="AX190">
+        <v>1.57</v>
+      </c>
+      <c r="AY190">
+        <v>7.5</v>
+      </c>
+      <c r="AZ190">
+        <v>2.9</v>
+      </c>
+      <c r="BA190">
+        <v>1.34</v>
+      </c>
+      <c r="BB190">
+        <v>1.57</v>
+      </c>
+      <c r="BC190">
+        <v>1.9</v>
+      </c>
+      <c r="BD190">
+        <v>2.4</v>
+      </c>
+      <c r="BE190">
+        <v>3.2</v>
+      </c>
+      <c r="BF190">
+        <v>8</v>
+      </c>
+      <c r="BG190">
+        <v>8</v>
+      </c>
+      <c r="BH190">
+        <v>5</v>
+      </c>
+      <c r="BI190">
+        <v>2</v>
+      </c>
+      <c r="BJ190">
+        <v>13</v>
+      </c>
+      <c r="BK190">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,9 @@
     <t>['32', '58']</t>
   </si>
   <si>
+    <t>['25', '49', '71', '90+3']</t>
+  </si>
+  <si>
     <t>['5', '10', '29', '35', '43', '83']</t>
   </si>
   <si>
@@ -1365,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1609,7 +1612,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1991,7 +1994,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2182,7 +2185,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2373,7 +2376,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2564,7 +2567,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2946,7 +2949,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3137,7 +3140,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3328,7 +3331,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3519,7 +3522,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3901,7 +3904,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4092,7 +4095,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4283,7 +4286,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4474,7 +4477,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4564,7 +4567,7 @@
         <v>0.82</v>
       </c>
       <c r="AT17">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4752,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT18">
         <v>1.73</v>
@@ -5238,7 +5241,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5429,7 +5432,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5620,7 +5623,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5811,7 +5814,7 @@
         <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6575,7 +6578,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6957,7 +6960,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7721,7 +7724,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7808,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT34">
         <v>1.3</v>
@@ -8002,7 +8005,7 @@
         <v>2.2</v>
       </c>
       <c r="AT35">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU35">
         <v>2.88</v>
@@ -8294,7 +8297,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8676,7 +8679,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8867,7 +8870,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9058,7 +9061,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9249,7 +9252,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9440,7 +9443,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9822,7 +9825,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10204,7 +10207,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10395,7 +10398,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10968,7 +10971,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -11159,7 +11162,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11350,7 +11353,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11822,7 +11825,7 @@
         <v>2.3</v>
       </c>
       <c r="AT55">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU55">
         <v>2.37</v>
@@ -12010,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT56">
         <v>0.4</v>
@@ -12305,7 +12308,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -13833,7 +13836,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -14597,7 +14600,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14788,7 +14791,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14878,7 +14881,7 @@
         <v>1.18</v>
       </c>
       <c r="AT71">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU71">
         <v>1.39</v>
@@ -14979,7 +14982,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15170,7 +15173,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15361,7 +15364,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15743,7 +15746,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -16021,7 +16024,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT77">
         <v>1.45</v>
@@ -16316,7 +16319,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16507,7 +16510,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16698,7 +16701,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16889,7 +16892,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17080,7 +17083,7 @@
         <v>88</v>
       </c>
       <c r="P83" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17462,7 +17465,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17552,7 +17555,7 @@
         <v>1.5</v>
       </c>
       <c r="AT85">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU85">
         <v>1.79</v>
@@ -17653,7 +17656,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17844,7 +17847,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18035,7 +18038,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18226,7 +18229,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18886,7 +18889,7 @@
         <v>1.2</v>
       </c>
       <c r="AS92">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT92">
         <v>0.73</v>
@@ -18990,7 +18993,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19372,7 +19375,7 @@
         <v>88</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19563,7 +19566,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19945,7 +19948,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20136,7 +20139,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20709,7 +20712,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -21282,7 +21285,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21473,7 +21476,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21664,7 +21667,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21754,7 +21757,7 @@
         <v>2.4</v>
       </c>
       <c r="AT107">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21855,7 +21858,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -22428,7 +22431,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22619,7 +22622,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22810,7 +22813,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -23192,7 +23195,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23279,7 +23282,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT115">
         <v>1.36</v>
@@ -23383,7 +23386,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24338,7 +24341,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24428,7 +24431,7 @@
         <v>1.6</v>
       </c>
       <c r="AT121">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU121">
         <v>1.64</v>
@@ -24529,7 +24532,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24720,7 +24723,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24911,7 +24914,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25102,7 +25105,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25293,7 +25296,7 @@
         <v>182</v>
       </c>
       <c r="P126" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25675,7 +25678,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25866,7 +25869,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q129">
         <v>0</v>
@@ -26057,7 +26060,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26248,7 +26251,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26821,7 +26824,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -27012,7 +27015,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27099,7 +27102,7 @@
         <v>2.17</v>
       </c>
       <c r="AS135">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT135">
         <v>1.6</v>
@@ -27203,7 +27206,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -28158,7 +28161,7 @@
         <v>194</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28540,7 +28543,7 @@
         <v>196</v>
       </c>
       <c r="P143" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28731,7 +28734,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28922,7 +28925,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29113,7 +29116,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -29304,7 +29307,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29495,7 +29498,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29686,7 +29689,7 @@
         <v>200</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29877,7 +29880,7 @@
         <v>201</v>
       </c>
       <c r="P150" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -29964,7 +29967,7 @@
         <v>1.13</v>
       </c>
       <c r="AS150">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT150">
         <v>1.64</v>
@@ -30068,7 +30071,7 @@
         <v>166</v>
       </c>
       <c r="P151" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30731,7 +30734,7 @@
         <v>1.27</v>
       </c>
       <c r="AT154">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU154">
         <v>1.38</v>
@@ -30832,7 +30835,7 @@
         <v>205</v>
       </c>
       <c r="P155" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -31023,7 +31026,7 @@
         <v>206</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31214,7 +31217,7 @@
         <v>207</v>
       </c>
       <c r="P157" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31301,7 +31304,7 @@
         <v>0.33</v>
       </c>
       <c r="AS157">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT157">
         <v>0.27</v>
@@ -31405,7 +31408,7 @@
         <v>208</v>
       </c>
       <c r="P158" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31495,7 +31498,7 @@
         <v>1</v>
       </c>
       <c r="AT158">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU158">
         <v>1.91</v>
@@ -31596,7 +31599,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31978,7 +31981,7 @@
         <v>100</v>
       </c>
       <c r="P161" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32360,7 +32363,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32742,7 +32745,7 @@
         <v>210</v>
       </c>
       <c r="P165" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33888,7 +33891,7 @@
         <v>88</v>
       </c>
       <c r="P171" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34079,7 +34082,7 @@
         <v>214</v>
       </c>
       <c r="P172" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34461,7 +34464,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34652,7 +34655,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34843,7 +34846,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34930,7 +34933,7 @@
         <v>1.11</v>
       </c>
       <c r="AS176">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT176">
         <v>1</v>
@@ -35416,7 +35419,7 @@
         <v>219</v>
       </c>
       <c r="P179" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35607,7 +35610,7 @@
         <v>220</v>
       </c>
       <c r="P180" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35697,7 +35700,7 @@
         <v>1.18</v>
       </c>
       <c r="AT180">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU180">
         <v>1.43</v>
@@ -36180,7 +36183,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36371,7 +36374,7 @@
         <v>223</v>
       </c>
       <c r="P184" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36562,7 +36565,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37326,7 +37329,7 @@
         <v>226</v>
       </c>
       <c r="P189" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37517,7 +37520,7 @@
         <v>227</v>
       </c>
       <c r="P190" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37658,6 +37661,197 @@
         <v>13</v>
       </c>
       <c r="BK190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2710130</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44981.6875</v>
+      </c>
+      <c r="F191">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>81</v>
+      </c>
+      <c r="H191" t="s">
+        <v>67</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>4</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>228</v>
+      </c>
+      <c r="P191" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q191">
+        <v>3</v>
+      </c>
+      <c r="R191">
+        <v>3</v>
+      </c>
+      <c r="S191">
+        <v>6</v>
+      </c>
+      <c r="T191">
+        <v>2.63</v>
+      </c>
+      <c r="U191">
+        <v>2.3</v>
+      </c>
+      <c r="V191">
+        <v>3.75</v>
+      </c>
+      <c r="W191">
+        <v>1.3</v>
+      </c>
+      <c r="X191">
+        <v>3.4</v>
+      </c>
+      <c r="Y191">
+        <v>2.5</v>
+      </c>
+      <c r="Z191">
+        <v>1.5</v>
+      </c>
+      <c r="AA191">
+        <v>6</v>
+      </c>
+      <c r="AB191">
+        <v>1.13</v>
+      </c>
+      <c r="AC191">
+        <v>1.95</v>
+      </c>
+      <c r="AD191">
+        <v>3.45</v>
+      </c>
+      <c r="AE191">
+        <v>3</v>
+      </c>
+      <c r="AF191">
+        <v>1.03</v>
+      </c>
+      <c r="AG191">
+        <v>15</v>
+      </c>
+      <c r="AH191">
+        <v>1.22</v>
+      </c>
+      <c r="AI191">
+        <v>4.33</v>
+      </c>
+      <c r="AJ191">
+        <v>1.7</v>
+      </c>
+      <c r="AK191">
+        <v>2.15</v>
+      </c>
+      <c r="AL191">
+        <v>1.57</v>
+      </c>
+      <c r="AM191">
+        <v>2.25</v>
+      </c>
+      <c r="AN191">
+        <v>1.33</v>
+      </c>
+      <c r="AO191">
+        <v>1.24</v>
+      </c>
+      <c r="AP191">
+        <v>1.78</v>
+      </c>
+      <c r="AQ191">
+        <v>1.3</v>
+      </c>
+      <c r="AR191">
+        <v>0.7</v>
+      </c>
+      <c r="AS191">
+        <v>1.45</v>
+      </c>
+      <c r="AT191">
+        <v>0.64</v>
+      </c>
+      <c r="AU191">
+        <v>1.68</v>
+      </c>
+      <c r="AV191">
+        <v>1.29</v>
+      </c>
+      <c r="AW191">
+        <v>2.97</v>
+      </c>
+      <c r="AX191">
+        <v>1.72</v>
+      </c>
+      <c r="AY191">
+        <v>7.5</v>
+      </c>
+      <c r="AZ191">
+        <v>2.48</v>
+      </c>
+      <c r="BA191">
+        <v>1.34</v>
+      </c>
+      <c r="BB191">
+        <v>1.57</v>
+      </c>
+      <c r="BC191">
+        <v>1.92</v>
+      </c>
+      <c r="BD191">
+        <v>2.43</v>
+      </c>
+      <c r="BE191">
+        <v>3.2</v>
+      </c>
+      <c r="BF191">
+        <v>9</v>
+      </c>
+      <c r="BG191">
+        <v>3</v>
+      </c>
+      <c r="BH191">
+        <v>7</v>
+      </c>
+      <c r="BI191">
+        <v>7</v>
+      </c>
+      <c r="BJ191">
+        <v>16</v>
+      </c>
+      <c r="BK191">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,18 @@
     <t>['25', '49', '71', '90+3']</t>
   </si>
   <si>
+    <t>['61', '70']</t>
+  </si>
+  <si>
+    <t>['6', '40']</t>
+  </si>
+  <si>
+    <t>['29', '43', '59']</t>
+  </si>
+  <si>
+    <t>['10', '40']</t>
+  </si>
+  <si>
     <t>['5', '10', '29', '35', '43', '83']</t>
   </si>
   <si>
@@ -1007,6 +1019,12 @@
   </si>
   <si>
     <t>['26', '45+4', '82']</t>
+  </si>
+  <si>
+    <t>['4', '68']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1612,7 +1630,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1994,7 +2012,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2185,7 +2203,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2376,7 +2394,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2567,7 +2585,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2949,7 +2967,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3140,7 +3158,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3227,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT10">
         <v>0.4</v>
@@ -3331,7 +3349,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3421,7 +3439,7 @@
         <v>2.3</v>
       </c>
       <c r="AT11">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3522,7 +3540,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3609,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3800,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3904,7 +3922,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3994,7 +4012,7 @@
         <v>1.27</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4095,7 +4113,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4182,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT15">
         <v>0.73</v>
@@ -4286,7 +4304,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4373,10 +4391,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT16">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4477,7 +4495,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4564,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT17">
         <v>0.64</v>
@@ -4949,7 +4967,7 @@
         <v>2.2</v>
       </c>
       <c r="AT19">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5241,7 +5259,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5432,7 +5450,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5623,7 +5641,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5814,7 +5832,7 @@
         <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6578,7 +6596,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6859,7 +6877,7 @@
         <v>2.3</v>
       </c>
       <c r="AT29">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU29">
         <v>2.15</v>
@@ -6960,7 +6978,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7047,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>1.73</v>
@@ -7238,10 +7256,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT31">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU31">
         <v>1.46</v>
@@ -7429,10 +7447,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU32">
         <v>2.63</v>
@@ -7620,10 +7638,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT33">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU33">
         <v>1.76</v>
@@ -7724,7 +7742,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8193,10 +8211,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT36">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU36">
         <v>2.88</v>
@@ -8297,7 +8315,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8384,10 +8402,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU37">
         <v>0.9399999999999999</v>
@@ -8679,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8870,7 +8888,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9061,7 +9079,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9252,7 +9270,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9443,7 +9461,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9825,7 +9843,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10207,7 +10225,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10294,10 +10312,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU47">
         <v>1.19</v>
@@ -10398,7 +10416,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10488,7 +10506,7 @@
         <v>2.2</v>
       </c>
       <c r="AT48">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU48">
         <v>3.67</v>
@@ -10676,10 +10694,10 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT49">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU49">
         <v>1.91</v>
@@ -10867,7 +10885,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT50">
         <v>1.45</v>
@@ -10971,7 +10989,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -11061,7 +11079,7 @@
         <v>2</v>
       </c>
       <c r="AT51">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>1.6</v>
@@ -11162,7 +11180,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11249,7 +11267,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT52">
         <v>1.3</v>
@@ -11353,7 +11371,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11440,10 +11458,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT53">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU53">
         <v>1.65</v>
@@ -11631,7 +11649,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT54">
         <v>1.73</v>
@@ -12308,7 +12326,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12398,7 +12416,7 @@
         <v>1.36</v>
       </c>
       <c r="AT58">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU58">
         <v>1.43</v>
@@ -13162,7 +13180,7 @@
         <v>2.4</v>
       </c>
       <c r="AT62">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU62">
         <v>1</v>
@@ -13541,7 +13559,7 @@
         <v>3</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT64">
         <v>1.55</v>
@@ -13836,7 +13854,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13926,7 +13944,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU66">
         <v>1.71</v>
@@ -14496,10 +14514,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT69">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU69">
         <v>1.85</v>
@@ -14600,7 +14618,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14687,10 +14705,10 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT70">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU70">
         <v>1.76</v>
@@ -14791,7 +14809,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14878,7 +14896,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
         <v>0.64</v>
@@ -14982,7 +15000,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15069,7 +15087,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
         <v>0.8</v>
@@ -15173,7 +15191,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15260,10 +15278,10 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU73">
         <v>1.78</v>
@@ -15364,7 +15382,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15451,7 +15469,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT74">
         <v>1.4</v>
@@ -15645,7 +15663,7 @@
         <v>1.6</v>
       </c>
       <c r="AT75">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU75">
         <v>1.7</v>
@@ -15746,7 +15764,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -15836,7 +15854,7 @@
         <v>1.27</v>
       </c>
       <c r="AT76">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU76">
         <v>1.18</v>
@@ -16319,7 +16337,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16510,7 +16528,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16701,7 +16719,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16788,7 +16806,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT81">
         <v>1.55</v>
@@ -16892,7 +16910,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17083,7 +17101,7 @@
         <v>88</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17170,7 +17188,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT83">
         <v>0.8</v>
@@ -17465,7 +17483,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17656,7 +17674,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17746,7 +17764,7 @@
         <v>1.36</v>
       </c>
       <c r="AT86">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU86">
         <v>1.38</v>
@@ -17847,7 +17865,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17934,7 +17952,7 @@
         <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
         <v>1.45</v>
@@ -18038,7 +18056,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18125,7 +18143,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT88">
         <v>0.4</v>
@@ -18229,7 +18247,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18316,10 +18334,10 @@
         <v>2.25</v>
       </c>
       <c r="AS89">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT89">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU89">
         <v>1.93</v>
@@ -18510,7 +18528,7 @@
         <v>2.4</v>
       </c>
       <c r="AT90">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU90">
         <v>1.19</v>
@@ -18993,7 +19011,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19083,7 +19101,7 @@
         <v>1.27</v>
       </c>
       <c r="AT93">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU93">
         <v>2.02</v>
@@ -19375,7 +19393,7 @@
         <v>88</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19462,7 +19480,7 @@
         <v>1.6</v>
       </c>
       <c r="AS95">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT95">
         <v>1.91</v>
@@ -19566,7 +19584,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19847,7 +19865,7 @@
         <v>2.5</v>
       </c>
       <c r="AT97">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU97">
         <v>1.65</v>
@@ -19948,7 +19966,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20038,7 +20056,7 @@
         <v>2</v>
       </c>
       <c r="AT98">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU98">
         <v>1.69</v>
@@ -20139,7 +20157,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20417,7 +20435,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
         <v>0.4</v>
@@ -20608,7 +20626,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT101">
         <v>0.4</v>
@@ -20712,7 +20730,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20802,7 +20820,7 @@
         <v>1.36</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU102">
         <v>1.49</v>
@@ -20993,7 +21011,7 @@
         <v>1.5</v>
       </c>
       <c r="AT103">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU103">
         <v>1.78</v>
@@ -21181,7 +21199,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT104">
         <v>1.3</v>
@@ -21285,7 +21303,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21476,7 +21494,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21566,7 +21584,7 @@
         <v>2</v>
       </c>
       <c r="AT106">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21667,7 +21685,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21858,7 +21876,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21945,7 +21963,7 @@
         <v>1.83</v>
       </c>
       <c r="AS108">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT108">
         <v>1.55</v>
@@ -22136,7 +22154,7 @@
         <v>1.4</v>
       </c>
       <c r="AS109">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT109">
         <v>0.8</v>
@@ -22330,7 +22348,7 @@
         <v>2</v>
       </c>
       <c r="AT110">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU110">
         <v>1.58</v>
@@ -22431,7 +22449,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22521,7 +22539,7 @@
         <v>1.27</v>
       </c>
       <c r="AT111">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU111">
         <v>1.29</v>
@@ -22622,7 +22640,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22709,7 +22727,7 @@
         <v>1.83</v>
       </c>
       <c r="AS112">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT112">
         <v>1.91</v>
@@ -22813,7 +22831,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22900,7 +22918,7 @@
         <v>0.5</v>
       </c>
       <c r="AS113">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT113">
         <v>1.45</v>
@@ -23094,7 +23112,7 @@
         <v>2.5</v>
       </c>
       <c r="AT114">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU114">
         <v>1.75</v>
@@ -23195,7 +23213,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23285,7 +23303,7 @@
         <v>1.45</v>
       </c>
       <c r="AT115">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU115">
         <v>1.61</v>
@@ -23386,7 +23404,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23473,7 +23491,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT116">
         <v>0.4</v>
@@ -24049,7 +24067,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU119">
         <v>1.85</v>
@@ -24341,7 +24359,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24532,7 +24550,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24723,7 +24741,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24810,7 +24828,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT123">
         <v>1.3</v>
@@ -24914,7 +24932,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25001,7 +25019,7 @@
         <v>2</v>
       </c>
       <c r="AS124">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT124">
         <v>1.55</v>
@@ -25105,7 +25123,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25195,7 +25213,7 @@
         <v>2.4</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU125">
         <v>1.44</v>
@@ -25296,7 +25314,7 @@
         <v>182</v>
       </c>
       <c r="P126" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25574,7 +25592,7 @@
         <v>1.71</v>
       </c>
       <c r="AS127">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT127">
         <v>1.45</v>
@@ -25678,7 +25696,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25768,7 +25786,7 @@
         <v>2</v>
       </c>
       <c r="AT128">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU128">
         <v>1.58</v>
@@ -25869,7 +25887,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q129">
         <v>0</v>
@@ -25956,7 +25974,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT129">
         <v>1.45</v>
@@ -26060,7 +26078,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26147,10 +26165,10 @@
         <v>1.14</v>
       </c>
       <c r="AS130">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT130">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU130">
         <v>1.81</v>
@@ -26251,7 +26269,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26341,7 +26359,7 @@
         <v>1.27</v>
       </c>
       <c r="AT131">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU131">
         <v>1.31</v>
@@ -26532,7 +26550,7 @@
         <v>1.27</v>
       </c>
       <c r="AT132">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU132">
         <v>1.9</v>
@@ -26720,7 +26738,7 @@
         <v>0.86</v>
       </c>
       <c r="AS133">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT133">
         <v>0.73</v>
@@ -26824,7 +26842,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26911,7 +26929,7 @@
         <v>2</v>
       </c>
       <c r="AS134">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT134">
         <v>1.91</v>
@@ -27015,7 +27033,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27105,7 +27123,7 @@
         <v>1.45</v>
       </c>
       <c r="AT135">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU135">
         <v>1.62</v>
@@ -27206,7 +27224,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27484,7 +27502,7 @@
         <v>2.13</v>
       </c>
       <c r="AS137">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT137">
         <v>1.91</v>
@@ -28161,7 +28179,7 @@
         <v>194</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28543,7 +28561,7 @@
         <v>196</v>
       </c>
       <c r="P143" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28630,7 +28648,7 @@
         <v>1.57</v>
       </c>
       <c r="AS143">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT143">
         <v>1.4</v>
@@ -28734,7 +28752,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28824,7 +28842,7 @@
         <v>2.5</v>
       </c>
       <c r="AT144">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU144">
         <v>1.63</v>
@@ -28925,7 +28943,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29116,7 +29134,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -29203,7 +29221,7 @@
         <v>1.13</v>
       </c>
       <c r="AS146">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT146">
         <v>1.45</v>
@@ -29307,7 +29325,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29394,10 +29412,10 @@
         <v>1.38</v>
       </c>
       <c r="AS147">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT147">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU147">
         <v>1.5</v>
@@ -29498,7 +29516,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29585,10 +29603,10 @@
         <v>0.43</v>
       </c>
       <c r="AS148">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT148">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU148">
         <v>1.92</v>
@@ -29689,7 +29707,7 @@
         <v>200</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29880,7 +29898,7 @@
         <v>201</v>
       </c>
       <c r="P150" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -29970,7 +29988,7 @@
         <v>1.45</v>
       </c>
       <c r="AT150">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU150">
         <v>1.66</v>
@@ -30071,7 +30089,7 @@
         <v>166</v>
       </c>
       <c r="P151" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30158,7 +30176,7 @@
         <v>1.25</v>
       </c>
       <c r="AS151">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT151">
         <v>1.73</v>
@@ -30352,7 +30370,7 @@
         <v>2.3</v>
       </c>
       <c r="AT152">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU152">
         <v>2.05</v>
@@ -30543,7 +30561,7 @@
         <v>1.27</v>
       </c>
       <c r="AT153">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU153">
         <v>1.85</v>
@@ -30835,7 +30853,7 @@
         <v>205</v>
       </c>
       <c r="P155" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30922,10 +30940,10 @@
         <v>0.5</v>
       </c>
       <c r="AS155">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT155">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU155">
         <v>1.75</v>
@@ -31026,7 +31044,7 @@
         <v>206</v>
       </c>
       <c r="P156" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31116,7 +31134,7 @@
         <v>2.3</v>
       </c>
       <c r="AT156">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU156">
         <v>2</v>
@@ -31217,7 +31235,7 @@
         <v>207</v>
       </c>
       <c r="P157" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31307,7 +31325,7 @@
         <v>1.45</v>
       </c>
       <c r="AT157">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU157">
         <v>1.64</v>
@@ -31408,7 +31426,7 @@
         <v>208</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31495,7 +31513,7 @@
         <v>0.5</v>
       </c>
       <c r="AS158">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT158">
         <v>0.64</v>
@@ -31599,7 +31617,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31686,7 +31704,7 @@
         <v>1.44</v>
       </c>
       <c r="AS159">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT159">
         <v>1.73</v>
@@ -31877,10 +31895,10 @@
         <v>1.56</v>
       </c>
       <c r="AS160">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT160">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU160">
         <v>1.49</v>
@@ -31981,7 +31999,7 @@
         <v>100</v>
       </c>
       <c r="P161" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32071,7 +32089,7 @@
         <v>2.2</v>
       </c>
       <c r="AT161">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU161">
         <v>2.78</v>
@@ -32259,7 +32277,7 @@
         <v>0.78</v>
       </c>
       <c r="AS162">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT162">
         <v>0.73</v>
@@ -32363,7 +32381,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32453,7 +32471,7 @@
         <v>1.27</v>
       </c>
       <c r="AT163">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU163">
         <v>1.83</v>
@@ -32745,7 +32763,7 @@
         <v>210</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33405,7 +33423,7 @@
         <v>1.33</v>
       </c>
       <c r="AS168">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT168">
         <v>1.45</v>
@@ -33891,7 +33909,7 @@
         <v>88</v>
       </c>
       <c r="P171" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34082,7 +34100,7 @@
         <v>214</v>
       </c>
       <c r="P172" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34360,10 +34378,10 @@
         <v>1.4</v>
       </c>
       <c r="AS173">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT173">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU173">
         <v>1.53</v>
@@ -34464,7 +34482,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34551,7 +34569,7 @@
         <v>1.11</v>
       </c>
       <c r="AS174">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT174">
         <v>1.3</v>
@@ -34655,7 +34673,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34742,10 +34760,10 @@
         <v>1.5</v>
       </c>
       <c r="AS175">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT175">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU175">
         <v>1.51</v>
@@ -34846,7 +34864,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34936,7 +34954,7 @@
         <v>1.45</v>
       </c>
       <c r="AT176">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU176">
         <v>1.65</v>
@@ -35127,7 +35145,7 @@
         <v>2.3</v>
       </c>
       <c r="AT177">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU177">
         <v>2.01</v>
@@ -35318,7 +35336,7 @@
         <v>2.2</v>
       </c>
       <c r="AT178">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU178">
         <v>2.68</v>
@@ -35419,7 +35437,7 @@
         <v>219</v>
       </c>
       <c r="P179" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35506,7 +35524,7 @@
         <v>1.6</v>
       </c>
       <c r="AS179">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT179">
         <v>1.73</v>
@@ -35610,7 +35628,7 @@
         <v>220</v>
       </c>
       <c r="P180" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35697,7 +35715,7 @@
         <v>0.78</v>
       </c>
       <c r="AS180">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT180">
         <v>0.64</v>
@@ -35888,10 +35906,10 @@
         <v>1.78</v>
       </c>
       <c r="AS181">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT181">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU181">
         <v>1.82</v>
@@ -36183,7 +36201,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36374,7 +36392,7 @@
         <v>223</v>
       </c>
       <c r="P184" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36565,7 +36583,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37329,7 +37347,7 @@
         <v>226</v>
       </c>
       <c r="P189" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37520,7 +37538,7 @@
         <v>227</v>
       </c>
       <c r="P190" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37853,6 +37871,1152 @@
       </c>
       <c r="BK191">
         <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>2710131</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44982.47916666666</v>
+      </c>
+      <c r="F192">
+        <v>22</v>
+      </c>
+      <c r="G192" t="s">
+        <v>79</v>
+      </c>
+      <c r="H192" t="s">
+        <v>71</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" t="s">
+        <v>88</v>
+      </c>
+      <c r="P192" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q192">
+        <v>12</v>
+      </c>
+      <c r="R192">
+        <v>11</v>
+      </c>
+      <c r="S192">
+        <v>23</v>
+      </c>
+      <c r="T192">
+        <v>4.33</v>
+      </c>
+      <c r="U192">
+        <v>2.5</v>
+      </c>
+      <c r="V192">
+        <v>2.3</v>
+      </c>
+      <c r="W192">
+        <v>1.29</v>
+      </c>
+      <c r="X192">
+        <v>3.5</v>
+      </c>
+      <c r="Y192">
+        <v>2.25</v>
+      </c>
+      <c r="Z192">
+        <v>1.57</v>
+      </c>
+      <c r="AA192">
+        <v>5.5</v>
+      </c>
+      <c r="AB192">
+        <v>1.14</v>
+      </c>
+      <c r="AC192">
+        <v>3.8</v>
+      </c>
+      <c r="AD192">
+        <v>4</v>
+      </c>
+      <c r="AE192">
+        <v>1.73</v>
+      </c>
+      <c r="AF192">
+        <v>1.02</v>
+      </c>
+      <c r="AG192">
+        <v>21</v>
+      </c>
+      <c r="AH192">
+        <v>1.18</v>
+      </c>
+      <c r="AI192">
+        <v>5</v>
+      </c>
+      <c r="AJ192">
+        <v>1.49</v>
+      </c>
+      <c r="AK192">
+        <v>2.39</v>
+      </c>
+      <c r="AL192">
+        <v>1.53</v>
+      </c>
+      <c r="AM192">
+        <v>2.38</v>
+      </c>
+      <c r="AN192">
+        <v>2</v>
+      </c>
+      <c r="AO192">
+        <v>1.23</v>
+      </c>
+      <c r="AP192">
+        <v>1.23</v>
+      </c>
+      <c r="AQ192">
+        <v>1</v>
+      </c>
+      <c r="AR192">
+        <v>1.64</v>
+      </c>
+      <c r="AS192">
+        <v>0.92</v>
+      </c>
+      <c r="AT192">
+        <v>1.75</v>
+      </c>
+      <c r="AU192">
+        <v>1.86</v>
+      </c>
+      <c r="AV192">
+        <v>1.8</v>
+      </c>
+      <c r="AW192">
+        <v>3.66</v>
+      </c>
+      <c r="AX192">
+        <v>2.71</v>
+      </c>
+      <c r="AY192">
+        <v>7.9</v>
+      </c>
+      <c r="AZ192">
+        <v>1.69</v>
+      </c>
+      <c r="BA192">
+        <v>1.22</v>
+      </c>
+      <c r="BB192">
+        <v>1.43</v>
+      </c>
+      <c r="BC192">
+        <v>1.79</v>
+      </c>
+      <c r="BD192">
+        <v>2.26</v>
+      </c>
+      <c r="BE192">
+        <v>3.04</v>
+      </c>
+      <c r="BF192">
+        <v>5</v>
+      </c>
+      <c r="BG192">
+        <v>14</v>
+      </c>
+      <c r="BH192">
+        <v>11</v>
+      </c>
+      <c r="BI192">
+        <v>13</v>
+      </c>
+      <c r="BJ192">
+        <v>16</v>
+      </c>
+      <c r="BK192">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2710129</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44982.47916666666</v>
+      </c>
+      <c r="F193">
+        <v>22</v>
+      </c>
+      <c r="G193" t="s">
+        <v>73</v>
+      </c>
+      <c r="H193" t="s">
+        <v>68</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>88</v>
+      </c>
+      <c r="P193" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q193">
+        <v>10</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>12</v>
+      </c>
+      <c r="T193">
+        <v>3</v>
+      </c>
+      <c r="U193">
+        <v>2.25</v>
+      </c>
+      <c r="V193">
+        <v>3.4</v>
+      </c>
+      <c r="W193">
+        <v>1.36</v>
+      </c>
+      <c r="X193">
+        <v>3</v>
+      </c>
+      <c r="Y193">
+        <v>2.63</v>
+      </c>
+      <c r="Z193">
+        <v>1.44</v>
+      </c>
+      <c r="AA193">
+        <v>7</v>
+      </c>
+      <c r="AB193">
+        <v>1.1</v>
+      </c>
+      <c r="AC193">
+        <v>2.25</v>
+      </c>
+      <c r="AD193">
+        <v>3.4</v>
+      </c>
+      <c r="AE193">
+        <v>2.8</v>
+      </c>
+      <c r="AF193">
+        <v>1.04</v>
+      </c>
+      <c r="AG193">
+        <v>13</v>
+      </c>
+      <c r="AH193">
+        <v>1.28</v>
+      </c>
+      <c r="AI193">
+        <v>3.75</v>
+      </c>
+      <c r="AJ193">
+        <v>1.87</v>
+      </c>
+      <c r="AK193">
+        <v>1.95</v>
+      </c>
+      <c r="AL193">
+        <v>1.62</v>
+      </c>
+      <c r="AM193">
+        <v>2.2</v>
+      </c>
+      <c r="AN193">
+        <v>1.44</v>
+      </c>
+      <c r="AO193">
+        <v>1.33</v>
+      </c>
+      <c r="AP193">
+        <v>1.62</v>
+      </c>
+      <c r="AQ193">
+        <v>1.8</v>
+      </c>
+      <c r="AR193">
+        <v>1.36</v>
+      </c>
+      <c r="AS193">
+        <v>1.64</v>
+      </c>
+      <c r="AT193">
+        <v>1.5</v>
+      </c>
+      <c r="AU193">
+        <v>1.75</v>
+      </c>
+      <c r="AV193">
+        <v>1.25</v>
+      </c>
+      <c r="AW193">
+        <v>3</v>
+      </c>
+      <c r="AX193">
+        <v>1.62</v>
+      </c>
+      <c r="AY193">
+        <v>8.1</v>
+      </c>
+      <c r="AZ193">
+        <v>2.9</v>
+      </c>
+      <c r="BA193">
+        <v>1.21</v>
+      </c>
+      <c r="BB193">
+        <v>1.42</v>
+      </c>
+      <c r="BC193">
+        <v>1.76</v>
+      </c>
+      <c r="BD193">
+        <v>2.22</v>
+      </c>
+      <c r="BE193">
+        <v>2.93</v>
+      </c>
+      <c r="BF193">
+        <v>7</v>
+      </c>
+      <c r="BG193">
+        <v>5</v>
+      </c>
+      <c r="BH193">
+        <v>8</v>
+      </c>
+      <c r="BI193">
+        <v>2</v>
+      </c>
+      <c r="BJ193">
+        <v>15</v>
+      </c>
+      <c r="BK193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2710132</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44982.47916666666</v>
+      </c>
+      <c r="F194">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s">
+        <v>76</v>
+      </c>
+      <c r="H194" t="s">
+        <v>70</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>229</v>
+      </c>
+      <c r="P194" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q194">
+        <v>1</v>
+      </c>
+      <c r="R194">
+        <v>6</v>
+      </c>
+      <c r="S194">
+        <v>7</v>
+      </c>
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
+        <v>2.25</v>
+      </c>
+      <c r="V194">
+        <v>3.6</v>
+      </c>
+      <c r="W194">
+        <v>1.33</v>
+      </c>
+      <c r="X194">
+        <v>3.25</v>
+      </c>
+      <c r="Y194">
+        <v>2.63</v>
+      </c>
+      <c r="Z194">
+        <v>1.44</v>
+      </c>
+      <c r="AA194">
+        <v>7</v>
+      </c>
+      <c r="AB194">
+        <v>1.1</v>
+      </c>
+      <c r="AC194">
+        <v>2.05</v>
+      </c>
+      <c r="AD194">
+        <v>3.5</v>
+      </c>
+      <c r="AE194">
+        <v>3.13</v>
+      </c>
+      <c r="AF194">
+        <v>1.04</v>
+      </c>
+      <c r="AG194">
+        <v>13</v>
+      </c>
+      <c r="AH194">
+        <v>1.26</v>
+      </c>
+      <c r="AI194">
+        <v>4</v>
+      </c>
+      <c r="AJ194">
+        <v>1.85</v>
+      </c>
+      <c r="AK194">
+        <v>1.95</v>
+      </c>
+      <c r="AL194">
+        <v>1.62</v>
+      </c>
+      <c r="AM194">
+        <v>2.2</v>
+      </c>
+      <c r="AN194">
+        <v>1.33</v>
+      </c>
+      <c r="AO194">
+        <v>1.32</v>
+      </c>
+      <c r="AP194">
+        <v>1.67</v>
+      </c>
+      <c r="AQ194">
+        <v>1.18</v>
+      </c>
+      <c r="AR194">
+        <v>1</v>
+      </c>
+      <c r="AS194">
+        <v>1.33</v>
+      </c>
+      <c r="AT194">
+        <v>0.91</v>
+      </c>
+      <c r="AU194">
+        <v>1.48</v>
+      </c>
+      <c r="AV194">
+        <v>1.37</v>
+      </c>
+      <c r="AW194">
+        <v>2.85</v>
+      </c>
+      <c r="AX194">
+        <v>1.95</v>
+      </c>
+      <c r="AY194">
+        <v>7.6</v>
+      </c>
+      <c r="AZ194">
+        <v>2.26</v>
+      </c>
+      <c r="BA194">
+        <v>1.27</v>
+      </c>
+      <c r="BB194">
+        <v>1.52</v>
+      </c>
+      <c r="BC194">
+        <v>1.93</v>
+      </c>
+      <c r="BD194">
+        <v>2.5</v>
+      </c>
+      <c r="BE194">
+        <v>3.42</v>
+      </c>
+      <c r="BF194">
+        <v>4</v>
+      </c>
+      <c r="BG194">
+        <v>2</v>
+      </c>
+      <c r="BH194">
+        <v>9</v>
+      </c>
+      <c r="BI194">
+        <v>8</v>
+      </c>
+      <c r="BJ194">
+        <v>13</v>
+      </c>
+      <c r="BK194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2710127</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>44982.47916666666</v>
+      </c>
+      <c r="F195">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>78</v>
+      </c>
+      <c r="H195" t="s">
+        <v>65</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>230</v>
+      </c>
+      <c r="P195" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q195">
+        <v>2</v>
+      </c>
+      <c r="R195">
+        <v>6</v>
+      </c>
+      <c r="S195">
+        <v>8</v>
+      </c>
+      <c r="T195">
+        <v>2.25</v>
+      </c>
+      <c r="U195">
+        <v>2.38</v>
+      </c>
+      <c r="V195">
+        <v>4.75</v>
+      </c>
+      <c r="W195">
+        <v>1.33</v>
+      </c>
+      <c r="X195">
+        <v>3.25</v>
+      </c>
+      <c r="Y195">
+        <v>2.5</v>
+      </c>
+      <c r="Z195">
+        <v>1.5</v>
+      </c>
+      <c r="AA195">
+        <v>6</v>
+      </c>
+      <c r="AB195">
+        <v>1.13</v>
+      </c>
+      <c r="AC195">
+        <v>1.65</v>
+      </c>
+      <c r="AD195">
+        <v>3.9</v>
+      </c>
+      <c r="AE195">
+        <v>4.33</v>
+      </c>
+      <c r="AF195">
+        <v>1.03</v>
+      </c>
+      <c r="AG195">
+        <v>15</v>
+      </c>
+      <c r="AH195">
+        <v>1.22</v>
+      </c>
+      <c r="AI195">
+        <v>4.33</v>
+      </c>
+      <c r="AJ195">
+        <v>1.67</v>
+      </c>
+      <c r="AK195">
+        <v>2.2</v>
+      </c>
+      <c r="AL195">
+        <v>1.7</v>
+      </c>
+      <c r="AM195">
+        <v>2.05</v>
+      </c>
+      <c r="AN195">
+        <v>1.19</v>
+      </c>
+      <c r="AO195">
+        <v>1.23</v>
+      </c>
+      <c r="AP195">
+        <v>2.15</v>
+      </c>
+      <c r="AQ195">
+        <v>2.3</v>
+      </c>
+      <c r="AR195">
+        <v>1.6</v>
+      </c>
+      <c r="AS195">
+        <v>2.36</v>
+      </c>
+      <c r="AT195">
+        <v>1.45</v>
+      </c>
+      <c r="AU195">
+        <v>1.66</v>
+      </c>
+      <c r="AV195">
+        <v>1.42</v>
+      </c>
+      <c r="AW195">
+        <v>3.08</v>
+      </c>
+      <c r="AX195">
+        <v>1.58</v>
+      </c>
+      <c r="AY195">
+        <v>7.7</v>
+      </c>
+      <c r="AZ195">
+        <v>3.08</v>
+      </c>
+      <c r="BA195">
+        <v>1.44</v>
+      </c>
+      <c r="BB195">
+        <v>1.8</v>
+      </c>
+      <c r="BC195">
+        <v>2.35</v>
+      </c>
+      <c r="BD195">
+        <v>3.18</v>
+      </c>
+      <c r="BE195">
+        <v>4.65</v>
+      </c>
+      <c r="BF195">
+        <v>6</v>
+      </c>
+      <c r="BG195">
+        <v>5</v>
+      </c>
+      <c r="BH195">
+        <v>5</v>
+      </c>
+      <c r="BI195">
+        <v>3</v>
+      </c>
+      <c r="BJ195">
+        <v>11</v>
+      </c>
+      <c r="BK195">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2710134</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44982.47916666666</v>
+      </c>
+      <c r="F196">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
+        <v>75</v>
+      </c>
+      <c r="H196" t="s">
+        <v>69</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196" t="s">
+        <v>231</v>
+      </c>
+      <c r="P196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q196">
+        <v>2</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>2</v>
+      </c>
+      <c r="T196">
+        <v>2.6</v>
+      </c>
+      <c r="U196">
+        <v>2.3</v>
+      </c>
+      <c r="V196">
+        <v>4</v>
+      </c>
+      <c r="W196">
+        <v>1.33</v>
+      </c>
+      <c r="X196">
+        <v>3.25</v>
+      </c>
+      <c r="Y196">
+        <v>2.5</v>
+      </c>
+      <c r="Z196">
+        <v>1.5</v>
+      </c>
+      <c r="AA196">
+        <v>6.5</v>
+      </c>
+      <c r="AB196">
+        <v>1.11</v>
+      </c>
+      <c r="AC196">
+        <v>1.95</v>
+      </c>
+      <c r="AD196">
+        <v>3.6</v>
+      </c>
+      <c r="AE196">
+        <v>3.3</v>
+      </c>
+      <c r="AF196">
+        <v>1.03</v>
+      </c>
+      <c r="AG196">
+        <v>13</v>
+      </c>
+      <c r="AH196">
+        <v>1.24</v>
+      </c>
+      <c r="AI196">
+        <v>4.2</v>
+      </c>
+      <c r="AJ196">
+        <v>1.75</v>
+      </c>
+      <c r="AK196">
+        <v>2.1</v>
+      </c>
+      <c r="AL196">
+        <v>1.62</v>
+      </c>
+      <c r="AM196">
+        <v>2.2</v>
+      </c>
+      <c r="AN196">
+        <v>1.3</v>
+      </c>
+      <c r="AO196">
+        <v>1.28</v>
+      </c>
+      <c r="AP196">
+        <v>1.75</v>
+      </c>
+      <c r="AQ196">
+        <v>1.18</v>
+      </c>
+      <c r="AR196">
+        <v>0.27</v>
+      </c>
+      <c r="AS196">
+        <v>1.33</v>
+      </c>
+      <c r="AT196">
+        <v>0.25</v>
+      </c>
+      <c r="AU196">
+        <v>1.49</v>
+      </c>
+      <c r="AV196">
+        <v>1.32</v>
+      </c>
+      <c r="AW196">
+        <v>2.81</v>
+      </c>
+      <c r="AX196">
+        <v>1.84</v>
+      </c>
+      <c r="AY196">
+        <v>7.5</v>
+      </c>
+      <c r="AZ196">
+        <v>2.44</v>
+      </c>
+      <c r="BA196">
+        <v>1.33</v>
+      </c>
+      <c r="BB196">
+        <v>1.64</v>
+      </c>
+      <c r="BC196">
+        <v>2.13</v>
+      </c>
+      <c r="BD196">
+        <v>2.81</v>
+      </c>
+      <c r="BE196">
+        <v>3.95</v>
+      </c>
+      <c r="BF196">
+        <v>7</v>
+      </c>
+      <c r="BG196">
+        <v>2</v>
+      </c>
+      <c r="BH196">
+        <v>5</v>
+      </c>
+      <c r="BI196">
+        <v>6</v>
+      </c>
+      <c r="BJ196">
+        <v>12</v>
+      </c>
+      <c r="BK196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2710133</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44982.60416666666</v>
+      </c>
+      <c r="F197">
+        <v>22</v>
+      </c>
+      <c r="G197" t="s">
+        <v>80</v>
+      </c>
+      <c r="H197" t="s">
+        <v>72</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>3</v>
+      </c>
+      <c r="O197" t="s">
+        <v>232</v>
+      </c>
+      <c r="P197" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q197">
+        <v>6</v>
+      </c>
+      <c r="R197">
+        <v>9</v>
+      </c>
+      <c r="S197">
+        <v>15</v>
+      </c>
+      <c r="T197">
+        <v>3.6</v>
+      </c>
+      <c r="U197">
+        <v>2.1</v>
+      </c>
+      <c r="V197">
+        <v>3</v>
+      </c>
+      <c r="W197">
+        <v>1.4</v>
+      </c>
+      <c r="X197">
+        <v>2.75</v>
+      </c>
+      <c r="Y197">
+        <v>3</v>
+      </c>
+      <c r="Z197">
+        <v>1.36</v>
+      </c>
+      <c r="AA197">
+        <v>8</v>
+      </c>
+      <c r="AB197">
+        <v>1.08</v>
+      </c>
+      <c r="AC197">
+        <v>2.8</v>
+      </c>
+      <c r="AD197">
+        <v>3.25</v>
+      </c>
+      <c r="AE197">
+        <v>2.3</v>
+      </c>
+      <c r="AF197">
+        <v>1.06</v>
+      </c>
+      <c r="AG197">
+        <v>10</v>
+      </c>
+      <c r="AH197">
+        <v>1.33</v>
+      </c>
+      <c r="AI197">
+        <v>3.3</v>
+      </c>
+      <c r="AJ197">
+        <v>2.1</v>
+      </c>
+      <c r="AK197">
+        <v>1.75</v>
+      </c>
+      <c r="AL197">
+        <v>1.8</v>
+      </c>
+      <c r="AM197">
+        <v>1.95</v>
+      </c>
+      <c r="AN197">
+        <v>1.58</v>
+      </c>
+      <c r="AO197">
+        <v>1.31</v>
+      </c>
+      <c r="AP197">
+        <v>1.37</v>
+      </c>
+      <c r="AQ197">
+        <v>0.82</v>
+      </c>
+      <c r="AR197">
+        <v>0.4</v>
+      </c>
+      <c r="AS197">
+        <v>1</v>
+      </c>
+      <c r="AT197">
+        <v>0.36</v>
+      </c>
+      <c r="AU197">
+        <v>1.59</v>
+      </c>
+      <c r="AV197">
+        <v>1.44</v>
+      </c>
+      <c r="AW197">
+        <v>3.03</v>
+      </c>
+      <c r="AX197">
+        <v>2.29</v>
+      </c>
+      <c r="AY197">
+        <v>7.7</v>
+      </c>
+      <c r="AZ197">
+        <v>1.92</v>
+      </c>
+      <c r="BA197">
+        <v>1.24</v>
+      </c>
+      <c r="BB197">
+        <v>1.48</v>
+      </c>
+      <c r="BC197">
+        <v>1.87</v>
+      </c>
+      <c r="BD197">
+        <v>2.39</v>
+      </c>
+      <c r="BE197">
+        <v>3.2</v>
+      </c>
+      <c r="BF197">
+        <v>7</v>
+      </c>
+      <c r="BG197">
+        <v>6</v>
+      </c>
+      <c r="BH197">
+        <v>6</v>
+      </c>
+      <c r="BI197">
+        <v>12</v>
+      </c>
+      <c r="BJ197">
+        <v>13</v>
+      </c>
+      <c r="BK197">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="338">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,12 @@
     <t>['10', '40']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['31', '40', '45+1']</t>
+  </si>
+  <si>
     <t>['5', '10', '29', '35', '43', '83']</t>
   </si>
   <si>
@@ -995,9 +1001,6 @@
   </si>
   <si>
     <t>['67', '84']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['61', '72']</t>
@@ -1386,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1630,7 +1633,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2012,7 +2015,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2203,7 +2206,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2394,7 +2397,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2585,7 +2588,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2866,7 +2869,7 @@
         <v>2.5</v>
       </c>
       <c r="AT8">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2967,7 +2970,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3158,7 +3161,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3349,7 +3352,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3436,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT11">
         <v>1.75</v>
@@ -3540,7 +3543,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3922,7 +3925,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4113,7 +4116,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4304,7 +4307,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4495,7 +4498,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4776,7 +4779,7 @@
         <v>1.45</v>
       </c>
       <c r="AT18">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4964,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT19">
         <v>1.5</v>
@@ -5259,7 +5262,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5450,7 +5453,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5641,7 +5644,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5832,7 +5835,7 @@
         <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6596,7 +6599,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6874,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT29">
         <v>0.25</v>
@@ -6978,7 +6981,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7068,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU30">
         <v>1.48</v>
@@ -7742,7 +7745,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7832,7 +7835,7 @@
         <v>1.45</v>
       </c>
       <c r="AT34">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU34">
         <v>1.43</v>
@@ -8020,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT35">
         <v>0.64</v>
@@ -8315,7 +8318,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8697,7 +8700,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8888,7 +8891,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9079,7 +9082,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9270,7 +9273,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9461,7 +9464,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9843,7 +9846,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10225,7 +10228,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10416,7 +10419,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10503,7 +10506,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT48">
         <v>0.36</v>
@@ -10989,7 +10992,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -11180,7 +11183,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11270,7 +11273,7 @@
         <v>1.33</v>
       </c>
       <c r="AT52">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU52">
         <v>1.27</v>
@@ -11371,7 +11374,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11652,7 +11655,7 @@
         <v>1.64</v>
       </c>
       <c r="AT54">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU54">
         <v>1.93</v>
@@ -11840,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT55">
         <v>0.64</v>
@@ -12326,7 +12329,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -13750,10 +13753,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT65">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU65">
         <v>3.09</v>
@@ -13854,7 +13857,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -14135,7 +14138,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -14323,7 +14326,7 @@
         <v>2.25</v>
       </c>
       <c r="AS68">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT68">
         <v>1.45</v>
@@ -14618,7 +14621,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14809,7 +14812,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15000,7 +15003,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15191,7 +15194,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15382,7 +15385,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15764,7 +15767,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -16337,7 +16340,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16528,7 +16531,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16719,7 +16722,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16910,7 +16913,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17000,7 +17003,7 @@
         <v>1.36</v>
       </c>
       <c r="AT82">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -17101,7 +17104,7 @@
         <v>88</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17382,7 +17385,7 @@
         <v>2</v>
       </c>
       <c r="AT84">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU84">
         <v>1.47</v>
@@ -17483,7 +17486,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17674,7 +17677,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17865,7 +17868,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18056,7 +18059,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18247,7 +18250,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18716,7 +18719,7 @@
         <v>2.2</v>
       </c>
       <c r="AS91">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT91">
         <v>1.55</v>
@@ -19011,7 +19014,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19289,7 +19292,7 @@
         <v>2.2</v>
       </c>
       <c r="AS94">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT94">
         <v>1.4</v>
@@ -19393,7 +19396,7 @@
         <v>88</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19584,7 +19587,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19966,7 +19969,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20157,7 +20160,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20247,7 +20250,7 @@
         <v>1.6</v>
       </c>
       <c r="AT99">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU99">
         <v>1.71</v>
@@ -20730,7 +20733,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -21202,7 +21205,7 @@
         <v>2.36</v>
       </c>
       <c r="AT104">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU104">
         <v>1.95</v>
@@ -21303,7 +21306,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21390,7 +21393,7 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT105">
         <v>1.45</v>
@@ -21494,7 +21497,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21685,7 +21688,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21876,7 +21879,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -22449,7 +22452,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22640,7 +22643,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22831,7 +22834,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -23213,7 +23216,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23404,7 +23407,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23685,7 +23688,7 @@
         <v>1.27</v>
       </c>
       <c r="AT117">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU117">
         <v>1.96</v>
@@ -23873,7 +23876,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT118">
         <v>0.73</v>
@@ -24255,7 +24258,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT120">
         <v>1.4</v>
@@ -24359,7 +24362,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24550,7 +24553,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24741,7 +24744,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24831,7 +24834,7 @@
         <v>1.64</v>
       </c>
       <c r="AT123">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU123">
         <v>1.86</v>
@@ -24932,7 +24935,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25123,7 +25126,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25314,7 +25317,7 @@
         <v>182</v>
       </c>
       <c r="P126" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25696,7 +25699,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25887,7 +25890,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q129">
         <v>0</v>
@@ -26078,7 +26081,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26269,7 +26272,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26842,7 +26845,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -27033,7 +27036,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27224,7 +27227,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27311,10 +27314,10 @@
         <v>1.43</v>
       </c>
       <c r="AS136">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT136">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU136">
         <v>2.16</v>
@@ -28179,7 +28182,7 @@
         <v>194</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28561,7 +28564,7 @@
         <v>196</v>
       </c>
       <c r="P143" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28752,7 +28755,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28943,7 +28946,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29033,7 +29036,7 @@
         <v>2</v>
       </c>
       <c r="AT145">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU145">
         <v>1.6</v>
@@ -29134,7 +29137,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -29325,7 +29328,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29516,7 +29519,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29707,7 +29710,7 @@
         <v>200</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29794,7 +29797,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT149">
         <v>0.73</v>
@@ -29898,7 +29901,7 @@
         <v>201</v>
       </c>
       <c r="P150" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -30089,7 +30092,7 @@
         <v>166</v>
       </c>
       <c r="P151" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30179,7 +30182,7 @@
         <v>1.33</v>
       </c>
       <c r="AT151">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU151">
         <v>1.5</v>
@@ -30367,7 +30370,7 @@
         <v>2</v>
       </c>
       <c r="AS152">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT152">
         <v>1.45</v>
@@ -30853,7 +30856,7 @@
         <v>205</v>
       </c>
       <c r="P155" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -31044,7 +31047,7 @@
         <v>206</v>
       </c>
       <c r="P156" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31131,7 +31134,7 @@
         <v>1.25</v>
       </c>
       <c r="AS156">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT156">
         <v>0.91</v>
@@ -31235,7 +31238,7 @@
         <v>207</v>
       </c>
       <c r="P157" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31426,7 +31429,7 @@
         <v>208</v>
       </c>
       <c r="P158" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31617,7 +31620,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31707,7 +31710,7 @@
         <v>1.33</v>
       </c>
       <c r="AT159">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU159">
         <v>1.44</v>
@@ -31999,7 +32002,7 @@
         <v>100</v>
       </c>
       <c r="P161" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32086,7 +32089,7 @@
         <v>1.88</v>
       </c>
       <c r="AS161">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT161">
         <v>1.45</v>
@@ -32381,7 +32384,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32662,7 +32665,7 @@
         <v>1.27</v>
       </c>
       <c r="AT164">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU164">
         <v>1.43</v>
@@ -32763,7 +32766,7 @@
         <v>210</v>
       </c>
       <c r="P165" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33909,7 +33912,7 @@
         <v>88</v>
       </c>
       <c r="P171" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34100,7 +34103,7 @@
         <v>214</v>
       </c>
       <c r="P172" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34482,7 +34485,7 @@
         <v>215</v>
       </c>
       <c r="P174" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34572,7 +34575,7 @@
         <v>0.92</v>
       </c>
       <c r="AT174">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU174">
         <v>1.9</v>
@@ -34673,7 +34676,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34864,7 +34867,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -35142,7 +35145,7 @@
         <v>0.44</v>
       </c>
       <c r="AS177">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT177">
         <v>0.36</v>
@@ -35333,7 +35336,7 @@
         <v>0.3</v>
       </c>
       <c r="AS178">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT178">
         <v>0.25</v>
@@ -35437,7 +35440,7 @@
         <v>219</v>
       </c>
       <c r="P179" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35527,7 +35530,7 @@
         <v>2.36</v>
       </c>
       <c r="AT179">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU179">
         <v>1.72</v>
@@ -35628,7 +35631,7 @@
         <v>220</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -36201,7 +36204,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36392,7 +36395,7 @@
         <v>223</v>
       </c>
       <c r="P184" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36583,7 +36586,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37347,7 +37350,7 @@
         <v>226</v>
       </c>
       <c r="P189" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37538,7 +37541,7 @@
         <v>227</v>
       </c>
       <c r="P190" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -38111,7 +38114,7 @@
         <v>88</v>
       </c>
       <c r="P193" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38493,7 +38496,7 @@
         <v>230</v>
       </c>
       <c r="P195" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38875,7 +38878,7 @@
         <v>232</v>
       </c>
       <c r="P197" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q197">
         <v>6</v>
@@ -39017,6 +39020,388 @@
       </c>
       <c r="BK197">
         <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2710128</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44983.47916666666</v>
+      </c>
+      <c r="F198">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s">
+        <v>74</v>
+      </c>
+      <c r="H198" t="s">
+        <v>77</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>233</v>
+      </c>
+      <c r="P198" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q198">
+        <v>1</v>
+      </c>
+      <c r="R198">
+        <v>3</v>
+      </c>
+      <c r="S198">
+        <v>4</v>
+      </c>
+      <c r="T198">
+        <v>2.88</v>
+      </c>
+      <c r="U198">
+        <v>2.2</v>
+      </c>
+      <c r="V198">
+        <v>3.6</v>
+      </c>
+      <c r="W198">
+        <v>1.36</v>
+      </c>
+      <c r="X198">
+        <v>3</v>
+      </c>
+      <c r="Y198">
+        <v>2.75</v>
+      </c>
+      <c r="Z198">
+        <v>1.4</v>
+      </c>
+      <c r="AA198">
+        <v>7</v>
+      </c>
+      <c r="AB198">
+        <v>1.1</v>
+      </c>
+      <c r="AC198">
+        <v>2.38</v>
+      </c>
+      <c r="AD198">
+        <v>3.4</v>
+      </c>
+      <c r="AE198">
+        <v>2.8</v>
+      </c>
+      <c r="AF198">
+        <v>1.04</v>
+      </c>
+      <c r="AG198">
+        <v>10</v>
+      </c>
+      <c r="AH198">
+        <v>1.29</v>
+      </c>
+      <c r="AI198">
+        <v>3.6</v>
+      </c>
+      <c r="AJ198">
+        <v>1.83</v>
+      </c>
+      <c r="AK198">
+        <v>1.97</v>
+      </c>
+      <c r="AL198">
+        <v>1.67</v>
+      </c>
+      <c r="AM198">
+        <v>2.1</v>
+      </c>
+      <c r="AN198">
+        <v>1.32</v>
+      </c>
+      <c r="AO198">
+        <v>1.32</v>
+      </c>
+      <c r="AP198">
+        <v>1.7</v>
+      </c>
+      <c r="AQ198">
+        <v>2.3</v>
+      </c>
+      <c r="AR198">
+        <v>1.3</v>
+      </c>
+      <c r="AS198">
+        <v>2.18</v>
+      </c>
+      <c r="AT198">
+        <v>1.27</v>
+      </c>
+      <c r="AU198">
+        <v>1.98</v>
+      </c>
+      <c r="AV198">
+        <v>1.28</v>
+      </c>
+      <c r="AW198">
+        <v>3.26</v>
+      </c>
+      <c r="AX198">
+        <v>1.99</v>
+      </c>
+      <c r="AY198">
+        <v>7.4</v>
+      </c>
+      <c r="AZ198">
+        <v>2.22</v>
+      </c>
+      <c r="BA198">
+        <v>1.33</v>
+      </c>
+      <c r="BB198">
+        <v>1.63</v>
+      </c>
+      <c r="BC198">
+        <v>2.1</v>
+      </c>
+      <c r="BD198">
+        <v>2.81</v>
+      </c>
+      <c r="BE198">
+        <v>3.88</v>
+      </c>
+      <c r="BF198">
+        <v>5</v>
+      </c>
+      <c r="BG198">
+        <v>5</v>
+      </c>
+      <c r="BH198">
+        <v>5</v>
+      </c>
+      <c r="BI198">
+        <v>12</v>
+      </c>
+      <c r="BJ198">
+        <v>10</v>
+      </c>
+      <c r="BK198">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2710126</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44983.5625</v>
+      </c>
+      <c r="F199">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>82</v>
+      </c>
+      <c r="H199" t="s">
+        <v>66</v>
+      </c>
+      <c r="I199">
+        <v>3</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>3</v>
+      </c>
+      <c r="L199">
+        <v>3</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199" t="s">
+        <v>234</v>
+      </c>
+      <c r="P199" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q199">
+        <v>10</v>
+      </c>
+      <c r="R199">
+        <v>4</v>
+      </c>
+      <c r="S199">
+        <v>14</v>
+      </c>
+      <c r="T199">
+        <v>1.8</v>
+      </c>
+      <c r="U199">
+        <v>2.63</v>
+      </c>
+      <c r="V199">
+        <v>7</v>
+      </c>
+      <c r="W199">
+        <v>1.29</v>
+      </c>
+      <c r="X199">
+        <v>3.5</v>
+      </c>
+      <c r="Y199">
+        <v>2.25</v>
+      </c>
+      <c r="Z199">
+        <v>1.57</v>
+      </c>
+      <c r="AA199">
+        <v>5.5</v>
+      </c>
+      <c r="AB199">
+        <v>1.14</v>
+      </c>
+      <c r="AC199">
+        <v>1.36</v>
+      </c>
+      <c r="AD199">
+        <v>5.75</v>
+      </c>
+      <c r="AE199">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF199">
+        <v>1.02</v>
+      </c>
+      <c r="AG199">
+        <v>19.75</v>
+      </c>
+      <c r="AH199">
+        <v>1.18</v>
+      </c>
+      <c r="AI199">
+        <v>4.95</v>
+      </c>
+      <c r="AJ199">
+        <v>1.29</v>
+      </c>
+      <c r="AK199">
+        <v>3.18</v>
+      </c>
+      <c r="AL199">
+        <v>1.91</v>
+      </c>
+      <c r="AM199">
+        <v>1.91</v>
+      </c>
+      <c r="AN199">
+        <v>1.08</v>
+      </c>
+      <c r="AO199">
+        <v>1.15</v>
+      </c>
+      <c r="AP199">
+        <v>3.2</v>
+      </c>
+      <c r="AQ199">
+        <v>2.2</v>
+      </c>
+      <c r="AR199">
+        <v>1.73</v>
+      </c>
+      <c r="AS199">
+        <v>2.27</v>
+      </c>
+      <c r="AT199">
+        <v>1.58</v>
+      </c>
+      <c r="AU199">
+        <v>2.69</v>
+      </c>
+      <c r="AV199">
+        <v>1.27</v>
+      </c>
+      <c r="AW199">
+        <v>3.96</v>
+      </c>
+      <c r="AX199">
+        <v>1.23</v>
+      </c>
+      <c r="AY199">
+        <v>10.25</v>
+      </c>
+      <c r="AZ199">
+        <v>5.7</v>
+      </c>
+      <c r="BA199">
+        <v>1.36</v>
+      </c>
+      <c r="BB199">
+        <v>1.67</v>
+      </c>
+      <c r="BC199">
+        <v>2.13</v>
+      </c>
+      <c r="BD199">
+        <v>2.84</v>
+      </c>
+      <c r="BE199">
+        <v>4.05</v>
+      </c>
+      <c r="BF199">
+        <v>10</v>
+      </c>
+      <c r="BG199">
+        <v>2</v>
+      </c>
+      <c r="BH199">
+        <v>11</v>
+      </c>
+      <c r="BI199">
+        <v>2</v>
+      </c>
+      <c r="BJ199">
+        <v>21</v>
+      </c>
+      <c r="BK199">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,18 @@
     <t>['21', '39']</t>
   </si>
   <si>
+    <t>['5', '46']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['12', '21', '60', '73']</t>
+  </si>
+  <si>
+    <t>['10', '43']</t>
+  </si>
+  <si>
     <t>['5', '10', '29', '35', '43', '83']</t>
   </si>
   <si>
@@ -889,9 +901,6 @@
     <t>['20', '52']</t>
   </si>
   <si>
-    <t>['33']</t>
-  </si>
-  <si>
     <t>['45+1', '61']</t>
   </si>
   <si>
@@ -1034,6 +1043,15 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['45', '79']</t>
+  </si>
+  <si>
+    <t>['39', '62']</t>
+  </si>
+  <si>
+    <t>['22', '26']</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,7 +1657,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1729,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1917,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT3">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2021,7 +2039,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2108,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT4">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2212,7 +2230,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2299,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT5">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2403,7 +2421,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2490,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT6">
         <v>1.45</v>
@@ -2594,7 +2612,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2681,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT7">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2976,7 +2994,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3063,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT9">
         <v>1.33</v>
@@ -3167,7 +3185,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3257,7 +3275,7 @@
         <v>1.64</v>
       </c>
       <c r="AT10">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3358,7 +3376,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3549,7 +3567,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3830,7 +3848,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3931,7 +3949,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4018,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT14">
         <v>0.91</v>
@@ -4122,7 +4140,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4212,7 +4230,7 @@
         <v>2.36</v>
       </c>
       <c r="AT15">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4313,7 +4331,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4504,7 +4522,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4782,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT18">
         <v>1.58</v>
@@ -5164,10 +5182,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT20">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU20">
         <v>1.02</v>
@@ -5268,7 +5286,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5355,10 +5373,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT21">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU21">
         <v>0.71</v>
@@ -5459,7 +5477,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5546,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT22">
         <v>1.45</v>
@@ -5650,7 +5668,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5740,7 +5758,7 @@
         <v>2.55</v>
       </c>
       <c r="AT23">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU23">
         <v>1.75</v>
@@ -5841,7 +5859,7 @@
         <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5928,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT24">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU24">
         <v>2.71</v>
@@ -6119,10 +6137,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT25">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU25">
         <v>1.34</v>
@@ -6310,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT26">
         <v>1.33</v>
@@ -6504,7 +6522,7 @@
         <v>2</v>
       </c>
       <c r="AT27">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU27">
         <v>1.21</v>
@@ -6605,7 +6623,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6692,10 +6710,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT28">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <v>1.45</v>
@@ -6987,7 +7005,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7751,7 +7769,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7838,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT34">
         <v>1.27</v>
@@ -8324,7 +8342,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8414,7 +8432,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU37">
         <v>0.9399999999999999</v>
@@ -8605,7 +8623,7 @@
         <v>2.55</v>
       </c>
       <c r="AT38">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU38">
         <v>1.43</v>
@@ -8706,7 +8724,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8793,10 +8811,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT39">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU39">
         <v>1.5</v>
@@ -8897,7 +8915,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8984,10 +9002,10 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT40">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU40">
         <v>1.59</v>
@@ -9088,7 +9106,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9175,10 +9193,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT41">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU41">
         <v>2.1</v>
@@ -9279,7 +9297,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9366,10 +9384,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT42">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU42">
         <v>0.98</v>
@@ -9470,7 +9488,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9557,10 +9575,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT43">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU43">
         <v>1.89</v>
@@ -9852,7 +9870,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9939,10 +9957,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT45">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU45">
         <v>1.02</v>
@@ -10130,7 +10148,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT46">
         <v>1.45</v>
@@ -10234,7 +10252,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10425,7 +10443,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10998,7 +11016,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -11189,7 +11207,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11380,7 +11398,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12040,10 +12058,10 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT56">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU56">
         <v>1.61</v>
@@ -12234,7 +12252,7 @@
         <v>2.55</v>
       </c>
       <c r="AT57">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU57">
         <v>1.51</v>
@@ -12335,7 +12353,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12422,10 +12440,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT58">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU58">
         <v>1.43</v>
@@ -12613,10 +12631,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT59">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU59">
         <v>1.1</v>
@@ -12804,10 +12822,10 @@
         <v>2.33</v>
       </c>
       <c r="AS60">
+        <v>1.42</v>
+      </c>
+      <c r="AT60">
         <v>1.27</v>
-      </c>
-      <c r="AT60">
-        <v>1.4</v>
       </c>
       <c r="AU60">
         <v>2.01</v>
@@ -12995,7 +13013,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT61">
         <v>1.33</v>
@@ -13186,7 +13204,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT62">
         <v>1.5</v>
@@ -13377,10 +13395,10 @@
         <v>1.67</v>
       </c>
       <c r="AS63">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT63">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU63">
         <v>1.94</v>
@@ -13571,7 +13589,7 @@
         <v>0.92</v>
       </c>
       <c r="AT64">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU64">
         <v>2.33</v>
@@ -13863,7 +13881,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13950,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT66">
         <v>0.36</v>
@@ -14627,7 +14645,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14818,7 +14836,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15009,7 +15027,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15099,7 +15117,7 @@
         <v>1.33</v>
       </c>
       <c r="AT72">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU72">
         <v>1.51</v>
@@ -15200,7 +15218,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15391,7 +15409,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15481,7 +15499,7 @@
         <v>0.92</v>
       </c>
       <c r="AT74">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU74">
         <v>2.06</v>
@@ -15669,10 +15687,10 @@
         <v>2.33</v>
       </c>
       <c r="AS75">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT75">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU75">
         <v>1.7</v>
@@ -15773,7 +15791,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -15860,7 +15878,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT76">
         <v>1.5</v>
@@ -16051,7 +16069,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT77">
         <v>1.33</v>
@@ -16242,10 +16260,10 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT78">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU78">
         <v>2.08</v>
@@ -16346,7 +16364,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16436,7 +16454,7 @@
         <v>2.55</v>
       </c>
       <c r="AT79">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU79">
         <v>1.66</v>
@@ -16537,7 +16555,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16624,10 +16642,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT80">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU80">
         <v>1.65</v>
@@ -16728,7 +16746,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16818,7 +16836,7 @@
         <v>1.33</v>
       </c>
       <c r="AT81">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU81">
         <v>1.55</v>
@@ -16919,7 +16937,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17006,7 +17024,7 @@
         <v>1.75</v>
       </c>
       <c r="AS82">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT82">
         <v>1.58</v>
@@ -17110,7 +17128,7 @@
         <v>88</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17200,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="AT83">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU83">
         <v>1.86</v>
@@ -17492,7 +17510,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17579,7 +17597,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT85">
         <v>0.64</v>
@@ -17683,7 +17701,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17770,7 +17788,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT86">
         <v>0.25</v>
@@ -17874,7 +17892,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18065,7 +18083,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18155,7 +18173,7 @@
         <v>2.36</v>
       </c>
       <c r="AT88">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU88">
         <v>1.96</v>
@@ -18256,7 +18274,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18534,7 +18552,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT90">
         <v>1.75</v>
@@ -18728,7 +18746,7 @@
         <v>2.27</v>
       </c>
       <c r="AT91">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -18916,10 +18934,10 @@
         <v>1.2</v>
       </c>
       <c r="AS92">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT92">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU92">
         <v>1.47</v>
@@ -19020,7 +19038,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19107,7 +19125,7 @@
         <v>0.8</v>
       </c>
       <c r="AS93">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT93">
         <v>1.5</v>
@@ -19301,7 +19319,7 @@
         <v>2.18</v>
       </c>
       <c r="AT94">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU94">
         <v>2.12</v>
@@ -19402,7 +19420,7 @@
         <v>88</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19492,7 +19510,7 @@
         <v>0.92</v>
       </c>
       <c r="AT95">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU95">
         <v>2.05</v>
@@ -19593,7 +19611,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19680,7 +19698,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT96">
         <v>1.33</v>
@@ -19975,7 +19993,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20062,10 +20080,10 @@
         <v>1.75</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT98">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU98">
         <v>1.69</v>
@@ -20166,7 +20184,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20253,7 +20271,7 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT99">
         <v>1.58</v>
@@ -20447,7 +20465,7 @@
         <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU100">
         <v>1.53</v>
@@ -20638,7 +20656,7 @@
         <v>1.33</v>
       </c>
       <c r="AT101">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU101">
         <v>1.52</v>
@@ -20739,7 +20757,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20826,7 +20844,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT102">
         <v>0.91</v>
@@ -21017,7 +21035,7 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT103">
         <v>0.25</v>
@@ -21312,7 +21330,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21503,7 +21521,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21694,7 +21712,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21781,7 +21799,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT107">
         <v>0.64</v>
@@ -21885,7 +21903,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21975,7 +21993,7 @@
         <v>1</v>
       </c>
       <c r="AT108">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU108">
         <v>1.82</v>
@@ -22166,7 +22184,7 @@
         <v>1.64</v>
       </c>
       <c r="AT109">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU109">
         <v>1.95</v>
@@ -22354,7 +22372,7 @@
         <v>0.6</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT110">
         <v>0.36</v>
@@ -22458,7 +22476,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22545,10 +22563,10 @@
         <v>2</v>
       </c>
       <c r="AS111">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT111">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU111">
         <v>1.29</v>
@@ -22649,7 +22667,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22739,7 +22757,7 @@
         <v>1.33</v>
       </c>
       <c r="AT112">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU112">
         <v>1.51</v>
@@ -22840,7 +22858,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -23222,7 +23240,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23309,7 +23327,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT115">
         <v>1.5</v>
@@ -23413,7 +23431,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23503,7 +23521,7 @@
         <v>1.33</v>
       </c>
       <c r="AT116">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU116">
         <v>1.56</v>
@@ -23691,7 +23709,7 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT117">
         <v>1.58</v>
@@ -23885,7 +23903,7 @@
         <v>2.18</v>
       </c>
       <c r="AT118">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU118">
         <v>2.23</v>
@@ -24073,7 +24091,7 @@
         <v>1.5</v>
       </c>
       <c r="AS119">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT119">
         <v>1.75</v>
@@ -24267,7 +24285,7 @@
         <v>2.27</v>
       </c>
       <c r="AT120">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU120">
         <v>2.81</v>
@@ -24368,7 +24386,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24455,7 +24473,7 @@
         <v>0.67</v>
       </c>
       <c r="AS121">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT121">
         <v>0.64</v>
@@ -24559,7 +24577,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24646,10 +24664,10 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT122">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU122">
         <v>1.66</v>
@@ -24750,7 +24768,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24941,7 +24959,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25031,7 +25049,7 @@
         <v>2.36</v>
       </c>
       <c r="AT124">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU124">
         <v>1.83</v>
@@ -25132,7 +25150,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25219,7 +25237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS125">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT125">
         <v>0.91</v>
@@ -25323,7 +25341,7 @@
         <v>182</v>
       </c>
       <c r="P126" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25413,7 +25431,7 @@
         <v>2</v>
       </c>
       <c r="AT126">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU126">
         <v>1.72</v>
@@ -25705,7 +25723,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25792,7 +25810,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT128">
         <v>1.75</v>
@@ -25896,7 +25914,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q129">
         <v>0</v>
@@ -26087,7 +26105,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26278,7 +26296,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26365,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT131">
         <v>0.25</v>
@@ -26556,7 +26574,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT132">
         <v>0.36</v>
@@ -26750,7 +26768,7 @@
         <v>1.33</v>
       </c>
       <c r="AT133">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU133">
         <v>1.47</v>
@@ -26851,7 +26869,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26941,7 +26959,7 @@
         <v>1</v>
       </c>
       <c r="AT134">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU134">
         <v>1.73</v>
@@ -27042,7 +27060,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27129,10 +27147,10 @@
         <v>2.17</v>
       </c>
       <c r="AS135">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT135">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU135">
         <v>1.62</v>
@@ -27233,7 +27251,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27514,7 +27532,7 @@
         <v>2.36</v>
       </c>
       <c r="AT137">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU137">
         <v>1.83</v>
@@ -27702,10 +27720,10 @@
         <v>1.14</v>
       </c>
       <c r="AS138">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT138">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU138">
         <v>1.56</v>
@@ -27896,7 +27914,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU139">
         <v>1.74</v>
@@ -28084,10 +28102,10 @@
         <v>1.75</v>
       </c>
       <c r="AS140">
+        <v>1.45</v>
+      </c>
+      <c r="AT140">
         <v>1.5</v>
-      </c>
-      <c r="AT140">
-        <v>1.55</v>
       </c>
       <c r="AU140">
         <v>1.87</v>
@@ -28188,7 +28206,7 @@
         <v>194</v>
       </c>
       <c r="P141" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28275,10 +28293,10 @@
         <v>0.57</v>
       </c>
       <c r="AS141">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT141">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU141">
         <v>1.66</v>
@@ -28466,7 +28484,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT142">
         <v>1.45</v>
@@ -28570,7 +28588,7 @@
         <v>196</v>
       </c>
       <c r="P143" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28660,7 +28678,7 @@
         <v>1.64</v>
       </c>
       <c r="AT143">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU143">
         <v>1.9</v>
@@ -28761,7 +28779,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28952,7 +28970,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29039,7 +29057,7 @@
         <v>1</v>
       </c>
       <c r="AS145">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT145">
         <v>1.27</v>
@@ -29143,7 +29161,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -29334,7 +29352,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29525,7 +29543,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29716,7 +29734,7 @@
         <v>200</v>
       </c>
       <c r="P149" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29806,7 +29824,7 @@
         <v>2.27</v>
       </c>
       <c r="AT149">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU149">
         <v>2.73</v>
@@ -29907,7 +29925,7 @@
         <v>201</v>
       </c>
       <c r="P150" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -29994,7 +30012,7 @@
         <v>1.13</v>
       </c>
       <c r="AS150">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT150">
         <v>1.75</v>
@@ -30098,7 +30116,7 @@
         <v>166</v>
       </c>
       <c r="P151" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30379,7 +30397,7 @@
         <v>2.18</v>
       </c>
       <c r="AT152">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU152">
         <v>2.05</v>
@@ -30567,7 +30585,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT153">
         <v>0.64</v>
@@ -30758,7 +30776,7 @@
         <v>0.38</v>
       </c>
       <c r="AS154">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT154">
         <v>0.25</v>
@@ -30862,7 +30880,7 @@
         <v>205</v>
       </c>
       <c r="P155" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -31053,7 +31071,7 @@
         <v>206</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31244,7 +31262,7 @@
         <v>207</v>
       </c>
       <c r="P157" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31331,7 +31349,7 @@
         <v>0.33</v>
       </c>
       <c r="AS157">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT157">
         <v>0.25</v>
@@ -31435,7 +31453,7 @@
         <v>208</v>
       </c>
       <c r="P158" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31626,7 +31644,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -32008,7 +32026,7 @@
         <v>100</v>
       </c>
       <c r="P161" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32098,7 +32116,7 @@
         <v>2.27</v>
       </c>
       <c r="AT161">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU161">
         <v>2.78</v>
@@ -32289,7 +32307,7 @@
         <v>1</v>
       </c>
       <c r="AT162">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU162">
         <v>1.49</v>
@@ -32390,7 +32408,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32477,7 +32495,7 @@
         <v>1.33</v>
       </c>
       <c r="AS163">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT163">
         <v>1.75</v>
@@ -32668,7 +32686,7 @@
         <v>1.25</v>
       </c>
       <c r="AS164">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT164">
         <v>1.27</v>
@@ -32859,7 +32877,7 @@
         <v>1.44</v>
       </c>
       <c r="AS165">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT165">
         <v>1.45</v>
@@ -33154,7 +33172,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33241,10 +33259,10 @@
         <v>1</v>
       </c>
       <c r="AS167">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT167">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU167">
         <v>1.62</v>
@@ -33435,7 +33453,7 @@
         <v>2</v>
       </c>
       <c r="AT168">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU168">
         <v>1.71</v>
@@ -33626,7 +33644,7 @@
         <v>2.55</v>
       </c>
       <c r="AT169">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU169">
         <v>1.8</v>
@@ -33814,10 +33832,10 @@
         <v>0.25</v>
       </c>
       <c r="AS170">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT170">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU170">
         <v>1.66</v>
@@ -33918,7 +33936,7 @@
         <v>88</v>
       </c>
       <c r="P171" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34005,10 +34023,10 @@
         <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT171">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU171">
         <v>1.73</v>
@@ -34109,7 +34127,7 @@
         <v>214</v>
       </c>
       <c r="P172" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34196,10 +34214,10 @@
         <v>2</v>
       </c>
       <c r="AS172">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT172">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU172">
         <v>1.84</v>
@@ -34960,7 +34978,7 @@
         <v>1.11</v>
       </c>
       <c r="AS176">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT176">
         <v>0.91</v>
@@ -35064,7 +35082,7 @@
         <v>218</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35255,7 +35273,7 @@
         <v>88</v>
       </c>
       <c r="P178" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35446,7 +35464,7 @@
         <v>219</v>
       </c>
       <c r="P179" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35637,7 +35655,7 @@
         <v>220</v>
       </c>
       <c r="P180" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35918,7 +35936,7 @@
         <v>1.64</v>
       </c>
       <c r="AT181">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU181">
         <v>1.82</v>
@@ -36106,10 +36124,10 @@
         <v>0.89</v>
       </c>
       <c r="AS182">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT182">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU182">
         <v>1.42</v>
@@ -36210,7 +36228,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36297,10 +36315,10 @@
         <v>1.4</v>
       </c>
       <c r="AS183">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT183">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU183">
         <v>1.73</v>
@@ -36401,7 +36419,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36488,7 +36506,7 @@
         <v>1.3</v>
       </c>
       <c r="AS184">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT184">
         <v>1.33</v>
@@ -36679,10 +36697,10 @@
         <v>0.8</v>
       </c>
       <c r="AS185">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT185">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU185">
         <v>1.75</v>
@@ -36783,7 +36801,7 @@
         <v>224</v>
       </c>
       <c r="P186" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q186">
         <v>4</v>
@@ -36870,10 +36888,10 @@
         <v>2.1</v>
       </c>
       <c r="AS186">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT186">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU186">
         <v>1.66</v>
@@ -37064,7 +37082,7 @@
         <v>2</v>
       </c>
       <c r="AT187">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU187">
         <v>1.7</v>
@@ -37252,10 +37270,10 @@
         <v>0.33</v>
       </c>
       <c r="AS188">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT188">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU188">
         <v>1.61</v>
@@ -37356,7 +37374,7 @@
         <v>226</v>
       </c>
       <c r="P189" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37446,7 +37464,7 @@
         <v>2.55</v>
       </c>
       <c r="AT189">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU189">
         <v>1.91</v>
@@ -37547,7 +37565,7 @@
         <v>227</v>
       </c>
       <c r="P190" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37634,7 +37652,7 @@
         <v>1.3</v>
       </c>
       <c r="AS190">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT190">
         <v>1.45</v>
@@ -37825,7 +37843,7 @@
         <v>0.7</v>
       </c>
       <c r="AS191">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT191">
         <v>0.64</v>
@@ -38311,7 +38329,7 @@
         <v>231</v>
       </c>
       <c r="P194" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38401,7 +38419,7 @@
         <v>2.36</v>
       </c>
       <c r="AT194">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU194">
         <v>1.66</v>
@@ -38502,7 +38520,7 @@
         <v>88</v>
       </c>
       <c r="P195" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q195">
         <v>10</v>
@@ -38884,7 +38902,7 @@
         <v>232</v>
       </c>
       <c r="P197" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q197">
         <v>6</v>
@@ -39075,7 +39093,7 @@
         <v>233</v>
       </c>
       <c r="P198" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -39457,7 +39475,7 @@
         <v>235</v>
       </c>
       <c r="P200" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q200">
         <v>4</v>
@@ -39599,6 +39617,1534 @@
       </c>
       <c r="BK200">
         <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2710142</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44989.47916666666</v>
+      </c>
+      <c r="F201">
+        <v>23</v>
+      </c>
+      <c r="G201" t="s">
+        <v>70</v>
+      </c>
+      <c r="H201" t="s">
+        <v>75</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>236</v>
+      </c>
+      <c r="P201" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q201">
+        <v>3</v>
+      </c>
+      <c r="R201">
+        <v>7</v>
+      </c>
+      <c r="S201">
+        <v>10</v>
+      </c>
+      <c r="T201">
+        <v>2.88</v>
+      </c>
+      <c r="U201">
+        <v>2.25</v>
+      </c>
+      <c r="V201">
+        <v>3.4</v>
+      </c>
+      <c r="W201">
+        <v>1.33</v>
+      </c>
+      <c r="X201">
+        <v>3.25</v>
+      </c>
+      <c r="Y201">
+        <v>2.63</v>
+      </c>
+      <c r="Z201">
+        <v>1.44</v>
+      </c>
+      <c r="AA201">
+        <v>6.5</v>
+      </c>
+      <c r="AB201">
+        <v>1.11</v>
+      </c>
+      <c r="AC201">
+        <v>2.35</v>
+      </c>
+      <c r="AD201">
+        <v>3.55</v>
+      </c>
+      <c r="AE201">
+        <v>2.9</v>
+      </c>
+      <c r="AF201">
+        <v>1.03</v>
+      </c>
+      <c r="AG201">
+        <v>13</v>
+      </c>
+      <c r="AH201">
+        <v>1.25</v>
+      </c>
+      <c r="AI201">
+        <v>4</v>
+      </c>
+      <c r="AJ201">
+        <v>1.62</v>
+      </c>
+      <c r="AK201">
+        <v>2.12</v>
+      </c>
+      <c r="AL201">
+        <v>1.57</v>
+      </c>
+      <c r="AM201">
+        <v>2.25</v>
+      </c>
+      <c r="AN201">
+        <v>1.42</v>
+      </c>
+      <c r="AO201">
+        <v>1.32</v>
+      </c>
+      <c r="AP201">
+        <v>1.55</v>
+      </c>
+      <c r="AQ201">
+        <v>1.27</v>
+      </c>
+      <c r="AR201">
+        <v>1.4</v>
+      </c>
+      <c r="AS201">
+        <v>1.42</v>
+      </c>
+      <c r="AT201">
+        <v>1.27</v>
+      </c>
+      <c r="AU201">
+        <v>1.41</v>
+      </c>
+      <c r="AV201">
+        <v>1.29</v>
+      </c>
+      <c r="AW201">
+        <v>2.7</v>
+      </c>
+      <c r="AX201">
+        <v>1.83</v>
+      </c>
+      <c r="AY201">
+        <v>7.5</v>
+      </c>
+      <c r="AZ201">
+        <v>2.28</v>
+      </c>
+      <c r="BA201">
+        <v>1.35</v>
+      </c>
+      <c r="BB201">
+        <v>1.58</v>
+      </c>
+      <c r="BC201">
+        <v>1.95</v>
+      </c>
+      <c r="BD201">
+        <v>2.5</v>
+      </c>
+      <c r="BE201">
+        <v>3.3</v>
+      </c>
+      <c r="BF201">
+        <v>6</v>
+      </c>
+      <c r="BG201">
+        <v>7</v>
+      </c>
+      <c r="BH201">
+        <v>4</v>
+      </c>
+      <c r="BI201">
+        <v>13</v>
+      </c>
+      <c r="BJ201">
+        <v>10</v>
+      </c>
+      <c r="BK201">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2710137</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44989.47916666666</v>
+      </c>
+      <c r="F202">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>66</v>
+      </c>
+      <c r="H202" t="s">
+        <v>73</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202" t="s">
+        <v>88</v>
+      </c>
+      <c r="P202" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q202">
+        <v>5</v>
+      </c>
+      <c r="R202">
+        <v>4</v>
+      </c>
+      <c r="S202">
+        <v>9</v>
+      </c>
+      <c r="T202">
+        <v>2.63</v>
+      </c>
+      <c r="U202">
+        <v>2.05</v>
+      </c>
+      <c r="V202">
+        <v>4.75</v>
+      </c>
+      <c r="W202">
+        <v>1.44</v>
+      </c>
+      <c r="X202">
+        <v>2.63</v>
+      </c>
+      <c r="Y202">
+        <v>3.4</v>
+      </c>
+      <c r="Z202">
+        <v>1.3</v>
+      </c>
+      <c r="AA202">
+        <v>10</v>
+      </c>
+      <c r="AB202">
+        <v>1.06</v>
+      </c>
+      <c r="AC202">
+        <v>1.95</v>
+      </c>
+      <c r="AD202">
+        <v>3.4</v>
+      </c>
+      <c r="AE202">
+        <v>4.1</v>
+      </c>
+      <c r="AF202">
+        <v>1.06</v>
+      </c>
+      <c r="AG202">
+        <v>8</v>
+      </c>
+      <c r="AH202">
+        <v>1.37</v>
+      </c>
+      <c r="AI202">
+        <v>2.95</v>
+      </c>
+      <c r="AJ202">
+        <v>2.06</v>
+      </c>
+      <c r="AK202">
+        <v>1.65</v>
+      </c>
+      <c r="AL202">
+        <v>2</v>
+      </c>
+      <c r="AM202">
+        <v>1.75</v>
+      </c>
+      <c r="AN202">
+        <v>1.2</v>
+      </c>
+      <c r="AO202">
+        <v>1.37</v>
+      </c>
+      <c r="AP202">
+        <v>1.85</v>
+      </c>
+      <c r="AQ202">
+        <v>2.4</v>
+      </c>
+      <c r="AR202">
+        <v>0.73</v>
+      </c>
+      <c r="AS202">
+        <v>2.27</v>
+      </c>
+      <c r="AT202">
+        <v>0.75</v>
+      </c>
+      <c r="AU202">
+        <v>1.58</v>
+      </c>
+      <c r="AV202">
+        <v>1.24</v>
+      </c>
+      <c r="AW202">
+        <v>2.82</v>
+      </c>
+      <c r="AX202">
+        <v>1.72</v>
+      </c>
+      <c r="AY202">
+        <v>8</v>
+      </c>
+      <c r="AZ202">
+        <v>2.45</v>
+      </c>
+      <c r="BA202">
+        <v>1.35</v>
+      </c>
+      <c r="BB202">
+        <v>1.6</v>
+      </c>
+      <c r="BC202">
+        <v>1.9</v>
+      </c>
+      <c r="BD202">
+        <v>2.4</v>
+      </c>
+      <c r="BE202">
+        <v>3.3</v>
+      </c>
+      <c r="BF202">
+        <v>3</v>
+      </c>
+      <c r="BG202">
+        <v>5</v>
+      </c>
+      <c r="BH202">
+        <v>4</v>
+      </c>
+      <c r="BI202">
+        <v>3</v>
+      </c>
+      <c r="BJ202">
+        <v>7</v>
+      </c>
+      <c r="BK202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2710138</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44989.47916666666</v>
+      </c>
+      <c r="F203">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>81</v>
+      </c>
+      <c r="H203" t="s">
+        <v>79</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>237</v>
+      </c>
+      <c r="P203" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q203">
+        <v>11</v>
+      </c>
+      <c r="R203">
+        <v>3</v>
+      </c>
+      <c r="S203">
+        <v>14</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>2.3</v>
+      </c>
+      <c r="V203">
+        <v>4</v>
+      </c>
+      <c r="W203">
+        <v>1.33</v>
+      </c>
+      <c r="X203">
+        <v>3.25</v>
+      </c>
+      <c r="Y203">
+        <v>2.5</v>
+      </c>
+      <c r="Z203">
+        <v>1.5</v>
+      </c>
+      <c r="AA203">
+        <v>6.5</v>
+      </c>
+      <c r="AB203">
+        <v>1.11</v>
+      </c>
+      <c r="AC203">
+        <v>1.95</v>
+      </c>
+      <c r="AD203">
+        <v>3.75</v>
+      </c>
+      <c r="AE203">
+        <v>3.8</v>
+      </c>
+      <c r="AF203">
+        <v>1.02</v>
+      </c>
+      <c r="AG203">
+        <v>12</v>
+      </c>
+      <c r="AH203">
+        <v>1.2</v>
+      </c>
+      <c r="AI203">
+        <v>4.3</v>
+      </c>
+      <c r="AJ203">
+        <v>1.66</v>
+      </c>
+      <c r="AK203">
+        <v>2.06</v>
+      </c>
+      <c r="AL203">
+        <v>1.62</v>
+      </c>
+      <c r="AM203">
+        <v>2.2</v>
+      </c>
+      <c r="AN203">
+        <v>1.25</v>
+      </c>
+      <c r="AO203">
+        <v>1.3</v>
+      </c>
+      <c r="AP203">
+        <v>1.85</v>
+      </c>
+      <c r="AQ203">
+        <v>1.45</v>
+      </c>
+      <c r="AR203">
+        <v>0.8</v>
+      </c>
+      <c r="AS203">
+        <v>1.58</v>
+      </c>
+      <c r="AT203">
+        <v>0.73</v>
+      </c>
+      <c r="AU203">
+        <v>1.7</v>
+      </c>
+      <c r="AV203">
+        <v>1.19</v>
+      </c>
+      <c r="AW203">
+        <v>2.89</v>
+      </c>
+      <c r="AX203">
+        <v>1.65</v>
+      </c>
+      <c r="AY203">
+        <v>7.5</v>
+      </c>
+      <c r="AZ203">
+        <v>2.63</v>
+      </c>
+      <c r="BA203">
+        <v>1.33</v>
+      </c>
+      <c r="BB203">
+        <v>1.55</v>
+      </c>
+      <c r="BC203">
+        <v>1.85</v>
+      </c>
+      <c r="BD203">
+        <v>2.3</v>
+      </c>
+      <c r="BE203">
+        <v>3.15</v>
+      </c>
+      <c r="BF203">
+        <v>7</v>
+      </c>
+      <c r="BG203">
+        <v>4</v>
+      </c>
+      <c r="BH203">
+        <v>5</v>
+      </c>
+      <c r="BI203">
+        <v>5</v>
+      </c>
+      <c r="BJ203">
+        <v>12</v>
+      </c>
+      <c r="BK203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2710139</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44989.47916666666</v>
+      </c>
+      <c r="F204">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>67</v>
+      </c>
+      <c r="H204" t="s">
+        <v>74</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204" t="s">
+        <v>88</v>
+      </c>
+      <c r="P204" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q204">
+        <v>6</v>
+      </c>
+      <c r="R204">
+        <v>5</v>
+      </c>
+      <c r="S204">
+        <v>11</v>
+      </c>
+      <c r="T204">
+        <v>3</v>
+      </c>
+      <c r="U204">
+        <v>2.25</v>
+      </c>
+      <c r="V204">
+        <v>3.25</v>
+      </c>
+      <c r="W204">
+        <v>1.33</v>
+      </c>
+      <c r="X204">
+        <v>3.25</v>
+      </c>
+      <c r="Y204">
+        <v>2.63</v>
+      </c>
+      <c r="Z204">
+        <v>1.44</v>
+      </c>
+      <c r="AA204">
+        <v>6.5</v>
+      </c>
+      <c r="AB204">
+        <v>1.11</v>
+      </c>
+      <c r="AC204">
+        <v>2.45</v>
+      </c>
+      <c r="AD204">
+        <v>3.5</v>
+      </c>
+      <c r="AE204">
+        <v>2.75</v>
+      </c>
+      <c r="AF204">
+        <v>1.04</v>
+      </c>
+      <c r="AG204">
+        <v>10</v>
+      </c>
+      <c r="AH204">
+        <v>1.25</v>
+      </c>
+      <c r="AI204">
+        <v>3.75</v>
+      </c>
+      <c r="AJ204">
+        <v>1.71</v>
+      </c>
+      <c r="AK204">
+        <v>1.98</v>
+      </c>
+      <c r="AL204">
+        <v>1.62</v>
+      </c>
+      <c r="AM204">
+        <v>2.2</v>
+      </c>
+      <c r="AN204">
+        <v>1.45</v>
+      </c>
+      <c r="AO204">
+        <v>1.25</v>
+      </c>
+      <c r="AP204">
+        <v>1.6</v>
+      </c>
+      <c r="AQ204">
+        <v>2</v>
+      </c>
+      <c r="AR204">
+        <v>1.55</v>
+      </c>
+      <c r="AS204">
+        <v>1.92</v>
+      </c>
+      <c r="AT204">
+        <v>1.5</v>
+      </c>
+      <c r="AU204">
+        <v>1.67</v>
+      </c>
+      <c r="AV204">
+        <v>1.35</v>
+      </c>
+      <c r="AW204">
+        <v>3.02</v>
+      </c>
+      <c r="AX204">
+        <v>1.85</v>
+      </c>
+      <c r="AY204">
+        <v>7.5</v>
+      </c>
+      <c r="AZ204">
+        <v>2.23</v>
+      </c>
+      <c r="BA204">
+        <v>1.35</v>
+      </c>
+      <c r="BB204">
+        <v>1.58</v>
+      </c>
+      <c r="BC204">
+        <v>1.93</v>
+      </c>
+      <c r="BD204">
+        <v>2.45</v>
+      </c>
+      <c r="BE204">
+        <v>3.25</v>
+      </c>
+      <c r="BF204">
+        <v>5</v>
+      </c>
+      <c r="BG204">
+        <v>4</v>
+      </c>
+      <c r="BH204">
+        <v>3</v>
+      </c>
+      <c r="BI204">
+        <v>4</v>
+      </c>
+      <c r="BJ204">
+        <v>8</v>
+      </c>
+      <c r="BK204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2710141</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44989.47916666666</v>
+      </c>
+      <c r="F205">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>69</v>
+      </c>
+      <c r="H205" t="s">
+        <v>80</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>88</v>
+      </c>
+      <c r="P205" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q205">
+        <v>4</v>
+      </c>
+      <c r="R205">
+        <v>4</v>
+      </c>
+      <c r="S205">
+        <v>8</v>
+      </c>
+      <c r="T205">
+        <v>3</v>
+      </c>
+      <c r="U205">
+        <v>2.1</v>
+      </c>
+      <c r="V205">
+        <v>3.6</v>
+      </c>
+      <c r="W205">
+        <v>1.4</v>
+      </c>
+      <c r="X205">
+        <v>2.75</v>
+      </c>
+      <c r="Y205">
+        <v>3</v>
+      </c>
+      <c r="Z205">
+        <v>1.36</v>
+      </c>
+      <c r="AA205">
+        <v>8</v>
+      </c>
+      <c r="AB205">
+        <v>1.08</v>
+      </c>
+      <c r="AC205">
+        <v>2.4</v>
+      </c>
+      <c r="AD205">
+        <v>3.35</v>
+      </c>
+      <c r="AE205">
+        <v>3.05</v>
+      </c>
+      <c r="AF205">
+        <v>1.06</v>
+      </c>
+      <c r="AG205">
+        <v>11.5</v>
+      </c>
+      <c r="AH205">
+        <v>1.3</v>
+      </c>
+      <c r="AI205">
+        <v>3.58</v>
+      </c>
+      <c r="AJ205">
+        <v>1.77</v>
+      </c>
+      <c r="AK205">
+        <v>1.91</v>
+      </c>
+      <c r="AL205">
+        <v>1.75</v>
+      </c>
+      <c r="AM205">
+        <v>2</v>
+      </c>
+      <c r="AN205">
+        <v>1.41</v>
+      </c>
+      <c r="AO205">
+        <v>1.29</v>
+      </c>
+      <c r="AP205">
+        <v>1.48</v>
+      </c>
+      <c r="AQ205">
+        <v>1.6</v>
+      </c>
+      <c r="AR205">
+        <v>0.4</v>
+      </c>
+      <c r="AS205">
+        <v>1.45</v>
+      </c>
+      <c r="AT205">
+        <v>0.64</v>
+      </c>
+      <c r="AU205">
+        <v>1.71</v>
+      </c>
+      <c r="AV205">
+        <v>1.29</v>
+      </c>
+      <c r="AW205">
+        <v>3</v>
+      </c>
+      <c r="AX205">
+        <v>1.75</v>
+      </c>
+      <c r="AY205">
+        <v>7.5</v>
+      </c>
+      <c r="AZ205">
+        <v>2.4</v>
+      </c>
+      <c r="BA205">
+        <v>1.35</v>
+      </c>
+      <c r="BB205">
+        <v>1.58</v>
+      </c>
+      <c r="BC205">
+        <v>1.94</v>
+      </c>
+      <c r="BD205">
+        <v>2.45</v>
+      </c>
+      <c r="BE205">
+        <v>3.25</v>
+      </c>
+      <c r="BF205">
+        <v>6</v>
+      </c>
+      <c r="BG205">
+        <v>7</v>
+      </c>
+      <c r="BH205">
+        <v>4</v>
+      </c>
+      <c r="BI205">
+        <v>6</v>
+      </c>
+      <c r="BJ205">
+        <v>10</v>
+      </c>
+      <c r="BK205">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2710143</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44989.60416666666</v>
+      </c>
+      <c r="F206">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>72</v>
+      </c>
+      <c r="H206" t="s">
+        <v>82</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>2</v>
+      </c>
+      <c r="N206">
+        <v>3</v>
+      </c>
+      <c r="O206" t="s">
+        <v>222</v>
+      </c>
+      <c r="P206" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q206">
+        <v>3</v>
+      </c>
+      <c r="R206">
+        <v>6</v>
+      </c>
+      <c r="S206">
+        <v>9</v>
+      </c>
+      <c r="T206">
+        <v>6</v>
+      </c>
+      <c r="U206">
+        <v>2.63</v>
+      </c>
+      <c r="V206">
+        <v>1.83</v>
+      </c>
+      <c r="W206">
+        <v>1.22</v>
+      </c>
+      <c r="X206">
+        <v>4</v>
+      </c>
+      <c r="Y206">
+        <v>2.1</v>
+      </c>
+      <c r="Z206">
+        <v>1.67</v>
+      </c>
+      <c r="AA206">
+        <v>4.5</v>
+      </c>
+      <c r="AB206">
+        <v>1.18</v>
+      </c>
+      <c r="AC206">
+        <v>6.25</v>
+      </c>
+      <c r="AD206">
+        <v>5</v>
+      </c>
+      <c r="AE206">
+        <v>1.45</v>
+      </c>
+      <c r="AF206">
+        <v>1.01</v>
+      </c>
+      <c r="AG206">
+        <v>15</v>
+      </c>
+      <c r="AH206">
+        <v>1.1</v>
+      </c>
+      <c r="AI206">
+        <v>5.45</v>
+      </c>
+      <c r="AJ206">
+        <v>1.38</v>
+      </c>
+      <c r="AK206">
+        <v>2.72</v>
+      </c>
+      <c r="AL206">
+        <v>1.62</v>
+      </c>
+      <c r="AM206">
+        <v>2.2</v>
+      </c>
+      <c r="AN206">
+        <v>2.92</v>
+      </c>
+      <c r="AO206">
+        <v>1.19</v>
+      </c>
+      <c r="AP206">
+        <v>1.14</v>
+      </c>
+      <c r="AQ206">
+        <v>1.36</v>
+      </c>
+      <c r="AR206">
+        <v>1.91</v>
+      </c>
+      <c r="AS206">
+        <v>1.25</v>
+      </c>
+      <c r="AT206">
+        <v>2</v>
+      </c>
+      <c r="AU206">
+        <v>1.76</v>
+      </c>
+      <c r="AV206">
+        <v>1.98</v>
+      </c>
+      <c r="AW206">
+        <v>3.74</v>
+      </c>
+      <c r="AX206">
+        <v>3.45</v>
+      </c>
+      <c r="AY206">
+        <v>8.5</v>
+      </c>
+      <c r="AZ206">
+        <v>1.43</v>
+      </c>
+      <c r="BA206">
+        <v>1.27</v>
+      </c>
+      <c r="BB206">
+        <v>1.46</v>
+      </c>
+      <c r="BC206">
+        <v>1.73</v>
+      </c>
+      <c r="BD206">
+        <v>2.15</v>
+      </c>
+      <c r="BE206">
+        <v>2.75</v>
+      </c>
+      <c r="BF206">
+        <v>5</v>
+      </c>
+      <c r="BG206">
+        <v>7</v>
+      </c>
+      <c r="BH206">
+        <v>4</v>
+      </c>
+      <c r="BI206">
+        <v>5</v>
+      </c>
+      <c r="BJ206">
+        <v>9</v>
+      </c>
+      <c r="BK206">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2710136</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44990.47916666666</v>
+      </c>
+      <c r="F207">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>77</v>
+      </c>
+      <c r="H207" t="s">
+        <v>76</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>4</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>5</v>
+      </c>
+      <c r="O207" t="s">
+        <v>238</v>
+      </c>
+      <c r="P207" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q207">
+        <v>9</v>
+      </c>
+      <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
+        <v>11</v>
+      </c>
+      <c r="T207">
+        <v>2.05</v>
+      </c>
+      <c r="U207">
+        <v>2.4</v>
+      </c>
+      <c r="V207">
+        <v>5.5</v>
+      </c>
+      <c r="W207">
+        <v>1.3</v>
+      </c>
+      <c r="X207">
+        <v>3.4</v>
+      </c>
+      <c r="Y207">
+        <v>2.5</v>
+      </c>
+      <c r="Z207">
+        <v>1.5</v>
+      </c>
+      <c r="AA207">
+        <v>6</v>
+      </c>
+      <c r="AB207">
+        <v>1.13</v>
+      </c>
+      <c r="AC207">
+        <v>1.52</v>
+      </c>
+      <c r="AD207">
+        <v>4.18</v>
+      </c>
+      <c r="AE207">
+        <v>5.85</v>
+      </c>
+      <c r="AF207">
+        <v>1.03</v>
+      </c>
+      <c r="AG207">
+        <v>15</v>
+      </c>
+      <c r="AH207">
+        <v>1.2</v>
+      </c>
+      <c r="AI207">
+        <v>4.5</v>
+      </c>
+      <c r="AJ207">
+        <v>1.65</v>
+      </c>
+      <c r="AK207">
+        <v>2.07</v>
+      </c>
+      <c r="AL207">
+        <v>1.75</v>
+      </c>
+      <c r="AM207">
+        <v>2</v>
+      </c>
+      <c r="AN207">
+        <v>1.15</v>
+      </c>
+      <c r="AO207">
+        <v>1.21</v>
+      </c>
+      <c r="AP207">
+        <v>2.37</v>
+      </c>
+      <c r="AQ207">
+        <v>1.27</v>
+      </c>
+      <c r="AR207">
+        <v>0.4</v>
+      </c>
+      <c r="AS207">
+        <v>1.42</v>
+      </c>
+      <c r="AT207">
+        <v>0.36</v>
+      </c>
+      <c r="AU207">
+        <v>1.86</v>
+      </c>
+      <c r="AV207">
+        <v>1.42</v>
+      </c>
+      <c r="AW207">
+        <v>3.28</v>
+      </c>
+      <c r="AX207">
+        <v>1.39</v>
+      </c>
+      <c r="AY207">
+        <v>7.7</v>
+      </c>
+      <c r="AZ207">
+        <v>4</v>
+      </c>
+      <c r="BA207">
+        <v>1.33</v>
+      </c>
+      <c r="BB207">
+        <v>1.56</v>
+      </c>
+      <c r="BC207">
+        <v>1.89</v>
+      </c>
+      <c r="BD207">
+        <v>2.38</v>
+      </c>
+      <c r="BE207">
+        <v>3.1</v>
+      </c>
+      <c r="BF207">
+        <v>10</v>
+      </c>
+      <c r="BG207">
+        <v>3</v>
+      </c>
+      <c r="BH207">
+        <v>4</v>
+      </c>
+      <c r="BI207">
+        <v>2</v>
+      </c>
+      <c r="BJ207">
+        <v>14</v>
+      </c>
+      <c r="BK207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2710140</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44990.5625</v>
+      </c>
+      <c r="F208">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s">
+        <v>68</v>
+      </c>
+      <c r="H208" t="s">
+        <v>65</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <v>2</v>
+      </c>
+      <c r="K208">
+        <v>4</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208">
+        <v>4</v>
+      </c>
+      <c r="O208" t="s">
+        <v>239</v>
+      </c>
+      <c r="P208" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q208">
+        <v>4</v>
+      </c>
+      <c r="R208">
+        <v>5</v>
+      </c>
+      <c r="S208">
+        <v>9</v>
+      </c>
+      <c r="T208">
+        <v>3</v>
+      </c>
+      <c r="U208">
+        <v>2.2</v>
+      </c>
+      <c r="V208">
+        <v>3.4</v>
+      </c>
+      <c r="W208">
+        <v>1.36</v>
+      </c>
+      <c r="X208">
+        <v>3</v>
+      </c>
+      <c r="Y208">
+        <v>2.63</v>
+      </c>
+      <c r="Z208">
+        <v>1.44</v>
+      </c>
+      <c r="AA208">
+        <v>7</v>
+      </c>
+      <c r="AB208">
+        <v>1.1</v>
+      </c>
+      <c r="AC208">
+        <v>2.5</v>
+      </c>
+      <c r="AD208">
+        <v>3.55</v>
+      </c>
+      <c r="AE208">
+        <v>2.7</v>
+      </c>
+      <c r="AF208">
+        <v>1.04</v>
+      </c>
+      <c r="AG208">
+        <v>13</v>
+      </c>
+      <c r="AH208">
+        <v>1.28</v>
+      </c>
+      <c r="AI208">
+        <v>3.75</v>
+      </c>
+      <c r="AJ208">
+        <v>1.79</v>
+      </c>
+      <c r="AK208">
+        <v>2.02</v>
+      </c>
+      <c r="AL208">
+        <v>1.62</v>
+      </c>
+      <c r="AM208">
+        <v>2.2</v>
+      </c>
+      <c r="AN208">
+        <v>1.45</v>
+      </c>
+      <c r="AO208">
+        <v>1.33</v>
+      </c>
+      <c r="AP208">
+        <v>1.5</v>
+      </c>
+      <c r="AQ208">
+        <v>1.5</v>
+      </c>
+      <c r="AR208">
+        <v>1.45</v>
+      </c>
+      <c r="AS208">
+        <v>1.45</v>
+      </c>
+      <c r="AT208">
+        <v>1.42</v>
+      </c>
+      <c r="AU208">
+        <v>1.79</v>
+      </c>
+      <c r="AV208">
+        <v>1.39</v>
+      </c>
+      <c r="AW208">
+        <v>3.18</v>
+      </c>
+      <c r="AX208">
+        <v>2.07</v>
+      </c>
+      <c r="AY208">
+        <v>7.5</v>
+      </c>
+      <c r="AZ208">
+        <v>1.98</v>
+      </c>
+      <c r="BA208">
+        <v>1.28</v>
+      </c>
+      <c r="BB208">
+        <v>1.48</v>
+      </c>
+      <c r="BC208">
+        <v>1.77</v>
+      </c>
+      <c r="BD208">
+        <v>2.2</v>
+      </c>
+      <c r="BE208">
+        <v>2.85</v>
+      </c>
+      <c r="BF208">
+        <v>8</v>
+      </c>
+      <c r="BG208">
+        <v>3</v>
+      </c>
+      <c r="BH208">
+        <v>2</v>
+      </c>
+      <c r="BI208">
+        <v>6</v>
+      </c>
+      <c r="BJ208">
+        <v>10</v>
+      </c>
+      <c r="BK208">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1053,6 +1053,9 @@
   <si>
     <t>['22', '26']</t>
   </si>
+  <si>
+    <t>['9', '76']</t>
+  </si>
 </sst>
 </file>
 
@@ -1413,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3272,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
         <v>0.64</v>
@@ -4421,7 +4424,7 @@
         <v>0.92</v>
       </c>
       <c r="AT16">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -6904,7 +6907,7 @@
         <v>2.18</v>
       </c>
       <c r="AT29">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU29">
         <v>2.15</v>
@@ -8238,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT36">
         <v>0.36</v>
@@ -11488,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="AT53">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU53">
         <v>1.65</v>
@@ -11676,7 +11679,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
         <v>1.58</v>
@@ -14544,7 +14547,7 @@
         <v>2.36</v>
       </c>
       <c r="AT69">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU69">
         <v>1.85</v>
@@ -14732,7 +14735,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
         <v>1.75</v>
@@ -17791,7 +17794,7 @@
         <v>1.25</v>
       </c>
       <c r="AT86">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU86">
         <v>1.38</v>
@@ -18361,7 +18364,7 @@
         <v>2.25</v>
       </c>
       <c r="AS89">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT89">
         <v>0.91</v>
@@ -21038,7 +21041,7 @@
         <v>1.45</v>
       </c>
       <c r="AT103">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU103">
         <v>1.78</v>
@@ -22181,7 +22184,7 @@
         <v>1.4</v>
       </c>
       <c r="AS109">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT109">
         <v>0.73</v>
@@ -23139,7 +23142,7 @@
         <v>2.55</v>
       </c>
       <c r="AT114">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU114">
         <v>1.75</v>
@@ -24855,7 +24858,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT123">
         <v>1.27</v>
@@ -26386,7 +26389,7 @@
         <v>1.42</v>
       </c>
       <c r="AT131">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU131">
         <v>1.31</v>
@@ -28675,7 +28678,7 @@
         <v>1.57</v>
       </c>
       <c r="AS143">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT143">
         <v>1.27</v>
@@ -30779,7 +30782,7 @@
         <v>1.42</v>
       </c>
       <c r="AT154">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU154">
         <v>1.85</v>
@@ -31352,7 +31355,7 @@
         <v>1.58</v>
       </c>
       <c r="AT157">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU157">
         <v>1.64</v>
@@ -33068,7 +33071,7 @@
         <v>1.33</v>
       </c>
       <c r="AS166">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT166">
         <v>1.33</v>
@@ -34599,7 +34602,7 @@
         <v>2.27</v>
       </c>
       <c r="AT174">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU174">
         <v>2.68</v>
@@ -35933,7 +35936,7 @@
         <v>1.78</v>
       </c>
       <c r="AS181">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT181">
         <v>1.42</v>
@@ -38037,7 +38040,7 @@
         <v>1.33</v>
       </c>
       <c r="AT192">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AU192">
         <v>1.49</v>
@@ -38607,7 +38610,7 @@
         <v>1.36</v>
       </c>
       <c r="AS195">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT195">
         <v>1.5</v>
@@ -41145,6 +41148,197 @@
       </c>
       <c r="BK208">
         <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2710147</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44995.6875</v>
+      </c>
+      <c r="F209">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s">
+        <v>73</v>
+      </c>
+      <c r="H209" t="s">
+        <v>69</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209" t="s">
+        <v>88</v>
+      </c>
+      <c r="P209" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q209">
+        <v>10</v>
+      </c>
+      <c r="R209">
+        <v>1</v>
+      </c>
+      <c r="S209">
+        <v>11</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>2.3</v>
+      </c>
+      <c r="V209">
+        <v>5</v>
+      </c>
+      <c r="W209">
+        <v>1.36</v>
+      </c>
+      <c r="X209">
+        <v>3</v>
+      </c>
+      <c r="Y209">
+        <v>2.63</v>
+      </c>
+      <c r="Z209">
+        <v>1.44</v>
+      </c>
+      <c r="AA209">
+        <v>7</v>
+      </c>
+      <c r="AB209">
+        <v>1.1</v>
+      </c>
+      <c r="AC209">
+        <v>1.57</v>
+      </c>
+      <c r="AD209">
+        <v>3.9</v>
+      </c>
+      <c r="AE209">
+        <v>5</v>
+      </c>
+      <c r="AF209">
+        <v>1.04</v>
+      </c>
+      <c r="AG209">
+        <v>13</v>
+      </c>
+      <c r="AH209">
+        <v>1.26</v>
+      </c>
+      <c r="AI209">
+        <v>4</v>
+      </c>
+      <c r="AJ209">
+        <v>1.8</v>
+      </c>
+      <c r="AK209">
+        <v>2</v>
+      </c>
+      <c r="AL209">
+        <v>1.8</v>
+      </c>
+      <c r="AM209">
+        <v>1.95</v>
+      </c>
+      <c r="AN209">
+        <v>1.17</v>
+      </c>
+      <c r="AO209">
+        <v>1.24</v>
+      </c>
+      <c r="AP209">
+        <v>2.2</v>
+      </c>
+      <c r="AQ209">
+        <v>1.64</v>
+      </c>
+      <c r="AR209">
+        <v>0.25</v>
+      </c>
+      <c r="AS209">
+        <v>1.5</v>
+      </c>
+      <c r="AT209">
+        <v>0.46</v>
+      </c>
+      <c r="AU209">
+        <v>1.76</v>
+      </c>
+      <c r="AV209">
+        <v>1.3</v>
+      </c>
+      <c r="AW209">
+        <v>3.06</v>
+      </c>
+      <c r="AX209">
+        <v>1.38</v>
+      </c>
+      <c r="AY209">
+        <v>8.9</v>
+      </c>
+      <c r="AZ209">
+        <v>4</v>
+      </c>
+      <c r="BA209">
+        <v>1.23</v>
+      </c>
+      <c r="BB209">
+        <v>1.47</v>
+      </c>
+      <c r="BC209">
+        <v>1.84</v>
+      </c>
+      <c r="BD209">
+        <v>2.36</v>
+      </c>
+      <c r="BE209">
+        <v>3.18</v>
+      </c>
+      <c r="BF209">
+        <v>5</v>
+      </c>
+      <c r="BG209">
+        <v>4</v>
+      </c>
+      <c r="BH209">
+        <v>6</v>
+      </c>
+      <c r="BI209">
+        <v>6</v>
+      </c>
+      <c r="BJ209">
+        <v>11</v>
+      </c>
+      <c r="BK209">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="356">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,24 @@
     <t>['10', '43']</t>
   </si>
   <si>
+    <t>['15', '19', '35', '45', '74']</t>
+  </si>
+  <si>
+    <t>['57', '71', '80']</t>
+  </si>
+  <si>
+    <t>['50', '79']</t>
+  </si>
+  <si>
+    <t>['5', '89']</t>
+  </si>
+  <si>
+    <t>['30', '86']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['5', '10', '29', '35', '43', '83']</t>
   </si>
   <si>
@@ -955,9 +973,6 @@
     <t>['67']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
     <t>['87']</t>
   </si>
   <si>
@@ -1055,6 +1070,18 @@
   </si>
   <si>
     <t>['9', '76']</t>
+  </si>
+  <si>
+    <t>['2', '60', '90+3']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['38', '60']</t>
+  </si>
+  <si>
+    <t>['34', '56', '83']</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1687,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1747,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT2">
         <v>2</v>
@@ -2042,7 +2069,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2132,7 +2159,7 @@
         <v>1.92</v>
       </c>
       <c r="AT4">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2233,7 +2260,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2320,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT5">
         <v>1.27</v>
@@ -2424,7 +2451,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2514,7 +2541,7 @@
         <v>1.45</v>
       </c>
       <c r="AT6">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2615,7 +2642,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2896,7 +2923,7 @@
         <v>2.55</v>
       </c>
       <c r="AT8">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2997,7 +3024,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3188,7 +3215,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3379,7 +3406,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3466,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT11">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3570,7 +3597,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3657,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT12">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3848,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT13">
         <v>1.42</v>
@@ -3952,7 +3979,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4042,7 +4069,7 @@
         <v>1.42</v>
       </c>
       <c r="AT14">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4143,7 +4170,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4230,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT15">
         <v>0.75</v>
@@ -4334,7 +4361,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4525,7 +4552,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4615,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4806,7 +4833,7 @@
         <v>1.58</v>
       </c>
       <c r="AT18">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4994,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT19">
         <v>1.5</v>
@@ -5289,7 +5316,7 @@
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5480,7 +5507,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5570,7 +5597,7 @@
         <v>1.42</v>
       </c>
       <c r="AT22">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU22">
         <v>1.15</v>
@@ -5671,7 +5698,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5862,7 +5889,7 @@
         <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5952,7 +5979,7 @@
         <v>1.42</v>
       </c>
       <c r="AT24">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU24">
         <v>2.71</v>
@@ -6140,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT25">
         <v>0.64</v>
@@ -6522,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT27">
         <v>0.75</v>
@@ -6626,7 +6653,7 @@
         <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6904,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT29">
         <v>0.46</v>
@@ -7008,7 +7035,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7098,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU30">
         <v>1.48</v>
@@ -7286,10 +7313,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT31">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU31">
         <v>1.46</v>
@@ -7480,7 +7507,7 @@
         <v>0.92</v>
       </c>
       <c r="AT32">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU32">
         <v>2.63</v>
@@ -7668,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT33">
         <v>1.5</v>
@@ -7772,7 +7799,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7862,7 +7889,7 @@
         <v>1.58</v>
       </c>
       <c r="AT34">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU34">
         <v>1.43</v>
@@ -8050,10 +8077,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT35">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU35">
         <v>2.88</v>
@@ -8244,7 +8271,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU36">
         <v>2.88</v>
@@ -8345,7 +8372,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8432,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT37">
         <v>1.42</v>
@@ -8626,7 +8653,7 @@
         <v>2.55</v>
       </c>
       <c r="AT38">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU38">
         <v>1.43</v>
@@ -8727,7 +8754,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8918,7 +8945,7 @@
         <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9109,7 +9136,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9300,7 +9327,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9491,7 +9518,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9578,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT43">
         <v>0.75</v>
@@ -9769,7 +9796,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT44">
         <v>1.33</v>
@@ -9873,7 +9900,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10154,7 +10181,7 @@
         <v>1.92</v>
       </c>
       <c r="AT46">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU46">
         <v>1.38</v>
@@ -10255,7 +10282,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10342,10 +10369,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT47">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU47">
         <v>1.19</v>
@@ -10446,7 +10473,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10533,10 +10560,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT48">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU48">
         <v>3.67</v>
@@ -10724,10 +10751,10 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT49">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU49">
         <v>1.91</v>
@@ -10918,7 +10945,7 @@
         <v>0.92</v>
       </c>
       <c r="AT50">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU50">
         <v>2.42</v>
@@ -11019,7 +11046,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -11106,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT51">
         <v>1.5</v>
@@ -11210,7 +11237,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11297,10 +11324,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT52">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU52">
         <v>1.27</v>
@@ -11401,7 +11428,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11682,7 +11709,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU54">
         <v>1.93</v>
@@ -11870,10 +11897,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT55">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU55">
         <v>2.37</v>
@@ -12356,7 +12383,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -13780,10 +13807,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT65">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU65">
         <v>3.09</v>
@@ -13884,7 +13911,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13971,10 +13998,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT66">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU66">
         <v>1.71</v>
@@ -14162,10 +14189,10 @@
         <v>2.33</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT67">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -14353,10 +14380,10 @@
         <v>2.25</v>
       </c>
       <c r="AS68">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT68">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU68">
         <v>2.23</v>
@@ -14544,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT69">
         <v>0.46</v>
@@ -14648,7 +14675,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14738,7 +14765,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU70">
         <v>1.76</v>
@@ -14839,7 +14866,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14926,10 +14953,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT71">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU71">
         <v>1.39</v>
@@ -15030,7 +15057,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15117,10 +15144,10 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT72">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU72">
         <v>1.51</v>
@@ -15221,7 +15248,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15311,7 +15338,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU73">
         <v>1.78</v>
@@ -15412,7 +15439,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15794,7 +15821,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -16367,7 +16394,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16558,7 +16585,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16749,7 +16776,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16836,7 +16863,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT81">
         <v>1.5</v>
@@ -16940,7 +16967,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17030,7 +17057,7 @@
         <v>1.25</v>
       </c>
       <c r="AT82">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -17131,7 +17158,7 @@
         <v>88</v>
       </c>
       <c r="P83" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17221,7 +17248,7 @@
         <v>1</v>
       </c>
       <c r="AT83">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU83">
         <v>1.86</v>
@@ -17409,10 +17436,10 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT84">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU84">
         <v>1.47</v>
@@ -17513,7 +17540,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17600,10 +17627,10 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT85">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU85">
         <v>1.79</v>
@@ -17704,7 +17731,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17895,7 +17922,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17982,10 +18009,10 @@
         <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT87">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -18086,7 +18113,7 @@
         <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18173,7 +18200,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT88">
         <v>0.36</v>
@@ -18277,7 +18304,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18367,7 +18394,7 @@
         <v>1.5</v>
       </c>
       <c r="AT89">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU89">
         <v>1.93</v>
@@ -18558,7 +18585,7 @@
         <v>2.27</v>
       </c>
       <c r="AT90">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU90">
         <v>1.19</v>
@@ -18746,7 +18773,7 @@
         <v>2.2</v>
       </c>
       <c r="AS91">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT91">
         <v>1.5</v>
@@ -19041,7 +19068,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19319,7 +19346,7 @@
         <v>2.2</v>
       </c>
       <c r="AS94">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT94">
         <v>1.27</v>
@@ -19423,7 +19450,7 @@
         <v>88</v>
       </c>
       <c r="P95" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19614,7 +19641,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19895,7 +19922,7 @@
         <v>2.55</v>
       </c>
       <c r="AT97">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU97">
         <v>1.65</v>
@@ -19996,7 +20023,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20187,7 +20214,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20277,7 +20304,7 @@
         <v>1.45</v>
       </c>
       <c r="AT99">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU99">
         <v>1.71</v>
@@ -20465,7 +20492,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT100">
         <v>0.64</v>
@@ -20656,7 +20683,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT101">
         <v>0.36</v>
@@ -20760,7 +20787,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q102">
         <v>10</v>
@@ -20850,7 +20877,7 @@
         <v>1.25</v>
       </c>
       <c r="AT102">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU102">
         <v>1.49</v>
@@ -21038,7 +21065,7 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT103">
         <v>0.46</v>
@@ -21229,10 +21256,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT104">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU104">
         <v>1.95</v>
@@ -21333,7 +21360,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21420,10 +21447,10 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT105">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU105">
         <v>2.81</v>
@@ -21524,7 +21551,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21611,10 +21638,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT106">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21805,7 +21832,7 @@
         <v>2.27</v>
       </c>
       <c r="AT107">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21906,7 +21933,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -22187,7 +22214,7 @@
         <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU109">
         <v>1.95</v>
@@ -22378,7 +22405,7 @@
         <v>1.92</v>
       </c>
       <c r="AT110">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU110">
         <v>1.58</v>
@@ -22479,7 +22506,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22670,7 +22697,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22757,7 +22784,7 @@
         <v>1.83</v>
       </c>
       <c r="AS112">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT112">
         <v>2</v>
@@ -22861,7 +22888,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -23243,7 +23270,7 @@
         <v>88</v>
       </c>
       <c r="P115" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23434,7 +23461,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23521,7 +23548,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT116">
         <v>0.64</v>
@@ -23715,7 +23742,7 @@
         <v>1.42</v>
       </c>
       <c r="AT117">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU117">
         <v>1.96</v>
@@ -23903,7 +23930,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT118">
         <v>0.75</v>
@@ -24094,10 +24121,10 @@
         <v>1.5</v>
       </c>
       <c r="AS119">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT119">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU119">
         <v>1.85</v>
@@ -24285,7 +24312,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT120">
         <v>1.27</v>
@@ -24389,7 +24416,7 @@
         <v>177</v>
       </c>
       <c r="P121" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24479,7 +24506,7 @@
         <v>1.45</v>
       </c>
       <c r="AT121">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU121">
         <v>1.64</v>
@@ -24580,7 +24607,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24771,7 +24798,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24861,7 +24888,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU123">
         <v>1.86</v>
@@ -24962,7 +24989,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25049,7 +25076,7 @@
         <v>2</v>
       </c>
       <c r="AS124">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT124">
         <v>1.5</v>
@@ -25153,7 +25180,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25243,7 +25270,7 @@
         <v>2.27</v>
       </c>
       <c r="AT125">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU125">
         <v>1.44</v>
@@ -25344,7 +25371,7 @@
         <v>182</v>
       </c>
       <c r="P126" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25431,10 +25458,10 @@
         <v>1.33</v>
       </c>
       <c r="AS126">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT126">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU126">
         <v>1.72</v>
@@ -25625,7 +25652,7 @@
         <v>1</v>
       </c>
       <c r="AT127">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU127">
         <v>1.74</v>
@@ -25726,7 +25753,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25816,7 +25843,7 @@
         <v>1.92</v>
       </c>
       <c r="AT128">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU128">
         <v>1.58</v>
@@ -25917,7 +25944,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q129">
         <v>0</v>
@@ -26004,7 +26031,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT129">
         <v>1.33</v>
@@ -26108,7 +26135,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26299,7 +26326,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26580,7 +26607,7 @@
         <v>1.42</v>
       </c>
       <c r="AT132">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU132">
         <v>1.9</v>
@@ -26768,7 +26795,7 @@
         <v>0.86</v>
       </c>
       <c r="AS133">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT133">
         <v>0.75</v>
@@ -26872,7 +26899,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -27063,7 +27090,7 @@
         <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27254,7 +27281,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27341,10 +27368,10 @@
         <v>1.43</v>
       </c>
       <c r="AS136">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT136">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU136">
         <v>2.16</v>
@@ -27532,7 +27559,7 @@
         <v>2.13</v>
       </c>
       <c r="AS137">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT137">
         <v>2</v>
@@ -27726,7 +27753,7 @@
         <v>2.27</v>
       </c>
       <c r="AT138">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU138">
         <v>1.56</v>
@@ -27914,7 +27941,7 @@
         <v>0.29</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT139">
         <v>0.64</v>
@@ -28105,7 +28132,7 @@
         <v>1.75</v>
       </c>
       <c r="AS140">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT140">
         <v>1.5</v>
@@ -28209,7 +28236,7 @@
         <v>194</v>
       </c>
       <c r="P141" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28490,7 +28517,7 @@
         <v>1.25</v>
       </c>
       <c r="AT142">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU142">
         <v>1.72</v>
@@ -28591,7 +28618,7 @@
         <v>196</v>
       </c>
       <c r="P143" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28782,7 +28809,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28872,7 +28899,7 @@
         <v>2.55</v>
       </c>
       <c r="AT144">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU144">
         <v>1.63</v>
@@ -28973,7 +29000,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29063,7 +29090,7 @@
         <v>1.92</v>
       </c>
       <c r="AT145">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU145">
         <v>1.6</v>
@@ -29164,7 +29191,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -29355,7 +29382,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29442,7 +29469,7 @@
         <v>1.38</v>
       </c>
       <c r="AS147">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT147">
         <v>1.5</v>
@@ -29546,7 +29573,7 @@
         <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29636,7 +29663,7 @@
         <v>0.92</v>
       </c>
       <c r="AT148">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU148">
         <v>1.92</v>
@@ -29737,7 +29764,7 @@
         <v>200</v>
       </c>
       <c r="P149" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29824,7 +29851,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT149">
         <v>0.75</v>
@@ -29928,7 +29955,7 @@
         <v>201</v>
       </c>
       <c r="P150" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -30018,7 +30045,7 @@
         <v>1.58</v>
       </c>
       <c r="AT150">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU150">
         <v>1.66</v>
@@ -30119,7 +30146,7 @@
         <v>166</v>
       </c>
       <c r="P151" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30206,10 +30233,10 @@
         <v>1.25</v>
       </c>
       <c r="AS151">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT151">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU151">
         <v>1.5</v>
@@ -30397,7 +30424,7 @@
         <v>2</v>
       </c>
       <c r="AS152">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT152">
         <v>1.42</v>
@@ -30591,7 +30618,7 @@
         <v>1.42</v>
       </c>
       <c r="AT153">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU153">
         <v>1.38</v>
@@ -30883,7 +30910,7 @@
         <v>205</v>
       </c>
       <c r="P155" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30970,10 +30997,10 @@
         <v>0.5</v>
       </c>
       <c r="AS155">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT155">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU155">
         <v>1.75</v>
@@ -31074,7 +31101,7 @@
         <v>206</v>
       </c>
       <c r="P156" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31161,10 +31188,10 @@
         <v>1.25</v>
       </c>
       <c r="AS156">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT156">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU156">
         <v>2</v>
@@ -31265,7 +31292,7 @@
         <v>207</v>
       </c>
       <c r="P157" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31456,7 +31483,7 @@
         <v>208</v>
       </c>
       <c r="P158" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31546,7 +31573,7 @@
         <v>0.92</v>
       </c>
       <c r="AT158">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU158">
         <v>1.91</v>
@@ -31647,7 +31674,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31734,10 +31761,10 @@
         <v>1.44</v>
       </c>
       <c r="AS159">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT159">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU159">
         <v>1.44</v>
@@ -31925,7 +31952,7 @@
         <v>1.56</v>
       </c>
       <c r="AS160">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT160">
         <v>1.5</v>
@@ -32029,7 +32056,7 @@
         <v>100</v>
       </c>
       <c r="P161" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32116,7 +32143,7 @@
         <v>1.88</v>
       </c>
       <c r="AS161">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT161">
         <v>1.42</v>
@@ -32411,7 +32438,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32501,7 +32528,7 @@
         <v>1.42</v>
       </c>
       <c r="AT163">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU163">
         <v>1.83</v>
@@ -32692,7 +32719,7 @@
         <v>1.42</v>
       </c>
       <c r="AT164">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU164">
         <v>1.43</v>
@@ -32883,7 +32910,7 @@
         <v>2.27</v>
       </c>
       <c r="AT165">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU165">
         <v>1.63</v>
@@ -33175,7 +33202,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33265,7 +33292,7 @@
         <v>1.45</v>
       </c>
       <c r="AT167">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU167">
         <v>1.62</v>
@@ -33453,7 +33480,7 @@
         <v>0.5</v>
       </c>
       <c r="AS168">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT168">
         <v>0.36</v>
@@ -33939,7 +33966,7 @@
         <v>88</v>
       </c>
       <c r="P171" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34130,7 +34157,7 @@
         <v>214</v>
       </c>
       <c r="P172" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34217,7 +34244,7 @@
         <v>2</v>
       </c>
       <c r="AS172">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT172">
         <v>2</v>
@@ -34599,7 +34626,7 @@
         <v>0.3</v>
       </c>
       <c r="AS174">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT174">
         <v>0.46</v>
@@ -34790,10 +34817,10 @@
         <v>0.44</v>
       </c>
       <c r="AS175">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT175">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU175">
         <v>2.01</v>
@@ -34984,7 +35011,7 @@
         <v>1.58</v>
       </c>
       <c r="AT176">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU176">
         <v>1.65</v>
@@ -35085,7 +35112,7 @@
         <v>218</v>
       </c>
       <c r="P177" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35175,7 +35202,7 @@
         <v>0.92</v>
       </c>
       <c r="AT177">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU177">
         <v>1.9</v>
@@ -35276,7 +35303,7 @@
         <v>88</v>
       </c>
       <c r="P178" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35363,10 +35390,10 @@
         <v>1.5</v>
       </c>
       <c r="AS178">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT178">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU178">
         <v>1.51</v>
@@ -35467,7 +35494,7 @@
         <v>219</v>
       </c>
       <c r="P179" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35554,10 +35581,10 @@
         <v>1.6</v>
       </c>
       <c r="AS179">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT179">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU179">
         <v>1.72</v>
@@ -35658,7 +35685,7 @@
         <v>220</v>
       </c>
       <c r="P180" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35745,10 +35772,10 @@
         <v>0.78</v>
       </c>
       <c r="AS180">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT180">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU180">
         <v>1.43</v>
@@ -36130,7 +36157,7 @@
         <v>1.42</v>
       </c>
       <c r="AT182">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU182">
         <v>1.42</v>
@@ -36231,7 +36258,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36422,7 +36449,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36509,7 +36536,7 @@
         <v>1.3</v>
       </c>
       <c r="AS184">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT184">
         <v>1.33</v>
@@ -36804,7 +36831,7 @@
         <v>224</v>
       </c>
       <c r="P186" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q186">
         <v>4</v>
@@ -37082,7 +37109,7 @@
         <v>1.56</v>
       </c>
       <c r="AS187">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT187">
         <v>1.27</v>
@@ -37377,7 +37404,7 @@
         <v>226</v>
       </c>
       <c r="P189" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37568,7 +37595,7 @@
         <v>227</v>
       </c>
       <c r="P190" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37658,7 +37685,7 @@
         <v>1.42</v>
       </c>
       <c r="AT190">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU190">
         <v>1.87</v>
@@ -37849,7 +37876,7 @@
         <v>1.58</v>
       </c>
       <c r="AT191">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU191">
         <v>1.68</v>
@@ -38037,7 +38064,7 @@
         <v>0.27</v>
       </c>
       <c r="AS192">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT192">
         <v>0.46</v>
@@ -38228,10 +38255,10 @@
         <v>1</v>
       </c>
       <c r="AS193">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT193">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU193">
         <v>1.48</v>
@@ -38332,7 +38359,7 @@
         <v>231</v>
       </c>
       <c r="P194" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38419,7 +38446,7 @@
         <v>1.6</v>
       </c>
       <c r="AS194">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT194">
         <v>1.42</v>
@@ -38523,7 +38550,7 @@
         <v>88</v>
       </c>
       <c r="P195" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q195">
         <v>10</v>
@@ -38804,7 +38831,7 @@
         <v>0.92</v>
       </c>
       <c r="AT196">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU196">
         <v>1.86</v>
@@ -38905,7 +38932,7 @@
         <v>232</v>
       </c>
       <c r="P197" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q197">
         <v>6</v>
@@ -38995,7 +39022,7 @@
         <v>1</v>
       </c>
       <c r="AT197">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU197">
         <v>1.59</v>
@@ -39096,7 +39123,7 @@
         <v>233</v>
       </c>
       <c r="P198" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -39183,10 +39210,10 @@
         <v>1.3</v>
       </c>
       <c r="AS198">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT198">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU198">
         <v>1.98</v>
@@ -39374,10 +39401,10 @@
         <v>1.73</v>
       </c>
       <c r="AS199">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT199">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU199">
         <v>2.69</v>
@@ -39478,7 +39505,7 @@
         <v>235</v>
       </c>
       <c r="P200" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q200">
         <v>4</v>
@@ -40141,7 +40168,7 @@
         <v>1.58</v>
       </c>
       <c r="AT203">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU203">
         <v>1.7</v>
@@ -40433,7 +40460,7 @@
         <v>88</v>
       </c>
       <c r="P205" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40624,7 +40651,7 @@
         <v>222</v>
       </c>
       <c r="P206" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q206">
         <v>3</v>
@@ -40815,7 +40842,7 @@
         <v>238</v>
       </c>
       <c r="P207" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q207">
         <v>9</v>
@@ -41006,7 +41033,7 @@
         <v>239</v>
       </c>
       <c r="P208" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41093,7 +41120,7 @@
         <v>1.45</v>
       </c>
       <c r="AS208">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT208">
         <v>1.42</v>
@@ -41197,7 +41224,7 @@
         <v>88</v>
       </c>
       <c r="P209" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q209">
         <v>10</v>
@@ -41338,6 +41365,1534 @@
         <v>11</v>
       </c>
       <c r="BK209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2710150</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F210">
+        <v>24</v>
+      </c>
+      <c r="G210" t="s">
+        <v>76</v>
+      </c>
+      <c r="H210" t="s">
+        <v>81</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>109</v>
+      </c>
+      <c r="P210" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q210">
+        <v>7</v>
+      </c>
+      <c r="R210">
+        <v>8</v>
+      </c>
+      <c r="S210">
+        <v>15</v>
+      </c>
+      <c r="T210">
+        <v>3.4</v>
+      </c>
+      <c r="U210">
+        <v>2.2</v>
+      </c>
+      <c r="V210">
+        <v>3</v>
+      </c>
+      <c r="W210">
+        <v>1.4</v>
+      </c>
+      <c r="X210">
+        <v>2.75</v>
+      </c>
+      <c r="Y210">
+        <v>2.75</v>
+      </c>
+      <c r="Z210">
+        <v>1.4</v>
+      </c>
+      <c r="AA210">
+        <v>8</v>
+      </c>
+      <c r="AB210">
+        <v>1.08</v>
+      </c>
+      <c r="AC210">
+        <v>2.9</v>
+      </c>
+      <c r="AD210">
+        <v>3.4</v>
+      </c>
+      <c r="AE210">
+        <v>2.45</v>
+      </c>
+      <c r="AF210">
+        <v>1.05</v>
+      </c>
+      <c r="AG210">
+        <v>12</v>
+      </c>
+      <c r="AH210">
+        <v>1.3</v>
+      </c>
+      <c r="AI210">
+        <v>3.6</v>
+      </c>
+      <c r="AJ210">
+        <v>1.7</v>
+      </c>
+      <c r="AK210">
+        <v>1.95</v>
+      </c>
+      <c r="AL210">
+        <v>1.7</v>
+      </c>
+      <c r="AM210">
+        <v>2.05</v>
+      </c>
+      <c r="AN210">
+        <v>1.52</v>
+      </c>
+      <c r="AO210">
+        <v>1.31</v>
+      </c>
+      <c r="AP210">
+        <v>1.43</v>
+      </c>
+      <c r="AQ210">
+        <v>1.33</v>
+      </c>
+      <c r="AR210">
+        <v>1.45</v>
+      </c>
+      <c r="AS210">
+        <v>1.31</v>
+      </c>
+      <c r="AT210">
+        <v>1.42</v>
+      </c>
+      <c r="AU210">
+        <v>1.47</v>
+      </c>
+      <c r="AV210">
+        <v>1.46</v>
+      </c>
+      <c r="AW210">
+        <v>2.93</v>
+      </c>
+      <c r="AX210">
+        <v>2.4</v>
+      </c>
+      <c r="AY210">
+        <v>7.5</v>
+      </c>
+      <c r="AZ210">
+        <v>1.86</v>
+      </c>
+      <c r="BA210">
+        <v>1.28</v>
+      </c>
+      <c r="BB210">
+        <v>1.54</v>
+      </c>
+      <c r="BC210">
+        <v>1.97</v>
+      </c>
+      <c r="BD210">
+        <v>2.56</v>
+      </c>
+      <c r="BE210">
+        <v>3.48</v>
+      </c>
+      <c r="BF210">
+        <v>5</v>
+      </c>
+      <c r="BG210">
+        <v>4</v>
+      </c>
+      <c r="BH210">
+        <v>4</v>
+      </c>
+      <c r="BI210">
+        <v>2</v>
+      </c>
+      <c r="BJ210">
+        <v>9</v>
+      </c>
+      <c r="BK210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2710144</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F211">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>82</v>
+      </c>
+      <c r="H211" t="s">
+        <v>70</v>
+      </c>
+      <c r="I211">
+        <v>4</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>5</v>
+      </c>
+      <c r="L211">
+        <v>5</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+      <c r="N211">
+        <v>8</v>
+      </c>
+      <c r="O211" t="s">
+        <v>240</v>
+      </c>
+      <c r="P211" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q211">
+        <v>8</v>
+      </c>
+      <c r="R211">
+        <v>5</v>
+      </c>
+      <c r="S211">
+        <v>13</v>
+      </c>
+      <c r="T211">
+        <v>1.4</v>
+      </c>
+      <c r="U211">
+        <v>3.6</v>
+      </c>
+      <c r="V211">
+        <v>11</v>
+      </c>
+      <c r="W211">
+        <v>1.14</v>
+      </c>
+      <c r="X211">
+        <v>5.5</v>
+      </c>
+      <c r="Y211">
+        <v>1.67</v>
+      </c>
+      <c r="Z211">
+        <v>2.1</v>
+      </c>
+      <c r="AA211">
+        <v>3.25</v>
+      </c>
+      <c r="AB211">
+        <v>1.33</v>
+      </c>
+      <c r="AC211">
+        <v>1.15</v>
+      </c>
+      <c r="AD211">
+        <v>8.75</v>
+      </c>
+      <c r="AE211">
+        <v>16</v>
+      </c>
+      <c r="AF211">
+        <v>1.01</v>
+      </c>
+      <c r="AG211">
+        <v>51</v>
+      </c>
+      <c r="AH211">
+        <v>1.05</v>
+      </c>
+      <c r="AI211">
+        <v>10</v>
+      </c>
+      <c r="AJ211">
+        <v>1.2</v>
+      </c>
+      <c r="AK211">
+        <v>3.92</v>
+      </c>
+      <c r="AL211">
+        <v>1.8</v>
+      </c>
+      <c r="AM211">
+        <v>1.95</v>
+      </c>
+      <c r="AN211">
+        <v>1.02</v>
+      </c>
+      <c r="AO211">
+        <v>1.06</v>
+      </c>
+      <c r="AP211">
+        <v>6</v>
+      </c>
+      <c r="AQ211">
+        <v>2.27</v>
+      </c>
+      <c r="AR211">
+        <v>0.91</v>
+      </c>
+      <c r="AS211">
+        <v>2.33</v>
+      </c>
+      <c r="AT211">
+        <v>0.83</v>
+      </c>
+      <c r="AU211">
+        <v>2.69</v>
+      </c>
+      <c r="AV211">
+        <v>1.35</v>
+      </c>
+      <c r="AW211">
+        <v>4.04</v>
+      </c>
+      <c r="AX211">
+        <v>1.14</v>
+      </c>
+      <c r="AY211">
+        <v>15</v>
+      </c>
+      <c r="AZ211">
+        <v>7.1</v>
+      </c>
+      <c r="BA211">
+        <v>1.22</v>
+      </c>
+      <c r="BB211">
+        <v>1.45</v>
+      </c>
+      <c r="BC211">
+        <v>1.81</v>
+      </c>
+      <c r="BD211">
+        <v>2.3</v>
+      </c>
+      <c r="BE211">
+        <v>3.08</v>
+      </c>
+      <c r="BF211">
+        <v>9</v>
+      </c>
+      <c r="BG211">
+        <v>7</v>
+      </c>
+      <c r="BH211">
+        <v>8</v>
+      </c>
+      <c r="BI211">
+        <v>4</v>
+      </c>
+      <c r="BJ211">
+        <v>17</v>
+      </c>
+      <c r="BK211">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2710145</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F212">
+        <v>24</v>
+      </c>
+      <c r="G212" t="s">
+        <v>78</v>
+      </c>
+      <c r="H212" t="s">
+        <v>67</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212" t="s">
+        <v>241</v>
+      </c>
+      <c r="P212" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q212">
+        <v>11</v>
+      </c>
+      <c r="R212">
+        <v>0</v>
+      </c>
+      <c r="S212">
+        <v>11</v>
+      </c>
+      <c r="T212">
+        <v>1.91</v>
+      </c>
+      <c r="U212">
+        <v>2.6</v>
+      </c>
+      <c r="V212">
+        <v>6</v>
+      </c>
+      <c r="W212">
+        <v>1.25</v>
+      </c>
+      <c r="X212">
+        <v>3.75</v>
+      </c>
+      <c r="Y212">
+        <v>2.2</v>
+      </c>
+      <c r="Z212">
+        <v>1.62</v>
+      </c>
+      <c r="AA212">
+        <v>5</v>
+      </c>
+      <c r="AB212">
+        <v>1.17</v>
+      </c>
+      <c r="AC212">
+        <v>1.43</v>
+      </c>
+      <c r="AD212">
+        <v>5</v>
+      </c>
+      <c r="AE212">
+        <v>6.6</v>
+      </c>
+      <c r="AF212">
+        <v>1.01</v>
+      </c>
+      <c r="AG212">
+        <v>21</v>
+      </c>
+      <c r="AH212">
+        <v>1.17</v>
+      </c>
+      <c r="AI212">
+        <v>5</v>
+      </c>
+      <c r="AJ212">
+        <v>1.58</v>
+      </c>
+      <c r="AK212">
+        <v>2.23</v>
+      </c>
+      <c r="AL212">
+        <v>1.75</v>
+      </c>
+      <c r="AM212">
+        <v>2</v>
+      </c>
+      <c r="AN212">
+        <v>1.11</v>
+      </c>
+      <c r="AO212">
+        <v>1.17</v>
+      </c>
+      <c r="AP212">
+        <v>2.8</v>
+      </c>
+      <c r="AQ212">
+        <v>2.36</v>
+      </c>
+      <c r="AR212">
+        <v>0.64</v>
+      </c>
+      <c r="AS212">
+        <v>2.42</v>
+      </c>
+      <c r="AT212">
+        <v>0.58</v>
+      </c>
+      <c r="AU212">
+        <v>1.64</v>
+      </c>
+      <c r="AV212">
+        <v>1.27</v>
+      </c>
+      <c r="AW212">
+        <v>2.91</v>
+      </c>
+      <c r="AX212">
+        <v>1.33</v>
+      </c>
+      <c r="AY212">
+        <v>9</v>
+      </c>
+      <c r="AZ212">
+        <v>4</v>
+      </c>
+      <c r="BA212">
+        <v>1.31</v>
+      </c>
+      <c r="BB212">
+        <v>1.59</v>
+      </c>
+      <c r="BC212">
+        <v>2.04</v>
+      </c>
+      <c r="BD212">
+        <v>2.69</v>
+      </c>
+      <c r="BE212">
+        <v>3.65</v>
+      </c>
+      <c r="BF212">
+        <v>10</v>
+      </c>
+      <c r="BG212">
+        <v>4</v>
+      </c>
+      <c r="BH212">
+        <v>3</v>
+      </c>
+      <c r="BI212">
+        <v>4</v>
+      </c>
+      <c r="BJ212">
+        <v>13</v>
+      </c>
+      <c r="BK212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2710148</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F213">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>65</v>
+      </c>
+      <c r="H213" t="s">
+        <v>72</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>138</v>
+      </c>
+      <c r="P213" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q213">
+        <v>3</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>5</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>2.2</v>
+      </c>
+      <c r="V213">
+        <v>4.33</v>
+      </c>
+      <c r="W213">
+        <v>1.36</v>
+      </c>
+      <c r="X213">
+        <v>3</v>
+      </c>
+      <c r="Y213">
+        <v>2.75</v>
+      </c>
+      <c r="Z213">
+        <v>1.4</v>
+      </c>
+      <c r="AA213">
+        <v>7</v>
+      </c>
+      <c r="AB213">
+        <v>1.1</v>
+      </c>
+      <c r="AC213">
+        <v>1.83</v>
+      </c>
+      <c r="AD213">
+        <v>3.75</v>
+      </c>
+      <c r="AE213">
+        <v>4.2</v>
+      </c>
+      <c r="AF213">
+        <v>1.04</v>
+      </c>
+      <c r="AG213">
+        <v>13</v>
+      </c>
+      <c r="AH213">
+        <v>1.28</v>
+      </c>
+      <c r="AI213">
+        <v>3.75</v>
+      </c>
+      <c r="AJ213">
+        <v>1.75</v>
+      </c>
+      <c r="AK213">
+        <v>1.87</v>
+      </c>
+      <c r="AL213">
+        <v>1.8</v>
+      </c>
+      <c r="AM213">
+        <v>1.95</v>
+      </c>
+      <c r="AN213">
+        <v>1.24</v>
+      </c>
+      <c r="AO213">
+        <v>1.22</v>
+      </c>
+      <c r="AP213">
+        <v>2</v>
+      </c>
+      <c r="AQ213">
+        <v>2</v>
+      </c>
+      <c r="AR213">
+        <v>0.36</v>
+      </c>
+      <c r="AS213">
+        <v>1.92</v>
+      </c>
+      <c r="AT213">
+        <v>0.42</v>
+      </c>
+      <c r="AU213">
+        <v>1.67</v>
+      </c>
+      <c r="AV213">
+        <v>1.49</v>
+      </c>
+      <c r="AW213">
+        <v>3.16</v>
+      </c>
+      <c r="AX213">
+        <v>1.48</v>
+      </c>
+      <c r="AY213">
+        <v>8.4</v>
+      </c>
+      <c r="AZ213">
+        <v>3.42</v>
+      </c>
+      <c r="BA213">
+        <v>1.24</v>
+      </c>
+      <c r="BB213">
+        <v>1.48</v>
+      </c>
+      <c r="BC213">
+        <v>1.87</v>
+      </c>
+      <c r="BD213">
+        <v>2.39</v>
+      </c>
+      <c r="BE213">
+        <v>3.2</v>
+      </c>
+      <c r="BF213">
+        <v>2</v>
+      </c>
+      <c r="BG213">
+        <v>5</v>
+      </c>
+      <c r="BH213">
+        <v>5</v>
+      </c>
+      <c r="BI213">
+        <v>6</v>
+      </c>
+      <c r="BJ213">
+        <v>7</v>
+      </c>
+      <c r="BK213">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2710151</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44996.60416666666</v>
+      </c>
+      <c r="F214">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s">
+        <v>80</v>
+      </c>
+      <c r="H214" t="s">
+        <v>71</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214">
+        <v>4</v>
+      </c>
+      <c r="O214" t="s">
+        <v>242</v>
+      </c>
+      <c r="P214" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q214">
+        <v>3</v>
+      </c>
+      <c r="R214">
+        <v>6</v>
+      </c>
+      <c r="S214">
+        <v>9</v>
+      </c>
+      <c r="T214">
+        <v>5</v>
+      </c>
+      <c r="U214">
+        <v>2.38</v>
+      </c>
+      <c r="V214">
+        <v>2.2</v>
+      </c>
+      <c r="W214">
+        <v>1.3</v>
+      </c>
+      <c r="X214">
+        <v>3.4</v>
+      </c>
+      <c r="Y214">
+        <v>2.5</v>
+      </c>
+      <c r="Z214">
+        <v>1.5</v>
+      </c>
+      <c r="AA214">
+        <v>6</v>
+      </c>
+      <c r="AB214">
+        <v>1.13</v>
+      </c>
+      <c r="AC214">
+        <v>5</v>
+      </c>
+      <c r="AD214">
+        <v>4.4</v>
+      </c>
+      <c r="AE214">
+        <v>1.61</v>
+      </c>
+      <c r="AF214">
+        <v>1.03</v>
+      </c>
+      <c r="AG214">
+        <v>17</v>
+      </c>
+      <c r="AH214">
+        <v>1.2</v>
+      </c>
+      <c r="AI214">
+        <v>4.5</v>
+      </c>
+      <c r="AJ214">
+        <v>1.53</v>
+      </c>
+      <c r="AK214">
+        <v>2.25</v>
+      </c>
+      <c r="AL214">
+        <v>1.7</v>
+      </c>
+      <c r="AM214">
+        <v>2.05</v>
+      </c>
+      <c r="AN214">
+        <v>2.3</v>
+      </c>
+      <c r="AO214">
+        <v>1.22</v>
+      </c>
+      <c r="AP214">
+        <v>1.16</v>
+      </c>
+      <c r="AQ214">
+        <v>1</v>
+      </c>
+      <c r="AR214">
+        <v>1.75</v>
+      </c>
+      <c r="AS214">
+        <v>1</v>
+      </c>
+      <c r="AT214">
+        <v>1.69</v>
+      </c>
+      <c r="AU214">
+        <v>1.59</v>
+      </c>
+      <c r="AV214">
+        <v>1.91</v>
+      </c>
+      <c r="AW214">
+        <v>3.5</v>
+      </c>
+      <c r="AX214">
+        <v>4.2</v>
+      </c>
+      <c r="AY214">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ214">
+        <v>1.35</v>
+      </c>
+      <c r="BA214">
+        <v>1.18</v>
+      </c>
+      <c r="BB214">
+        <v>1.39</v>
+      </c>
+      <c r="BC214">
+        <v>1.71</v>
+      </c>
+      <c r="BD214">
+        <v>2.13</v>
+      </c>
+      <c r="BE214">
+        <v>2.79</v>
+      </c>
+      <c r="BF214">
+        <v>5</v>
+      </c>
+      <c r="BG214">
+        <v>9</v>
+      </c>
+      <c r="BH214">
+        <v>6</v>
+      </c>
+      <c r="BI214">
+        <v>4</v>
+      </c>
+      <c r="BJ214">
+        <v>11</v>
+      </c>
+      <c r="BK214">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2710146</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44997.47916666666</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>74</v>
+      </c>
+      <c r="H215" t="s">
+        <v>79</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>2</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>243</v>
+      </c>
+      <c r="P215" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q215">
+        <v>2</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>4</v>
+      </c>
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
+        <v>2.25</v>
+      </c>
+      <c r="V215">
+        <v>4.33</v>
+      </c>
+      <c r="W215">
+        <v>1.36</v>
+      </c>
+      <c r="X215">
+        <v>3</v>
+      </c>
+      <c r="Y215">
+        <v>2.63</v>
+      </c>
+      <c r="Z215">
+        <v>1.44</v>
+      </c>
+      <c r="AA215">
+        <v>7</v>
+      </c>
+      <c r="AB215">
+        <v>1.1</v>
+      </c>
+      <c r="AC215">
+        <v>1.86</v>
+      </c>
+      <c r="AD215">
+        <v>3.4</v>
+      </c>
+      <c r="AE215">
+        <v>3.35</v>
+      </c>
+      <c r="AF215">
+        <v>1.04</v>
+      </c>
+      <c r="AG215">
+        <v>13</v>
+      </c>
+      <c r="AH215">
+        <v>1.26</v>
+      </c>
+      <c r="AI215">
+        <v>4</v>
+      </c>
+      <c r="AJ215">
+        <v>1.74</v>
+      </c>
+      <c r="AK215">
+        <v>1.97</v>
+      </c>
+      <c r="AL215">
+        <v>1.67</v>
+      </c>
+      <c r="AM215">
+        <v>2.1</v>
+      </c>
+      <c r="AN215">
+        <v>1.28</v>
+      </c>
+      <c r="AO215">
+        <v>1.27</v>
+      </c>
+      <c r="AP215">
+        <v>1.8</v>
+      </c>
+      <c r="AQ215">
+        <v>2.18</v>
+      </c>
+      <c r="AR215">
+        <v>0.73</v>
+      </c>
+      <c r="AS215">
+        <v>2.25</v>
+      </c>
+      <c r="AT215">
+        <v>0.67</v>
+      </c>
+      <c r="AU215">
+        <v>1.91</v>
+      </c>
+      <c r="AV215">
+        <v>1.18</v>
+      </c>
+      <c r="AW215">
+        <v>3.09</v>
+      </c>
+      <c r="AX215">
+        <v>1.58</v>
+      </c>
+      <c r="AY215">
+        <v>8</v>
+      </c>
+      <c r="AZ215">
+        <v>3.04</v>
+      </c>
+      <c r="BA215">
+        <v>1.26</v>
+      </c>
+      <c r="BB215">
+        <v>1.51</v>
+      </c>
+      <c r="BC215">
+        <v>1.91</v>
+      </c>
+      <c r="BD215">
+        <v>2.47</v>
+      </c>
+      <c r="BE215">
+        <v>3.34</v>
+      </c>
+      <c r="BF215">
+        <v>5</v>
+      </c>
+      <c r="BG215">
+        <v>2</v>
+      </c>
+      <c r="BH215">
+        <v>6</v>
+      </c>
+      <c r="BI215">
+        <v>12</v>
+      </c>
+      <c r="BJ215">
+        <v>11</v>
+      </c>
+      <c r="BK215">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2710152</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44997.5625</v>
+      </c>
+      <c r="F216">
+        <v>24</v>
+      </c>
+      <c r="G216" t="s">
+        <v>75</v>
+      </c>
+      <c r="H216" t="s">
+        <v>77</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>3</v>
+      </c>
+      <c r="N216">
+        <v>5</v>
+      </c>
+      <c r="O216" t="s">
+        <v>244</v>
+      </c>
+      <c r="P216" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q216">
+        <v>2</v>
+      </c>
+      <c r="R216">
+        <v>3</v>
+      </c>
+      <c r="S216">
+        <v>5</v>
+      </c>
+      <c r="T216">
+        <v>3.6</v>
+      </c>
+      <c r="U216">
+        <v>2.38</v>
+      </c>
+      <c r="V216">
+        <v>2.63</v>
+      </c>
+      <c r="W216">
+        <v>1.3</v>
+      </c>
+      <c r="X216">
+        <v>3.4</v>
+      </c>
+      <c r="Y216">
+        <v>2.38</v>
+      </c>
+      <c r="Z216">
+        <v>1.53</v>
+      </c>
+      <c r="AA216">
+        <v>6</v>
+      </c>
+      <c r="AB216">
+        <v>1.13</v>
+      </c>
+      <c r="AC216">
+        <v>2.87</v>
+      </c>
+      <c r="AD216">
+        <v>3.67</v>
+      </c>
+      <c r="AE216">
+        <v>2.05</v>
+      </c>
+      <c r="AF216">
+        <v>1.03</v>
+      </c>
+      <c r="AG216">
+        <v>17</v>
+      </c>
+      <c r="AH216">
+        <v>1.2</v>
+      </c>
+      <c r="AI216">
+        <v>4.5</v>
+      </c>
+      <c r="AJ216">
+        <v>1.65</v>
+      </c>
+      <c r="AK216">
+        <v>2.25</v>
+      </c>
+      <c r="AL216">
+        <v>1.53</v>
+      </c>
+      <c r="AM216">
+        <v>2.38</v>
+      </c>
+      <c r="AN216">
+        <v>1.66</v>
+      </c>
+      <c r="AO216">
+        <v>1.27</v>
+      </c>
+      <c r="AP216">
+        <v>1.36</v>
+      </c>
+      <c r="AQ216">
+        <v>1.33</v>
+      </c>
+      <c r="AR216">
+        <v>1.27</v>
+      </c>
+      <c r="AS216">
+        <v>1.23</v>
+      </c>
+      <c r="AT216">
+        <v>1.42</v>
+      </c>
+      <c r="AU216">
+        <v>1.49</v>
+      </c>
+      <c r="AV216">
+        <v>1.32</v>
+      </c>
+      <c r="AW216">
+        <v>2.81</v>
+      </c>
+      <c r="AX216">
+        <v>2.49</v>
+      </c>
+      <c r="AY216">
+        <v>7.5</v>
+      </c>
+      <c r="AZ216">
+        <v>1.81</v>
+      </c>
+      <c r="BA216">
+        <v>1.38</v>
+      </c>
+      <c r="BB216">
+        <v>1.7</v>
+      </c>
+      <c r="BC216">
+        <v>2.18</v>
+      </c>
+      <c r="BD216">
+        <v>2.88</v>
+      </c>
+      <c r="BE216">
+        <v>4.15</v>
+      </c>
+      <c r="BF216">
+        <v>7</v>
+      </c>
+      <c r="BG216">
+        <v>6</v>
+      </c>
+      <c r="BH216">
+        <v>3</v>
+      </c>
+      <c r="BI216">
+        <v>6</v>
+      </c>
+      <c r="BJ216">
+        <v>10</v>
+      </c>
+      <c r="BK216">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2710149</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44997.64583333334</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217" t="s">
+        <v>68</v>
+      </c>
+      <c r="H217" t="s">
+        <v>66</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>245</v>
+      </c>
+      <c r="P217" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q217">
+        <v>3</v>
+      </c>
+      <c r="R217">
+        <v>5</v>
+      </c>
+      <c r="S217">
+        <v>8</v>
+      </c>
+      <c r="T217">
+        <v>3</v>
+      </c>
+      <c r="U217">
+        <v>2</v>
+      </c>
+      <c r="V217">
+        <v>4</v>
+      </c>
+      <c r="W217">
+        <v>1.5</v>
+      </c>
+      <c r="X217">
+        <v>2.5</v>
+      </c>
+      <c r="Y217">
+        <v>3.4</v>
+      </c>
+      <c r="Z217">
+        <v>1.3</v>
+      </c>
+      <c r="AA217">
+        <v>10</v>
+      </c>
+      <c r="AB217">
+        <v>1.06</v>
+      </c>
+      <c r="AC217">
+        <v>2.18</v>
+      </c>
+      <c r="AD217">
+        <v>3.05</v>
+      </c>
+      <c r="AE217">
+        <v>3.11</v>
+      </c>
+      <c r="AF217">
+        <v>1.08</v>
+      </c>
+      <c r="AG217">
+        <v>8.5</v>
+      </c>
+      <c r="AH217">
+        <v>1.44</v>
+      </c>
+      <c r="AI217">
+        <v>2.8</v>
+      </c>
+      <c r="AJ217">
+        <v>2.25</v>
+      </c>
+      <c r="AK217">
+        <v>1.65</v>
+      </c>
+      <c r="AL217">
+        <v>1.95</v>
+      </c>
+      <c r="AM217">
+        <v>1.8</v>
+      </c>
+      <c r="AN217">
+        <v>1.33</v>
+      </c>
+      <c r="AO217">
+        <v>1.34</v>
+      </c>
+      <c r="AP217">
+        <v>1.6</v>
+      </c>
+      <c r="AQ217">
+        <v>1.45</v>
+      </c>
+      <c r="AR217">
+        <v>1.58</v>
+      </c>
+      <c r="AS217">
+        <v>1.42</v>
+      </c>
+      <c r="AT217">
+        <v>1.54</v>
+      </c>
+      <c r="AU217">
+        <v>1.76</v>
+      </c>
+      <c r="AV217">
+        <v>1.21</v>
+      </c>
+      <c r="AW217">
+        <v>2.97</v>
+      </c>
+      <c r="AX217">
+        <v>2</v>
+      </c>
+      <c r="AY217">
+        <v>7.5</v>
+      </c>
+      <c r="AZ217">
+        <v>2.2</v>
+      </c>
+      <c r="BA217">
+        <v>1.31</v>
+      </c>
+      <c r="BB217">
+        <v>1.58</v>
+      </c>
+      <c r="BC217">
+        <v>1.99</v>
+      </c>
+      <c r="BD217">
+        <v>2.57</v>
+      </c>
+      <c r="BE217">
+        <v>3.56</v>
+      </c>
+      <c r="BF217">
+        <v>7</v>
+      </c>
+      <c r="BG217">
+        <v>3</v>
+      </c>
+      <c r="BH217">
+        <v>6</v>
+      </c>
+      <c r="BI217">
+        <v>7</v>
+      </c>
+      <c r="BJ217">
+        <v>13</v>
+      </c>
+      <c r="BK217">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.27</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT4" t="n">
         <v>0.67</v>
@@ -1512,7 +1512,7 @@
         <v>1.42</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT6" t="n">
         <v>1.42</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT7" t="n">
         <v>1.5</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT8" t="n">
         <v>1.42</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.42</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT16" t="n">
         <v>0.46</v>
@@ -4354,7 +4354,7 @@
         <v>2.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.02</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT21" t="n">
         <v>1.5</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT22" t="n">
         <v>1.42</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU23" t="n">
         <v>1.75</v>
@@ -5572,7 +5572,7 @@
         <v>1.42</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -5775,7 +5775,7 @@
         <v>2.27</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU26" t="n">
         <v>0.86</v>
@@ -5978,7 +5978,7 @@
         <v>1.92</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU27" t="n">
         <v>1.21</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT32" t="n">
         <v>0.83</v>
@@ -7196,7 +7196,7 @@
         <v>2.42</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU33" t="n">
         <v>1.76</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT38" t="n">
         <v>0.67</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU39" t="n">
         <v>1.5</v>
@@ -8614,10 +8614,10 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -9226,7 +9226,7 @@
         <v>1.42</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU43" t="n">
         <v>1.89</v>
@@ -9429,7 +9429,7 @@
         <v>1.92</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU44" t="n">
         <v>1.33</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU45" t="n">
         <v>1.02</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT46" t="n">
         <v>1.42</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT50" t="n">
         <v>1.42</v>
@@ -10850,7 +10850,7 @@
         <v>1.92</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU51" t="n">
         <v>1.6</v>
@@ -11865,7 +11865,7 @@
         <v>1.58</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU56" t="n">
         <v>1.61</v>
@@ -12065,10 +12065,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.51</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT58" t="n">
         <v>1.42</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT59" t="n">
         <v>2</v>
@@ -12677,7 +12677,7 @@
         <v>1.42</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU60" t="n">
         <v>2.01</v>
@@ -12877,10 +12877,10 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13083,7 +13083,7 @@
         <v>2.27</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU62" t="n">
         <v>1</v>
@@ -13283,10 +13283,10 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU63" t="n">
         <v>1.94</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT64" t="n">
         <v>1.5</v>
@@ -15516,10 +15516,10 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT75" t="n">
         <v>1.42</v>
@@ -15922,10 +15922,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU76" t="n">
         <v>1.18</v>
@@ -16128,7 +16128,7 @@
         <v>1.58</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -16331,7 +16331,7 @@
         <v>1.42</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU78" t="n">
         <v>2.08</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT79" t="n">
         <v>2</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU80" t="n">
         <v>1.65</v>
@@ -17140,7 +17140,7 @@
         <v>1.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT82" t="n">
         <v>1.54</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT86" t="n">
         <v>0.46</v>
@@ -18361,7 +18361,7 @@
         <v>2.42</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU88" t="n">
         <v>1.96</v>
@@ -19173,7 +19173,7 @@
         <v>1.58</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU92" t="n">
         <v>1.47</v>
@@ -19376,7 +19376,7 @@
         <v>1.42</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU93" t="n">
         <v>2.02</v>
@@ -19579,7 +19579,7 @@
         <v>2.25</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU94" t="n">
         <v>2.12</v>
@@ -19779,7 +19779,7 @@
         <v>1.6</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT95" t="n">
         <v>2</v>
@@ -19982,10 +19982,10 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU96" t="n">
         <v>1.35</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT97" t="n">
         <v>0.42</v>
@@ -20388,7 +20388,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT98" t="n">
         <v>1.42</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT99" t="n">
         <v>1.54</v>
@@ -20797,7 +20797,7 @@
         <v>1.31</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU100" t="n">
         <v>1.53</v>
@@ -21000,7 +21000,7 @@
         <v>1.23</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU101" t="n">
         <v>1.52</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT102" t="n">
         <v>0.83</v>
@@ -22824,7 +22824,7 @@
         <v>0.6</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT110" t="n">
         <v>0.42</v>
@@ -23027,7 +23027,7 @@
         <v>2</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT111" t="n">
         <v>1.42</v>
@@ -23433,10 +23433,10 @@
         <v>0.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU113" t="n">
         <v>1.89</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT114" t="n">
         <v>0.46</v>
@@ -23842,7 +23842,7 @@
         <v>1.58</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU115" t="n">
         <v>1.61</v>
@@ -24045,7 +24045,7 @@
         <v>1.23</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU116" t="n">
         <v>1.56</v>
@@ -24451,7 +24451,7 @@
         <v>2.25</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU118" t="n">
         <v>2.23</v>
@@ -24857,7 +24857,7 @@
         <v>2.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU120" t="n">
         <v>2.81</v>
@@ -25057,7 +25057,7 @@
         <v>0.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT121" t="n">
         <v>0.58</v>
@@ -25260,10 +25260,10 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU122" t="n">
         <v>1.66</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT128" t="n">
         <v>1.69</v>
@@ -26684,7 +26684,7 @@
         <v>1.23</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU129" t="n">
         <v>1.55</v>
@@ -26884,10 +26884,10 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU130" t="n">
         <v>1.81</v>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT131" t="n">
         <v>0.46</v>
@@ -27496,7 +27496,7 @@
         <v>1.31</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU133" t="n">
         <v>1.47</v>
@@ -28714,7 +28714,7 @@
         <v>1.92</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU139" t="n">
         <v>1.74</v>
@@ -29117,10 +29117,10 @@
         <v>0.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU141" t="n">
         <v>1.66</v>
@@ -29320,7 +29320,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT142" t="n">
         <v>1.42</v>
@@ -29526,7 +29526,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU143" t="n">
         <v>1.9</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT144" t="n">
         <v>0.83</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT145" t="n">
         <v>1.42</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU146" t="n">
         <v>1.56</v>
@@ -30338,7 +30338,7 @@
         <v>1.31</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU147" t="n">
         <v>1.5</v>
@@ -30538,7 +30538,7 @@
         <v>0.43</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT148" t="n">
         <v>0.42</v>
@@ -30744,7 +30744,7 @@
         <v>2.33</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU149" t="n">
         <v>2.73</v>
@@ -31553,7 +31553,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT153" t="n">
         <v>0.58</v>
@@ -32568,7 +32568,7 @@
         <v>0.5</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT158" t="n">
         <v>0.58</v>
@@ -32977,7 +32977,7 @@
         <v>1.23</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU160" t="n">
         <v>1.49</v>
@@ -33383,7 +33383,7 @@
         <v>1</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU162" t="n">
         <v>1.49</v>
@@ -33786,7 +33786,7 @@
         <v>1.25</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT164" t="n">
         <v>1.42</v>
@@ -34195,7 +34195,7 @@
         <v>1.5</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU166" t="n">
         <v>1.91</v>
@@ -34395,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT167" t="n">
         <v>0.67</v>
@@ -34601,7 +34601,7 @@
         <v>1.92</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU168" t="n">
         <v>1.71</v>
@@ -34801,7 +34801,7 @@
         <v>1.56</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT169" t="n">
         <v>1.5</v>
@@ -35004,10 +35004,10 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU170" t="n">
         <v>1.66</v>
@@ -35207,10 +35207,10 @@
         <v>1.38</v>
       </c>
       <c r="AS171" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT171" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AT171" t="n">
-        <v>1.27</v>
       </c>
       <c r="AU171" t="n">
         <v>1.73</v>
@@ -35616,7 +35616,7 @@
         <v>1</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU173" t="n">
         <v>1.53</v>
@@ -36425,7 +36425,7 @@
         <v>1.11</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT177" t="n">
         <v>1.42</v>
@@ -37440,7 +37440,7 @@
         <v>0.89</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT182" t="n">
         <v>0.67</v>
@@ -37643,7 +37643,7 @@
         <v>1.4</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT183" t="n">
         <v>1.5</v>
@@ -37849,7 +37849,7 @@
         <v>1.42</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU184" t="n">
         <v>1.9</v>
@@ -38049,10 +38049,10 @@
         <v>0.8</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU185" t="n">
         <v>1.75</v>
@@ -38252,7 +38252,7 @@
         <v>2.1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT186" t="n">
         <v>2</v>
@@ -38458,7 +38458,7 @@
         <v>1.92</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU187" t="n">
         <v>1.7</v>
@@ -38661,7 +38661,7 @@
         <v>2.27</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU188" t="n">
         <v>1.61</v>
@@ -38861,10 +38861,10 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU189" t="n">
         <v>1.91</v>
@@ -40082,7 +40082,7 @@
         <v>1.5</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU195" t="n">
         <v>1.75</v>
@@ -40282,7 +40282,7 @@
         <v>1.64</v>
       </c>
       <c r="AS196" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT196" t="n">
         <v>1.69</v>
@@ -41094,10 +41094,10 @@
         <v>1.45</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU200" t="n">
         <v>1.85</v>
@@ -41297,10 +41297,10 @@
         <v>1.4</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU201" t="n">
         <v>1.41</v>
@@ -41503,7 +41503,7 @@
         <v>2.27</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU202" t="n">
         <v>1.58</v>
@@ -41906,7 +41906,7 @@
         <v>1.55</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT204" t="n">
         <v>1.5</v>
@@ -42109,10 +42109,10 @@
         <v>0.4</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU205" t="n">
         <v>1.71</v>
@@ -42312,7 +42312,7 @@
         <v>1.91</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT206" t="n">
         <v>2</v>
@@ -42518,7 +42518,7 @@
         <v>1.42</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU207" t="n">
         <v>1.86</v>
@@ -44600,6 +44600,1224 @@
       </c>
       <c r="BK217" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2710158</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45002.6875</v>
+      </c>
+      <c r="F218" t="n">
+        <v>25</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2</v>
+      </c>
+      <c r="N218" t="n">
+        <v>4</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['48', '73']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['65', '89']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>6</v>
+      </c>
+      <c r="R218" t="n">
+        <v>5</v>
+      </c>
+      <c r="S218" t="n">
+        <v>11</v>
+      </c>
+      <c r="T218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2710157</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45003.47916666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>25</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Hertha BSC</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>2</v>
+      </c>
+      <c r="L219" t="n">
+        <v>3</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="n">
+        <v>4</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['24', '37', '51']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>8</v>
+      </c>
+      <c r="R219" t="n">
+        <v>9</v>
+      </c>
+      <c r="S219" t="n">
+        <v>17</v>
+      </c>
+      <c r="T219" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V219" t="n">
+        <v>4</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X219" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2710159</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45003.47916666666</v>
+      </c>
+      <c r="F220" t="n">
+        <v>25</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>2</v>
+      </c>
+      <c r="R220" t="n">
+        <v>7</v>
+      </c>
+      <c r="S220" t="n">
+        <v>9</v>
+      </c>
+      <c r="T220" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X220" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2710160</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45003.47916666666</v>
+      </c>
+      <c r="F221" t="n">
+        <v>25</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="n">
+        <v>2</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>9</v>
+      </c>
+      <c r="R221" t="n">
+        <v>6</v>
+      </c>
+      <c r="S221" t="n">
+        <v>15</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2710161</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45003.47916666666</v>
+      </c>
+      <c r="F222" t="n">
+        <v>25</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>3</v>
+      </c>
+      <c r="R222" t="n">
+        <v>8</v>
+      </c>
+      <c r="S222" t="n">
+        <v>11</v>
+      </c>
+      <c r="T222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V222" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2710153</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45003.60416666666</v>
+      </c>
+      <c r="F223" t="n">
+        <v>25</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>4</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>5</v>
+      </c>
+      <c r="L223" t="n">
+        <v>6</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>7</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['15', '17', '32', '36', '69', '70']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>1</v>
+      </c>
+      <c r="R223" t="n">
+        <v>6</v>
+      </c>
+      <c r="S223" t="n">
+        <v>7</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V223" t="n">
+        <v>6</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT2" t="n">
         <v>1.85</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.85</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT5" t="n">
         <v>1.25</v>
@@ -1715,7 +1715,7 @@
         <v>1.58</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.58</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT10" t="n">
         <v>0.67</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.54</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT15" t="n">
         <v>0.6899999999999999</v>
@@ -3745,7 +3745,7 @@
         <v>1.08</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT19" t="n">
         <v>1.62</v>
@@ -4557,7 +4557,7 @@
         <v>1.85</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU20" t="n">
         <v>1.02</v>
@@ -4963,7 +4963,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5369,7 +5369,7 @@
         <v>1.54</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT25" t="n">
         <v>0.67</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT26" t="n">
         <v>1.23</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT27" t="n">
         <v>0.6899999999999999</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT30" t="n">
         <v>1.54</v>
@@ -6790,7 +6790,7 @@
         <v>1.31</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU31" t="n">
         <v>1.46</v>
@@ -6993,7 +6993,7 @@
         <v>1.08</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU32" t="n">
         <v>2.63</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT33" t="n">
         <v>1.62</v>
@@ -7399,7 +7399,7 @@
         <v>1.54</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU34" t="n">
         <v>1.43</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU35" t="n">
         <v>2.88</v>
@@ -7802,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU36" t="n">
         <v>2.88</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT37" t="n">
         <v>1.31</v>
@@ -8211,7 +8211,7 @@
         <v>2.58</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU38" t="n">
         <v>1.43</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT42" t="n">
         <v>1.85</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT43" t="n">
         <v>0.6899999999999999</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT44" t="n">
         <v>1.23</v>
@@ -9632,7 +9632,7 @@
         <v>1.38</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU45" t="n">
         <v>1.02</v>
@@ -9835,7 +9835,7 @@
         <v>1.85</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU46" t="n">
         <v>1.38</v>
@@ -10035,10 +10035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU47" t="n">
         <v>1.19</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU48" t="n">
         <v>3.67</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU49" t="n">
         <v>1.91</v>
@@ -10647,7 +10647,7 @@
         <v>1.08</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU50" t="n">
         <v>2.42</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT51" t="n">
         <v>1.62</v>
@@ -11053,7 +11053,7 @@
         <v>1.31</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -11253,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU53" t="n">
         <v>1.65</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT54" t="n">
         <v>1.54</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU55" t="n">
         <v>2.37</v>
@@ -11865,7 +11865,7 @@
         <v>1.54</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU56" t="n">
         <v>1.61</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT62" t="n">
         <v>1.62</v>
@@ -13689,10 +13689,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU65" t="n">
         <v>3.09</v>
@@ -13892,10 +13892,10 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU66" t="n">
         <v>1.71</v>
@@ -14095,7 +14095,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT67" t="n">
         <v>1.54</v>
@@ -14298,10 +14298,10 @@
         <v>2.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU68" t="n">
         <v>2.23</v>
@@ -14501,10 +14501,10 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.85</v>
@@ -14704,10 +14704,10 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU70" t="n">
         <v>1.76</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU71" t="n">
         <v>1.39</v>
@@ -15113,7 +15113,7 @@
         <v>1.31</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU72" t="n">
         <v>1.51</v>
@@ -15313,10 +15313,10 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU73" t="n">
         <v>1.78</v>
@@ -17343,10 +17343,10 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU83" t="n">
         <v>1.86</v>
@@ -17546,10 +17546,10 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU84" t="n">
         <v>1.47</v>
@@ -17749,10 +17749,10 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU85" t="n">
         <v>1.79</v>
@@ -17955,7 +17955,7 @@
         <v>1.15</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU86" t="n">
         <v>1.38</v>
@@ -18155,10 +18155,10 @@
         <v>1.8</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18358,10 +18358,10 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU88" t="n">
         <v>1.96</v>
@@ -18561,10 +18561,10 @@
         <v>2.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU89" t="n">
         <v>1.93</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU90" t="n">
         <v>1.19</v>
@@ -18967,7 +18967,7 @@
         <v>2.2</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT91" t="n">
         <v>1.46</v>
@@ -19576,7 +19576,7 @@
         <v>2.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT94" t="n">
         <v>1.25</v>
@@ -20188,7 +20188,7 @@
         <v>2.58</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU97" t="n">
         <v>1.65</v>
@@ -20997,10 +20997,10 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU101" t="n">
         <v>1.52</v>
@@ -21203,7 +21203,7 @@
         <v>1.15</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU102" t="n">
         <v>1.49</v>
@@ -21403,10 +21403,10 @@
         <v>0</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.78</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU104" t="n">
         <v>1.95</v>
@@ -21809,10 +21809,10 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU105" t="n">
         <v>2.81</v>
@@ -22012,10 +22012,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU106" t="n">
         <v>1.63</v>
@@ -22215,10 +22215,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -22418,7 +22418,7 @@
         <v>1.83</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT108" t="n">
         <v>1.46</v>
@@ -22621,10 +22621,10 @@
         <v>1.4</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU109" t="n">
         <v>1.95</v>
@@ -22827,7 +22827,7 @@
         <v>1.85</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU110" t="n">
         <v>1.58</v>
@@ -23639,7 +23639,7 @@
         <v>2.58</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -24042,7 +24042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT116" t="n">
         <v>0.67</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT118" t="n">
         <v>0.6899999999999999</v>
@@ -24651,10 +24651,10 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU119" t="n">
         <v>1.85</v>
@@ -24854,7 +24854,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT120" t="n">
         <v>1.25</v>
@@ -25060,7 +25060,7 @@
         <v>1.58</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU121" t="n">
         <v>1.64</v>
@@ -25263,7 +25263,7 @@
         <v>1.15</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU122" t="n">
         <v>1.66</v>
@@ -25463,10 +25463,10 @@
         <v>0.67</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU123" t="n">
         <v>1.86</v>
@@ -25666,7 +25666,7 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT124" t="n">
         <v>1.46</v>
@@ -25869,10 +25869,10 @@
         <v>1.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU125" t="n">
         <v>1.44</v>
@@ -26072,10 +26072,10 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU126" t="n">
         <v>1.72</v>
@@ -26275,10 +26275,10 @@
         <v>1.71</v>
       </c>
       <c r="AS127" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU127" t="n">
         <v>1.74</v>
@@ -26481,7 +26481,7 @@
         <v>1.85</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU128" t="n">
         <v>1.58</v>
@@ -26681,7 +26681,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT129" t="n">
         <v>1.23</v>
@@ -27090,7 +27090,7 @@
         <v>1.38</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU131" t="n">
         <v>1.31</v>
@@ -27293,7 +27293,7 @@
         <v>1.54</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU132" t="n">
         <v>1.9</v>
@@ -27696,7 +27696,7 @@
         <v>2</v>
       </c>
       <c r="AS134" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT134" t="n">
         <v>1.85</v>
@@ -28102,7 +28102,7 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT136" t="n">
         <v>1.54</v>
@@ -28305,7 +28305,7 @@
         <v>2.13</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT137" t="n">
         <v>1.85</v>
@@ -28508,10 +28508,10 @@
         <v>1.14</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU138" t="n">
         <v>1.56</v>
@@ -28711,7 +28711,7 @@
         <v>0.29</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT139" t="n">
         <v>0.67</v>
@@ -28914,7 +28914,7 @@
         <v>1.75</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT140" t="n">
         <v>1.46</v>
@@ -29120,7 +29120,7 @@
         <v>1.58</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU141" t="n">
         <v>1.66</v>
@@ -29323,7 +29323,7 @@
         <v>1.15</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU142" t="n">
         <v>1.72</v>
@@ -29523,7 +29523,7 @@
         <v>1.57</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT143" t="n">
         <v>1.25</v>
@@ -29729,7 +29729,7 @@
         <v>2.58</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU144" t="n">
         <v>1.63</v>
@@ -29932,7 +29932,7 @@
         <v>1.85</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU145" t="n">
         <v>1.6</v>
@@ -30132,7 +30132,7 @@
         <v>1.13</v>
       </c>
       <c r="AS146" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT146" t="n">
         <v>1.23</v>
@@ -30541,7 +30541,7 @@
         <v>1.08</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU148" t="n">
         <v>1.92</v>
@@ -30741,7 +30741,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT149" t="n">
         <v>0.6899999999999999</v>
@@ -30947,7 +30947,7 @@
         <v>1.54</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU150" t="n">
         <v>1.66</v>
@@ -31147,7 +31147,7 @@
         <v>1.25</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT151" t="n">
         <v>1.54</v>
@@ -31350,7 +31350,7 @@
         <v>2</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT152" t="n">
         <v>1.31</v>
@@ -31556,7 +31556,7 @@
         <v>1.38</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU153" t="n">
         <v>1.38</v>
@@ -31759,7 +31759,7 @@
         <v>1.54</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU154" t="n">
         <v>1.85</v>
@@ -31959,10 +31959,10 @@
         <v>0.5</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU155" t="n">
         <v>1.75</v>
@@ -32162,10 +32162,10 @@
         <v>1.25</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU156" t="n">
         <v>2</v>
@@ -32368,7 +32368,7 @@
         <v>1.54</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU157" t="n">
         <v>1.64</v>
@@ -32571,7 +32571,7 @@
         <v>1.08</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU158" t="n">
         <v>1.91</v>
@@ -32974,7 +32974,7 @@
         <v>1.56</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT160" t="n">
         <v>1.62</v>
@@ -33177,7 +33177,7 @@
         <v>1.88</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT161" t="n">
         <v>1.31</v>
@@ -33380,7 +33380,7 @@
         <v>0.78</v>
       </c>
       <c r="AS162" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT162" t="n">
         <v>0.6899999999999999</v>
@@ -33586,7 +33586,7 @@
         <v>1.54</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU163" t="n">
         <v>1.83</v>
@@ -33789,7 +33789,7 @@
         <v>1.38</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU164" t="n">
         <v>1.43</v>
@@ -33989,10 +33989,10 @@
         <v>1.44</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU165" t="n">
         <v>1.63</v>
@@ -34192,7 +34192,7 @@
         <v>1.33</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT166" t="n">
         <v>1.23</v>
@@ -34398,7 +34398,7 @@
         <v>1.58</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU167" t="n">
         <v>1.62</v>
@@ -34598,10 +34598,10 @@
         <v>0.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU168" t="n">
         <v>1.71</v>
@@ -35410,7 +35410,7 @@
         <v>2</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT172" t="n">
         <v>1.85</v>
@@ -35613,7 +35613,7 @@
         <v>1.4</v>
       </c>
       <c r="AS173" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT173" t="n">
         <v>1.62</v>
@@ -35816,10 +35816,10 @@
         <v>0.3</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU174" t="n">
         <v>2.68</v>
@@ -36019,10 +36019,10 @@
         <v>0.44</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU175" t="n">
         <v>2.01</v>
@@ -36225,7 +36225,7 @@
         <v>1.54</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU176" t="n">
         <v>1.65</v>
@@ -36428,7 +36428,7 @@
         <v>1.08</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU177" t="n">
         <v>1.9</v>
@@ -36628,10 +36628,10 @@
         <v>1.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU178" t="n">
         <v>1.51</v>
@@ -36831,7 +36831,7 @@
         <v>1.6</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT179" t="n">
         <v>1.54</v>
@@ -37037,7 +37037,7 @@
         <v>1.31</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU180" t="n">
         <v>1.43</v>
@@ -37237,7 +37237,7 @@
         <v>1.78</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT181" t="n">
         <v>1.31</v>
@@ -37443,7 +37443,7 @@
         <v>1.38</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU182" t="n">
         <v>1.42</v>
@@ -37846,7 +37846,7 @@
         <v>1.3</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT184" t="n">
         <v>1.23</v>
@@ -38455,7 +38455,7 @@
         <v>1.56</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT187" t="n">
         <v>1.25</v>
@@ -38658,7 +38658,7 @@
         <v>0.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT188" t="n">
         <v>0.67</v>
@@ -38864,7 +38864,7 @@
         <v>2.58</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU189" t="n">
         <v>1.91</v>
@@ -39067,7 +39067,7 @@
         <v>1.54</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU190" t="n">
         <v>1.87</v>
@@ -39270,7 +39270,7 @@
         <v>1.54</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU191" t="n">
         <v>1.68</v>
@@ -39470,10 +39470,10 @@
         <v>0.27</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU192" t="n">
         <v>1.49</v>
@@ -39676,7 +39676,7 @@
         <v>1.31</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU193" t="n">
         <v>1.48</v>
@@ -39876,7 +39876,7 @@
         <v>1.6</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT194" t="n">
         <v>1.31</v>
@@ -40079,7 +40079,7 @@
         <v>1.36</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT195" t="n">
         <v>1.62</v>
@@ -40285,7 +40285,7 @@
         <v>1.08</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU196" t="n">
         <v>1.86</v>
@@ -40485,10 +40485,10 @@
         <v>0.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU197" t="n">
         <v>1.59</v>
@@ -40688,10 +40688,10 @@
         <v>1.3</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU198" t="n">
         <v>1.98</v>
@@ -40891,7 +40891,7 @@
         <v>1.73</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT199" t="n">
         <v>1.54</v>
@@ -41500,7 +41500,7 @@
         <v>0.73</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT202" t="n">
         <v>0.6899999999999999</v>
@@ -41706,7 +41706,7 @@
         <v>1.54</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU203" t="n">
         <v>1.7</v>
@@ -42518,7 +42518,7 @@
         <v>1.54</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU207" t="n">
         <v>1.86</v>
@@ -42718,7 +42718,7 @@
         <v>1.45</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT208" t="n">
         <v>1.31</v>
@@ -42921,10 +42921,10 @@
         <v>0.25</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU209" t="n">
         <v>1.76</v>
@@ -43127,7 +43127,7 @@
         <v>1.31</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU210" t="n">
         <v>1.47</v>
@@ -43327,10 +43327,10 @@
         <v>0.91</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU211" t="n">
         <v>2.69</v>
@@ -43530,10 +43530,10 @@
         <v>0.64</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU212" t="n">
         <v>1.64</v>
@@ -43733,10 +43733,10 @@
         <v>0.36</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU213" t="n">
         <v>1.67</v>
@@ -43936,10 +43936,10 @@
         <v>1.75</v>
       </c>
       <c r="AS214" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU214" t="n">
         <v>1.59</v>
@@ -44139,10 +44139,10 @@
         <v>0.73</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU215" t="n">
         <v>1.91</v>
@@ -44342,10 +44342,10 @@
         <v>1.27</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU216" t="n">
         <v>1.49</v>
@@ -44545,7 +44545,7 @@
         <v>1.58</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT217" t="n">
         <v>1.54</v>
@@ -44954,7 +44954,7 @@
         <v>1.08</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU219" t="n">
         <v>1.86</v>
@@ -45966,7 +45966,7 @@
         <v>1.42</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT224" t="n">
         <v>1.31</v>
@@ -46427,6 +46427,1833 @@
       </c>
       <c r="BK226" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2710167</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45016.64583333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>26</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>2</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>15</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2</v>
+      </c>
+      <c r="S227" t="n">
+        <v>17</v>
+      </c>
+      <c r="T227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V227" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2710168</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F228" t="n">
+        <v>26</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2</v>
+      </c>
+      <c r="K228" t="n">
+        <v>2</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2</v>
+      </c>
+      <c r="N228" t="n">
+        <v>4</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['83', '90+6']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['2', '32']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>4</v>
+      </c>
+      <c r="R228" t="n">
+        <v>7</v>
+      </c>
+      <c r="S228" t="n">
+        <v>11</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V228" t="n">
+        <v>5</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2710169</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F229" t="n">
+        <v>26</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>3</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['50', '61', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>7</v>
+      </c>
+      <c r="R229" t="n">
+        <v>5</v>
+      </c>
+      <c r="S229" t="n">
+        <v>12</v>
+      </c>
+      <c r="T229" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X229" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2710164</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>3</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['51', '65', '68']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>3</v>
+      </c>
+      <c r="R230" t="n">
+        <v>5</v>
+      </c>
+      <c r="S230" t="n">
+        <v>8</v>
+      </c>
+      <c r="T230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2</v>
+      </c>
+      <c r="V230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2710163</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F231" t="n">
+        <v>26</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>3</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['9', '57', '67']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>3</v>
+      </c>
+      <c r="R231" t="n">
+        <v>4</v>
+      </c>
+      <c r="S231" t="n">
+        <v>7</v>
+      </c>
+      <c r="T231" t="n">
+        <v>2</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V231" t="n">
+        <v>6</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X231" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2710165</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F232" t="n">
+        <v>26</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Hertha BSC</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="n">
+        <v>2</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>2</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2</v>
+      </c>
+      <c r="S232" t="n">
+        <v>4</v>
+      </c>
+      <c r="T232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V232" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2710162</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45017.5625</v>
+      </c>
+      <c r="F233" t="n">
+        <v>26</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>3</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>3</v>
+      </c>
+      <c r="L233" t="n">
+        <v>4</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2</v>
+      </c>
+      <c r="N233" t="n">
+        <v>6</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['13', '18', '23', '50']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['72', '90']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>6</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2</v>
+      </c>
+      <c r="S233" t="n">
+        <v>8</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V233" t="n">
+        <v>5</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X233" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2710166</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45018.4375</v>
+      </c>
+      <c r="F234" t="n">
+        <v>26</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>11</v>
+      </c>
+      <c r="R234" t="n">
+        <v>1</v>
+      </c>
+      <c r="S234" t="n">
+        <v>12</v>
+      </c>
+      <c r="T234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V234" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X234" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2710170</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45018.52083333334</v>
+      </c>
+      <c r="F235" t="n">
+        <v>26</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>2</v>
+      </c>
+      <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['50', '52']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>1</v>
+      </c>
+      <c r="R235" t="n">
+        <v>6</v>
+      </c>
+      <c r="S235" t="n">
+        <v>7</v>
+      </c>
+      <c r="T235" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK235"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.85</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.38</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT7" t="n">
         <v>1.46</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT8" t="n">
         <v>1.54</v>
@@ -2324,7 +2324,7 @@
         <v>1.15</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1.57</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT14" t="n">
         <v>0.85</v>
@@ -3542,7 +3542,7 @@
         <v>2.23</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT22" t="n">
         <v>1.54</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU23" t="n">
         <v>1.75</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT24" t="n">
         <v>0.85</v>
@@ -5775,7 +5775,7 @@
         <v>2.38</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU26" t="n">
         <v>0.86</v>
@@ -5978,7 +5978,7 @@
         <v>1.85</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU27" t="n">
         <v>1.21</v>
@@ -6181,7 +6181,7 @@
         <v>1.58</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU28" t="n">
         <v>1.45</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
         <v>0.5</v>
@@ -6587,7 +6587,7 @@
         <v>0.93</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU30" t="n">
         <v>1.48</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT31" t="n">
         <v>1.57</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>1.54</v>
@@ -8008,7 +8008,7 @@
         <v>1.14</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU37" t="n">
         <v>0.9399999999999999</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT38" t="n">
         <v>0.85</v>
@@ -8617,7 +8617,7 @@
         <v>1.58</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT41" t="n">
         <v>1.46</v>
@@ -9023,7 +9023,7 @@
         <v>2.38</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU42" t="n">
         <v>0.98</v>
@@ -9226,7 +9226,7 @@
         <v>1.38</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU43" t="n">
         <v>1.89</v>
@@ -9429,7 +9429,7 @@
         <v>1.85</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU44" t="n">
         <v>1.33</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT45" t="n">
         <v>0.38</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT52" t="n">
         <v>1.54</v>
@@ -11459,7 +11459,7 @@
         <v>1.46</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU54" t="n">
         <v>1.93</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>0.62</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>0.38</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT57" t="n">
         <v>0.67</v>
@@ -12271,7 +12271,7 @@
         <v>1.15</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU58" t="n">
         <v>1.43</v>
@@ -12471,10 +12471,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU59" t="n">
         <v>1.1</v>
@@ -12674,10 +12674,10 @@
         <v>2.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU60" t="n">
         <v>2.01</v>
@@ -12880,7 +12880,7 @@
         <v>1.85</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13286,7 +13286,7 @@
         <v>1.58</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU63" t="n">
         <v>1.94</v>
@@ -14098,7 +14098,7 @@
         <v>1.85</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU67" t="n">
         <v>1.47</v>
@@ -14298,7 +14298,7 @@
         <v>2.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT68" t="n">
         <v>1.54</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT72" t="n">
         <v>0.85</v>
@@ -15519,7 +15519,7 @@
         <v>1.08</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -15722,7 +15722,7 @@
         <v>1.58</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU75" t="n">
         <v>1.7</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT76" t="n">
         <v>1.62</v>
@@ -16125,10 +16125,10 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -16328,7 +16328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT78" t="n">
         <v>0.67</v>
@@ -16531,10 +16531,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU79" t="n">
         <v>1.66</v>
@@ -16737,7 +16737,7 @@
         <v>1.85</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU80" t="n">
         <v>1.65</v>
@@ -16937,7 +16937,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT81" t="n">
         <v>1.46</v>
@@ -17143,7 +17143,7 @@
         <v>1.15</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU82" t="n">
         <v>1.44</v>
@@ -19170,10 +19170,10 @@
         <v>1.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU92" t="n">
         <v>1.47</v>
@@ -19373,7 +19373,7 @@
         <v>0.8</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT93" t="n">
         <v>1.62</v>
@@ -19576,10 +19576,10 @@
         <v>2.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU94" t="n">
         <v>2.12</v>
@@ -19782,7 +19782,7 @@
         <v>1.08</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU95" t="n">
         <v>2.05</v>
@@ -19982,10 +19982,10 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU96" t="n">
         <v>1.35</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT97" t="n">
         <v>0.38</v>
@@ -20391,7 +20391,7 @@
         <v>1.85</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU98" t="n">
         <v>1.69</v>
@@ -20594,7 +20594,7 @@
         <v>1.58</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU99" t="n">
         <v>1.71</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT100" t="n">
         <v>0.67</v>
@@ -23027,10 +23027,10 @@
         <v>2</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU111" t="n">
         <v>1.29</v>
@@ -23230,10 +23230,10 @@
         <v>1.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU112" t="n">
         <v>1.51</v>
@@ -23436,7 +23436,7 @@
         <v>1.08</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU113" t="n">
         <v>1.89</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT114" t="n">
         <v>0.5</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
         <v>1.62</v>
@@ -24245,10 +24245,10 @@
         <v>1.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU117" t="n">
         <v>1.96</v>
@@ -24448,10 +24448,10 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU118" t="n">
         <v>2.23</v>
@@ -24857,7 +24857,7 @@
         <v>2.38</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU120" t="n">
         <v>2.81</v>
@@ -26684,7 +26684,7 @@
         <v>1.14</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU129" t="n">
         <v>1.55</v>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT131" t="n">
         <v>0.5</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT132" t="n">
         <v>0.38</v>
@@ -27493,10 +27493,10 @@
         <v>0.86</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU133" t="n">
         <v>1.47</v>
@@ -27699,7 +27699,7 @@
         <v>0.93</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU134" t="n">
         <v>1.73</v>
@@ -27899,10 +27899,10 @@
         <v>2.17</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU135" t="n">
         <v>1.62</v>
@@ -28102,10 +28102,10 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU136" t="n">
         <v>2.16</v>
@@ -28308,7 +28308,7 @@
         <v>2.23</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU137" t="n">
         <v>1.83</v>
@@ -29526,7 +29526,7 @@
         <v>1.46</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU143" t="n">
         <v>1.9</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT144" t="n">
         <v>0.85</v>
@@ -30135,7 +30135,7 @@
         <v>0.93</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU146" t="n">
         <v>1.56</v>
@@ -30335,7 +30335,7 @@
         <v>1.38</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT147" t="n">
         <v>1.62</v>
@@ -30744,7 +30744,7 @@
         <v>2.38</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU149" t="n">
         <v>2.73</v>
@@ -30944,7 +30944,7 @@
         <v>1.13</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT150" t="n">
         <v>1.57</v>
@@ -31150,7 +31150,7 @@
         <v>1.14</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU151" t="n">
         <v>1.5</v>
@@ -31350,10 +31350,10 @@
         <v>2</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU152" t="n">
         <v>2.05</v>
@@ -31553,7 +31553,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT153" t="n">
         <v>0.62</v>
@@ -31756,7 +31756,7 @@
         <v>0.38</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT154" t="n">
         <v>0.5</v>
@@ -32162,7 +32162,7 @@
         <v>1.25</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT156" t="n">
         <v>0.85</v>
@@ -32365,7 +32365,7 @@
         <v>0.33</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT157" t="n">
         <v>0.5</v>
@@ -32771,10 +32771,10 @@
         <v>1.44</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU159" t="n">
         <v>1.44</v>
@@ -33180,7 +33180,7 @@
         <v>2.38</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU161" t="n">
         <v>2.78</v>
@@ -33383,7 +33383,7 @@
         <v>0.93</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU162" t="n">
         <v>1.49</v>
@@ -33583,7 +33583,7 @@
         <v>1.33</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT163" t="n">
         <v>1.57</v>
@@ -33786,7 +33786,7 @@
         <v>1.25</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT164" t="n">
         <v>1.54</v>
@@ -34195,7 +34195,7 @@
         <v>1.46</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU166" t="n">
         <v>1.91</v>
@@ -34801,7 +34801,7 @@
         <v>1.56</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT169" t="n">
         <v>1.46</v>
@@ -35210,7 +35210,7 @@
         <v>1.15</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU171" t="n">
         <v>1.73</v>
@@ -35413,7 +35413,7 @@
         <v>1.38</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU172" t="n">
         <v>1.84</v>
@@ -36019,7 +36019,7 @@
         <v>0.44</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT175" t="n">
         <v>0.38</v>
@@ -36222,7 +36222,7 @@
         <v>1.11</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT176" t="n">
         <v>0.85</v>
@@ -36834,7 +36834,7 @@
         <v>2.23</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU179" t="n">
         <v>1.72</v>
@@ -37034,7 +37034,7 @@
         <v>0.78</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT180" t="n">
         <v>0.62</v>
@@ -37240,7 +37240,7 @@
         <v>1.46</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU181" t="n">
         <v>1.82</v>
@@ -37440,7 +37440,7 @@
         <v>0.89</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT182" t="n">
         <v>0.85</v>
@@ -37849,7 +37849,7 @@
         <v>1.38</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU184" t="n">
         <v>1.9</v>
@@ -38052,7 +38052,7 @@
         <v>1.15</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU185" t="n">
         <v>1.75</v>
@@ -38255,7 +38255,7 @@
         <v>1.85</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU186" t="n">
         <v>1.66</v>
@@ -38458,7 +38458,7 @@
         <v>1.85</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU187" t="n">
         <v>1.7</v>
@@ -38861,7 +38861,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT189" t="n">
         <v>0.38</v>
@@ -39064,7 +39064,7 @@
         <v>1.3</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT190" t="n">
         <v>1.54</v>
@@ -39267,7 +39267,7 @@
         <v>0.7</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT191" t="n">
         <v>0.62</v>
@@ -39673,7 +39673,7 @@
         <v>1</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT193" t="n">
         <v>0.85</v>
@@ -39879,7 +39879,7 @@
         <v>2.23</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU194" t="n">
         <v>1.66</v>
@@ -40688,7 +40688,7 @@
         <v>1.3</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT198" t="n">
         <v>1.54</v>
@@ -40894,7 +40894,7 @@
         <v>2.38</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU199" t="n">
         <v>2.69</v>
@@ -41094,10 +41094,10 @@
         <v>1.45</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU200" t="n">
         <v>1.85</v>
@@ -41297,10 +41297,10 @@
         <v>1.4</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU201" t="n">
         <v>1.41</v>
@@ -41503,7 +41503,7 @@
         <v>2.38</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU202" t="n">
         <v>1.58</v>
@@ -41703,7 +41703,7 @@
         <v>0.8</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT203" t="n">
         <v>0.85</v>
@@ -42315,7 +42315,7 @@
         <v>1.15</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU206" t="n">
         <v>1.76</v>
@@ -42515,7 +42515,7 @@
         <v>0.4</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT207" t="n">
         <v>0.38</v>
@@ -42721,7 +42721,7 @@
         <v>1.38</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU208" t="n">
         <v>1.79</v>
@@ -43124,7 +43124,7 @@
         <v>1.45</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT210" t="n">
         <v>1.54</v>
@@ -44139,7 +44139,7 @@
         <v>0.73</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT215" t="n">
         <v>0.85</v>
@@ -44548,7 +44548,7 @@
         <v>1.38</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU217" t="n">
         <v>1.76</v>
@@ -44751,7 +44751,7 @@
         <v>1.85</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU218" t="n">
         <v>1.62</v>
@@ -45157,7 +45157,7 @@
         <v>1.58</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU220" t="n">
         <v>1.68</v>
@@ -45357,7 +45357,7 @@
         <v>0.64</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT221" t="n">
         <v>0.67</v>
@@ -45763,10 +45763,10 @@
         <v>0.75</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU223" t="n">
         <v>1.8</v>
@@ -45969,7 +45969,7 @@
         <v>2.38</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU224" t="n">
         <v>1.54</v>
@@ -46169,10 +46169,10 @@
         <v>2</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU225" t="n">
         <v>1.86</v>
@@ -46372,7 +46372,7 @@
         <v>1.5</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT226" t="n">
         <v>1.46</v>
@@ -47590,7 +47590,7 @@
         <v>0.33</v>
       </c>
       <c r="AS232" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT232" t="n">
         <v>0.38</v>
@@ -48254,6 +48254,1224 @@
       </c>
       <c r="BK235" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2710178</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F236" t="n">
+        <v>27</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2</v>
+      </c>
+      <c r="K236" t="n">
+        <v>3</v>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>3</v>
+      </c>
+      <c r="N236" t="n">
+        <v>4</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['7', '16', '59']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>6</v>
+      </c>
+      <c r="R236" t="n">
+        <v>1</v>
+      </c>
+      <c r="S236" t="n">
+        <v>7</v>
+      </c>
+      <c r="T236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X236" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2710173</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F237" t="n">
+        <v>27</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>2</v>
+      </c>
+      <c r="R237" t="n">
+        <v>6</v>
+      </c>
+      <c r="S237" t="n">
+        <v>8</v>
+      </c>
+      <c r="T237" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X237" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2710174</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F238" t="n">
+        <v>27</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2</v>
+      </c>
+      <c r="M238" t="n">
+        <v>2</v>
+      </c>
+      <c r="N238" t="n">
+        <v>4</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['85', '90+3']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['87', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>1</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2</v>
+      </c>
+      <c r="S238" t="n">
+        <v>3</v>
+      </c>
+      <c r="T238" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V238" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X238" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2710171</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F239" t="n">
+        <v>27</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>2</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>3</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['28', '79']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>8</v>
+      </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
+      <c r="S239" t="n">
+        <v>8</v>
+      </c>
+      <c r="T239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V239" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X239" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2710172</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F240" t="n">
+        <v>27</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>2</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>2</v>
+      </c>
+      <c r="L240" t="n">
+        <v>3</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="n">
+        <v>4</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['10', '34', '90+5']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>2</v>
+      </c>
+      <c r="R240" t="n">
+        <v>5</v>
+      </c>
+      <c r="S240" t="n">
+        <v>7</v>
+      </c>
+      <c r="T240" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V240" t="n">
+        <v>4</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2710179</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45024.5625</v>
+      </c>
+      <c r="F241" t="n">
+        <v>27</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Hertha BSC</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>4</v>
+      </c>
+      <c r="R241" t="n">
+        <v>4</v>
+      </c>
+      <c r="S241" t="n">
+        <v>8</v>
+      </c>
+      <c r="T241" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V241" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X241" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT4" t="n">
         <v>0.85</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT6" t="n">
         <v>1.54</v>
@@ -2527,7 +2527,7 @@
         <v>1.46</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.14</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -4354,7 +4354,7 @@
         <v>2.38</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT20" t="n">
         <v>0.38</v>
@@ -5572,7 +5572,7 @@
         <v>1.38</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT28" t="n">
         <v>1.93</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT32" t="n">
         <v>0.85</v>
@@ -7196,7 +7196,7 @@
         <v>2.23</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.76</v>
@@ -7805,7 +7805,7 @@
         <v>1.46</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU36" t="n">
         <v>2.88</v>
@@ -8414,7 +8414,7 @@
         <v>1.15</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU39" t="n">
         <v>1.5</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT40" t="n">
         <v>1.23</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT46" t="n">
         <v>1.54</v>
@@ -10241,7 +10241,7 @@
         <v>2.38</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU48" t="n">
         <v>3.67</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT50" t="n">
         <v>1.54</v>
@@ -10850,7 +10850,7 @@
         <v>1.85</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.6</v>
@@ -12068,7 +12068,7 @@
         <v>2.62</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU57" t="n">
         <v>1.51</v>
@@ -12877,7 +12877,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT61" t="n">
         <v>1.36</v>
@@ -13083,7 +13083,7 @@
         <v>2.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU62" t="n">
         <v>1</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT63" t="n">
         <v>0.86</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT64" t="n">
         <v>1.46</v>
@@ -13895,7 +13895,7 @@
         <v>1.38</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU66" t="n">
         <v>1.71</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT74" t="n">
         <v>1.23</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT75" t="n">
         <v>1.21</v>
@@ -15925,7 +15925,7 @@
         <v>1.29</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.18</v>
@@ -16331,7 +16331,7 @@
         <v>1.64</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU78" t="n">
         <v>2.08</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT80" t="n">
         <v>0.86</v>
@@ -19376,7 +19376,7 @@
         <v>1.64</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU93" t="n">
         <v>2.02</v>
@@ -19779,7 +19779,7 @@
         <v>1.6</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT95" t="n">
         <v>1.93</v>
@@ -20188,7 +20188,7 @@
         <v>2.62</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU97" t="n">
         <v>1.65</v>
@@ -20388,7 +20388,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT98" t="n">
         <v>1.21</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT99" t="n">
         <v>1.43</v>
@@ -20797,7 +20797,7 @@
         <v>1.21</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU100" t="n">
         <v>1.53</v>
@@ -22824,10 +22824,10 @@
         <v>0.6</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU110" t="n">
         <v>1.58</v>
@@ -23433,7 +23433,7 @@
         <v>0.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT113" t="n">
         <v>1.36</v>
@@ -23842,7 +23842,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU115" t="n">
         <v>1.61</v>
@@ -24045,7 +24045,7 @@
         <v>1.14</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU116" t="n">
         <v>1.56</v>
@@ -25057,7 +25057,7 @@
         <v>0.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT121" t="n">
         <v>0.62</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT128" t="n">
         <v>1.57</v>
@@ -26884,10 +26884,10 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU130" t="n">
         <v>1.81</v>
@@ -27293,7 +27293,7 @@
         <v>1.64</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU132" t="n">
         <v>1.9</v>
@@ -28714,7 +28714,7 @@
         <v>1.85</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU139" t="n">
         <v>1.74</v>
@@ -29117,7 +29117,7 @@
         <v>0.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT141" t="n">
         <v>0.38</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT145" t="n">
         <v>1.54</v>
@@ -30338,7 +30338,7 @@
         <v>1.21</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.5</v>
@@ -30538,10 +30538,10 @@
         <v>0.43</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU148" t="n">
         <v>1.92</v>
@@ -31962,7 +31962,7 @@
         <v>2.23</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU155" t="n">
         <v>1.75</v>
@@ -32568,7 +32568,7 @@
         <v>0.5</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT158" t="n">
         <v>0.62</v>
@@ -32977,7 +32977,7 @@
         <v>1.14</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU160" t="n">
         <v>1.49</v>
@@ -34395,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT167" t="n">
         <v>0.85</v>
@@ -35004,10 +35004,10 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU170" t="n">
         <v>1.66</v>
@@ -35616,7 +35616,7 @@
         <v>0.93</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU173" t="n">
         <v>1.53</v>
@@ -36022,7 +36022,7 @@
         <v>2</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU175" t="n">
         <v>2.01</v>
@@ -36425,7 +36425,7 @@
         <v>1.11</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT177" t="n">
         <v>1.54</v>
@@ -37643,7 +37643,7 @@
         <v>1.4</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT183" t="n">
         <v>1.46</v>
@@ -38252,7 +38252,7 @@
         <v>2.1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT186" t="n">
         <v>1.93</v>
@@ -38661,7 +38661,7 @@
         <v>2.38</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU188" t="n">
         <v>1.61</v>
@@ -40082,7 +40082,7 @@
         <v>1.46</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU195" t="n">
         <v>1.75</v>
@@ -40282,7 +40282,7 @@
         <v>1.64</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT196" t="n">
         <v>1.57</v>
@@ -40488,7 +40488,7 @@
         <v>0.93</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU197" t="n">
         <v>1.59</v>
@@ -41906,7 +41906,7 @@
         <v>1.55</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT204" t="n">
         <v>1.46</v>
@@ -42109,10 +42109,10 @@
         <v>0.4</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU205" t="n">
         <v>1.71</v>
@@ -43736,7 +43736,7 @@
         <v>1.85</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU213" t="n">
         <v>1.67</v>
@@ -44748,7 +44748,7 @@
         <v>1.27</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT218" t="n">
         <v>1.23</v>
@@ -44951,7 +44951,7 @@
         <v>0.36</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT219" t="n">
         <v>0.38</v>
@@ -45154,7 +45154,7 @@
         <v>1.33</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT220" t="n">
         <v>1.36</v>
@@ -45360,7 +45360,7 @@
         <v>1.29</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU221" t="n">
         <v>1.4</v>
@@ -45563,7 +45563,7 @@
         <v>1.15</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU222" t="n">
         <v>1.71</v>
@@ -47187,7 +47187,7 @@
         <v>2.38</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU230" t="n">
         <v>1.55</v>
@@ -49472,6 +49472,615 @@
       </c>
       <c r="BK241" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2710176</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45025.4375</v>
+      </c>
+      <c r="F242" t="n">
+        <v>27</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>2</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>2</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['34', '63']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>5</v>
+      </c>
+      <c r="R242" t="n">
+        <v>8</v>
+      </c>
+      <c r="S242" t="n">
+        <v>13</v>
+      </c>
+      <c r="T242" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V242" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X242" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2710177</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45025.52083333334</v>
+      </c>
+      <c r="F243" t="n">
+        <v>27</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="n">
+        <v>2</v>
+      </c>
+      <c r="M243" t="n">
+        <v>3</v>
+      </c>
+      <c r="N243" t="n">
+        <v>5</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['58', '85']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['14', '60', '63']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>7</v>
+      </c>
+      <c r="R243" t="n">
+        <v>4</v>
+      </c>
+      <c r="S243" t="n">
+        <v>11</v>
+      </c>
+      <c r="T243" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V243" t="n">
+        <v>3</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2710175</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45025.60416666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>27</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>2</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['22', '70']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>9</v>
+      </c>
+      <c r="R244" t="n">
+        <v>8</v>
+      </c>
+      <c r="S244" t="n">
+        <v>17</v>
+      </c>
+      <c r="T244" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V244" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X244" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK244"/>
+  <dimension ref="A1:BK245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.38</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT17" t="n">
         <v>0.62</v>
@@ -4557,7 +4557,7 @@
         <v>1.93</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU20" t="n">
         <v>1.02</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT30" t="n">
         <v>1.43</v>
@@ -9632,7 +9632,7 @@
         <v>1.29</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU45" t="n">
         <v>1.02</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT53" t="n">
         <v>0.5</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU56" t="n">
         <v>1.61</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT73" t="n">
         <v>0.85</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT83" t="n">
         <v>0.85</v>
@@ -18361,7 +18361,7 @@
         <v>2.23</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU88" t="n">
         <v>1.96</v>
@@ -21000,7 +21000,7 @@
         <v>1.14</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU101" t="n">
         <v>1.52</v>
@@ -22418,7 +22418,7 @@
         <v>1.83</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT108" t="n">
         <v>1.46</v>
@@ -25263,7 +25263,7 @@
         <v>1.15</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU122" t="n">
         <v>1.66</v>
@@ -26275,7 +26275,7 @@
         <v>1.71</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT127" t="n">
         <v>1.54</v>
@@ -27696,7 +27696,7 @@
         <v>2</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT134" t="n">
         <v>1.93</v>
@@ -29120,7 +29120,7 @@
         <v>1.46</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU141" t="n">
         <v>1.66</v>
@@ -30132,7 +30132,7 @@
         <v>1.13</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT146" t="n">
         <v>1.36</v>
@@ -33380,7 +33380,7 @@
         <v>0.78</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT162" t="n">
         <v>0.86</v>
@@ -34601,7 +34601,7 @@
         <v>1.85</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU168" t="n">
         <v>1.71</v>
@@ -35613,7 +35613,7 @@
         <v>1.4</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT173" t="n">
         <v>1.5</v>
@@ -38864,7 +38864,7 @@
         <v>2.62</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU189" t="n">
         <v>1.91</v>
@@ -40485,7 +40485,7 @@
         <v>0.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT197" t="n">
         <v>0.57</v>
@@ -42518,7 +42518,7 @@
         <v>1.64</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU207" t="n">
         <v>1.86</v>
@@ -43936,7 +43936,7 @@
         <v>1.75</v>
       </c>
       <c r="AS214" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT214" t="n">
         <v>1.57</v>
@@ -44954,7 +44954,7 @@
         <v>1.21</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU219" t="n">
         <v>1.86</v>
@@ -46981,7 +46981,7 @@
         <v>1.42</v>
       </c>
       <c r="AS229" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT229" t="n">
         <v>1.54</v>
@@ -47593,7 +47593,7 @@
         <v>2</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU232" t="n">
         <v>1.86</v>
@@ -50081,6 +50081,209 @@
       </c>
       <c r="BK244" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2710187</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45030.64583333334</v>
+      </c>
+      <c r="F245" t="n">
+        <v>28</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Hertha BSC</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>2</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="n">
+        <v>3</v>
+      </c>
+      <c r="L245" t="n">
+        <v>5</v>
+      </c>
+      <c r="M245" t="n">
+        <v>2</v>
+      </c>
+      <c r="N245" t="n">
+        <v>7</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['3', '13', '48', '78', '90+2']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['45+3', '84']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>7</v>
+      </c>
+      <c r="R245" t="n">
+        <v>8</v>
+      </c>
+      <c r="S245" t="n">
+        <v>15</v>
+      </c>
+      <c r="T245" t="n">
+        <v>3</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V245" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK245"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT2" t="n">
         <v>1.93</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT3" t="n">
         <v>0.36</v>
@@ -1309,7 +1309,7 @@
         <v>1.93</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT5" t="n">
         <v>1.23</v>
@@ -1715,7 +1715,7 @@
         <v>1.46</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.29</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.62</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT9" t="n">
         <v>1.36</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT10" t="n">
         <v>0.62</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT12" t="n">
         <v>0.57</v>
@@ -3339,7 +3339,7 @@
         <v>1.64</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT15" t="n">
         <v>0.86</v>
@@ -3745,7 +3745,7 @@
         <v>1.21</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.07</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT19" t="n">
         <v>1.5</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU21" t="n">
         <v>0.71</v>
@@ -4963,7 +4963,7 @@
         <v>1.29</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5369,7 +5369,7 @@
         <v>1.64</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT25" t="n">
         <v>0.62</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT26" t="n">
         <v>1.36</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT27" t="n">
         <v>0.86</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6790,7 +6790,7 @@
         <v>1.21</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU31" t="n">
         <v>1.46</v>
@@ -6993,7 +6993,7 @@
         <v>1.21</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU32" t="n">
         <v>2.63</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT33" t="n">
         <v>1.5</v>
@@ -7399,7 +7399,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.43</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU35" t="n">
         <v>2.88</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT36" t="n">
         <v>0.57</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT37" t="n">
         <v>1.21</v>
@@ -8211,7 +8211,7 @@
         <v>2.62</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU38" t="n">
         <v>1.43</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT39" t="n">
         <v>0.62</v>
@@ -8820,7 +8820,7 @@
         <v>1.64</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU41" t="n">
         <v>2.1</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT42" t="n">
         <v>1.93</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT43" t="n">
         <v>0.86</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT44" t="n">
         <v>1.36</v>
@@ -9835,7 +9835,7 @@
         <v>1.93</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU46" t="n">
         <v>1.38</v>
@@ -10035,10 +10035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU47" t="n">
         <v>1.19</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT48" t="n">
         <v>0.57</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU49" t="n">
         <v>1.91</v>
@@ -10647,7 +10647,7 @@
         <v>1.21</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>2.42</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT51" t="n">
         <v>1.5</v>
@@ -11053,7 +11053,7 @@
         <v>1.21</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -11256,7 +11256,7 @@
         <v>1.07</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU53" t="n">
         <v>1.65</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT54" t="n">
         <v>1.43</v>
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU55" t="n">
         <v>2.37</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT58" t="n">
         <v>1.21</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT62" t="n">
         <v>1.5</v>
@@ -13489,7 +13489,7 @@
         <v>1.21</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU64" t="n">
         <v>2.33</v>
@@ -13689,10 +13689,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU65" t="n">
         <v>3.09</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT66" t="n">
         <v>0.57</v>
@@ -14095,7 +14095,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT67" t="n">
         <v>1.43</v>
@@ -14301,7 +14301,7 @@
         <v>2</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>2.23</v>
@@ -14501,10 +14501,10 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU69" t="n">
         <v>1.85</v>
@@ -14704,10 +14704,10 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU70" t="n">
         <v>1.76</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU71" t="n">
         <v>1.39</v>
@@ -15113,7 +15113,7 @@
         <v>1.21</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU72" t="n">
         <v>1.51</v>
@@ -15316,7 +15316,7 @@
         <v>1.07</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU73" t="n">
         <v>1.78</v>
@@ -16940,7 +16940,7 @@
         <v>1.21</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU81" t="n">
         <v>1.55</v>
@@ -17140,7 +17140,7 @@
         <v>1.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT82" t="n">
         <v>1.43</v>
@@ -17346,7 +17346,7 @@
         <v>1.07</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU83" t="n">
         <v>1.86</v>
@@ -17546,10 +17546,10 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU84" t="n">
         <v>1.47</v>
@@ -17749,10 +17749,10 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU85" t="n">
         <v>1.79</v>
@@ -17952,10 +17952,10 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU86" t="n">
         <v>1.38</v>
@@ -18155,10 +18155,10 @@
         <v>1.8</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT88" t="n">
         <v>0.36</v>
@@ -18561,10 +18561,10 @@
         <v>2.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU89" t="n">
         <v>1.93</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU90" t="n">
         <v>1.19</v>
@@ -18967,10 +18967,10 @@
         <v>2.2</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU91" t="n">
         <v>3</v>
@@ -20997,7 +20997,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT101" t="n">
         <v>0.36</v>
@@ -21200,10 +21200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU102" t="n">
         <v>1.49</v>
@@ -21403,10 +21403,10 @@
         <v>0</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU103" t="n">
         <v>1.78</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU104" t="n">
         <v>1.95</v>
@@ -21809,10 +21809,10 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU105" t="n">
         <v>2.81</v>
@@ -22012,10 +22012,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU106" t="n">
         <v>1.63</v>
@@ -22215,10 +22215,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -22421,7 +22421,7 @@
         <v>1.07</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -22621,10 +22621,10 @@
         <v>1.4</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU109" t="n">
         <v>1.95</v>
@@ -23639,7 +23639,7 @@
         <v>2.62</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -24042,7 +24042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT116" t="n">
         <v>0.62</v>
@@ -24651,10 +24651,10 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU119" t="n">
         <v>1.85</v>
@@ -24854,7 +24854,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT120" t="n">
         <v>1.23</v>
@@ -25060,7 +25060,7 @@
         <v>1.46</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU121" t="n">
         <v>1.64</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT122" t="n">
         <v>0.36</v>
@@ -25463,10 +25463,10 @@
         <v>0.67</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU123" t="n">
         <v>1.86</v>
@@ -25666,10 +25666,10 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU124" t="n">
         <v>1.83</v>
@@ -25869,10 +25869,10 @@
         <v>1.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU125" t="n">
         <v>1.44</v>
@@ -26072,10 +26072,10 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU126" t="n">
         <v>1.72</v>
@@ -26278,7 +26278,7 @@
         <v>1.07</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.74</v>
@@ -26481,7 +26481,7 @@
         <v>1.93</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU128" t="n">
         <v>1.58</v>
@@ -26681,7 +26681,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT129" t="n">
         <v>1.36</v>
@@ -27090,7 +27090,7 @@
         <v>1.29</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU131" t="n">
         <v>1.31</v>
@@ -28305,7 +28305,7 @@
         <v>2.13</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT137" t="n">
         <v>1.93</v>
@@ -28508,10 +28508,10 @@
         <v>1.14</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU138" t="n">
         <v>1.56</v>
@@ -28711,7 +28711,7 @@
         <v>0.29</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT139" t="n">
         <v>0.62</v>
@@ -28914,10 +28914,10 @@
         <v>1.75</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU140" t="n">
         <v>1.87</v>
@@ -29320,10 +29320,10 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU142" t="n">
         <v>1.72</v>
@@ -29523,7 +29523,7 @@
         <v>1.57</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT143" t="n">
         <v>1.23</v>
@@ -29729,7 +29729,7 @@
         <v>2.62</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU144" t="n">
         <v>1.63</v>
@@ -29932,7 +29932,7 @@
         <v>1.93</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU145" t="n">
         <v>1.6</v>
@@ -30741,7 +30741,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT149" t="n">
         <v>0.86</v>
@@ -30947,7 +30947,7 @@
         <v>1.5</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU150" t="n">
         <v>1.66</v>
@@ -31147,7 +31147,7 @@
         <v>1.25</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT151" t="n">
         <v>1.43</v>
@@ -31556,7 +31556,7 @@
         <v>1.29</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU153" t="n">
         <v>1.38</v>
@@ -31759,7 +31759,7 @@
         <v>1.64</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU154" t="n">
         <v>1.85</v>
@@ -31959,7 +31959,7 @@
         <v>0.5</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT155" t="n">
         <v>0.57</v>
@@ -32165,7 +32165,7 @@
         <v>2</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU156" t="n">
         <v>2</v>
@@ -32368,7 +32368,7 @@
         <v>1.5</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU157" t="n">
         <v>1.64</v>
@@ -32571,7 +32571,7 @@
         <v>1.21</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU158" t="n">
         <v>1.91</v>
@@ -32974,7 +32974,7 @@
         <v>1.56</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT160" t="n">
         <v>1.5</v>
@@ -33177,7 +33177,7 @@
         <v>1.88</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT161" t="n">
         <v>1.21</v>
@@ -33586,7 +33586,7 @@
         <v>1.64</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU163" t="n">
         <v>1.83</v>
@@ -33789,7 +33789,7 @@
         <v>1.29</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU164" t="n">
         <v>1.43</v>
@@ -33989,10 +33989,10 @@
         <v>1.44</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU165" t="n">
         <v>1.63</v>
@@ -34192,7 +34192,7 @@
         <v>1.33</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT166" t="n">
         <v>1.36</v>
@@ -34398,7 +34398,7 @@
         <v>1.46</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU167" t="n">
         <v>1.62</v>
@@ -34598,7 +34598,7 @@
         <v>0.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT168" t="n">
         <v>0.36</v>
@@ -34804,7 +34804,7 @@
         <v>2.62</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU169" t="n">
         <v>1.8</v>
@@ -35207,7 +35207,7 @@
         <v>1.38</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT171" t="n">
         <v>1.23</v>
@@ -35410,7 +35410,7 @@
         <v>2</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT172" t="n">
         <v>1.93</v>
@@ -35816,10 +35816,10 @@
         <v>0.3</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU174" t="n">
         <v>2.68</v>
@@ -36225,7 +36225,7 @@
         <v>1.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU176" t="n">
         <v>1.65</v>
@@ -36428,7 +36428,7 @@
         <v>1.21</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU177" t="n">
         <v>1.9</v>
@@ -36628,10 +36628,10 @@
         <v>1.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU178" t="n">
         <v>1.51</v>
@@ -36831,7 +36831,7 @@
         <v>1.6</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT179" t="n">
         <v>1.43</v>
@@ -37037,7 +37037,7 @@
         <v>1.21</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU180" t="n">
         <v>1.43</v>
@@ -37237,7 +37237,7 @@
         <v>1.78</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT181" t="n">
         <v>1.21</v>
@@ -37443,7 +37443,7 @@
         <v>1.29</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU182" t="n">
         <v>1.42</v>
@@ -37646,7 +37646,7 @@
         <v>1.46</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU183" t="n">
         <v>1.73</v>
@@ -37846,7 +37846,7 @@
         <v>1.3</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT184" t="n">
         <v>1.36</v>
@@ -38049,7 +38049,7 @@
         <v>0.8</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT185" t="n">
         <v>0.86</v>
@@ -38455,7 +38455,7 @@
         <v>1.56</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT187" t="n">
         <v>1.23</v>
@@ -38658,7 +38658,7 @@
         <v>0.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT188" t="n">
         <v>0.62</v>
@@ -39067,7 +39067,7 @@
         <v>1.64</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU190" t="n">
         <v>1.87</v>
@@ -39270,7 +39270,7 @@
         <v>1.5</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU191" t="n">
         <v>1.68</v>
@@ -39470,10 +39470,10 @@
         <v>0.27</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU192" t="n">
         <v>1.49</v>
@@ -39676,7 +39676,7 @@
         <v>1.21</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU193" t="n">
         <v>1.48</v>
@@ -39876,7 +39876,7 @@
         <v>1.6</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT194" t="n">
         <v>1.21</v>
@@ -40079,7 +40079,7 @@
         <v>1.36</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT195" t="n">
         <v>1.5</v>
@@ -40285,7 +40285,7 @@
         <v>1.21</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU196" t="n">
         <v>1.86</v>
@@ -40691,7 +40691,7 @@
         <v>2</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU198" t="n">
         <v>1.98</v>
@@ -40891,7 +40891,7 @@
         <v>1.73</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT199" t="n">
         <v>1.43</v>
@@ -41500,7 +41500,7 @@
         <v>0.73</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT202" t="n">
         <v>0.86</v>
@@ -41706,7 +41706,7 @@
         <v>1.5</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU203" t="n">
         <v>1.7</v>
@@ -41909,7 +41909,7 @@
         <v>1.93</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU204" t="n">
         <v>1.67</v>
@@ -42312,7 +42312,7 @@
         <v>1.91</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT206" t="n">
         <v>1.93</v>
@@ -42718,7 +42718,7 @@
         <v>1.45</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT208" t="n">
         <v>1.21</v>
@@ -42921,10 +42921,10 @@
         <v>0.25</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU209" t="n">
         <v>1.76</v>
@@ -43127,7 +43127,7 @@
         <v>1.21</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU210" t="n">
         <v>1.47</v>
@@ -43327,10 +43327,10 @@
         <v>0.91</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU211" t="n">
         <v>2.69</v>
@@ -43530,10 +43530,10 @@
         <v>0.64</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU212" t="n">
         <v>1.64</v>
@@ -43733,7 +43733,7 @@
         <v>0.36</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT213" t="n">
         <v>0.57</v>
@@ -43939,7 +43939,7 @@
         <v>1.07</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU214" t="n">
         <v>1.59</v>
@@ -44142,7 +44142,7 @@
         <v>2</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU215" t="n">
         <v>1.91</v>
@@ -44342,10 +44342,10 @@
         <v>1.27</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU216" t="n">
         <v>1.49</v>
@@ -44545,7 +44545,7 @@
         <v>1.58</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT217" t="n">
         <v>1.43</v>
@@ -45560,7 +45560,7 @@
         <v>1.5</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT222" t="n">
         <v>1.5</v>
@@ -45966,7 +45966,7 @@
         <v>1.42</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT224" t="n">
         <v>1.21</v>
@@ -46375,7 +46375,7 @@
         <v>1.5</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU226" t="n">
         <v>1.71</v>
@@ -46575,10 +46575,10 @@
         <v>0.46</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU227" t="n">
         <v>1.62</v>
@@ -46778,10 +46778,10 @@
         <v>0.83</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU228" t="n">
         <v>1.75</v>
@@ -46984,7 +46984,7 @@
         <v>1.07</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU229" t="n">
         <v>1.57</v>
@@ -47184,7 +47184,7 @@
         <v>0.42</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT230" t="n">
         <v>0.57</v>
@@ -47387,10 +47387,10 @@
         <v>1.42</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU231" t="n">
         <v>1.67</v>
@@ -47793,10 +47793,10 @@
         <v>1.69</v>
       </c>
       <c r="AS233" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU233" t="n">
         <v>2.65</v>
@@ -47996,10 +47996,10 @@
         <v>0.58</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU234" t="n">
         <v>1.75</v>
@@ -48199,10 +48199,10 @@
         <v>0.67</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU235" t="n">
         <v>1.48</v>
@@ -50268,22 +50268,1646 @@
         <v>2.9</v>
       </c>
       <c r="BF245" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH245" t="n">
         <v>4</v>
-      </c>
-      <c r="BH245" t="n">
-        <v>6</v>
       </c>
       <c r="BI245" t="n">
         <v>3</v>
       </c>
       <c r="BJ245" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK245" t="n">
         <v>9</v>
       </c>
-      <c r="BK245" t="n">
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2710186</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45031.4375</v>
+      </c>
+      <c r="F246" t="n">
+        <v>28</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>2</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2</v>
+      </c>
+      <c r="L246" t="n">
+        <v>3</v>
+      </c>
+      <c r="M246" t="n">
+        <v>3</v>
+      </c>
+      <c r="N246" t="n">
+        <v>6</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['77', '84', '90+7']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['26', '33', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>5</v>
+      </c>
+      <c r="R246" t="n">
         <v>7</v>
+      </c>
+      <c r="S246" t="n">
+        <v>12</v>
+      </c>
+      <c r="T246" t="n">
+        <v>4</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V246" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X246" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2710183</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45031.4375</v>
+      </c>
+      <c r="F247" t="n">
+        <v>28</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="n">
+        <v>2</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>3</v>
+      </c>
+      <c r="R247" t="n">
+        <v>3</v>
+      </c>
+      <c r="S247" t="n">
+        <v>6</v>
+      </c>
+      <c r="T247" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V247" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X247" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2710181</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45031.4375</v>
+      </c>
+      <c r="F248" t="n">
+        <v>28</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>3</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>4</v>
+      </c>
+      <c r="L248" t="n">
+        <v>3</v>
+      </c>
+      <c r="M248" t="n">
+        <v>2</v>
+      </c>
+      <c r="N248" t="n">
+        <v>5</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['10', '32', '35']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['5', '82']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>3</v>
+      </c>
+      <c r="R248" t="n">
+        <v>5</v>
+      </c>
+      <c r="S248" t="n">
+        <v>8</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V248" t="n">
+        <v>8</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X248" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2710180</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45031.4375</v>
+      </c>
+      <c r="F249" t="n">
+        <v>28</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="n">
+        <v>2</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>13</v>
+      </c>
+      <c r="R249" t="n">
+        <v>4</v>
+      </c>
+      <c r="S249" t="n">
+        <v>17</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U249" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V249" t="n">
+        <v>9</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X249" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2710184</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45031.5625</v>
+      </c>
+      <c r="F250" t="n">
+        <v>28</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>10</v>
+      </c>
+      <c r="R250" t="n">
+        <v>2</v>
+      </c>
+      <c r="S250" t="n">
+        <v>12</v>
+      </c>
+      <c r="T250" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V250" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X250" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2710188</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45032.4375</v>
+      </c>
+      <c r="F251" t="n">
+        <v>28</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>2</v>
+      </c>
+      <c r="N251" t="n">
+        <v>3</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['66', '71']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>5</v>
+      </c>
+      <c r="R251" t="n">
+        <v>2</v>
+      </c>
+      <c r="S251" t="n">
+        <v>7</v>
+      </c>
+      <c r="T251" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X251" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2710182</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45032.52083333334</v>
+      </c>
+      <c r="F252" t="n">
+        <v>28</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>5</v>
+      </c>
+      <c r="R252" t="n">
+        <v>7</v>
+      </c>
+      <c r="S252" t="n">
+        <v>12</v>
+      </c>
+      <c r="T252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V252" t="n">
+        <v>6</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2710185</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Germany Bundesliga</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45032.60416666666</v>
+      </c>
+      <c r="F253" t="n">
+        <v>28</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>2</v>
+      </c>
+      <c r="R253" t="n">
+        <v>5</v>
+      </c>
+      <c r="S253" t="n">
+        <v>7</v>
+      </c>
+      <c r="T253" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V253" t="n">
+        <v>3</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X253" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
